--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylwa\source\repos\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D95290D-48E5-48B6-96DD-DA993E4FF3AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F316DE15-4202-419D-9870-04FFAF317DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="718">
   <si>
     <t>User_ID</t>
   </si>
@@ -2556,8 +2556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2604,7 +2604,7 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="4"/>
+      <c r="I1" s="11"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -2670,6 +2670,9 @@
       <c r="H2" t="s">
         <v>7</v>
       </c>
+      <c r="I2" t="s">
+        <v>574</v>
+      </c>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -2729,10 +2732,13 @@
       <c r="F3" t="s">
         <v>194</v>
       </c>
-      <c r="G3" t="b">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="b">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
       <c r="K3" s="5"/>
@@ -2795,11 +2801,14 @@
       <c r="F4" t="s">
         <v>669</v>
       </c>
-      <c r="G4" t="b">
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
+      <c r="H4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
@@ -2861,10 +2870,13 @@
       <c r="F5" t="s">
         <v>670</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" t="b">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="K5" s="5"/>
@@ -2927,10 +2939,13 @@
       <c r="F6" t="s">
         <v>671</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="b">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
       <c r="K6" s="5"/>
@@ -2993,10 +3008,13 @@
       <c r="F7" t="s">
         <v>672</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7" t="b">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
       <c r="K7" s="5"/>
@@ -3059,11 +3077,14 @@
       <c r="F8" t="s">
         <v>673</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8" t="b">
+      <c r="H8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
@@ -3125,10 +3146,13 @@
       <c r="F9" t="s">
         <v>674</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9" t="b">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
       <c r="K9" s="5"/>
@@ -3191,10 +3215,13 @@
       <c r="F10" t="s">
         <v>675</v>
       </c>
-      <c r="G10" t="b">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10" t="b">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>0</v>
       </c>
       <c r="K10" s="5"/>
@@ -3257,10 +3284,13 @@
       <c r="F11" t="s">
         <v>676</v>
       </c>
-      <c r="G11" t="b">
+      <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11" t="b">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>0</v>
       </c>
       <c r="K11" s="5"/>
@@ -3323,10 +3353,13 @@
       <c r="F12" t="s">
         <v>677</v>
       </c>
-      <c r="G12" t="b">
+      <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12" t="b">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
       <c r="K12" s="5"/>
@@ -3389,10 +3422,13 @@
       <c r="F13" t="s">
         <v>678</v>
       </c>
-      <c r="G13" t="b">
+      <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13" t="b">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
       <c r="K13" s="5"/>
@@ -3455,11 +3491,14 @@
       <c r="F14" t="s">
         <v>679</v>
       </c>
-      <c r="G14" t="b">
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14" t="b">
+      <c r="H14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="6"/>
@@ -3521,10 +3560,13 @@
       <c r="F15" t="s">
         <v>680</v>
       </c>
-      <c r="G15" t="b">
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15" t="b">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
       <c r="K15" s="5"/>
@@ -3587,11 +3629,14 @@
       <c r="F16" t="s">
         <v>681</v>
       </c>
-      <c r="G16" t="b">
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16" t="b">
+      <c r="H16">
         <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="6"/>
@@ -3653,10 +3698,13 @@
       <c r="F17" t="s">
         <v>682</v>
       </c>
-      <c r="G17" t="b">
+      <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17" t="b">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="K17" s="5"/>
@@ -3719,10 +3767,13 @@
       <c r="F18" t="s">
         <v>683</v>
       </c>
-      <c r="G18" t="b">
+      <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18" t="b">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
       <c r="K18" s="5"/>
@@ -3785,10 +3836,13 @@
       <c r="F19" t="s">
         <v>684</v>
       </c>
-      <c r="G19" t="b">
+      <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19" t="b">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
       <c r="K19" s="5"/>
@@ -3851,10 +3905,13 @@
       <c r="F20" t="s">
         <v>685</v>
       </c>
-      <c r="G20" t="b">
+      <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" t="b">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>0</v>
       </c>
       <c r="K20" s="5"/>
@@ -3917,10 +3974,13 @@
       <c r="F21" t="s">
         <v>686</v>
       </c>
-      <c r="G21" t="b">
+      <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21" t="b">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>0</v>
       </c>
       <c r="K21" s="5"/>
@@ -3983,10 +4043,13 @@
       <c r="F22" t="s">
         <v>687</v>
       </c>
-      <c r="G22" t="b">
+      <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22" t="b">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>0</v>
       </c>
       <c r="K22" s="5"/>
@@ -4049,11 +4112,14 @@
       <c r="F23" t="s">
         <v>688</v>
       </c>
-      <c r="G23" t="b">
+      <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23" t="b">
+      <c r="H23">
         <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="6"/>
@@ -4115,11 +4181,14 @@
       <c r="F24" t="s">
         <v>689</v>
       </c>
-      <c r="G24" t="b">
+      <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="b">
+      <c r="H24">
         <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="6"/>
@@ -4181,11 +4250,14 @@
       <c r="F25" t="s">
         <v>690</v>
       </c>
-      <c r="G25" t="b">
+      <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25" t="b">
+      <c r="H25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="6"/>
@@ -4247,11 +4319,14 @@
       <c r="F26" t="s">
         <v>691</v>
       </c>
-      <c r="G26" t="b">
+      <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26" t="b">
+      <c r="H26">
         <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="6"/>
@@ -4313,11 +4388,14 @@
       <c r="F27" t="s">
         <v>692</v>
       </c>
-      <c r="G27" t="b">
+      <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27" t="b">
+      <c r="H27">
         <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="6"/>
@@ -4379,10 +4457,13 @@
       <c r="F28" t="s">
         <v>693</v>
       </c>
-      <c r="G28" t="b">
+      <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28" t="b">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>0</v>
       </c>
       <c r="K28" s="5"/>
@@ -4445,10 +4526,13 @@
       <c r="F29" t="s">
         <v>694</v>
       </c>
-      <c r="G29" t="b">
+      <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29" t="b">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>0</v>
       </c>
       <c r="K29" s="5"/>
@@ -4511,10 +4595,13 @@
       <c r="F30" t="s">
         <v>695</v>
       </c>
-      <c r="G30" t="b">
+      <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30" t="b">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>0</v>
       </c>
       <c r="K30" s="5"/>
@@ -4577,10 +4664,13 @@
       <c r="F31" t="s">
         <v>696</v>
       </c>
-      <c r="G31" t="b">
+      <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31" t="b">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>0</v>
       </c>
       <c r="K31" s="5"/>
@@ -4643,10 +4733,13 @@
       <c r="F32" t="s">
         <v>697</v>
       </c>
-      <c r="G32" t="b">
+      <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32" t="b">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>0</v>
       </c>
       <c r="K32" s="5"/>
@@ -4709,11 +4802,14 @@
       <c r="F33" t="s">
         <v>698</v>
       </c>
-      <c r="G33" t="b">
+      <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33" t="b">
+      <c r="H33">
         <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="6"/>
@@ -4775,10 +4871,13 @@
       <c r="F34" t="s">
         <v>699</v>
       </c>
-      <c r="G34" t="b">
+      <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34" t="b">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>0</v>
       </c>
       <c r="K34" s="5"/>
@@ -4841,10 +4940,13 @@
       <c r="F35" t="s">
         <v>700</v>
       </c>
-      <c r="G35" t="b">
+      <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35" t="b">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>0</v>
       </c>
       <c r="K35" s="5"/>
@@ -4907,10 +5009,13 @@
       <c r="F36" t="s">
         <v>701</v>
       </c>
-      <c r="G36" t="b">
+      <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36" t="b">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>0</v>
       </c>
       <c r="K36" s="5"/>
@@ -4973,10 +5078,13 @@
       <c r="F37" t="s">
         <v>702</v>
       </c>
-      <c r="G37" t="b">
+      <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37" t="b">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>0</v>
       </c>
       <c r="K37" s="5"/>
@@ -5039,11 +5147,14 @@
       <c r="F38" t="s">
         <v>703</v>
       </c>
-      <c r="G38" t="b">
+      <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38" t="b">
+      <c r="H38">
         <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
       </c>
       <c r="K38" s="5"/>
       <c r="L38" s="6"/>
@@ -5105,10 +5216,13 @@
       <c r="F39" t="s">
         <v>704</v>
       </c>
-      <c r="G39" t="b">
+      <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39" t="b">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>0</v>
       </c>
       <c r="K39" s="5"/>
@@ -5171,10 +5285,13 @@
       <c r="F40" t="s">
         <v>705</v>
       </c>
-      <c r="G40" t="b">
+      <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40" t="b">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>0</v>
       </c>
       <c r="K40" s="5"/>
@@ -5237,11 +5354,14 @@
       <c r="F41" t="s">
         <v>706</v>
       </c>
-      <c r="G41" t="b">
+      <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41" t="b">
+      <c r="H41">
         <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="6"/>
@@ -5303,10 +5423,13 @@
       <c r="F42" t="s">
         <v>707</v>
       </c>
-      <c r="G42" t="b">
+      <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42" t="b">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>0</v>
       </c>
       <c r="K42" s="5"/>
@@ -5369,11 +5492,14 @@
       <c r="F43" t="s">
         <v>708</v>
       </c>
-      <c r="G43" t="b">
+      <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" t="b">
+      <c r="H43">
         <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="6"/>
@@ -5435,10 +5561,13 @@
       <c r="F44" t="s">
         <v>709</v>
       </c>
-      <c r="G44" t="b">
+      <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44" t="b">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>0</v>
       </c>
       <c r="K44" s="5"/>
@@ -5501,10 +5630,13 @@
       <c r="F45" t="s">
         <v>710</v>
       </c>
-      <c r="G45" t="b">
+      <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45" t="b">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>0</v>
       </c>
       <c r="K45" s="5"/>
@@ -5567,11 +5699,14 @@
       <c r="F46" t="s">
         <v>711</v>
       </c>
-      <c r="G46" t="b">
+      <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="b">
+      <c r="H46">
         <v>1</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="6"/>
@@ -5633,10 +5768,13 @@
       <c r="F47" t="s">
         <v>712</v>
       </c>
-      <c r="G47" t="b">
+      <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47" t="b">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>0</v>
       </c>
       <c r="K47" s="5"/>
@@ -5699,10 +5837,13 @@
       <c r="F48" t="s">
         <v>713</v>
       </c>
-      <c r="G48" t="b">
+      <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48" t="b">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>0</v>
       </c>
       <c r="K48" s="5"/>
@@ -5765,10 +5906,13 @@
       <c r="F49" t="s">
         <v>714</v>
       </c>
-      <c r="G49" t="b">
+      <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49" t="b">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>0</v>
       </c>
       <c r="K49" s="5"/>
@@ -5831,10 +5975,13 @@
       <c r="F50" t="s">
         <v>715</v>
       </c>
-      <c r="G50" t="b">
+      <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50" t="b">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>0</v>
       </c>
       <c r="K50" s="5"/>
@@ -5897,10 +6044,13 @@
       <c r="F51" t="s">
         <v>716</v>
       </c>
-      <c r="G51" t="b">
+      <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51" t="b">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>0</v>
       </c>
       <c r="K51" s="5"/>
@@ -5963,10 +6113,13 @@
       <c r="F52" t="s">
         <v>717</v>
       </c>
-      <c r="G52" t="b">
+      <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52" t="b">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>0</v>
       </c>
       <c r="K52" s="5"/>
@@ -10062,10 +10215,10 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:H1"/>
     <mergeCell ref="AN1:BC1"/>
     <mergeCell ref="A55:P55"/>
     <mergeCell ref="A159:L159"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10708,7 +10861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B78DEF-5A20-47DD-A1BF-E039EC331573}">
   <dimension ref="A1:X102"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
@@ -15818,7 +15971,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15853,7 +16006,7 @@
       <c r="B3" t="s">
         <v>636</v>
       </c>
-      <c r="C3" t="b">
+      <c r="C3">
         <v>1</v>
       </c>
     </row>
@@ -15864,7 +16017,7 @@
       <c r="B4" t="s">
         <v>637</v>
       </c>
-      <c r="C4" t="b">
+      <c r="C4">
         <v>0</v>
       </c>
     </row>
@@ -15875,7 +16028,7 @@
       <c r="B5" t="s">
         <v>638</v>
       </c>
-      <c r="C5" t="b">
+      <c r="C5">
         <v>1</v>
       </c>
     </row>
@@ -15886,7 +16039,7 @@
       <c r="B6" t="s">
         <v>636</v>
       </c>
-      <c r="C6" t="b">
+      <c r="C6">
         <v>0</v>
       </c>
     </row>
@@ -15897,7 +16050,7 @@
       <c r="B7" t="s">
         <v>637</v>
       </c>
-      <c r="C7" t="b">
+      <c r="C7">
         <v>1</v>
       </c>
     </row>
@@ -15908,7 +16061,7 @@
       <c r="B8" t="s">
         <v>638</v>
       </c>
-      <c r="C8" t="b">
+      <c r="C8">
         <v>1</v>
       </c>
     </row>
@@ -15919,7 +16072,7 @@
       <c r="B9" t="s">
         <v>636</v>
       </c>
-      <c r="C9" t="b">
+      <c r="C9">
         <v>0</v>
       </c>
     </row>
@@ -15930,7 +16083,7 @@
       <c r="B10" t="s">
         <v>637</v>
       </c>
-      <c r="C10" t="b">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
@@ -15941,7 +16094,7 @@
       <c r="B11" t="s">
         <v>638</v>
       </c>
-      <c r="C11" t="b">
+      <c r="C11">
         <v>1</v>
       </c>
     </row>
@@ -15952,7 +16105,7 @@
       <c r="B12" t="s">
         <v>636</v>
       </c>
-      <c r="C12" t="b">
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
@@ -15963,7 +16116,7 @@
       <c r="B13" t="s">
         <v>637</v>
       </c>
-      <c r="C13" t="b">
+      <c r="C13">
         <v>1</v>
       </c>
     </row>
@@ -15974,7 +16127,7 @@
       <c r="B14" t="s">
         <v>638</v>
       </c>
-      <c r="C14" t="b">
+      <c r="C14">
         <v>1</v>
       </c>
     </row>
@@ -15985,7 +16138,7 @@
       <c r="B15" t="s">
         <v>636</v>
       </c>
-      <c r="C15" t="b">
+      <c r="C15">
         <v>0</v>
       </c>
     </row>
@@ -15996,7 +16149,7 @@
       <c r="B16" t="s">
         <v>637</v>
       </c>
-      <c r="C16" t="b">
+      <c r="C16">
         <v>1</v>
       </c>
     </row>
@@ -16007,7 +16160,7 @@
       <c r="B17" t="s">
         <v>638</v>
       </c>
-      <c r="C17" t="b">
+      <c r="C17">
         <v>1</v>
       </c>
     </row>
@@ -16018,7 +16171,7 @@
       <c r="B18" t="s">
         <v>636</v>
       </c>
-      <c r="C18" t="b">
+      <c r="C18">
         <v>1</v>
       </c>
     </row>
@@ -16029,7 +16182,7 @@
       <c r="B19" t="s">
         <v>637</v>
       </c>
-      <c r="C19" t="b">
+      <c r="C19">
         <v>0</v>
       </c>
     </row>
@@ -16040,7 +16193,7 @@
       <c r="B20" t="s">
         <v>638</v>
       </c>
-      <c r="C20" t="b">
+      <c r="C20">
         <v>1</v>
       </c>
     </row>
@@ -16051,7 +16204,7 @@
       <c r="B21" t="s">
         <v>636</v>
       </c>
-      <c r="C21" t="b">
+      <c r="C21">
         <v>1</v>
       </c>
     </row>
@@ -16062,7 +16215,7 @@
       <c r="B22" t="s">
         <v>637</v>
       </c>
-      <c r="C22" t="b">
+      <c r="C22">
         <v>1</v>
       </c>
     </row>
@@ -16073,7 +16226,7 @@
       <c r="B23" t="s">
         <v>638</v>
       </c>
-      <c r="C23" t="b">
+      <c r="C23">
         <v>0</v>
       </c>
     </row>
@@ -16084,7 +16237,7 @@
       <c r="B24" t="s">
         <v>636</v>
       </c>
-      <c r="C24" t="b">
+      <c r="C24">
         <v>0</v>
       </c>
     </row>
@@ -16095,7 +16248,7 @@
       <c r="B25" t="s">
         <v>637</v>
       </c>
-      <c r="C25" t="b">
+      <c r="C25">
         <v>0</v>
       </c>
     </row>
@@ -16106,7 +16259,7 @@
       <c r="B26" t="s">
         <v>638</v>
       </c>
-      <c r="C26" t="b">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>
@@ -16117,7 +16270,7 @@
       <c r="B27" t="s">
         <v>636</v>
       </c>
-      <c r="C27" t="b">
+      <c r="C27">
         <v>0</v>
       </c>
     </row>
@@ -16128,7 +16281,7 @@
       <c r="B28" t="s">
         <v>637</v>
       </c>
-      <c r="C28" t="b">
+      <c r="C28">
         <v>1</v>
       </c>
     </row>
@@ -16139,7 +16292,7 @@
       <c r="B29" t="s">
         <v>638</v>
       </c>
-      <c r="C29" t="b">
+      <c r="C29">
         <v>0</v>
       </c>
     </row>
@@ -16150,7 +16303,7 @@
       <c r="B30" t="s">
         <v>636</v>
       </c>
-      <c r="C30" t="b">
+      <c r="C30">
         <v>1</v>
       </c>
     </row>
@@ -16161,7 +16314,7 @@
       <c r="B31" t="s">
         <v>637</v>
       </c>
-      <c r="C31" t="b">
+      <c r="C31">
         <v>1</v>
       </c>
     </row>
@@ -16172,7 +16325,7 @@
       <c r="B32" t="s">
         <v>638</v>
       </c>
-      <c r="C32" t="b">
+      <c r="C32">
         <v>1</v>
       </c>
     </row>
@@ -16183,7 +16336,7 @@
       <c r="B33" t="s">
         <v>636</v>
       </c>
-      <c r="C33" t="b">
+      <c r="C33">
         <v>0</v>
       </c>
     </row>
@@ -16194,7 +16347,7 @@
       <c r="B34" t="s">
         <v>637</v>
       </c>
-      <c r="C34" t="b">
+      <c r="C34">
         <v>0</v>
       </c>
     </row>
@@ -16205,7 +16358,7 @@
       <c r="B35" t="s">
         <v>638</v>
       </c>
-      <c r="C35" t="b">
+      <c r="C35">
         <v>0</v>
       </c>
     </row>
@@ -16216,7 +16369,7 @@
       <c r="B36" t="s">
         <v>636</v>
       </c>
-      <c r="C36" t="b">
+      <c r="C36">
         <v>1</v>
       </c>
     </row>
@@ -16227,7 +16380,7 @@
       <c r="B37" t="s">
         <v>637</v>
       </c>
-      <c r="C37" t="b">
+      <c r="C37">
         <v>1</v>
       </c>
     </row>
@@ -16238,7 +16391,7 @@
       <c r="B38" t="s">
         <v>638</v>
       </c>
-      <c r="C38" t="b">
+      <c r="C38">
         <v>0</v>
       </c>
     </row>
@@ -16249,7 +16402,7 @@
       <c r="B39" t="s">
         <v>636</v>
       </c>
-      <c r="C39" t="b">
+      <c r="C39">
         <v>1</v>
       </c>
     </row>
@@ -16260,7 +16413,7 @@
       <c r="B40" t="s">
         <v>637</v>
       </c>
-      <c r="C40" t="b">
+      <c r="C40">
         <v>0</v>
       </c>
     </row>
@@ -16271,7 +16424,7 @@
       <c r="B41" t="s">
         <v>638</v>
       </c>
-      <c r="C41" t="b">
+      <c r="C41">
         <v>0</v>
       </c>
     </row>
@@ -16282,7 +16435,7 @@
       <c r="B42" t="s">
         <v>636</v>
       </c>
-      <c r="C42" t="b">
+      <c r="C42">
         <v>0</v>
       </c>
     </row>
@@ -16293,7 +16446,7 @@
       <c r="B43" t="s">
         <v>637</v>
       </c>
-      <c r="C43" t="b">
+      <c r="C43">
         <v>1</v>
       </c>
     </row>
@@ -16304,7 +16457,7 @@
       <c r="B44" t="s">
         <v>638</v>
       </c>
-      <c r="C44" t="b">
+      <c r="C44">
         <v>1</v>
       </c>
     </row>
@@ -16315,7 +16468,7 @@
       <c r="B45" t="s">
         <v>636</v>
       </c>
-      <c r="C45" t="b">
+      <c r="C45">
         <v>1</v>
       </c>
     </row>
@@ -16326,7 +16479,7 @@
       <c r="B46" t="s">
         <v>637</v>
       </c>
-      <c r="C46" t="b">
+      <c r="C46">
         <v>1</v>
       </c>
     </row>
@@ -16337,7 +16490,7 @@
       <c r="B47" t="s">
         <v>638</v>
       </c>
-      <c r="C47" t="b">
+      <c r="C47">
         <v>1</v>
       </c>
     </row>
@@ -16348,7 +16501,7 @@
       <c r="B48" t="s">
         <v>636</v>
       </c>
-      <c r="C48" t="b">
+      <c r="C48">
         <v>1</v>
       </c>
     </row>
@@ -16359,7 +16512,7 @@
       <c r="B49" t="s">
         <v>637</v>
       </c>
-      <c r="C49" t="b">
+      <c r="C49">
         <v>1</v>
       </c>
     </row>
@@ -16370,7 +16523,7 @@
       <c r="B50" t="s">
         <v>638</v>
       </c>
-      <c r="C50" t="b">
+      <c r="C50">
         <v>0</v>
       </c>
     </row>
@@ -16381,7 +16534,7 @@
       <c r="B51" t="s">
         <v>636</v>
       </c>
-      <c r="C51" t="b">
+      <c r="C51">
         <v>1</v>
       </c>
     </row>
@@ -16392,7 +16545,7 @@
       <c r="B52" t="s">
         <v>637</v>
       </c>
-      <c r="C52" t="b">
+      <c r="C52">
         <v>0</v>
       </c>
     </row>
@@ -16408,8 +16561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF516-0E69-4C4C-8F9B-B3AE6048F2E1}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylwa\source\repos\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F316DE15-4202-419D-9870-04FFAF317DB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DD3F4-4A25-4961-A069-484F05980675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="720">
   <si>
     <t>User_ID</t>
   </si>
@@ -2192,6 +2192,12 @@
   </si>
   <si>
     <t>b89o04dtcf6viujck</t>
+  </si>
+  <si>
+    <t>BByron2</t>
+  </si>
+  <si>
+    <t>EEllia2</t>
   </si>
 </sst>
 </file>
@@ -2252,7 +2258,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2265,11 +2271,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2278,7 +2283,18 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F599AD3-6840-46F2-88F2-0E9C6FEC8D7E}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{099EC489-0DCF-455E-884E-0F2FAB91D948}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2557,7 +2573,7 @@
   <dimension ref="A1:BJ161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2621,22 +2637,22 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="10"/>
+      <c r="AW1" s="10"/>
+      <c r="AX1" s="10"/>
+      <c r="AY1" s="10"/>
+      <c r="AZ1" s="10"/>
+      <c r="BA1" s="10"/>
+      <c r="BB1" s="10"/>
+      <c r="BC1" s="10"/>
       <c r="BD1" s="5"/>
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
@@ -3063,7 +3079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>718</v>
       </c>
       <c r="C8" t="s">
         <v>146</v>
@@ -5340,7 +5356,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>719</v>
       </c>
       <c r="C41" t="s">
         <v>179</v>
@@ -6248,22 +6264,22 @@
       <c r="BJ54" s="5"/>
     </row>
     <row r="55" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
@@ -10169,18 +10185,18 @@
       <c r="T156" s="6"/>
     </row>
     <row r="159" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
       <c r="M159" s="5"/>
     </row>
     <row r="160" spans="1:20" x14ac:dyDescent="0.25">
@@ -10221,6 +10237,9 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B3:B52">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10230,8 +10249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7FE91-324E-4C19-B988-D44ECDAFF911}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10247,6 +10266,7 @@
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -10263,7 +10283,7 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
       <c r="K1" s="11"/>
-      <c r="L1" s="10"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10299,6 +10319,9 @@
       <c r="K2" t="s">
         <v>470</v>
       </c>
+      <c r="L2" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -10334,6 +10357,9 @@
       <c r="K3">
         <v>48604</v>
       </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -10369,6 +10395,9 @@
       <c r="K4">
         <v>48601</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -10404,6 +10433,9 @@
       <c r="K5">
         <v>48601</v>
       </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -10439,6 +10471,9 @@
       <c r="K6">
         <v>48707</v>
       </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -10474,6 +10509,9 @@
       <c r="K7">
         <v>48604</v>
       </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -10509,6 +10547,9 @@
       <c r="K8">
         <v>48601</v>
       </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -10544,6 +10585,9 @@
       <c r="K9">
         <v>48707</v>
       </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -10579,6 +10623,9 @@
       <c r="K10">
         <v>48601</v>
       </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -10614,6 +10661,9 @@
       <c r="K11">
         <v>48604</v>
       </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -10649,6 +10699,9 @@
       <c r="K12">
         <v>48601</v>
       </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -10684,6 +10737,9 @@
       <c r="K13">
         <v>48604</v>
       </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -10719,6 +10775,9 @@
       <c r="K14">
         <v>48707</v>
       </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -10754,6 +10813,9 @@
       <c r="K15">
         <v>48707</v>
       </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -10789,8 +10851,11 @@
       <c r="K16">
         <v>48601</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10824,17 +10889,20 @@
       <c r="K17">
         <v>48601</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H32" s="5"/>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.25">
@@ -10851,7 +10919,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10862,7 +10930,7 @@
   <dimension ref="A1:X102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10883,6 +10951,7 @@
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" customWidth="1"/>
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10905,6 +10974,7 @@
       <c r="N1" s="11"/>
       <c r="O1" s="11"/>
       <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -10955,6 +11025,9 @@
       <c r="P2" t="s">
         <v>213</v>
       </c>
+      <c r="Q2" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -11005,6 +11078,9 @@
       <c r="P3">
         <v>12</v>
       </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
       <c r="U3" s="9"/>
       <c r="X3" s="2"/>
     </row>
@@ -11057,6 +11133,9 @@
       <c r="P4">
         <v>1</v>
       </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -11107,6 +11186,9 @@
       <c r="P5">
         <v>12</v>
       </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -11157,6 +11239,9 @@
       <c r="P6">
         <v>15</v>
       </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -11207,6 +11292,9 @@
       <c r="P7">
         <v>4</v>
       </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -11257,6 +11345,9 @@
       <c r="P8">
         <v>11</v>
       </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -11307,6 +11398,9 @@
       <c r="P9">
         <v>11</v>
       </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -11357,6 +11451,9 @@
       <c r="P10">
         <v>2</v>
       </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -11407,6 +11504,9 @@
       <c r="P11">
         <v>11</v>
       </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -11457,6 +11557,9 @@
       <c r="P12">
         <v>11</v>
       </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -11507,6 +11610,9 @@
       <c r="P13">
         <v>13</v>
       </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -11557,6 +11663,9 @@
       <c r="P14">
         <v>5</v>
       </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -11607,6 +11716,9 @@
       <c r="P15">
         <v>3</v>
       </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -11657,8 +11769,11 @@
       <c r="P16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11707,8 +11822,11 @@
       <c r="P17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11757,8 +11875,11 @@
       <c r="P18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11807,8 +11928,11 @@
       <c r="P19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11857,8 +11981,11 @@
       <c r="P20">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11907,8 +12034,11 @@
       <c r="P21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11957,8 +12087,11 @@
       <c r="P22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12007,8 +12140,11 @@
       <c r="P23">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12057,8 +12193,11 @@
       <c r="P24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12107,8 +12246,11 @@
       <c r="P25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12157,8 +12299,11 @@
       <c r="P26">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12207,8 +12352,11 @@
       <c r="P27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12257,8 +12405,11 @@
       <c r="P28">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -12307,8 +12458,11 @@
       <c r="P29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -12357,8 +12511,11 @@
       <c r="P30">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -12407,8 +12564,11 @@
       <c r="P31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12457,8 +12617,11 @@
       <c r="P32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -12507,8 +12670,11 @@
       <c r="P33">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -12557,8 +12723,11 @@
       <c r="P34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -12607,8 +12776,11 @@
       <c r="P35">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -12657,8 +12829,11 @@
       <c r="P36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -12707,8 +12882,11 @@
       <c r="P37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -12757,8 +12935,11 @@
       <c r="P38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -12807,8 +12988,11 @@
       <c r="P39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -12857,8 +13041,11 @@
       <c r="P40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -12907,8 +13094,11 @@
       <c r="P41">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -12957,8 +13147,11 @@
       <c r="P42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13007,8 +13200,11 @@
       <c r="P43">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13057,8 +13253,11 @@
       <c r="P44">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13107,8 +13306,11 @@
       <c r="P45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13157,8 +13359,11 @@
       <c r="P46">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13207,8 +13412,11 @@
       <c r="P47">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13257,8 +13465,11 @@
       <c r="P48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13307,8 +13518,11 @@
       <c r="P49">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13357,8 +13571,11 @@
       <c r="P50">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13407,8 +13624,11 @@
       <c r="P51">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13457,8 +13677,11 @@
       <c r="P52">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13507,8 +13730,11 @@
       <c r="P53">
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13557,8 +13783,11 @@
       <c r="P54">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -13607,8 +13836,11 @@
       <c r="P55">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -13657,8 +13889,11 @@
       <c r="P56">
         <v>9</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -13707,8 +13942,11 @@
       <c r="P57">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -13757,8 +13995,11 @@
       <c r="P58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -13807,8 +14048,11 @@
       <c r="P59">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -13857,8 +14101,11 @@
       <c r="P60">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -13907,8 +14154,11 @@
       <c r="P61">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -13957,8 +14207,11 @@
       <c r="P62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -14007,8 +14260,11 @@
       <c r="P63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -14057,8 +14313,11 @@
       <c r="P64">
         <v>12</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -14107,8 +14366,11 @@
       <c r="P65">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -14157,8 +14419,11 @@
       <c r="P66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -14207,8 +14472,11 @@
       <c r="P67">
         <v>6</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -14257,8 +14525,11 @@
       <c r="P68">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -14307,8 +14578,11 @@
       <c r="P69">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -14357,8 +14631,11 @@
       <c r="P70">
         <v>15</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -14407,8 +14684,11 @@
       <c r="P71">
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -14457,8 +14737,11 @@
       <c r="P72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -14507,8 +14790,11 @@
       <c r="P73">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -14557,8 +14843,11 @@
       <c r="P74">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -14607,8 +14896,11 @@
       <c r="P75">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -14657,8 +14949,11 @@
       <c r="P76">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -14707,8 +15002,11 @@
       <c r="P77">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -14757,8 +15055,11 @@
       <c r="P78">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -14807,8 +15108,11 @@
       <c r="P79">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -14857,8 +15161,11 @@
       <c r="P80">
         <v>15</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -14907,8 +15214,11 @@
       <c r="P81">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -14957,8 +15267,11 @@
       <c r="P82">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -15007,8 +15320,11 @@
       <c r="P83">
         <v>12</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -15057,8 +15373,11 @@
       <c r="P84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -15107,8 +15426,11 @@
       <c r="P85">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -15157,8 +15479,11 @@
       <c r="P86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -15207,8 +15532,11 @@
       <c r="P87">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -15257,8 +15585,11 @@
       <c r="P88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -15307,8 +15638,11 @@
       <c r="P89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -15357,8 +15691,11 @@
       <c r="P90">
         <v>12</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -15407,8 +15744,11 @@
       <c r="P91">
         <v>12</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -15457,8 +15797,11 @@
       <c r="P92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -15507,8 +15850,11 @@
       <c r="P93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -15557,8 +15903,11 @@
       <c r="P94">
         <v>15</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -15607,8 +15956,11 @@
       <c r="P95">
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -15657,8 +16009,11 @@
       <c r="P96">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -15707,8 +16062,11 @@
       <c r="P97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -15757,8 +16115,11 @@
       <c r="P98">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -15807,8 +16168,11 @@
       <c r="P99">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -15857,8 +16221,11 @@
       <c r="P100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -15907,8 +16274,11 @@
       <c r="P101">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -15957,10 +16327,13 @@
       <c r="P102">
         <v>15</v>
       </c>
+      <c r="Q102">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16561,7 +16934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF516-0E69-4C4C-8F9B-B3AE6048F2E1}">
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylwa\source\repos\CIS424_wi21_Med_Cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Capstone_wi21_project\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9DD3F4-4A25-4961-A069-484F05980675}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA024CA7-77FA-4AEA-9D2F-E83183CD8D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="722">
   <si>
     <t>User_ID</t>
   </si>
@@ -2198,13 +2197,19 @@
   </si>
   <si>
     <t>EEllia2</t>
+  </si>
+  <si>
+    <t>Barcode_Generated</t>
+  </si>
+  <si>
+    <t>QR Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2228,6 +2233,11 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Id"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2258,7 +2268,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2277,6 +2287,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2572,24 +2585,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="29" bestFit="1" customWidth="1"/>
@@ -2609,7 +2622,7 @@
     <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62">
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
@@ -2621,8 +2634,12 @@
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>721</v>
+      </c>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -2661,7 +2678,7 @@
       <c r="BI1" s="5"/>
       <c r="BJ1" s="5"/>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2677,7 +2694,7 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
@@ -2729,7 +2746,7 @@
       <c r="BI2" s="5"/>
       <c r="BJ2" s="5"/>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2745,7 +2762,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G3">
@@ -2757,7 +2774,10 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="14" t="str">
+        <f>"("&amp;F3&amp;")"</f>
+        <v>(A21406004287991A)</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -2798,7 +2818,7 @@
       <c r="BI3" s="5"/>
       <c r="BJ3" s="5"/>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2814,7 +2834,7 @@
       <c r="E4" t="s">
         <v>193</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="12" t="s">
         <v>669</v>
       </c>
       <c r="G4">
@@ -2826,7 +2846,10 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="14" t="str">
+        <f t="shared" ref="K4:K52" si="0">"("&amp;F4&amp;")"</f>
+        <v>(t1zir8ehriokz0xmd)</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2867,7 +2890,7 @@
       <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2883,7 +2906,7 @@
       <c r="E5" t="s">
         <v>197</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="12" t="s">
         <v>670</v>
       </c>
       <c r="G5">
@@ -2895,7 +2918,10 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(ay45x1ccte2b81tm1)</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2936,7 +2962,7 @@
       <c r="BI5" s="5"/>
       <c r="BJ5" s="5"/>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2952,7 +2978,7 @@
       <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="12" t="s">
         <v>671</v>
       </c>
       <c r="G6">
@@ -2964,7 +2990,10 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(r11l0m8wcxrphprjl)</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -3005,7 +3034,7 @@
       <c r="BI6" s="5"/>
       <c r="BJ6" s="5"/>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3021,7 +3050,7 @@
       <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="12" t="s">
         <v>672</v>
       </c>
       <c r="G7">
@@ -3033,7 +3062,10 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="K7" s="5"/>
+      <c r="K7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(mr93vb4r2nyldc9em)</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -3074,7 +3106,7 @@
       <c r="BI7" s="5"/>
       <c r="BJ7" s="5"/>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3090,7 +3122,7 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="12" t="s">
         <v>673</v>
       </c>
       <c r="G8">
@@ -3102,7 +3134,10 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(a5wpnuyb5c5gs1enj)</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3143,7 +3178,7 @@
       <c r="BI8" s="5"/>
       <c r="BJ8" s="5"/>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3159,7 +3194,7 @@
       <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="12" t="s">
         <v>674</v>
       </c>
       <c r="G9">
@@ -3171,7 +3206,10 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(6kqt8gnub3anfl5jg)</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -3212,7 +3250,7 @@
       <c r="BI9" s="5"/>
       <c r="BJ9" s="5"/>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3228,7 +3266,7 @@
       <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="12" t="s">
         <v>675</v>
       </c>
       <c r="G10">
@@ -3240,7 +3278,10 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="K10" s="5"/>
+      <c r="K10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(y4yuksou2okhrcz3q)</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -3281,7 +3322,7 @@
       <c r="BI10" s="5"/>
       <c r="BJ10" s="5"/>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3297,7 +3338,7 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="12" t="s">
         <v>676</v>
       </c>
       <c r="G11">
@@ -3309,7 +3350,10 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(m2b7acooq7ojhnlhi)</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -3350,7 +3394,7 @@
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3366,7 +3410,7 @@
       <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="12" t="s">
         <v>677</v>
       </c>
       <c r="G12">
@@ -3378,7 +3422,10 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(o8dkb4o7e1nc3k0go)</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -3419,7 +3466,7 @@
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3435,7 +3482,7 @@
       <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="12" t="s">
         <v>678</v>
       </c>
       <c r="G13">
@@ -3447,7 +3494,10 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(3wm4kfvf822knp82r)</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -3488,7 +3538,7 @@
       <c r="BI13" s="5"/>
       <c r="BJ13" s="5"/>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3504,7 +3554,7 @@
       <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="12" t="s">
         <v>679</v>
       </c>
       <c r="G14">
@@ -3516,7 +3566,10 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="K14" s="5"/>
+      <c r="K14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(tay20ugjplr2j22pq)</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
@@ -3557,7 +3610,7 @@
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3573,7 +3626,7 @@
       <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="12" t="s">
         <v>680</v>
       </c>
       <c r="G15">
@@ -3585,7 +3638,10 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(7oehjy5yvpk8h7u24)</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -3626,7 +3682,7 @@
       <c r="BI15" s="5"/>
       <c r="BJ15" s="5"/>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3642,7 +3698,7 @@
       <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="12" t="s">
         <v>681</v>
       </c>
       <c r="G16">
@@ -3654,7 +3710,10 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(7y0y3skz8ea7pqkuf)</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -3695,7 +3754,7 @@
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3711,7 +3770,7 @@
       <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="12" t="s">
         <v>682</v>
       </c>
       <c r="G17">
@@ -3723,7 +3782,10 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="K17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(i7qk7dmwxvyljbgr7)</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
@@ -3764,7 +3826,7 @@
       <c r="BI17" s="5"/>
       <c r="BJ17" s="5"/>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3780,7 +3842,7 @@
       <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="12" t="s">
         <v>683</v>
       </c>
       <c r="G18">
@@ -3792,7 +3854,10 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(3iv9w89681eh1sh2z)</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3833,7 +3898,7 @@
       <c r="BI18" s="5"/>
       <c r="BJ18" s="5"/>
     </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:62">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3849,7 +3914,7 @@
       <c r="E19" t="s">
         <v>72</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="12" t="s">
         <v>684</v>
       </c>
       <c r="G19">
@@ -3861,7 +3926,10 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="K19" s="5"/>
+      <c r="K19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(7baknhahjihum01nq)</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3902,7 +3970,7 @@
       <c r="BI19" s="5"/>
       <c r="BJ19" s="5"/>
     </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:62">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3918,7 +3986,7 @@
       <c r="E20" t="s">
         <v>73</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="12" t="s">
         <v>685</v>
       </c>
       <c r="G20">
@@ -3930,7 +3998,10 @@
       <c r="I20">
         <v>0</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(5odiebldystld3g95)</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -3971,7 +4042,7 @@
       <c r="BI20" s="5"/>
       <c r="BJ20" s="5"/>
     </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:62">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3987,7 +4058,7 @@
       <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="12" t="s">
         <v>686</v>
       </c>
       <c r="G21">
@@ -3999,7 +4070,10 @@
       <c r="I21">
         <v>0</v>
       </c>
-      <c r="K21" s="5"/>
+      <c r="K21" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(3b4wfyjxbib8u2nzp)</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -4040,7 +4114,7 @@
       <c r="BI21" s="5"/>
       <c r="BJ21" s="5"/>
     </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:62">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4056,7 +4130,7 @@
       <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="12" t="s">
         <v>687</v>
       </c>
       <c r="G22">
@@ -4068,7 +4142,10 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(xbhdbo8jb99cvajbu)</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -4109,7 +4186,7 @@
       <c r="BI22" s="5"/>
       <c r="BJ22" s="5"/>
     </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:62">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4125,7 +4202,7 @@
       <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="12" t="s">
         <v>688</v>
       </c>
       <c r="G23">
@@ -4137,7 +4214,10 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(1n560mjtipzs82qux)</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -4178,7 +4258,7 @@
       <c r="BI23" s="5"/>
       <c r="BJ23" s="5"/>
     </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:62">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4194,7 +4274,7 @@
       <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="12" t="s">
         <v>689</v>
       </c>
       <c r="G24">
@@ -4206,7 +4286,10 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="K24" s="5"/>
+      <c r="K24" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(xumnyjc7mm04rjfc9)</v>
+      </c>
       <c r="L24" s="6"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -4247,7 +4330,7 @@
       <c r="BI24" s="5"/>
       <c r="BJ24" s="5"/>
     </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:62">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4263,7 +4346,7 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="12" t="s">
         <v>690</v>
       </c>
       <c r="G25">
@@ -4275,7 +4358,10 @@
       <c r="I25">
         <v>0</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(ki7byw1950qt2ktm0)</v>
+      </c>
       <c r="L25" s="6"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -4316,7 +4402,7 @@
       <c r="BI25" s="5"/>
       <c r="BJ25" s="5"/>
     </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:62">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4332,7 +4418,7 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="12" t="s">
         <v>691</v>
       </c>
       <c r="G26">
@@ -4344,7 +4430,10 @@
       <c r="I26">
         <v>0</v>
       </c>
-      <c r="K26" s="5"/>
+      <c r="K26" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(yx3hb24b09c0zmkx8)</v>
+      </c>
       <c r="L26" s="6"/>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -4385,7 +4474,7 @@
       <c r="BI26" s="5"/>
       <c r="BJ26" s="5"/>
     </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:62">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4401,7 +4490,7 @@
       <c r="E27" t="s">
         <v>78</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="12" t="s">
         <v>692</v>
       </c>
       <c r="G27">
@@ -4413,7 +4502,10 @@
       <c r="I27">
         <v>0</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(a1n141t5m4gjuclzv)</v>
+      </c>
       <c r="L27" s="6"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
@@ -4454,7 +4546,7 @@
       <c r="BI27" s="5"/>
       <c r="BJ27" s="5"/>
     </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:62">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4470,7 +4562,7 @@
       <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="12" t="s">
         <v>693</v>
       </c>
       <c r="G28">
@@ -4482,7 +4574,10 @@
       <c r="I28">
         <v>0</v>
       </c>
-      <c r="K28" s="5"/>
+      <c r="K28" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(r39eitskxld4kyhqk)</v>
+      </c>
       <c r="L28" s="6"/>
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
@@ -4523,7 +4618,7 @@
       <c r="BI28" s="5"/>
       <c r="BJ28" s="5"/>
     </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:62">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4539,7 +4634,7 @@
       <c r="E29" t="s">
         <v>80</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="12" t="s">
         <v>694</v>
       </c>
       <c r="G29">
@@ -4551,7 +4646,10 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(b9y2ihvlxhzzgdczy)</v>
+      </c>
       <c r="L29" s="6"/>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4592,7 +4690,7 @@
       <c r="BI29" s="5"/>
       <c r="BJ29" s="5"/>
     </row>
-    <row r="30" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:62">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4608,7 +4706,7 @@
       <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="12" t="s">
         <v>695</v>
       </c>
       <c r="G30">
@@ -4620,7 +4718,10 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(qgw9spcn1ttb18467)</v>
+      </c>
       <c r="L30" s="6"/>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4661,7 +4762,7 @@
       <c r="BI30" s="5"/>
       <c r="BJ30" s="5"/>
     </row>
-    <row r="31" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:62">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4677,7 +4778,7 @@
       <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="12" t="s">
         <v>696</v>
       </c>
       <c r="G31">
@@ -4689,7 +4790,10 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="K31" s="5"/>
+      <c r="K31" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(i4m3l1jw1bu1idbqw)</v>
+      </c>
       <c r="L31" s="6"/>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -4730,7 +4834,7 @@
       <c r="BI31" s="5"/>
       <c r="BJ31" s="5"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4746,7 +4850,7 @@
       <c r="E32" t="s">
         <v>83</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="12" t="s">
         <v>697</v>
       </c>
       <c r="G32">
@@ -4758,7 +4862,10 @@
       <c r="I32">
         <v>0</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(od12oy4ojq4zeal89)</v>
+      </c>
       <c r="L32" s="6"/>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4799,7 +4906,7 @@
       <c r="BI32" s="5"/>
       <c r="BJ32" s="5"/>
     </row>
-    <row r="33" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:62">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4815,7 +4922,7 @@
       <c r="E33" t="s">
         <v>62</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="12" t="s">
         <v>698</v>
       </c>
       <c r="G33">
@@ -4827,7 +4934,10 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="K33" s="5"/>
+      <c r="K33" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(m1gh5q13ij5uqocfe)</v>
+      </c>
       <c r="L33" s="6"/>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -4868,7 +4978,7 @@
       <c r="BI33" s="5"/>
       <c r="BJ33" s="5"/>
     </row>
-    <row r="34" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:62">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4884,7 +4994,7 @@
       <c r="E34" t="s">
         <v>84</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="12" t="s">
         <v>699</v>
       </c>
       <c r="G34">
@@ -4896,7 +5006,10 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(4p6ip6titodj3xsij)</v>
+      </c>
       <c r="L34" s="6"/>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -4937,7 +5050,7 @@
       <c r="BI34" s="5"/>
       <c r="BJ34" s="5"/>
     </row>
-    <row r="35" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:62">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4953,7 +5066,7 @@
       <c r="E35" t="s">
         <v>85</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="12" t="s">
         <v>700</v>
       </c>
       <c r="G35">
@@ -4965,7 +5078,10 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="K35" s="5"/>
+      <c r="K35" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(1zod4b2txid4nlegm)</v>
+      </c>
       <c r="L35" s="6"/>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -5006,7 +5122,7 @@
       <c r="BI35" s="5"/>
       <c r="BJ35" s="5"/>
     </row>
-    <row r="36" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:62">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5022,7 +5138,7 @@
       <c r="E36" t="s">
         <v>86</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="12" t="s">
         <v>701</v>
       </c>
       <c r="G36">
@@ -5034,7 +5150,10 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(vl8dpjymvr35pyzb2)</v>
+      </c>
       <c r="L36" s="6"/>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -5075,7 +5194,7 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
     </row>
-    <row r="37" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:62">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5091,7 +5210,7 @@
       <c r="E37" t="s">
         <v>87</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="12" t="s">
         <v>702</v>
       </c>
       <c r="G37">
@@ -5103,7 +5222,10 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="14" t="str">
+        <f>"("&amp;F37&amp;")"</f>
+        <v>(28bj50wmxrca3n81c)</v>
+      </c>
       <c r="L37" s="6"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5"/>
@@ -5144,7 +5266,7 @@
       <c r="BI37" s="5"/>
       <c r="BJ37" s="5"/>
     </row>
-    <row r="38" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:62">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5160,7 +5282,7 @@
       <c r="E38" t="s">
         <v>88</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="12" t="s">
         <v>703</v>
       </c>
       <c r="G38">
@@ -5172,7 +5294,10 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="K38" s="5"/>
+      <c r="K38" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(psma3hd0p95th46qb)</v>
+      </c>
       <c r="L38" s="6"/>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -5213,7 +5338,7 @@
       <c r="BI38" s="5"/>
       <c r="BJ38" s="5"/>
     </row>
-    <row r="39" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:62">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5229,7 +5354,7 @@
       <c r="E39" t="s">
         <v>89</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="12" t="s">
         <v>704</v>
       </c>
       <c r="G39">
@@ -5241,7 +5366,10 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(96nng0ndiead57fd1)</v>
+      </c>
       <c r="L39" s="6"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
@@ -5282,7 +5410,7 @@
       <c r="BI39" s="5"/>
       <c r="BJ39" s="5"/>
     </row>
-    <row r="40" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:62">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5298,7 +5426,7 @@
       <c r="E40" t="s">
         <v>90</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="12" t="s">
         <v>705</v>
       </c>
       <c r="G40">
@@ -5310,7 +5438,10 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="K40" s="5"/>
+      <c r="K40" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(fo152s8mz58l8bx3a)</v>
+      </c>
       <c r="L40" s="6"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -5351,7 +5482,7 @@
       <c r="BI40" s="5"/>
       <c r="BJ40" s="5"/>
     </row>
-    <row r="41" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:62">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5367,7 +5498,7 @@
       <c r="E41" t="s">
         <v>91</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="12" t="s">
         <v>706</v>
       </c>
       <c r="G41">
@@ -5379,7 +5510,10 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(vqo6tokn8vii6w09s)</v>
+      </c>
       <c r="L41" s="6"/>
       <c r="M41" s="5"/>
       <c r="N41" s="5"/>
@@ -5420,7 +5554,7 @@
       <c r="BI41" s="5"/>
       <c r="BJ41" s="5"/>
     </row>
-    <row r="42" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:62">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5436,7 +5570,7 @@
       <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="12" t="s">
         <v>707</v>
       </c>
       <c r="G42">
@@ -5448,7 +5582,10 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="K42" s="5"/>
+      <c r="K42" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(3keqdjzr3x177r1tf)</v>
+      </c>
       <c r="L42" s="6"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
@@ -5489,7 +5626,7 @@
       <c r="BI42" s="5"/>
       <c r="BJ42" s="5"/>
     </row>
-    <row r="43" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:62">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5505,7 +5642,7 @@
       <c r="E43" t="s">
         <v>93</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="12" t="s">
         <v>708</v>
       </c>
       <c r="G43">
@@ -5517,7 +5654,10 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(yxmg2n18mxyj7bpu9)</v>
+      </c>
       <c r="L43" s="6"/>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -5558,7 +5698,7 @@
       <c r="BI43" s="5"/>
       <c r="BJ43" s="5"/>
     </row>
-    <row r="44" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:62">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5574,7 +5714,7 @@
       <c r="E44" t="s">
         <v>94</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="12" t="s">
         <v>709</v>
       </c>
       <c r="G44">
@@ -5586,7 +5726,10 @@
       <c r="I44">
         <v>0</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(19awv4o7fksj68jk1)</v>
+      </c>
       <c r="L44" s="6"/>
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
@@ -5627,7 +5770,7 @@
       <c r="BI44" s="5"/>
       <c r="BJ44" s="5"/>
     </row>
-    <row r="45" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:62">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5643,7 +5786,7 @@
       <c r="E45" t="s">
         <v>89</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="12" t="s">
         <v>710</v>
       </c>
       <c r="G45">
@@ -5655,7 +5798,10 @@
       <c r="I45">
         <v>0</v>
       </c>
-      <c r="K45" s="5"/>
+      <c r="K45" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(bfp68eba288bd5zgv)</v>
+      </c>
       <c r="L45" s="6"/>
       <c r="M45" s="5"/>
       <c r="N45" s="5"/>
@@ -5696,7 +5842,7 @@
       <c r="BI45" s="5"/>
       <c r="BJ45" s="5"/>
     </row>
-    <row r="46" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:62">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5712,7 +5858,7 @@
       <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="12" t="s">
         <v>711</v>
       </c>
       <c r="G46">
@@ -5724,7 +5870,10 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(2sdnwap9kralb4zxc)</v>
+      </c>
       <c r="L46" s="6"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
@@ -5765,7 +5914,7 @@
       <c r="BI46" s="5"/>
       <c r="BJ46" s="5"/>
     </row>
-    <row r="47" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:62">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5781,7 +5930,7 @@
       <c r="E47" t="s">
         <v>95</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="12" t="s">
         <v>712</v>
       </c>
       <c r="G47">
@@ -5793,7 +5942,10 @@
       <c r="I47">
         <v>0</v>
       </c>
-      <c r="K47" s="5"/>
+      <c r="K47" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(g65p6jl16164jncdw)</v>
+      </c>
       <c r="L47" s="6"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -5834,7 +5986,7 @@
       <c r="BI47" s="5"/>
       <c r="BJ47" s="5"/>
     </row>
-    <row r="48" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:62">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5850,7 +6002,7 @@
       <c r="E48" t="s">
         <v>96</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="12" t="s">
         <v>713</v>
       </c>
       <c r="G48">
@@ -5862,7 +6014,10 @@
       <c r="I48">
         <v>0</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(fiimg9ekfaqs1ep4n)</v>
+      </c>
       <c r="L48" s="6"/>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -5903,7 +6058,7 @@
       <c r="BI48" s="5"/>
       <c r="BJ48" s="5"/>
     </row>
-    <row r="49" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:62">
       <c r="A49">
         <v>47</v>
       </c>
@@ -5919,7 +6074,7 @@
       <c r="E49" t="s">
         <v>97</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="12" t="s">
         <v>714</v>
       </c>
       <c r="G49">
@@ -5931,7 +6086,10 @@
       <c r="I49">
         <v>0</v>
       </c>
-      <c r="K49" s="5"/>
+      <c r="K49" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(0f5jf1xkpgz6h543j)</v>
+      </c>
       <c r="L49" s="6"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -5972,7 +6130,7 @@
       <c r="BI49" s="5"/>
       <c r="BJ49" s="5"/>
     </row>
-    <row r="50" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:62">
       <c r="A50">
         <v>48</v>
       </c>
@@ -5988,7 +6146,7 @@
       <c r="E50" t="s">
         <v>77</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="12" t="s">
         <v>715</v>
       </c>
       <c r="G50">
@@ -6000,7 +6158,10 @@
       <c r="I50">
         <v>0</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(ydg7luiykb3xw4a9w)</v>
+      </c>
       <c r="L50" s="6"/>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -6041,7 +6202,7 @@
       <c r="BI50" s="5"/>
       <c r="BJ50" s="5"/>
     </row>
-    <row r="51" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:62">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6057,7 +6218,7 @@
       <c r="E51" t="s">
         <v>61</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="12" t="s">
         <v>716</v>
       </c>
       <c r="G51">
@@ -6069,7 +6230,10 @@
       <c r="I51">
         <v>0</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(lb60xod29czciabde)</v>
+      </c>
       <c r="L51" s="6"/>
       <c r="M51" s="5"/>
       <c r="N51" s="5"/>
@@ -6110,7 +6274,7 @@
       <c r="BI51" s="5"/>
       <c r="BJ51" s="5"/>
     </row>
-    <row r="52" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:62">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6126,7 +6290,7 @@
       <c r="E52" t="s">
         <v>98</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="12" t="s">
         <v>717</v>
       </c>
       <c r="G52">
@@ -6138,7 +6302,10 @@
       <c r="I52">
         <v>0</v>
       </c>
-      <c r="K52" s="5"/>
+      <c r="K52" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>(b89o04dtcf6viujck)</v>
+      </c>
       <c r="L52" s="6"/>
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
@@ -6179,7 +6346,7 @@
       <c r="BI52" s="5"/>
       <c r="BJ52" s="5"/>
     </row>
-    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:62">
       <c r="K53" s="5"/>
       <c r="L53" s="6"/>
       <c r="M53" s="5"/>
@@ -6221,7 +6388,7 @@
       <c r="BI53" s="5"/>
       <c r="BJ53" s="5"/>
     </row>
-    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:62">
       <c r="K54" s="5"/>
       <c r="L54" s="6"/>
       <c r="M54" s="5"/>
@@ -6263,7 +6430,7 @@
       <c r="BI54" s="5"/>
       <c r="BJ54" s="5"/>
     </row>
-    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:62">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -6315,13 +6482,13 @@
       <c r="BI55" s="5"/>
       <c r="BJ55" s="5"/>
     </row>
-    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:62">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+      <c r="F56" s="13"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -6367,13 +6534,13 @@
       <c r="BI56" s="5"/>
       <c r="BJ56" s="5"/>
     </row>
-    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:62">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="13"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -6419,13 +6586,13 @@
       <c r="BI57" s="5"/>
       <c r="BJ57" s="5"/>
     </row>
-    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:62">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="13"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -6471,13 +6638,13 @@
       <c r="BI58" s="5"/>
       <c r="BJ58" s="5"/>
     </row>
-    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:62">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="7"/>
+      <c r="F59" s="13"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -6523,13 +6690,13 @@
       <c r="BI59" s="5"/>
       <c r="BJ59" s="5"/>
     </row>
-    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:62">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="7"/>
+      <c r="F60" s="13"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -6575,13 +6742,13 @@
       <c r="BI60" s="5"/>
       <c r="BJ60" s="5"/>
     </row>
-    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:62">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="7"/>
+      <c r="F61" s="13"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -6627,13 +6794,13 @@
       <c r="BI61" s="5"/>
       <c r="BJ61" s="5"/>
     </row>
-    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:62">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="7"/>
+      <c r="F62" s="13"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -6679,13 +6846,13 @@
       <c r="BI62" s="5"/>
       <c r="BJ62" s="5"/>
     </row>
-    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:62">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="7"/>
+      <c r="F63" s="13"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -6731,13 +6898,13 @@
       <c r="BI63" s="5"/>
       <c r="BJ63" s="5"/>
     </row>
-    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:62">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="7"/>
+      <c r="F64" s="13"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -6783,13 +6950,13 @@
       <c r="BI64" s="5"/>
       <c r="BJ64" s="5"/>
     </row>
-    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:62">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="7"/>
+      <c r="F65" s="13"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -6835,13 +7002,13 @@
       <c r="BI65" s="5"/>
       <c r="BJ65" s="5"/>
     </row>
-    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:62">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="7"/>
+      <c r="F66" s="13"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -6887,13 +7054,13 @@
       <c r="BI66" s="5"/>
       <c r="BJ66" s="5"/>
     </row>
-    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:62">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="7"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -6939,13 +7106,13 @@
       <c r="BI67" s="5"/>
       <c r="BJ67" s="5"/>
     </row>
-    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:62">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="7"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -6991,13 +7158,13 @@
       <c r="BI68" s="5"/>
       <c r="BJ68" s="5"/>
     </row>
-    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:62">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="7"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -7043,13 +7210,13 @@
       <c r="BI69" s="5"/>
       <c r="BJ69" s="5"/>
     </row>
-    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:62">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="7"/>
+      <c r="F70" s="13"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -7095,13 +7262,13 @@
       <c r="BI70" s="5"/>
       <c r="BJ70" s="5"/>
     </row>
-    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:62">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="7"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -7147,13 +7314,13 @@
       <c r="BI71" s="5"/>
       <c r="BJ71" s="5"/>
     </row>
-    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:62">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="7"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -7199,13 +7366,13 @@
       <c r="BI72" s="5"/>
       <c r="BJ72" s="5"/>
     </row>
-    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:62">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="7"/>
+      <c r="F73" s="13"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -7251,13 +7418,13 @@
       <c r="BI73" s="5"/>
       <c r="BJ73" s="5"/>
     </row>
-    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:62">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="13"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -7303,13 +7470,13 @@
       <c r="BI74" s="5"/>
       <c r="BJ74" s="5"/>
     </row>
-    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:62">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="7"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -7355,13 +7522,13 @@
       <c r="BI75" s="5"/>
       <c r="BJ75" s="5"/>
     </row>
-    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:62">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="7"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -7407,13 +7574,13 @@
       <c r="BI76" s="5"/>
       <c r="BJ76" s="5"/>
     </row>
-    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:62">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="7"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -7459,13 +7626,13 @@
       <c r="BI77" s="5"/>
       <c r="BJ77" s="5"/>
     </row>
-    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:62">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="7"/>
+      <c r="F78" s="13"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -7511,13 +7678,13 @@
       <c r="BI78" s="5"/>
       <c r="BJ78" s="5"/>
     </row>
-    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:62">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="7"/>
+      <c r="F79" s="13"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -7563,13 +7730,13 @@
       <c r="BI79" s="5"/>
       <c r="BJ79" s="5"/>
     </row>
-    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:62">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="7"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -7615,13 +7782,13 @@
       <c r="BI80" s="5"/>
       <c r="BJ80" s="5"/>
     </row>
-    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:62">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="7"/>
+      <c r="F81" s="13"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -7667,13 +7834,13 @@
       <c r="BI81" s="5"/>
       <c r="BJ81" s="5"/>
     </row>
-    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:62">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="7"/>
+      <c r="F82" s="13"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -7719,13 +7886,13 @@
       <c r="BI82" s="5"/>
       <c r="BJ82" s="5"/>
     </row>
-    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:62">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="7"/>
+      <c r="F83" s="13"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -7771,13 +7938,13 @@
       <c r="BI83" s="5"/>
       <c r="BJ83" s="5"/>
     </row>
-    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:62">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="7"/>
+      <c r="F84" s="13"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -7823,13 +7990,13 @@
       <c r="BI84" s="5"/>
       <c r="BJ84" s="5"/>
     </row>
-    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:62">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="7"/>
+      <c r="F85" s="13"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -7875,13 +8042,13 @@
       <c r="BI85" s="5"/>
       <c r="BJ85" s="5"/>
     </row>
-    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:62">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="7"/>
+      <c r="F86" s="13"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
@@ -7927,13 +8094,13 @@
       <c r="BI86" s="5"/>
       <c r="BJ86" s="5"/>
     </row>
-    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:62">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="7"/>
+      <c r="F87" s="13"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
@@ -7979,13 +8146,13 @@
       <c r="BI87" s="5"/>
       <c r="BJ87" s="5"/>
     </row>
-    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:62">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="7"/>
+      <c r="F88" s="13"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
@@ -8031,13 +8198,13 @@
       <c r="BI88" s="5"/>
       <c r="BJ88" s="5"/>
     </row>
-    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:62">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="7"/>
+      <c r="F89" s="13"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -8083,13 +8250,13 @@
       <c r="BI89" s="5"/>
       <c r="BJ89" s="5"/>
     </row>
-    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:62">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="7"/>
+      <c r="F90" s="13"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -8135,13 +8302,13 @@
       <c r="BI90" s="5"/>
       <c r="BJ90" s="5"/>
     </row>
-    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:62">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="7"/>
+      <c r="F91" s="13"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -8187,13 +8354,13 @@
       <c r="BI91" s="5"/>
       <c r="BJ91" s="5"/>
     </row>
-    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:62">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="7"/>
+      <c r="F92" s="13"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -8239,13 +8406,13 @@
       <c r="BI92" s="5"/>
       <c r="BJ92" s="5"/>
     </row>
-    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:62">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="7"/>
+      <c r="F93" s="13"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -8291,13 +8458,13 @@
       <c r="BI93" s="5"/>
       <c r="BJ93" s="5"/>
     </row>
-    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:62">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="7"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -8343,13 +8510,13 @@
       <c r="BI94" s="5"/>
       <c r="BJ94" s="5"/>
     </row>
-    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:62">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="7"/>
+      <c r="F95" s="13"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -8395,13 +8562,13 @@
       <c r="BI95" s="5"/>
       <c r="BJ95" s="5"/>
     </row>
-    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:62">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="7"/>
+      <c r="F96" s="13"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -8447,13 +8614,13 @@
       <c r="BI96" s="5"/>
       <c r="BJ96" s="5"/>
     </row>
-    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:62">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="7"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -8499,13 +8666,13 @@
       <c r="BI97" s="5"/>
       <c r="BJ97" s="5"/>
     </row>
-    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:62">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="7"/>
+      <c r="F98" s="13"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -8551,13 +8718,13 @@
       <c r="BI98" s="5"/>
       <c r="BJ98" s="5"/>
     </row>
-    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:62">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="7"/>
+      <c r="F99" s="13"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -8603,13 +8770,13 @@
       <c r="BI99" s="5"/>
       <c r="BJ99" s="5"/>
     </row>
-    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:62">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="7"/>
+      <c r="F100" s="13"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -8655,13 +8822,13 @@
       <c r="BI100" s="5"/>
       <c r="BJ100" s="5"/>
     </row>
-    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:62">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="7"/>
+      <c r="F101" s="13"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -8707,13 +8874,13 @@
       <c r="BI101" s="5"/>
       <c r="BJ101" s="5"/>
     </row>
-    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:62">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="7"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -8759,13 +8926,13 @@
       <c r="BI102" s="5"/>
       <c r="BJ102" s="5"/>
     </row>
-    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:62">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="7"/>
+      <c r="F103" s="13"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -8802,13 +8969,13 @@
       <c r="BI103" s="5"/>
       <c r="BJ103" s="5"/>
     </row>
-    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:62">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="7"/>
+      <c r="F104" s="13"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -8845,13 +9012,13 @@
       <c r="BI104" s="5"/>
       <c r="BJ104" s="5"/>
     </row>
-    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:62">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="7"/>
+      <c r="F105" s="13"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -8888,13 +9055,13 @@
       <c r="BI105" s="5"/>
       <c r="BJ105" s="5"/>
     </row>
-    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:62">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="7"/>
+      <c r="F106" s="13"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -8931,13 +9098,13 @@
       <c r="BI106" s="5"/>
       <c r="BJ106" s="5"/>
     </row>
-    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:62">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="7"/>
+      <c r="F107" s="13"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -8974,13 +9141,13 @@
       <c r="BI107" s="5"/>
       <c r="BJ107" s="5"/>
     </row>
-    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:62">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="7"/>
+      <c r="F108" s="13"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -9017,13 +9184,13 @@
       <c r="BI108" s="5"/>
       <c r="BJ108" s="5"/>
     </row>
-    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:62">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="7"/>
+      <c r="F109" s="13"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -9060,13 +9227,13 @@
       <c r="BI109" s="5"/>
       <c r="BJ109" s="5"/>
     </row>
-    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:62">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="7"/>
+      <c r="F110" s="13"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -9103,13 +9270,13 @@
       <c r="BI110" s="5"/>
       <c r="BJ110" s="5"/>
     </row>
-    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:62">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="7"/>
+      <c r="F111" s="13"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -9146,13 +9313,13 @@
       <c r="BI111" s="5"/>
       <c r="BJ111" s="5"/>
     </row>
-    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:62">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="7"/>
+      <c r="F112" s="13"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -9189,13 +9356,13 @@
       <c r="BI112" s="5"/>
       <c r="BJ112" s="5"/>
     </row>
-    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:62">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="7"/>
+      <c r="F113" s="13"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -9232,13 +9399,13 @@
       <c r="BI113" s="5"/>
       <c r="BJ113" s="5"/>
     </row>
-    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:62">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="7"/>
+      <c r="F114" s="13"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -9275,13 +9442,13 @@
       <c r="BI114" s="5"/>
       <c r="BJ114" s="5"/>
     </row>
-    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:62">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="7"/>
+      <c r="F115" s="13"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -9318,13 +9485,13 @@
       <c r="BI115" s="5"/>
       <c r="BJ115" s="5"/>
     </row>
-    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:62">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="7"/>
+      <c r="F116" s="13"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -9361,13 +9528,13 @@
       <c r="BI116" s="5"/>
       <c r="BJ116" s="5"/>
     </row>
-    <row r="117" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:62">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="7"/>
+      <c r="F117" s="13"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -9404,13 +9571,13 @@
       <c r="BI117" s="5"/>
       <c r="BJ117" s="5"/>
     </row>
-    <row r="118" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:62">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="7"/>
+      <c r="F118" s="13"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -9424,13 +9591,13 @@
       <c r="R118" s="5"/>
       <c r="T118" s="6"/>
     </row>
-    <row r="119" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:62">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="7"/>
+      <c r="F119" s="13"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -9444,13 +9611,13 @@
       <c r="R119" s="5"/>
       <c r="T119" s="6"/>
     </row>
-    <row r="120" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:62">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="7"/>
+      <c r="F120" s="13"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -9464,13 +9631,13 @@
       <c r="R120" s="5"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:62">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="7"/>
+      <c r="F121" s="13"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -9484,13 +9651,13 @@
       <c r="R121" s="5"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:62">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="7"/>
+      <c r="F122" s="13"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -9504,13 +9671,13 @@
       <c r="R122" s="5"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:62">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="7"/>
+      <c r="F123" s="13"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -9524,13 +9691,13 @@
       <c r="R123" s="5"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:62">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="7"/>
+      <c r="F124" s="13"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -9544,13 +9711,13 @@
       <c r="R124" s="5"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:62">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="7"/>
+      <c r="F125" s="13"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -9564,13 +9731,13 @@
       <c r="R125" s="5"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:62">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="7"/>
+      <c r="F126" s="13"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -9584,13 +9751,13 @@
       <c r="R126" s="5"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:62">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="7"/>
+      <c r="F127" s="13"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -9604,13 +9771,13 @@
       <c r="R127" s="5"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:62">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="7"/>
+      <c r="F128" s="13"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -9624,13 +9791,13 @@
       <c r="R128" s="5"/>
       <c r="T128" s="6"/>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="7"/>
+      <c r="F129" s="13"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -9644,13 +9811,13 @@
       <c r="R129" s="5"/>
       <c r="T129" s="6"/>
     </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="7"/>
+      <c r="F130" s="13"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -9664,13 +9831,13 @@
       <c r="R130" s="5"/>
       <c r="T130" s="6"/>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="7"/>
+      <c r="F131" s="13"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -9684,13 +9851,13 @@
       <c r="R131" s="5"/>
       <c r="T131" s="6"/>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="7"/>
+      <c r="F132" s="13"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -9704,13 +9871,13 @@
       <c r="R132" s="5"/>
       <c r="T132" s="6"/>
     </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="7"/>
+      <c r="F133" s="13"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -9724,13 +9891,13 @@
       <c r="R133" s="5"/>
       <c r="T133" s="6"/>
     </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="7"/>
+      <c r="F134" s="13"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -9744,13 +9911,13 @@
       <c r="R134" s="5"/>
       <c r="T134" s="6"/>
     </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="7"/>
+      <c r="F135" s="13"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -9764,13 +9931,13 @@
       <c r="R135" s="5"/>
       <c r="T135" s="6"/>
     </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="7"/>
+      <c r="F136" s="13"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -9784,13 +9951,13 @@
       <c r="R136" s="5"/>
       <c r="T136" s="6"/>
     </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="7"/>
+      <c r="F137" s="13"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -9804,13 +9971,13 @@
       <c r="R137" s="5"/>
       <c r="T137" s="6"/>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="7"/>
+      <c r="F138" s="13"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -9824,13 +9991,13 @@
       <c r="R138" s="5"/>
       <c r="T138" s="6"/>
     </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="7"/>
+      <c r="F139" s="13"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -9844,13 +10011,13 @@
       <c r="R139" s="5"/>
       <c r="T139" s="6"/>
     </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="7"/>
+      <c r="F140" s="13"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -9864,13 +10031,13 @@
       <c r="R140" s="5"/>
       <c r="T140" s="6"/>
     </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="7"/>
+      <c r="F141" s="13"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -9884,13 +10051,13 @@
       <c r="R141" s="5"/>
       <c r="T141" s="6"/>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="7"/>
+      <c r="F142" s="13"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -9904,13 +10071,13 @@
       <c r="R142" s="5"/>
       <c r="T142" s="6"/>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="7"/>
+      <c r="F143" s="13"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -9924,13 +10091,13 @@
       <c r="R143" s="5"/>
       <c r="T143" s="6"/>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="7"/>
+      <c r="F144" s="13"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -9944,13 +10111,13 @@
       <c r="R144" s="5"/>
       <c r="T144" s="6"/>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="7"/>
+      <c r="F145" s="13"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -9964,13 +10131,13 @@
       <c r="R145" s="5"/>
       <c r="T145" s="6"/>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="7"/>
+      <c r="F146" s="13"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -9984,13 +10151,13 @@
       <c r="R146" s="5"/>
       <c r="T146" s="6"/>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="7"/>
+      <c r="F147" s="13"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -10004,13 +10171,13 @@
       <c r="R147" s="5"/>
       <c r="T147" s="6"/>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="7"/>
+      <c r="F148" s="13"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -10024,13 +10191,13 @@
       <c r="R148" s="5"/>
       <c r="T148" s="6"/>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="7"/>
+      <c r="F149" s="13"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -10044,13 +10211,13 @@
       <c r="R149" s="5"/>
       <c r="T149" s="6"/>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="7"/>
+      <c r="F150" s="13"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
@@ -10064,13 +10231,13 @@
       <c r="R150" s="5"/>
       <c r="T150" s="6"/>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="7"/>
+      <c r="F151" s="13"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -10084,13 +10251,13 @@
       <c r="R151" s="5"/>
       <c r="T151" s="6"/>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="7"/>
+      <c r="F152" s="13"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -10104,13 +10271,13 @@
       <c r="R152" s="5"/>
       <c r="T152" s="6"/>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="7"/>
+      <c r="F153" s="13"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -10124,13 +10291,13 @@
       <c r="R153" s="5"/>
       <c r="T153" s="6"/>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="7"/>
+      <c r="F154" s="13"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -10144,13 +10311,13 @@
       <c r="R154" s="5"/>
       <c r="T154" s="6"/>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="7"/>
+      <c r="F155" s="13"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -10164,13 +10331,13 @@
       <c r="R155" s="5"/>
       <c r="T155" s="6"/>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="7"/>
+      <c r="F156" s="13"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -10184,7 +10351,7 @@
       <c r="R156" s="5"/>
       <c r="T156" s="6"/>
     </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20">
       <c r="A159" s="10"/>
       <c r="B159" s="10"/>
       <c r="C159" s="10"/>
@@ -10199,13 +10366,13 @@
       <c r="L159" s="10"/>
       <c r="M159" s="5"/>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+      <c r="F160" s="13"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -10214,13 +10381,13 @@
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+      <c r="F161" s="13"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -10249,11 +10416,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FC7FE91-324E-4C19-B988-D44ECDAFF911}">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -10269,7 +10436,7 @@
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" s="11" t="s">
         <v>463</v>
       </c>
@@ -10285,7 +10452,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="11"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>459</v>
       </c>
@@ -10323,7 +10490,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10361,7 +10528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10399,7 +10566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10437,7 +10604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10475,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10513,7 +10680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10551,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10589,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10627,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10665,7 +10832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10703,7 +10870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10741,7 +10908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10779,7 +10946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10817,7 +10984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>14</v>
       </c>
@@ -10855,7 +11022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>15</v>
       </c>
@@ -10893,28 +11060,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:8">
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:8">
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:8">
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:8">
       <c r="H36" s="5"/>
     </row>
   </sheetData>
@@ -10933,7 +11100,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -10955,7 +11122,7 @@
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24">
       <c r="A1" s="11" t="s">
         <v>458</v>
       </c>
@@ -10976,7 +11143,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -11029,7 +11196,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11084,7 +11251,7 @@
       <c r="U3" s="9"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11137,7 +11304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11190,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11243,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11296,7 +11463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11349,7 +11516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11402,7 +11569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11455,7 +11622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11508,7 +11675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11561,7 +11728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11614,7 +11781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11667,7 +11834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11720,7 +11887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11773,7 +11940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11826,7 +11993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11879,7 +12046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11932,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11985,7 +12152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12038,7 +12205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12091,7 +12258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12144,7 +12311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12197,7 +12364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12250,7 +12417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12303,7 +12470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12356,7 +12523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12409,7 +12576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17">
       <c r="A29">
         <v>27</v>
       </c>
@@ -12462,7 +12629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17">
       <c r="A30">
         <v>28</v>
       </c>
@@ -12515,7 +12682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17">
       <c r="A31">
         <v>29</v>
       </c>
@@ -12568,7 +12735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12621,7 +12788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17">
       <c r="A33">
         <v>31</v>
       </c>
@@ -12674,7 +12841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17">
       <c r="A34">
         <v>32</v>
       </c>
@@ -12727,7 +12894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17">
       <c r="A35">
         <v>33</v>
       </c>
@@ -12780,7 +12947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17">
       <c r="A36">
         <v>34</v>
       </c>
@@ -12833,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17">
       <c r="A37">
         <v>35</v>
       </c>
@@ -12886,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17">
       <c r="A38">
         <v>36</v>
       </c>
@@ -12939,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17">
       <c r="A39">
         <v>37</v>
       </c>
@@ -12992,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17">
       <c r="A40">
         <v>38</v>
       </c>
@@ -13045,7 +13212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17">
       <c r="A41">
         <v>39</v>
       </c>
@@ -13098,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17">
       <c r="A42">
         <v>40</v>
       </c>
@@ -13151,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13204,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13257,7 +13424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13310,7 +13477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13363,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13416,7 +13583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13469,7 +13636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13522,7 +13689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13575,7 +13742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13628,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13681,7 +13848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13734,7 +13901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13787,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17">
       <c r="A55">
         <v>53</v>
       </c>
@@ -13840,7 +14007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56">
         <v>54</v>
       </c>
@@ -13893,7 +14060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17">
       <c r="A57">
         <v>55</v>
       </c>
@@ -13946,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17">
       <c r="A58">
         <v>56</v>
       </c>
@@ -13999,7 +14166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17">
       <c r="A59">
         <v>57</v>
       </c>
@@ -14052,7 +14219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17">
       <c r="A60">
         <v>58</v>
       </c>
@@ -14105,7 +14272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17">
       <c r="A61">
         <v>59</v>
       </c>
@@ -14158,7 +14325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17">
       <c r="A62">
         <v>60</v>
       </c>
@@ -14211,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17">
       <c r="A63">
         <v>61</v>
       </c>
@@ -14264,7 +14431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64">
         <v>62</v>
       </c>
@@ -14317,7 +14484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17">
       <c r="A65">
         <v>63</v>
       </c>
@@ -14370,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17">
       <c r="A66">
         <v>64</v>
       </c>
@@ -14423,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67">
         <v>65</v>
       </c>
@@ -14476,7 +14643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17">
       <c r="A68">
         <v>66</v>
       </c>
@@ -14529,7 +14696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69">
         <v>67</v>
       </c>
@@ -14582,7 +14749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17">
       <c r="A70">
         <v>68</v>
       </c>
@@ -14635,7 +14802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17">
       <c r="A71">
         <v>69</v>
       </c>
@@ -14688,7 +14855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72">
         <v>70</v>
       </c>
@@ -14741,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73">
         <v>71</v>
       </c>
@@ -14794,7 +14961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74">
         <v>72</v>
       </c>
@@ -14847,7 +15014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17">
       <c r="A75">
         <v>73</v>
       </c>
@@ -14900,7 +15067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17">
       <c r="A76">
         <v>74</v>
       </c>
@@ -14953,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17">
       <c r="A77">
         <v>75</v>
       </c>
@@ -15006,7 +15173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17">
       <c r="A78">
         <v>76</v>
       </c>
@@ -15059,7 +15226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17">
       <c r="A79">
         <v>77</v>
       </c>
@@ -15112,7 +15279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17">
       <c r="A80">
         <v>78</v>
       </c>
@@ -15165,7 +15332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17">
       <c r="A81">
         <v>79</v>
       </c>
@@ -15218,7 +15385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17">
       <c r="A82">
         <v>80</v>
       </c>
@@ -15271,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17">
       <c r="A83">
         <v>81</v>
       </c>
@@ -15324,7 +15491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17">
       <c r="A84">
         <v>82</v>
       </c>
@@ -15377,7 +15544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17">
       <c r="A85">
         <v>83</v>
       </c>
@@ -15430,7 +15597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17">
       <c r="A86">
         <v>84</v>
       </c>
@@ -15483,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17">
       <c r="A87">
         <v>85</v>
       </c>
@@ -15536,7 +15703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17">
       <c r="A88">
         <v>86</v>
       </c>
@@ -15589,7 +15756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17">
       <c r="A89">
         <v>87</v>
       </c>
@@ -15642,7 +15809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17">
       <c r="A90">
         <v>88</v>
       </c>
@@ -15695,7 +15862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17">
       <c r="A91">
         <v>89</v>
       </c>
@@ -15748,7 +15915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17">
       <c r="A92">
         <v>90</v>
       </c>
@@ -15801,7 +15968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17">
       <c r="A93">
         <v>91</v>
       </c>
@@ -15854,7 +16021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17">
       <c r="A94">
         <v>92</v>
       </c>
@@ -15907,7 +16074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17">
       <c r="A95">
         <v>93</v>
       </c>
@@ -15960,7 +16127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17">
       <c r="A96">
         <v>94</v>
       </c>
@@ -16013,7 +16180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17">
       <c r="A97">
         <v>95</v>
       </c>
@@ -16066,7 +16233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17">
       <c r="A98">
         <v>96</v>
       </c>
@@ -16119,7 +16286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17">
       <c r="A99">
         <v>97</v>
       </c>
@@ -16172,7 +16339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17">
       <c r="A100">
         <v>98</v>
       </c>
@@ -16225,7 +16392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17">
       <c r="A101">
         <v>99</v>
       </c>
@@ -16278,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17">
       <c r="A102">
         <v>100</v>
       </c>
@@ -16347,21 +16514,21 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>571</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>572</v>
       </c>
@@ -16372,7 +16539,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16383,7 +16550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16394,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -16405,7 +16572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -16416,7 +16583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -16427,7 +16594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -16438,7 +16605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16449,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -16460,7 +16627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16471,7 +16638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16482,7 +16649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>4</v>
       </c>
@@ -16493,7 +16660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>4</v>
       </c>
@@ -16504,7 +16671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>5</v>
       </c>
@@ -16515,7 +16682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -16526,7 +16693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>5</v>
       </c>
@@ -16537,7 +16704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>6</v>
       </c>
@@ -16548,7 +16715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>6</v>
       </c>
@@ -16559,7 +16726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>6</v>
       </c>
@@ -16570,7 +16737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>7</v>
       </c>
@@ -16581,7 +16748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -16592,7 +16759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>7</v>
       </c>
@@ -16603,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24">
         <v>8</v>
       </c>
@@ -16614,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>8</v>
       </c>
@@ -16625,7 +16792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>8</v>
       </c>
@@ -16636,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>9</v>
       </c>
@@ -16647,7 +16814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -16658,7 +16825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29">
         <v>9</v>
       </c>
@@ -16669,7 +16836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30">
         <v>10</v>
       </c>
@@ -16680,7 +16847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31">
         <v>10</v>
       </c>
@@ -16691,7 +16858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32">
         <v>10</v>
       </c>
@@ -16702,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33">
         <v>11</v>
       </c>
@@ -16713,7 +16880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34">
         <v>11</v>
       </c>
@@ -16724,7 +16891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35">
         <v>11</v>
       </c>
@@ -16735,7 +16902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36">
         <v>12</v>
       </c>
@@ -16746,7 +16913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37">
         <v>12</v>
       </c>
@@ -16757,7 +16924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -16768,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39">
         <v>13</v>
       </c>
@@ -16779,7 +16946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40">
         <v>13</v>
       </c>
@@ -16790,7 +16957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41">
         <v>13</v>
       </c>
@@ -16801,7 +16968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42">
         <v>14</v>
       </c>
@@ -16812,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43">
         <v>14</v>
       </c>
@@ -16823,7 +16990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44">
         <v>14</v>
       </c>
@@ -16834,7 +17001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45">
         <v>15</v>
       </c>
@@ -16845,7 +17012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46">
         <v>15</v>
       </c>
@@ -16856,7 +17023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47">
         <v>15</v>
       </c>
@@ -16867,7 +17034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48">
         <v>16</v>
       </c>
@@ -16878,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>16</v>
       </c>
@@ -16889,7 +17056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>16</v>
       </c>
@@ -16900,7 +17067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>17</v>
       </c>
@@ -16911,7 +17078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>17</v>
       </c>
@@ -16938,21 +17105,21 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>575</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -16963,7 +17130,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>579</v>
       </c>
@@ -16971,7 +17138,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>580</v>
       </c>
@@ -16979,7 +17146,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>581</v>
       </c>
@@ -16987,7 +17154,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -16995,7 +17162,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>583</v>
       </c>
@@ -17003,7 +17170,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>584</v>
       </c>
@@ -17011,7 +17178,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -17019,7 +17186,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>586</v>
       </c>
@@ -17027,7 +17194,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>587</v>
       </c>
@@ -17035,7 +17202,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -17043,7 +17210,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -17051,7 +17218,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>590</v>
       </c>
@@ -17059,7 +17226,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>591</v>
       </c>
@@ -17067,7 +17234,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>592</v>
       </c>
@@ -17075,7 +17242,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>593</v>
       </c>
@@ -17083,7 +17250,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>594</v>
       </c>
@@ -17091,7 +17258,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>595</v>
       </c>
@@ -17099,7 +17266,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>596</v>
       </c>
@@ -17107,7 +17274,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>597</v>
       </c>
@@ -17115,7 +17282,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>598</v>
       </c>
@@ -17123,7 +17290,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>599</v>
       </c>
@@ -17131,7 +17298,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>600</v>
       </c>
@@ -17139,7 +17306,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>601</v>
       </c>
@@ -17147,7 +17314,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>602</v>
       </c>
@@ -17155,7 +17322,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>603</v>
       </c>
@@ -17163,7 +17330,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>604</v>
       </c>
@@ -17171,7 +17338,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>605</v>
       </c>
@@ -17179,7 +17346,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>606</v>
       </c>
@@ -17190,7 +17357,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>607</v>
       </c>
@@ -17201,7 +17368,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>608</v>
       </c>
@@ -17212,7 +17379,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>609</v>
       </c>
@@ -17223,7 +17390,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>610</v>
       </c>
@@ -17234,7 +17401,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>611</v>
       </c>
@@ -17245,7 +17412,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
         <v>612</v>
       </c>
@@ -17256,7 +17423,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>613</v>
       </c>
@@ -17267,7 +17434,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>614</v>
       </c>
@@ -17278,7 +17445,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>615</v>
       </c>
@@ -17286,7 +17453,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>616</v>
       </c>
@@ -17294,7 +17461,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>617</v>
       </c>
@@ -17302,7 +17469,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>618</v>
       </c>
@@ -17310,7 +17477,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>619</v>
       </c>
@@ -17318,7 +17485,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>620</v>
       </c>
@@ -17326,7 +17493,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>621</v>
       </c>
@@ -17334,7 +17501,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>622</v>
       </c>
@@ -17342,7 +17509,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>623</v>
       </c>
@@ -17350,7 +17517,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>624</v>
       </c>
@@ -17358,7 +17525,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>625</v>
       </c>
@@ -17366,7 +17533,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
         <v>626</v>
       </c>
@@ -17374,7 +17541,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
         <v>627</v>
       </c>
@@ -17382,7 +17549,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
         <v>628</v>
       </c>
@@ -17390,7 +17557,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>629</v>
       </c>
@@ -17398,7 +17565,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>630</v>
       </c>
@@ -17406,7 +17573,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
         <v>631</v>
       </c>
@@ -17414,7 +17581,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
         <v>632</v>
       </c>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Capstone_wi21_project\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA024CA7-77FA-4AEA-9D2F-E83183CD8D59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F539DC4F-CB90-44CD-8A09-7A578BDC0DAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2209,7 +2209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2237,7 +2237,9 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Id"/>
+      <name val="IDAutomationHC39M Free Version"/>
+      <family val="5"/>
+      <charset val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2281,14 +2283,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFill="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -2318,6 +2320,187 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>923810</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3CCC851-C385-4611-B365-A398FD61049D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="1200150"/>
+          <a:ext cx="923810" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>809524</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>809524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17CAFBFB-81A9-4575-8368-6CC26FEE6BC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="381000"/>
+          <a:ext cx="809524" cy="809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>923810</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C78748D-D6C1-4508-AFA2-CCD4DCC062BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="2019300"/>
+          <a:ext cx="923810" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>923810</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104660</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFF359D-E94F-488B-A396-C8944E2B085E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12420600" y="2838450"/>
+          <a:ext cx="923810" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2586,22 +2769,22 @@
   <dimension ref="A1:BJ161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K52"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="43.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
     <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
@@ -2622,18 +2805,18 @@
     <col min="36" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
       <c r="K1" s="4" t="s">
         <v>720</v>
       </c>
@@ -2654,22 +2837,22 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="10"/>
-      <c r="AW1" s="10"/>
-      <c r="AX1" s="10"/>
-      <c r="AY1" s="10"/>
-      <c r="AZ1" s="10"/>
-      <c r="BA1" s="10"/>
-      <c r="BB1" s="10"/>
-      <c r="BC1" s="10"/>
+      <c r="AN1" s="12"/>
+      <c r="AO1" s="12"/>
+      <c r="AP1" s="12"/>
+      <c r="AQ1" s="12"/>
+      <c r="AR1" s="12"/>
+      <c r="AS1" s="12"/>
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BA1" s="12"/>
+      <c r="BB1" s="12"/>
+      <c r="BC1" s="12"/>
       <c r="BD1" s="5"/>
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
@@ -2678,7 +2861,7 @@
       <c r="BI1" s="5"/>
       <c r="BJ1" s="5"/>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2694,7 +2877,7 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G2" t="s">
@@ -2746,7 +2929,7 @@
       <c r="BI2" s="5"/>
       <c r="BJ2" s="5"/>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2762,7 +2945,7 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="10" t="s">
         <v>194</v>
       </c>
       <c r="G3">
@@ -2818,7 +3001,7 @@
       <c r="BI3" s="5"/>
       <c r="BJ3" s="5"/>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2834,7 +3017,7 @@
       <c r="E4" t="s">
         <v>193</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="10" t="s">
         <v>669</v>
       </c>
       <c r="G4">
@@ -2890,7 +3073,7 @@
       <c r="BI4" s="5"/>
       <c r="BJ4" s="5"/>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2906,7 +3089,7 @@
       <c r="E5" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>670</v>
       </c>
       <c r="G5">
@@ -2962,7 +3145,7 @@
       <c r="BI5" s="5"/>
       <c r="BJ5" s="5"/>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2978,7 +3161,7 @@
       <c r="E6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>671</v>
       </c>
       <c r="G6">
@@ -3034,7 +3217,7 @@
       <c r="BI6" s="5"/>
       <c r="BJ6" s="5"/>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3050,7 +3233,7 @@
       <c r="E7" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="10" t="s">
         <v>672</v>
       </c>
       <c r="G7">
@@ -3106,7 +3289,7 @@
       <c r="BI7" s="5"/>
       <c r="BJ7" s="5"/>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3122,7 +3305,7 @@
       <c r="E8" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="10" t="s">
         <v>673</v>
       </c>
       <c r="G8">
@@ -3178,7 +3361,7 @@
       <c r="BI8" s="5"/>
       <c r="BJ8" s="5"/>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3194,7 +3377,7 @@
       <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="10" t="s">
         <v>674</v>
       </c>
       <c r="G9">
@@ -3250,7 +3433,7 @@
       <c r="BI9" s="5"/>
       <c r="BJ9" s="5"/>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3266,7 +3449,7 @@
       <c r="E10" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="10" t="s">
         <v>675</v>
       </c>
       <c r="G10">
@@ -3322,7 +3505,7 @@
       <c r="BI10" s="5"/>
       <c r="BJ10" s="5"/>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3338,7 +3521,7 @@
       <c r="E11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="10" t="s">
         <v>676</v>
       </c>
       <c r="G11">
@@ -3394,7 +3577,7 @@
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3410,7 +3593,7 @@
       <c r="E12" t="s">
         <v>65</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="10" t="s">
         <v>677</v>
       </c>
       <c r="G12">
@@ -3466,7 +3649,7 @@
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3482,7 +3665,7 @@
       <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="10" t="s">
         <v>678</v>
       </c>
       <c r="G13">
@@ -3538,7 +3721,7 @@
       <c r="BI13" s="5"/>
       <c r="BJ13" s="5"/>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3554,7 +3737,7 @@
       <c r="E14" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="10" t="s">
         <v>679</v>
       </c>
       <c r="G14">
@@ -3610,7 +3793,7 @@
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3626,7 +3809,7 @@
       <c r="E15" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="10" t="s">
         <v>680</v>
       </c>
       <c r="G15">
@@ -3682,7 +3865,7 @@
       <c r="BI15" s="5"/>
       <c r="BJ15" s="5"/>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3698,7 +3881,7 @@
       <c r="E16" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="10" t="s">
         <v>681</v>
       </c>
       <c r="G16">
@@ -3754,7 +3937,7 @@
       <c r="BI16" s="5"/>
       <c r="BJ16" s="5"/>
     </row>
-    <row r="17" spans="1:62">
+    <row r="17" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3770,7 +3953,7 @@
       <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="10" t="s">
         <v>682</v>
       </c>
       <c r="G17">
@@ -3826,7 +4009,7 @@
       <c r="BI17" s="5"/>
       <c r="BJ17" s="5"/>
     </row>
-    <row r="18" spans="1:62">
+    <row r="18" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3842,7 +4025,7 @@
       <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="10" t="s">
         <v>683</v>
       </c>
       <c r="G18">
@@ -3898,7 +4081,7 @@
       <c r="BI18" s="5"/>
       <c r="BJ18" s="5"/>
     </row>
-    <row r="19" spans="1:62">
+    <row r="19" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3914,7 +4097,7 @@
       <c r="E19" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="10" t="s">
         <v>684</v>
       </c>
       <c r="G19">
@@ -3970,7 +4153,7 @@
       <c r="BI19" s="5"/>
       <c r="BJ19" s="5"/>
     </row>
-    <row r="20" spans="1:62">
+    <row r="20" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3986,7 +4169,7 @@
       <c r="E20" t="s">
         <v>73</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="10" t="s">
         <v>685</v>
       </c>
       <c r="G20">
@@ -4042,7 +4225,7 @@
       <c r="BI20" s="5"/>
       <c r="BJ20" s="5"/>
     </row>
-    <row r="21" spans="1:62">
+    <row r="21" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4058,7 +4241,7 @@
       <c r="E21" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="10" t="s">
         <v>686</v>
       </c>
       <c r="G21">
@@ -4114,7 +4297,7 @@
       <c r="BI21" s="5"/>
       <c r="BJ21" s="5"/>
     </row>
-    <row r="22" spans="1:62">
+    <row r="22" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4130,7 +4313,7 @@
       <c r="E22" t="s">
         <v>75</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="10" t="s">
         <v>687</v>
       </c>
       <c r="G22">
@@ -4186,7 +4369,7 @@
       <c r="BI22" s="5"/>
       <c r="BJ22" s="5"/>
     </row>
-    <row r="23" spans="1:62">
+    <row r="23" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4202,7 +4385,7 @@
       <c r="E23" t="s">
         <v>76</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="10" t="s">
         <v>688</v>
       </c>
       <c r="G23">
@@ -4258,7 +4441,7 @@
       <c r="BI23" s="5"/>
       <c r="BJ23" s="5"/>
     </row>
-    <row r="24" spans="1:62">
+    <row r="24" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4274,7 +4457,7 @@
       <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10" t="s">
         <v>689</v>
       </c>
       <c r="G24">
@@ -4330,7 +4513,7 @@
       <c r="BI24" s="5"/>
       <c r="BJ24" s="5"/>
     </row>
-    <row r="25" spans="1:62">
+    <row r="25" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4346,7 +4529,7 @@
       <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="10" t="s">
         <v>690</v>
       </c>
       <c r="G25">
@@ -4402,7 +4585,7 @@
       <c r="BI25" s="5"/>
       <c r="BJ25" s="5"/>
     </row>
-    <row r="26" spans="1:62">
+    <row r="26" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4418,7 +4601,7 @@
       <c r="E26" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="10" t="s">
         <v>691</v>
       </c>
       <c r="G26">
@@ -4474,7 +4657,7 @@
       <c r="BI26" s="5"/>
       <c r="BJ26" s="5"/>
     </row>
-    <row r="27" spans="1:62">
+    <row r="27" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4490,7 +4673,7 @@
       <c r="E27" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="10" t="s">
         <v>692</v>
       </c>
       <c r="G27">
@@ -4546,7 +4729,7 @@
       <c r="BI27" s="5"/>
       <c r="BJ27" s="5"/>
     </row>
-    <row r="28" spans="1:62">
+    <row r="28" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4562,7 +4745,7 @@
       <c r="E28" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="10" t="s">
         <v>693</v>
       </c>
       <c r="G28">
@@ -4618,7 +4801,7 @@
       <c r="BI28" s="5"/>
       <c r="BJ28" s="5"/>
     </row>
-    <row r="29" spans="1:62">
+    <row r="29" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4634,7 +4817,7 @@
       <c r="E29" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="10" t="s">
         <v>694</v>
       </c>
       <c r="G29">
@@ -4690,7 +4873,7 @@
       <c r="BI29" s="5"/>
       <c r="BJ29" s="5"/>
     </row>
-    <row r="30" spans="1:62">
+    <row r="30" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4706,7 +4889,7 @@
       <c r="E30" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="10" t="s">
         <v>695</v>
       </c>
       <c r="G30">
@@ -4762,7 +4945,7 @@
       <c r="BI30" s="5"/>
       <c r="BJ30" s="5"/>
     </row>
-    <row r="31" spans="1:62">
+    <row r="31" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4778,7 +4961,7 @@
       <c r="E31" t="s">
         <v>82</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>696</v>
       </c>
       <c r="G31">
@@ -4834,7 +5017,7 @@
       <c r="BI31" s="5"/>
       <c r="BJ31" s="5"/>
     </row>
-    <row r="32" spans="1:62">
+    <row r="32" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4850,7 +5033,7 @@
       <c r="E32" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="10" t="s">
         <v>697</v>
       </c>
       <c r="G32">
@@ -4906,7 +5089,7 @@
       <c r="BI32" s="5"/>
       <c r="BJ32" s="5"/>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4922,7 +5105,7 @@
       <c r="E33" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="10" t="s">
         <v>698</v>
       </c>
       <c r="G33">
@@ -4978,7 +5161,7 @@
       <c r="BI33" s="5"/>
       <c r="BJ33" s="5"/>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4994,7 +5177,7 @@
       <c r="E34" t="s">
         <v>84</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="10" t="s">
         <v>699</v>
       </c>
       <c r="G34">
@@ -5050,7 +5233,7 @@
       <c r="BI34" s="5"/>
       <c r="BJ34" s="5"/>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5066,7 +5249,7 @@
       <c r="E35" t="s">
         <v>85</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="10" t="s">
         <v>700</v>
       </c>
       <c r="G35">
@@ -5122,7 +5305,7 @@
       <c r="BI35" s="5"/>
       <c r="BJ35" s="5"/>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5138,7 +5321,7 @@
       <c r="E36" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="10" t="s">
         <v>701</v>
       </c>
       <c r="G36">
@@ -5194,7 +5377,7 @@
       <c r="BI36" s="5"/>
       <c r="BJ36" s="5"/>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5210,7 +5393,7 @@
       <c r="E37" t="s">
         <v>87</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="10" t="s">
         <v>702</v>
       </c>
       <c r="G37">
@@ -5266,7 +5449,7 @@
       <c r="BI37" s="5"/>
       <c r="BJ37" s="5"/>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -5282,7 +5465,7 @@
       <c r="E38" t="s">
         <v>88</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="10" t="s">
         <v>703</v>
       </c>
       <c r="G38">
@@ -5338,7 +5521,7 @@
       <c r="BI38" s="5"/>
       <c r="BJ38" s="5"/>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -5354,7 +5537,7 @@
       <c r="E39" t="s">
         <v>89</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="10" t="s">
         <v>704</v>
       </c>
       <c r="G39">
@@ -5410,7 +5593,7 @@
       <c r="BI39" s="5"/>
       <c r="BJ39" s="5"/>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -5426,7 +5609,7 @@
       <c r="E40" t="s">
         <v>90</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="10" t="s">
         <v>705</v>
       </c>
       <c r="G40">
@@ -5482,7 +5665,7 @@
       <c r="BI40" s="5"/>
       <c r="BJ40" s="5"/>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -5498,7 +5681,7 @@
       <c r="E41" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="10" t="s">
         <v>706</v>
       </c>
       <c r="G41">
@@ -5554,7 +5737,7 @@
       <c r="BI41" s="5"/>
       <c r="BJ41" s="5"/>
     </row>
-    <row r="42" spans="1:62">
+    <row r="42" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -5570,7 +5753,7 @@
       <c r="E42" t="s">
         <v>92</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="10" t="s">
         <v>707</v>
       </c>
       <c r="G42">
@@ -5626,7 +5809,7 @@
       <c r="BI42" s="5"/>
       <c r="BJ42" s="5"/>
     </row>
-    <row r="43" spans="1:62">
+    <row r="43" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -5642,7 +5825,7 @@
       <c r="E43" t="s">
         <v>93</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="10" t="s">
         <v>708</v>
       </c>
       <c r="G43">
@@ -5698,7 +5881,7 @@
       <c r="BI43" s="5"/>
       <c r="BJ43" s="5"/>
     </row>
-    <row r="44" spans="1:62">
+    <row r="44" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -5714,7 +5897,7 @@
       <c r="E44" t="s">
         <v>94</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="10" t="s">
         <v>709</v>
       </c>
       <c r="G44">
@@ -5770,7 +5953,7 @@
       <c r="BI44" s="5"/>
       <c r="BJ44" s="5"/>
     </row>
-    <row r="45" spans="1:62">
+    <row r="45" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -5786,7 +5969,7 @@
       <c r="E45" t="s">
         <v>89</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="10" t="s">
         <v>710</v>
       </c>
       <c r="G45">
@@ -5842,7 +6025,7 @@
       <c r="BI45" s="5"/>
       <c r="BJ45" s="5"/>
     </row>
-    <row r="46" spans="1:62">
+    <row r="46" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -5858,7 +6041,7 @@
       <c r="E46" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="10" t="s">
         <v>711</v>
       </c>
       <c r="G46">
@@ -5914,7 +6097,7 @@
       <c r="BI46" s="5"/>
       <c r="BJ46" s="5"/>
     </row>
-    <row r="47" spans="1:62">
+    <row r="47" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -5930,7 +6113,7 @@
       <c r="E47" t="s">
         <v>95</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="10" t="s">
         <v>712</v>
       </c>
       <c r="G47">
@@ -5986,7 +6169,7 @@
       <c r="BI47" s="5"/>
       <c r="BJ47" s="5"/>
     </row>
-    <row r="48" spans="1:62">
+    <row r="48" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6002,7 +6185,7 @@
       <c r="E48" t="s">
         <v>96</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="10" t="s">
         <v>713</v>
       </c>
       <c r="G48">
@@ -6058,7 +6241,7 @@
       <c r="BI48" s="5"/>
       <c r="BJ48" s="5"/>
     </row>
-    <row r="49" spans="1:62">
+    <row r="49" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6074,7 +6257,7 @@
       <c r="E49" t="s">
         <v>97</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="10" t="s">
         <v>714</v>
       </c>
       <c r="G49">
@@ -6130,7 +6313,7 @@
       <c r="BI49" s="5"/>
       <c r="BJ49" s="5"/>
     </row>
-    <row r="50" spans="1:62">
+    <row r="50" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6146,7 +6329,7 @@
       <c r="E50" t="s">
         <v>77</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="10" t="s">
         <v>715</v>
       </c>
       <c r="G50">
@@ -6202,7 +6385,7 @@
       <c r="BI50" s="5"/>
       <c r="BJ50" s="5"/>
     </row>
-    <row r="51" spans="1:62">
+    <row r="51" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6218,7 +6401,7 @@
       <c r="E51" t="s">
         <v>61</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="10" t="s">
         <v>716</v>
       </c>
       <c r="G51">
@@ -6274,7 +6457,7 @@
       <c r="BI51" s="5"/>
       <c r="BJ51" s="5"/>
     </row>
-    <row r="52" spans="1:62">
+    <row r="52" spans="1:62" ht="64.5" x14ac:dyDescent="2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6290,7 +6473,7 @@
       <c r="E52" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="10" t="s">
         <v>717</v>
       </c>
       <c r="G52">
@@ -6346,7 +6529,7 @@
       <c r="BI52" s="5"/>
       <c r="BJ52" s="5"/>
     </row>
-    <row r="53" spans="1:62">
+    <row r="53" spans="1:62" x14ac:dyDescent="0.25">
       <c r="K53" s="5"/>
       <c r="L53" s="6"/>
       <c r="M53" s="5"/>
@@ -6388,7 +6571,7 @@
       <c r="BI53" s="5"/>
       <c r="BJ53" s="5"/>
     </row>
-    <row r="54" spans="1:62">
+    <row r="54" spans="1:62" x14ac:dyDescent="0.25">
       <c r="K54" s="5"/>
       <c r="L54" s="6"/>
       <c r="M54" s="5"/>
@@ -6430,23 +6613,23 @@
       <c r="BI54" s="5"/>
       <c r="BJ54" s="5"/>
     </row>
-    <row r="55" spans="1:62">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
+    <row r="55" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
@@ -6482,13 +6665,13 @@
       <c r="BI55" s="5"/>
       <c r="BJ55" s="5"/>
     </row>
-    <row r="56" spans="1:62">
+    <row r="56" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="13"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
@@ -6534,13 +6717,13 @@
       <c r="BI56" s="5"/>
       <c r="BJ56" s="5"/>
     </row>
-    <row r="57" spans="1:62">
+    <row r="57" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="13"/>
+      <c r="F57" s="11"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -6586,13 +6769,13 @@
       <c r="BI57" s="5"/>
       <c r="BJ57" s="5"/>
     </row>
-    <row r="58" spans="1:62">
+    <row r="58" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="6"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="13"/>
+      <c r="F58" s="11"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -6638,13 +6821,13 @@
       <c r="BI58" s="5"/>
       <c r="BJ58" s="5"/>
     </row>
-    <row r="59" spans="1:62">
+    <row r="59" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="13"/>
+      <c r="F59" s="11"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
       <c r="I59" s="5"/>
@@ -6690,13 +6873,13 @@
       <c r="BI59" s="5"/>
       <c r="BJ59" s="5"/>
     </row>
-    <row r="60" spans="1:62">
+    <row r="60" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="13"/>
+      <c r="F60" s="11"/>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
       <c r="I60" s="5"/>
@@ -6742,13 +6925,13 @@
       <c r="BI60" s="5"/>
       <c r="BJ60" s="5"/>
     </row>
-    <row r="61" spans="1:62">
+    <row r="61" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="6"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="13"/>
+      <c r="F61" s="11"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
       <c r="I61" s="5"/>
@@ -6794,13 +6977,13 @@
       <c r="BI61" s="5"/>
       <c r="BJ61" s="5"/>
     </row>
-    <row r="62" spans="1:62">
+    <row r="62" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="6"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="13"/>
+      <c r="F62" s="11"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
       <c r="I62" s="5"/>
@@ -6846,13 +7029,13 @@
       <c r="BI62" s="5"/>
       <c r="BJ62" s="5"/>
     </row>
-    <row r="63" spans="1:62">
+    <row r="63" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="6"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="13"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
@@ -6898,13 +7081,13 @@
       <c r="BI63" s="5"/>
       <c r="BJ63" s="5"/>
     </row>
-    <row r="64" spans="1:62">
+    <row r="64" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="6"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="13"/>
+      <c r="F64" s="11"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
@@ -6950,13 +7133,13 @@
       <c r="BI64" s="5"/>
       <c r="BJ64" s="5"/>
     </row>
-    <row r="65" spans="1:62">
+    <row r="65" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="6"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="13"/>
+      <c r="F65" s="11"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
@@ -7002,13 +7185,13 @@
       <c r="BI65" s="5"/>
       <c r="BJ65" s="5"/>
     </row>
-    <row r="66" spans="1:62">
+    <row r="66" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="13"/>
+      <c r="F66" s="11"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
@@ -7054,13 +7237,13 @@
       <c r="BI66" s="5"/>
       <c r="BJ66" s="5"/>
     </row>
-    <row r="67" spans="1:62">
+    <row r="67" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="6"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="13"/>
+      <c r="F67" s="11"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
       <c r="I67" s="5"/>
@@ -7106,13 +7289,13 @@
       <c r="BI67" s="5"/>
       <c r="BJ67" s="5"/>
     </row>
-    <row r="68" spans="1:62">
+    <row r="68" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="6"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="13"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="5"/>
       <c r="H68" s="5"/>
       <c r="I68" s="5"/>
@@ -7158,13 +7341,13 @@
       <c r="BI68" s="5"/>
       <c r="BJ68" s="5"/>
     </row>
-    <row r="69" spans="1:62">
+    <row r="69" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="13"/>
+      <c r="F69" s="11"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
@@ -7210,13 +7393,13 @@
       <c r="BI69" s="5"/>
       <c r="BJ69" s="5"/>
     </row>
-    <row r="70" spans="1:62">
+    <row r="70" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="13"/>
+      <c r="F70" s="11"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
@@ -7262,13 +7445,13 @@
       <c r="BI70" s="5"/>
       <c r="BJ70" s="5"/>
     </row>
-    <row r="71" spans="1:62">
+    <row r="71" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="13"/>
+      <c r="F71" s="11"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
@@ -7314,13 +7497,13 @@
       <c r="BI71" s="5"/>
       <c r="BJ71" s="5"/>
     </row>
-    <row r="72" spans="1:62">
+    <row r="72" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="13"/>
+      <c r="F72" s="11"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
@@ -7366,13 +7549,13 @@
       <c r="BI72" s="5"/>
       <c r="BJ72" s="5"/>
     </row>
-    <row r="73" spans="1:62">
+    <row r="73" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="6"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="13"/>
+      <c r="F73" s="11"/>
       <c r="G73" s="5"/>
       <c r="H73" s="5"/>
       <c r="I73" s="5"/>
@@ -7418,13 +7601,13 @@
       <c r="BI73" s="5"/>
       <c r="BJ73" s="5"/>
     </row>
-    <row r="74" spans="1:62">
+    <row r="74" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="6"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="13"/>
+      <c r="F74" s="11"/>
       <c r="G74" s="5"/>
       <c r="H74" s="5"/>
       <c r="I74" s="5"/>
@@ -7470,13 +7653,13 @@
       <c r="BI74" s="5"/>
       <c r="BJ74" s="5"/>
     </row>
-    <row r="75" spans="1:62">
+    <row r="75" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="6"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="13"/>
+      <c r="F75" s="11"/>
       <c r="G75" s="5"/>
       <c r="H75" s="5"/>
       <c r="I75" s="5"/>
@@ -7522,13 +7705,13 @@
       <c r="BI75" s="5"/>
       <c r="BJ75" s="5"/>
     </row>
-    <row r="76" spans="1:62">
+    <row r="76" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="6"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="13"/>
+      <c r="F76" s="11"/>
       <c r="G76" s="5"/>
       <c r="H76" s="5"/>
       <c r="I76" s="5"/>
@@ -7574,13 +7757,13 @@
       <c r="BI76" s="5"/>
       <c r="BJ76" s="5"/>
     </row>
-    <row r="77" spans="1:62">
+    <row r="77" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="6"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="13"/>
+      <c r="F77" s="11"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
@@ -7626,13 +7809,13 @@
       <c r="BI77" s="5"/>
       <c r="BJ77" s="5"/>
     </row>
-    <row r="78" spans="1:62">
+    <row r="78" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="13"/>
+      <c r="F78" s="11"/>
       <c r="G78" s="5"/>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
@@ -7678,13 +7861,13 @@
       <c r="BI78" s="5"/>
       <c r="BJ78" s="5"/>
     </row>
-    <row r="79" spans="1:62">
+    <row r="79" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="6"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="13"/>
+      <c r="F79" s="11"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
@@ -7730,13 +7913,13 @@
       <c r="BI79" s="5"/>
       <c r="BJ79" s="5"/>
     </row>
-    <row r="80" spans="1:62">
+    <row r="80" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="6"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="13"/>
+      <c r="F80" s="11"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="5"/>
@@ -7782,13 +7965,13 @@
       <c r="BI80" s="5"/>
       <c r="BJ80" s="5"/>
     </row>
-    <row r="81" spans="1:62">
+    <row r="81" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="13"/>
+      <c r="F81" s="11"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
@@ -7834,13 +8017,13 @@
       <c r="BI81" s="5"/>
       <c r="BJ81" s="5"/>
     </row>
-    <row r="82" spans="1:62">
+    <row r="82" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="6"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="13"/>
+      <c r="F82" s="11"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
@@ -7886,13 +8069,13 @@
       <c r="BI82" s="5"/>
       <c r="BJ82" s="5"/>
     </row>
-    <row r="83" spans="1:62">
+    <row r="83" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="13"/>
+      <c r="F83" s="11"/>
       <c r="G83" s="5"/>
       <c r="H83" s="5"/>
       <c r="I83" s="5"/>
@@ -7938,13 +8121,13 @@
       <c r="BI83" s="5"/>
       <c r="BJ83" s="5"/>
     </row>
-    <row r="84" spans="1:62">
+    <row r="84" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="13"/>
+      <c r="F84" s="11"/>
       <c r="G84" s="5"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
@@ -7990,13 +8173,13 @@
       <c r="BI84" s="5"/>
       <c r="BJ84" s="5"/>
     </row>
-    <row r="85" spans="1:62">
+    <row r="85" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="13"/>
+      <c r="F85" s="11"/>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
@@ -8042,13 +8225,13 @@
       <c r="BI85" s="5"/>
       <c r="BJ85" s="5"/>
     </row>
-    <row r="86" spans="1:62">
+    <row r="86" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="13"/>
+      <c r="F86" s="11"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
@@ -8094,13 +8277,13 @@
       <c r="BI86" s="5"/>
       <c r="BJ86" s="5"/>
     </row>
-    <row r="87" spans="1:62">
+    <row r="87" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="13"/>
+      <c r="F87" s="11"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
@@ -8146,13 +8329,13 @@
       <c r="BI87" s="5"/>
       <c r="BJ87" s="5"/>
     </row>
-    <row r="88" spans="1:62">
+    <row r="88" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="13"/>
+      <c r="F88" s="11"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
@@ -8198,13 +8381,13 @@
       <c r="BI88" s="5"/>
       <c r="BJ88" s="5"/>
     </row>
-    <row r="89" spans="1:62">
+    <row r="89" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="13"/>
+      <c r="F89" s="11"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -8250,13 +8433,13 @@
       <c r="BI89" s="5"/>
       <c r="BJ89" s="5"/>
     </row>
-    <row r="90" spans="1:62">
+    <row r="90" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="13"/>
+      <c r="F90" s="11"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -8302,13 +8485,13 @@
       <c r="BI90" s="5"/>
       <c r="BJ90" s="5"/>
     </row>
-    <row r="91" spans="1:62">
+    <row r="91" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="13"/>
+      <c r="F91" s="11"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
@@ -8354,13 +8537,13 @@
       <c r="BI91" s="5"/>
       <c r="BJ91" s="5"/>
     </row>
-    <row r="92" spans="1:62">
+    <row r="92" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="13"/>
+      <c r="F92" s="11"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -8406,13 +8589,13 @@
       <c r="BI92" s="5"/>
       <c r="BJ92" s="5"/>
     </row>
-    <row r="93" spans="1:62">
+    <row r="93" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="13"/>
+      <c r="F93" s="11"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -8458,13 +8641,13 @@
       <c r="BI93" s="5"/>
       <c r="BJ93" s="5"/>
     </row>
-    <row r="94" spans="1:62">
+    <row r="94" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="13"/>
+      <c r="F94" s="11"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -8510,13 +8693,13 @@
       <c r="BI94" s="5"/>
       <c r="BJ94" s="5"/>
     </row>
-    <row r="95" spans="1:62">
+    <row r="95" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="13"/>
+      <c r="F95" s="11"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -8562,13 +8745,13 @@
       <c r="BI95" s="5"/>
       <c r="BJ95" s="5"/>
     </row>
-    <row r="96" spans="1:62">
+    <row r="96" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="13"/>
+      <c r="F96" s="11"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -8614,13 +8797,13 @@
       <c r="BI96" s="5"/>
       <c r="BJ96" s="5"/>
     </row>
-    <row r="97" spans="1:62">
+    <row r="97" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="13"/>
+      <c r="F97" s="11"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -8666,13 +8849,13 @@
       <c r="BI97" s="5"/>
       <c r="BJ97" s="5"/>
     </row>
-    <row r="98" spans="1:62">
+    <row r="98" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="13"/>
+      <c r="F98" s="11"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -8718,13 +8901,13 @@
       <c r="BI98" s="5"/>
       <c r="BJ98" s="5"/>
     </row>
-    <row r="99" spans="1:62">
+    <row r="99" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="13"/>
+      <c r="F99" s="11"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -8770,13 +8953,13 @@
       <c r="BI99" s="5"/>
       <c r="BJ99" s="5"/>
     </row>
-    <row r="100" spans="1:62">
+    <row r="100" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="13"/>
+      <c r="F100" s="11"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -8822,13 +9005,13 @@
       <c r="BI100" s="5"/>
       <c r="BJ100" s="5"/>
     </row>
-    <row r="101" spans="1:62">
+    <row r="101" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="13"/>
+      <c r="F101" s="11"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -8874,13 +9057,13 @@
       <c r="BI101" s="5"/>
       <c r="BJ101" s="5"/>
     </row>
-    <row r="102" spans="1:62">
+    <row r="102" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="13"/>
+      <c r="F102" s="11"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -8926,13 +9109,13 @@
       <c r="BI102" s="5"/>
       <c r="BJ102" s="5"/>
     </row>
-    <row r="103" spans="1:62">
+    <row r="103" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="13"/>
+      <c r="F103" s="11"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -8969,13 +9152,13 @@
       <c r="BI103" s="5"/>
       <c r="BJ103" s="5"/>
     </row>
-    <row r="104" spans="1:62">
+    <row r="104" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="13"/>
+      <c r="F104" s="11"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -9012,13 +9195,13 @@
       <c r="BI104" s="5"/>
       <c r="BJ104" s="5"/>
     </row>
-    <row r="105" spans="1:62">
+    <row r="105" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="13"/>
+      <c r="F105" s="11"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -9055,13 +9238,13 @@
       <c r="BI105" s="5"/>
       <c r="BJ105" s="5"/>
     </row>
-    <row r="106" spans="1:62">
+    <row r="106" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="13"/>
+      <c r="F106" s="11"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -9098,13 +9281,13 @@
       <c r="BI106" s="5"/>
       <c r="BJ106" s="5"/>
     </row>
-    <row r="107" spans="1:62">
+    <row r="107" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="13"/>
+      <c r="F107" s="11"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -9141,13 +9324,13 @@
       <c r="BI107" s="5"/>
       <c r="BJ107" s="5"/>
     </row>
-    <row r="108" spans="1:62">
+    <row r="108" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="6"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="13"/>
+      <c r="F108" s="11"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -9184,13 +9367,13 @@
       <c r="BI108" s="5"/>
       <c r="BJ108" s="5"/>
     </row>
-    <row r="109" spans="1:62">
+    <row r="109" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="6"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="13"/>
+      <c r="F109" s="11"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -9227,13 +9410,13 @@
       <c r="BI109" s="5"/>
       <c r="BJ109" s="5"/>
     </row>
-    <row r="110" spans="1:62">
+    <row r="110" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="6"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="13"/>
+      <c r="F110" s="11"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -9270,13 +9453,13 @@
       <c r="BI110" s="5"/>
       <c r="BJ110" s="5"/>
     </row>
-    <row r="111" spans="1:62">
+    <row r="111" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="6"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="13"/>
+      <c r="F111" s="11"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -9313,13 +9496,13 @@
       <c r="BI111" s="5"/>
       <c r="BJ111" s="5"/>
     </row>
-    <row r="112" spans="1:62">
+    <row r="112" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="6"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="13"/>
+      <c r="F112" s="11"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -9356,13 +9539,13 @@
       <c r="BI112" s="5"/>
       <c r="BJ112" s="5"/>
     </row>
-    <row r="113" spans="1:62">
+    <row r="113" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="6"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="13"/>
+      <c r="F113" s="11"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -9399,13 +9582,13 @@
       <c r="BI113" s="5"/>
       <c r="BJ113" s="5"/>
     </row>
-    <row r="114" spans="1:62">
+    <row r="114" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="6"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="13"/>
+      <c r="F114" s="11"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -9442,13 +9625,13 @@
       <c r="BI114" s="5"/>
       <c r="BJ114" s="5"/>
     </row>
-    <row r="115" spans="1:62">
+    <row r="115" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="6"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="13"/>
+      <c r="F115" s="11"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -9485,13 +9668,13 @@
       <c r="BI115" s="5"/>
       <c r="BJ115" s="5"/>
     </row>
-    <row r="116" spans="1:62">
+    <row r="116" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="6"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="13"/>
+      <c r="F116" s="11"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -9528,13 +9711,13 @@
       <c r="BI116" s="5"/>
       <c r="BJ116" s="5"/>
     </row>
-    <row r="117" spans="1:62">
+    <row r="117" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="6"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="13"/>
+      <c r="F117" s="11"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -9571,13 +9754,13 @@
       <c r="BI117" s="5"/>
       <c r="BJ117" s="5"/>
     </row>
-    <row r="118" spans="1:62">
+    <row r="118" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="6"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="13"/>
+      <c r="F118" s="11"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -9591,13 +9774,13 @@
       <c r="R118" s="5"/>
       <c r="T118" s="6"/>
     </row>
-    <row r="119" spans="1:62">
+    <row r="119" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="6"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="13"/>
+      <c r="F119" s="11"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -9611,13 +9794,13 @@
       <c r="R119" s="5"/>
       <c r="T119" s="6"/>
     </row>
-    <row r="120" spans="1:62">
+    <row r="120" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="6"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="13"/>
+      <c r="F120" s="11"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -9631,13 +9814,13 @@
       <c r="R120" s="5"/>
       <c r="T120" s="6"/>
     </row>
-    <row r="121" spans="1:62">
+    <row r="121" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="6"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="13"/>
+      <c r="F121" s="11"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -9651,13 +9834,13 @@
       <c r="R121" s="5"/>
       <c r="T121" s="6"/>
     </row>
-    <row r="122" spans="1:62">
+    <row r="122" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="6"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="13"/>
+      <c r="F122" s="11"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -9671,13 +9854,13 @@
       <c r="R122" s="5"/>
       <c r="T122" s="6"/>
     </row>
-    <row r="123" spans="1:62">
+    <row r="123" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="6"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="13"/>
+      <c r="F123" s="11"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -9691,13 +9874,13 @@
       <c r="R123" s="5"/>
       <c r="T123" s="6"/>
     </row>
-    <row r="124" spans="1:62">
+    <row r="124" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="6"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="13"/>
+      <c r="F124" s="11"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -9711,13 +9894,13 @@
       <c r="R124" s="5"/>
       <c r="T124" s="6"/>
     </row>
-    <row r="125" spans="1:62">
+    <row r="125" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="6"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="13"/>
+      <c r="F125" s="11"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -9731,13 +9914,13 @@
       <c r="R125" s="5"/>
       <c r="T125" s="6"/>
     </row>
-    <row r="126" spans="1:62">
+    <row r="126" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="6"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="13"/>
+      <c r="F126" s="11"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -9751,13 +9934,13 @@
       <c r="R126" s="5"/>
       <c r="T126" s="6"/>
     </row>
-    <row r="127" spans="1:62">
+    <row r="127" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="6"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="13"/>
+      <c r="F127" s="11"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -9771,13 +9954,13 @@
       <c r="R127" s="5"/>
       <c r="T127" s="6"/>
     </row>
-    <row r="128" spans="1:62">
+    <row r="128" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="6"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="13"/>
+      <c r="F128" s="11"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -9791,13 +9974,13 @@
       <c r="R128" s="5"/>
       <c r="T128" s="6"/>
     </row>
-    <row r="129" spans="1:20">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="6"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="13"/>
+      <c r="F129" s="11"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -9811,13 +9994,13 @@
       <c r="R129" s="5"/>
       <c r="T129" s="6"/>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="6"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="13"/>
+      <c r="F130" s="11"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -9831,13 +10014,13 @@
       <c r="R130" s="5"/>
       <c r="T130" s="6"/>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="6"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="13"/>
+      <c r="F131" s="11"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -9851,13 +10034,13 @@
       <c r="R131" s="5"/>
       <c r="T131" s="6"/>
     </row>
-    <row r="132" spans="1:20">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="6"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="13"/>
+      <c r="F132" s="11"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -9871,13 +10054,13 @@
       <c r="R132" s="5"/>
       <c r="T132" s="6"/>
     </row>
-    <row r="133" spans="1:20">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="6"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="13"/>
+      <c r="F133" s="11"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -9891,13 +10074,13 @@
       <c r="R133" s="5"/>
       <c r="T133" s="6"/>
     </row>
-    <row r="134" spans="1:20">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="6"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="13"/>
+      <c r="F134" s="11"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -9911,13 +10094,13 @@
       <c r="R134" s="5"/>
       <c r="T134" s="6"/>
     </row>
-    <row r="135" spans="1:20">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="6"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="13"/>
+      <c r="F135" s="11"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -9931,13 +10114,13 @@
       <c r="R135" s="5"/>
       <c r="T135" s="6"/>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="6"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="13"/>
+      <c r="F136" s="11"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -9951,13 +10134,13 @@
       <c r="R136" s="5"/>
       <c r="T136" s="6"/>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="6"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="13"/>
+      <c r="F137" s="11"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -9971,13 +10154,13 @@
       <c r="R137" s="5"/>
       <c r="T137" s="6"/>
     </row>
-    <row r="138" spans="1:20">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="6"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="13"/>
+      <c r="F138" s="11"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -9991,13 +10174,13 @@
       <c r="R138" s="5"/>
       <c r="T138" s="6"/>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="6"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="13"/>
+      <c r="F139" s="11"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -10011,13 +10194,13 @@
       <c r="R139" s="5"/>
       <c r="T139" s="6"/>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="6"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="13"/>
+      <c r="F140" s="11"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -10031,13 +10214,13 @@
       <c r="R140" s="5"/>
       <c r="T140" s="6"/>
     </row>
-    <row r="141" spans="1:20">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="6"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="13"/>
+      <c r="F141" s="11"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -10051,13 +10234,13 @@
       <c r="R141" s="5"/>
       <c r="T141" s="6"/>
     </row>
-    <row r="142" spans="1:20">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="6"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="13"/>
+      <c r="F142" s="11"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -10071,13 +10254,13 @@
       <c r="R142" s="5"/>
       <c r="T142" s="6"/>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="6"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="13"/>
+      <c r="F143" s="11"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -10091,13 +10274,13 @@
       <c r="R143" s="5"/>
       <c r="T143" s="6"/>
     </row>
-    <row r="144" spans="1:20">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="6"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="13"/>
+      <c r="F144" s="11"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -10111,13 +10294,13 @@
       <c r="R144" s="5"/>
       <c r="T144" s="6"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="6"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="13"/>
+      <c r="F145" s="11"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -10131,13 +10314,13 @@
       <c r="R145" s="5"/>
       <c r="T145" s="6"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="6"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="13"/>
+      <c r="F146" s="11"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -10151,13 +10334,13 @@
       <c r="R146" s="5"/>
       <c r="T146" s="6"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="6"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="13"/>
+      <c r="F147" s="11"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -10171,13 +10354,13 @@
       <c r="R147" s="5"/>
       <c r="T147" s="6"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="6"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="13"/>
+      <c r="F148" s="11"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -10191,13 +10374,13 @@
       <c r="R148" s="5"/>
       <c r="T148" s="6"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="6"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="13"/>
+      <c r="F149" s="11"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -10211,13 +10394,13 @@
       <c r="R149" s="5"/>
       <c r="T149" s="6"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="6"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="13"/>
+      <c r="F150" s="11"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
@@ -10231,13 +10414,13 @@
       <c r="R150" s="5"/>
       <c r="T150" s="6"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="6"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="13"/>
+      <c r="F151" s="11"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -10251,13 +10434,13 @@
       <c r="R151" s="5"/>
       <c r="T151" s="6"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="6"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="13"/>
+      <c r="F152" s="11"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -10271,13 +10454,13 @@
       <c r="R152" s="5"/>
       <c r="T152" s="6"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="6"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="13"/>
+      <c r="F153" s="11"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -10291,13 +10474,13 @@
       <c r="R153" s="5"/>
       <c r="T153" s="6"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="6"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="13"/>
+      <c r="F154" s="11"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -10311,13 +10494,13 @@
       <c r="R154" s="5"/>
       <c r="T154" s="6"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="6"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="13"/>
+      <c r="F155" s="11"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -10331,13 +10514,13 @@
       <c r="R155" s="5"/>
       <c r="T155" s="6"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="6"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="13"/>
+      <c r="F156" s="11"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -10351,28 +10534,28 @@
       <c r="R156" s="5"/>
       <c r="T156" s="6"/>
     </row>
-    <row r="159" spans="1:20">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10"/>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
       <c r="M159" s="5"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="13"/>
+      <c r="F160" s="11"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -10381,13 +10564,13 @@
       <c r="L160" s="5"/>
       <c r="M160" s="5"/>
     </row>
-    <row r="161" spans="1:13">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="13"/>
+      <c r="F161" s="11"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -10409,6 +10592,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10420,7 +10604,7 @@
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
@@ -10436,23 +10620,23 @@
     <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>459</v>
       </c>
@@ -10490,7 +10674,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10528,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10566,7 +10750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10604,7 +10788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10642,7 +10826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10680,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10718,7 +10902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10756,7 +10940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10794,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10832,7 +11016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10870,7 +11054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -10908,7 +11092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -10946,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -10984,7 +11168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11022,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11060,28 +11244,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H29" s="5"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H30" s="5"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H31" s="5"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H32" s="5"/>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H33" s="5"/>
     </row>
-    <row r="34" spans="8:8">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H34" s="5"/>
     </row>
-    <row r="35" spans="8:8">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H35" s="5"/>
     </row>
-    <row r="36" spans="8:8">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H36" s="5"/>
     </row>
   </sheetData>
@@ -11100,7 +11284,7 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -11122,28 +11306,28 @@
     <col min="19" max="19" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-    </row>
-    <row r="2" spans="1:24">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>198</v>
       </c>
@@ -11196,7 +11380,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11251,7 +11435,7 @@
       <c r="U3" s="9"/>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11304,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11357,7 +11541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11410,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11463,7 +11647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11516,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11569,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11622,7 +11806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11675,7 +11859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11728,7 +11912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11781,7 +11965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11834,7 +12018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11887,7 +12071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11940,7 +12124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11993,7 +12177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -12046,7 +12230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -12099,7 +12283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -12152,7 +12336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12205,7 +12389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12258,7 +12442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12311,7 +12495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12364,7 +12548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12417,7 +12601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12470,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12523,7 +12707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12576,7 +12760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -12629,7 +12813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -12682,7 +12866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -12735,7 +12919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12788,7 +12972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -12841,7 +13025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -12894,7 +13078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -12947,7 +13131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -13000,7 +13184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -13053,7 +13237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -13106,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -13159,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -13212,7 +13396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -13265,7 +13449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -13318,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13371,7 +13555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13424,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13477,7 +13661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13530,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13583,7 +13767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13636,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13689,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13742,7 +13926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -13795,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -13848,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13901,7 +14085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13954,7 +14138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -14007,7 +14191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -14060,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -14113,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -14166,7 +14350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -14219,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -14272,7 +14456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -14325,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -14378,7 +14562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -14431,7 +14615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -14484,7 +14668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -14537,7 +14721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -14590,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -14643,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -14696,7 +14880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -14749,7 +14933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -14802,7 +14986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -14855,7 +15039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -14908,7 +15092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -14961,7 +15145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -15014,7 +15198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -15067,7 +15251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -15120,7 +15304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -15173,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -15226,7 +15410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -15279,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -15332,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -15385,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -15438,7 +15622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -15491,7 +15675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -15544,7 +15728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -15597,7 +15781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -15650,7 +15834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -15703,7 +15887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -15756,7 +15940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -15809,7 +15993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -15862,7 +16046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -15915,7 +16099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -15968,7 +16152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -16021,7 +16205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -16074,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -16127,7 +16311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -16180,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:17">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -16233,7 +16417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:17">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -16286,7 +16470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:17">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -16339,7 +16523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:17">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -16392,7 +16576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -16445,7 +16629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -16514,21 +16698,21 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>571</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>572</v>
       </c>
@@ -16539,7 +16723,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -16550,7 +16734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -16561,7 +16745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -16572,7 +16756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -16583,7 +16767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -16594,7 +16778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -16605,7 +16789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -16616,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -16627,7 +16811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -16638,7 +16822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -16649,7 +16833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -16660,7 +16844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
@@ -16671,7 +16855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -16682,7 +16866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -16693,7 +16877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -16704,7 +16888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>6</v>
       </c>
@@ -16715,7 +16899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -16726,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -16737,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -16748,7 +16932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>7</v>
       </c>
@@ -16759,7 +16943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>7</v>
       </c>
@@ -16770,7 +16954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8</v>
       </c>
@@ -16781,7 +16965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -16792,7 +16976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -16803,7 +16987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -16814,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>9</v>
       </c>
@@ -16825,7 +17009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>9</v>
       </c>
@@ -16836,7 +17020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>10</v>
       </c>
@@ -16847,7 +17031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>10</v>
       </c>
@@ -16858,7 +17042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>10</v>
       </c>
@@ -16869,7 +17053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -16880,7 +17064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -16891,7 +17075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
@@ -16902,7 +17086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -16913,7 +17097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -16924,7 +17108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -16935,7 +17119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -16946,7 +17130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -16957,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -16968,7 +17152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -16979,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>14</v>
       </c>
@@ -16990,7 +17174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>14</v>
       </c>
@@ -17001,7 +17185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>15</v>
       </c>
@@ -17012,7 +17196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>15</v>
       </c>
@@ -17023,7 +17207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>15</v>
       </c>
@@ -17034,7 +17218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>16</v>
       </c>
@@ -17045,7 +17229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>16</v>
       </c>
@@ -17056,7 +17240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>16</v>
       </c>
@@ -17067,7 +17251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>17</v>
       </c>
@@ -17078,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>17</v>
       </c>
@@ -17105,21 +17289,21 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>575</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>576</v>
       </c>
@@ -17130,7 +17314,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>579</v>
       </c>
@@ -17138,7 +17322,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>580</v>
       </c>
@@ -17146,7 +17330,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>581</v>
       </c>
@@ -17154,7 +17338,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>582</v>
       </c>
@@ -17162,7 +17346,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>583</v>
       </c>
@@ -17170,7 +17354,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>584</v>
       </c>
@@ -17178,7 +17362,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>585</v>
       </c>
@@ -17186,7 +17370,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>586</v>
       </c>
@@ -17194,7 +17378,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>587</v>
       </c>
@@ -17202,7 +17386,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>588</v>
       </c>
@@ -17210,7 +17394,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>589</v>
       </c>
@@ -17218,7 +17402,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>590</v>
       </c>
@@ -17226,7 +17410,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>591</v>
       </c>
@@ -17234,7 +17418,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>592</v>
       </c>
@@ -17242,7 +17426,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>593</v>
       </c>
@@ -17250,7 +17434,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>594</v>
       </c>
@@ -17258,7 +17442,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>595</v>
       </c>
@@ -17266,7 +17450,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>596</v>
       </c>
@@ -17274,7 +17458,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>597</v>
       </c>
@@ -17282,7 +17466,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>598</v>
       </c>
@@ -17290,7 +17474,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>599</v>
       </c>
@@ -17298,7 +17482,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>600</v>
       </c>
@@ -17306,7 +17490,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>601</v>
       </c>
@@ -17314,7 +17498,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>602</v>
       </c>
@@ -17322,7 +17506,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>603</v>
       </c>
@@ -17330,7 +17514,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>604</v>
       </c>
@@ -17338,7 +17522,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>605</v>
       </c>
@@ -17346,7 +17530,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>606</v>
       </c>
@@ -17357,7 +17541,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>607</v>
       </c>
@@ -17368,7 +17552,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>608</v>
       </c>
@@ -17379,7 +17563,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>609</v>
       </c>
@@ -17390,7 +17574,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>610</v>
       </c>
@@ -17401,7 +17585,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>611</v>
       </c>
@@ -17412,7 +17596,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>612</v>
       </c>
@@ -17423,7 +17607,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>613</v>
       </c>
@@ -17434,7 +17618,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>614</v>
       </c>
@@ -17445,7 +17629,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>615</v>
       </c>
@@ -17453,7 +17637,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>616</v>
       </c>
@@ -17461,7 +17645,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>617</v>
       </c>
@@ -17469,7 +17653,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>618</v>
       </c>
@@ -17477,7 +17661,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>619</v>
       </c>
@@ -17485,7 +17669,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>620</v>
       </c>
@@ -17493,7 +17677,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>621</v>
       </c>
@@ -17501,7 +17685,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>622</v>
       </c>
@@ -17509,7 +17693,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>623</v>
       </c>
@@ -17517,7 +17701,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>624</v>
       </c>
@@ -17525,7 +17709,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>625</v>
       </c>
@@ -17533,7 +17717,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>626</v>
       </c>
@@ -17541,7 +17725,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>627</v>
       </c>
@@ -17549,7 +17733,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>628</v>
       </c>
@@ -17557,7 +17741,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>629</v>
       </c>
@@ -17565,7 +17749,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>630</v>
       </c>
@@ -17573,7 +17757,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>631</v>
       </c>
@@ -17581,7 +17765,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>632</v>
       </c>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylwa\source\repos\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD270BA-A71D-45B8-B0A5-71274824373A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C331A-B5D6-4DFA-B2F5-BFA78C8424B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="1102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1104">
   <si>
     <t>User_ID</t>
   </si>
@@ -3366,6 +3366,12 @@
   </si>
   <si>
     <t>3761 Myrtle St</t>
+  </si>
+  <si>
+    <t>For names I use this site</t>
+  </si>
+  <si>
+    <t>http://www.randat.com/</t>
   </si>
 </sst>
 </file>
@@ -3459,32 +3465,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F599AD3-6840-46F2-88F2-0E9C6FEC8D7E}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{099EC489-0DCF-455E-884E-0F2FAB91D948}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4022,17 +4018,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
       <c r="K1" s="4" t="s">
         <v>549</v>
       </c>
@@ -4053,22 +4049,22 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
-      <c r="AV1" s="14"/>
-      <c r="AW1" s="14"/>
-      <c r="AX1" s="14"/>
-      <c r="AY1" s="14"/>
-      <c r="AZ1" s="14"/>
-      <c r="BA1" s="14"/>
-      <c r="BB1" s="14"/>
-      <c r="BC1" s="14"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="17"/>
+      <c r="AZ1" s="17"/>
+      <c r="BA1" s="17"/>
+      <c r="BB1" s="17"/>
+      <c r="BC1" s="17"/>
       <c r="BD1" s="5"/>
       <c r="BE1" s="5"/>
       <c r="BF1" s="5"/>
@@ -12816,18 +12812,18 @@
       <c r="T156" s="6"/>
     </row>
     <row r="159" spans="1:20">
-      <c r="A159" s="14"/>
-      <c r="B159" s="14"/>
-      <c r="C159" s="14"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="14"/>
-      <c r="K159" s="14"/>
-      <c r="L159" s="14"/>
+      <c r="A159" s="17"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="17"/>
+      <c r="L159" s="17"/>
       <c r="M159" s="5"/>
     </row>
     <row r="160" spans="1:20">
@@ -12868,10 +12864,10 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B52">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12905,20 +12901,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>416</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -12972,7 +12968,7 @@
       <c r="L2" t="s">
         <v>433</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="16"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -13016,7 +13012,7 @@
       <c r="I3" t="s">
         <v>711</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>640</v>
       </c>
       <c r="K3" s="2">
@@ -13025,7 +13021,7 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="O3" s="18"/>
+      <c r="O3" s="16"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -13069,7 +13065,7 @@
       <c r="I4" t="s">
         <v>723</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="15" t="s">
         <v>617</v>
       </c>
       <c r="K4" s="2">
@@ -13078,7 +13074,7 @@
       <c r="L4">
         <v>0</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="16"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -13122,7 +13118,7 @@
       <c r="I5" t="s">
         <v>699</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>614</v>
       </c>
       <c r="K5" s="2">
@@ -13131,7 +13127,7 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="16"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -13175,7 +13171,7 @@
       <c r="I6" t="s">
         <v>408</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>637</v>
       </c>
       <c r="K6" s="2">
@@ -13184,7 +13180,7 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="O6" s="16"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
@@ -13228,7 +13224,7 @@
       <c r="I7" t="s">
         <v>735</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>630</v>
       </c>
       <c r="K7" s="2">
@@ -13237,7 +13233,7 @@
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="O7" s="18"/>
+      <c r="O7" s="16"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
@@ -13278,7 +13274,7 @@
       <c r="I8" t="s">
         <v>705</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="15" t="s">
         <v>622</v>
       </c>
       <c r="K8" s="2">
@@ -13287,7 +13283,7 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="O8" s="18"/>
+      <c r="O8" s="16"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
@@ -13331,7 +13327,7 @@
       <c r="I9" t="s">
         <v>725</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="15" t="s">
         <v>646</v>
       </c>
       <c r="K9" s="2">
@@ -13340,7 +13336,7 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="O9" s="18"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
@@ -13384,7 +13380,7 @@
       <c r="I10" t="s">
         <v>726</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="15" t="s">
         <v>621</v>
       </c>
       <c r="K10" s="2">
@@ -13393,7 +13389,7 @@
       <c r="L10">
         <v>0</v>
       </c>
-      <c r="O10" s="18"/>
+      <c r="O10" s="16"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -13437,7 +13433,7 @@
       <c r="I11" t="s">
         <v>726</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="15" t="s">
         <v>622</v>
       </c>
       <c r="K11" s="2">
@@ -13446,7 +13442,7 @@
       <c r="L11">
         <v>0</v>
       </c>
-      <c r="O11" s="18"/>
+      <c r="O11" s="16"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -13490,7 +13486,7 @@
       <c r="I12" t="s">
         <v>699</v>
       </c>
-      <c r="J12" s="17" t="s">
+      <c r="J12" s="15" t="s">
         <v>610</v>
       </c>
       <c r="K12" s="2">
@@ -13499,7 +13495,7 @@
       <c r="L12">
         <v>0</v>
       </c>
-      <c r="O12" s="18"/>
+      <c r="O12" s="16"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -13543,7 +13539,7 @@
       <c r="I13" t="s">
         <v>706</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="15" t="s">
         <v>630</v>
       </c>
       <c r="K13" s="2">
@@ -13552,7 +13548,7 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="O13" s="18"/>
+      <c r="O13" s="16"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -13596,7 +13592,7 @@
       <c r="I14" t="s">
         <v>699</v>
       </c>
-      <c r="J14" s="17" t="s">
+      <c r="J14" s="15" t="s">
         <v>642</v>
       </c>
       <c r="K14" s="2">
@@ -13605,7 +13601,7 @@
       <c r="L14">
         <v>0</v>
       </c>
-      <c r="O14" s="18"/>
+      <c r="O14" s="16"/>
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -13649,7 +13645,7 @@
       <c r="I15" t="s">
         <v>725</v>
       </c>
-      <c r="J15" s="17" t="s">
+      <c r="J15" s="15" t="s">
         <v>649</v>
       </c>
       <c r="K15" s="2">
@@ -13658,7 +13654,7 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="O15" s="18"/>
+      <c r="O15" s="16"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -13699,7 +13695,7 @@
       <c r="I16" t="s">
         <v>726</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="15" t="s">
         <v>618</v>
       </c>
       <c r="K16" s="2">
@@ -13708,7 +13704,7 @@
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="O16" s="18"/>
+      <c r="O16" s="16"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
@@ -13752,7 +13748,7 @@
       <c r="I17" t="s">
         <v>704</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="15" t="s">
         <v>640</v>
       </c>
       <c r="K17" s="2">
@@ -13761,9 +13757,9 @@
       <c r="L17">
         <v>0</v>
       </c>
-      <c r="O17" s="18"/>
+      <c r="O17" s="16"/>
       <c r="P17" s="5"/>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="16"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
@@ -13805,7 +13801,7 @@
       <c r="I18" t="s">
         <v>714</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="15" t="s">
         <v>608</v>
       </c>
       <c r="K18" s="2">
@@ -13814,7 +13810,7 @@
       <c r="L18">
         <v>0</v>
       </c>
-      <c r="O18" s="18"/>
+      <c r="O18" s="16"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
@@ -13858,7 +13854,7 @@
       <c r="I19" t="s">
         <v>714</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J19" s="15" t="s">
         <v>647</v>
       </c>
       <c r="K19" s="2">
@@ -13867,7 +13863,7 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="O19" s="16"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
@@ -13911,7 +13907,7 @@
       <c r="I20" t="s">
         <v>710</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="15" t="s">
         <v>627</v>
       </c>
       <c r="K20" s="2">
@@ -13920,7 +13916,7 @@
       <c r="L20">
         <v>0</v>
       </c>
-      <c r="O20" s="18"/>
+      <c r="O20" s="16"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
@@ -13964,7 +13960,7 @@
       <c r="I21" t="s">
         <v>708</v>
       </c>
-      <c r="J21" s="17" t="s">
+      <c r="J21" s="15" t="s">
         <v>612</v>
       </c>
       <c r="K21" s="2">
@@ -13973,7 +13969,7 @@
       <c r="L21">
         <v>1</v>
       </c>
-      <c r="O21" s="18"/>
+      <c r="O21" s="16"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
@@ -14017,7 +14013,7 @@
       <c r="I22" t="s">
         <v>408</v>
       </c>
-      <c r="J22" s="17" t="s">
+      <c r="J22" s="15" t="s">
         <v>619</v>
       </c>
       <c r="K22" s="2">
@@ -14026,7 +14022,7 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="O22" s="18"/>
+      <c r="O22" s="16"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
@@ -14070,7 +14066,7 @@
       <c r="I23" t="s">
         <v>701</v>
       </c>
-      <c r="J23" s="17" t="s">
+      <c r="J23" s="15" t="s">
         <v>620</v>
       </c>
       <c r="K23" s="2">
@@ -14079,7 +14075,7 @@
       <c r="L23">
         <v>1</v>
       </c>
-      <c r="O23" s="18"/>
+      <c r="O23" s="16"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
@@ -14123,7 +14119,7 @@
       <c r="I24" t="s">
         <v>732</v>
       </c>
-      <c r="J24" s="17" t="s">
+      <c r="J24" s="15" t="s">
         <v>628</v>
       </c>
       <c r="K24" s="2">
@@ -14132,7 +14128,7 @@
       <c r="L24">
         <v>0</v>
       </c>
-      <c r="O24" s="18"/>
+      <c r="O24" s="16"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
@@ -14176,7 +14172,7 @@
       <c r="I25" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="15" t="s">
         <v>651</v>
       </c>
       <c r="K25" s="2">
@@ -14185,7 +14181,7 @@
       <c r="L25">
         <v>0</v>
       </c>
-      <c r="O25" s="18"/>
+      <c r="O25" s="16"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
@@ -14229,7 +14225,7 @@
       <c r="I26" t="s">
         <v>732</v>
       </c>
-      <c r="J26" s="17" t="s">
+      <c r="J26" s="15" t="s">
         <v>620</v>
       </c>
       <c r="K26" s="2">
@@ -14238,7 +14234,7 @@
       <c r="L26">
         <v>1</v>
       </c>
-      <c r="O26" s="18"/>
+      <c r="O26" s="16"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
@@ -14282,7 +14278,7 @@
       <c r="I27" t="s">
         <v>705</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="15" t="s">
         <v>640</v>
       </c>
       <c r="K27" s="2">
@@ -14291,7 +14287,7 @@
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="O27" s="16"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
@@ -14332,7 +14328,7 @@
       <c r="I28" t="s">
         <v>731</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="15" t="s">
         <v>645</v>
       </c>
       <c r="K28" s="2">
@@ -14341,7 +14337,7 @@
       <c r="L28">
         <v>0</v>
       </c>
-      <c r="O28" s="18"/>
+      <c r="O28" s="16"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
@@ -14385,7 +14381,7 @@
       <c r="I29" t="s">
         <v>741</v>
       </c>
-      <c r="J29" s="17" t="s">
+      <c r="J29" s="15" t="s">
         <v>650</v>
       </c>
       <c r="K29" s="2">
@@ -14394,7 +14390,7 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="O29" s="18"/>
+      <c r="O29" s="16"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
@@ -14438,7 +14434,7 @@
       <c r="I30" t="s">
         <v>740</v>
       </c>
-      <c r="J30" s="17" t="s">
+      <c r="J30" s="15" t="s">
         <v>620</v>
       </c>
       <c r="K30" s="2">
@@ -14447,7 +14443,7 @@
       <c r="L30">
         <v>0</v>
       </c>
-      <c r="O30" s="18"/>
+      <c r="O30" s="16"/>
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
@@ -14491,7 +14487,7 @@
       <c r="I31" t="s">
         <v>14</v>
       </c>
-      <c r="J31" s="17" t="s">
+      <c r="J31" s="15" t="s">
         <v>651</v>
       </c>
       <c r="K31" s="2">
@@ -14500,7 +14496,7 @@
       <c r="L31">
         <v>1</v>
       </c>
-      <c r="O31" s="18"/>
+      <c r="O31" s="16"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
@@ -14544,7 +14540,7 @@
       <c r="I32" t="s">
         <v>728</v>
       </c>
-      <c r="J32" s="17" t="s">
+      <c r="J32" s="15" t="s">
         <v>613</v>
       </c>
       <c r="K32" s="2">
@@ -14553,7 +14549,7 @@
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="O32" s="18"/>
+      <c r="O32" s="16"/>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
@@ -14597,7 +14593,7 @@
       <c r="I33" t="s">
         <v>694</v>
       </c>
-      <c r="J33" s="17" t="s">
+      <c r="J33" s="15" t="s">
         <v>640</v>
       </c>
       <c r="K33" s="2">
@@ -14606,7 +14602,7 @@
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="O33" s="18"/>
+      <c r="O33" s="16"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
@@ -14650,7 +14646,7 @@
       <c r="I34" t="s">
         <v>694</v>
       </c>
-      <c r="J34" s="17" t="s">
+      <c r="J34" s="15" t="s">
         <v>650</v>
       </c>
       <c r="K34" s="2">
@@ -14659,7 +14655,7 @@
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="O34" s="18"/>
+      <c r="O34" s="16"/>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
@@ -14703,7 +14699,7 @@
       <c r="I35" t="s">
         <v>711</v>
       </c>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="15" t="s">
         <v>643</v>
       </c>
       <c r="K35" s="2">
@@ -14712,7 +14708,7 @@
       <c r="L35">
         <v>1</v>
       </c>
-      <c r="O35" s="18"/>
+      <c r="O35" s="16"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
@@ -14756,7 +14752,7 @@
       <c r="I36" t="s">
         <v>723</v>
       </c>
-      <c r="J36" s="17" t="s">
+      <c r="J36" s="15" t="s">
         <v>632</v>
       </c>
       <c r="K36" s="2">
@@ -14765,7 +14761,7 @@
       <c r="L36">
         <v>1</v>
       </c>
-      <c r="O36" s="18"/>
+      <c r="O36" s="16"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
@@ -14809,7 +14805,7 @@
       <c r="I37" t="s">
         <v>699</v>
       </c>
-      <c r="J37" s="17" t="s">
+      <c r="J37" s="15" t="s">
         <v>650</v>
       </c>
       <c r="K37" s="2">
@@ -14818,7 +14814,7 @@
       <c r="L37">
         <v>1</v>
       </c>
-      <c r="O37" s="18"/>
+      <c r="O37" s="16"/>
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
@@ -14862,7 +14858,7 @@
       <c r="I38" t="s">
         <v>408</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="15" t="s">
         <v>645</v>
       </c>
       <c r="K38" s="2">
@@ -14871,7 +14867,7 @@
       <c r="L38">
         <v>1</v>
       </c>
-      <c r="O38" s="18"/>
+      <c r="O38" s="16"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
@@ -14915,7 +14911,7 @@
       <c r="I39" t="s">
         <v>735</v>
       </c>
-      <c r="J39" s="17" t="s">
+      <c r="J39" s="15" t="s">
         <v>604</v>
       </c>
       <c r="K39" s="2">
@@ -14924,7 +14920,7 @@
       <c r="L39">
         <v>1</v>
       </c>
-      <c r="O39" s="18"/>
+      <c r="O39" s="16"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
@@ -14968,7 +14964,7 @@
       <c r="I40" t="s">
         <v>705</v>
       </c>
-      <c r="J40" s="17" t="s">
+      <c r="J40" s="15" t="s">
         <v>647</v>
       </c>
       <c r="K40" s="2">
@@ -14977,7 +14973,7 @@
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="O40" s="18"/>
+      <c r="O40" s="16"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
@@ -15021,7 +15017,7 @@
       <c r="I41" t="s">
         <v>725</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="J41" s="15" t="s">
         <v>645</v>
       </c>
       <c r="K41" s="2">
@@ -15030,7 +15026,7 @@
       <c r="L41">
         <v>0</v>
       </c>
-      <c r="O41" s="18"/>
+      <c r="O41" s="16"/>
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
@@ -15074,7 +15070,7 @@
       <c r="I42" t="s">
         <v>726</v>
       </c>
-      <c r="J42" s="17" t="s">
+      <c r="J42" s="15" t="s">
         <v>644</v>
       </c>
       <c r="K42" s="2">
@@ -15083,7 +15079,7 @@
       <c r="L42">
         <v>1</v>
       </c>
-      <c r="O42" s="18"/>
+      <c r="O42" s="16"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
@@ -15127,7 +15123,7 @@
       <c r="I43" t="s">
         <v>726</v>
       </c>
-      <c r="J43" s="17" t="s">
+      <c r="J43" s="15" t="s">
         <v>410</v>
       </c>
       <c r="K43" s="2">
@@ -15136,7 +15132,7 @@
       <c r="L43">
         <v>1</v>
       </c>
-      <c r="O43" s="18"/>
+      <c r="O43" s="16"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
@@ -15180,7 +15176,7 @@
       <c r="I44" t="s">
         <v>699</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="15" t="s">
         <v>616</v>
       </c>
       <c r="K44" s="2">
@@ -15189,7 +15185,7 @@
       <c r="L44">
         <v>1</v>
       </c>
-      <c r="O44" s="18"/>
+      <c r="O44" s="16"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
@@ -15233,7 +15229,7 @@
       <c r="I45" t="s">
         <v>706</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="15" t="s">
         <v>647</v>
       </c>
       <c r="K45" s="2">
@@ -15242,7 +15238,7 @@
       <c r="L45">
         <v>1</v>
       </c>
-      <c r="O45" s="18"/>
+      <c r="O45" s="16"/>
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
@@ -15286,7 +15282,7 @@
       <c r="I46" t="s">
         <v>699</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="15" t="s">
         <v>605</v>
       </c>
       <c r="K46" s="2">
@@ -15295,7 +15291,7 @@
       <c r="L46">
         <v>0</v>
       </c>
-      <c r="O46" s="18"/>
+      <c r="O46" s="16"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
@@ -15339,7 +15335,7 @@
       <c r="I47" t="s">
         <v>725</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="15" t="s">
         <v>639</v>
       </c>
       <c r="K47" s="2">
@@ -15348,7 +15344,7 @@
       <c r="L47">
         <v>1</v>
       </c>
-      <c r="O47" s="18"/>
+      <c r="O47" s="16"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
@@ -15392,7 +15388,7 @@
       <c r="I48" t="s">
         <v>726</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="15" t="s">
         <v>610</v>
       </c>
       <c r="K48" s="2">
@@ -15401,7 +15397,7 @@
       <c r="L48">
         <v>0</v>
       </c>
-      <c r="O48" s="18"/>
+      <c r="O48" s="16"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
@@ -15445,7 +15441,7 @@
       <c r="I49" t="s">
         <v>704</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="J49" s="15" t="s">
         <v>645</v>
       </c>
       <c r="K49" s="2">
@@ -15454,7 +15450,7 @@
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="O49" s="18"/>
+      <c r="O49" s="16"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
@@ -15498,7 +15494,7 @@
       <c r="I50" t="s">
         <v>714</v>
       </c>
-      <c r="J50" s="17" t="s">
+      <c r="J50" s="15" t="s">
         <v>606</v>
       </c>
       <c r="K50" s="2">
@@ -15507,7 +15503,7 @@
       <c r="L50">
         <v>0</v>
       </c>
-      <c r="O50" s="18"/>
+      <c r="O50" s="16"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
@@ -15551,7 +15547,7 @@
       <c r="I51" t="s">
         <v>709</v>
       </c>
-      <c r="J51" s="17" t="s">
+      <c r="J51" s="15" t="s">
         <v>633</v>
       </c>
       <c r="K51" s="2">
@@ -15560,7 +15556,7 @@
       <c r="L51">
         <v>0</v>
       </c>
-      <c r="O51" s="18"/>
+      <c r="O51" s="16"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
@@ -15604,7 +15600,7 @@
       <c r="I52" t="s">
         <v>711</v>
       </c>
-      <c r="J52" s="17" t="s">
+      <c r="J52" s="15" t="s">
         <v>608</v>
       </c>
       <c r="K52" s="2">
@@ -15613,7 +15609,7 @@
       <c r="L52">
         <v>0</v>
       </c>
-      <c r="O52" s="18"/>
+      <c r="O52" s="16"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
@@ -15654,7 +15650,7 @@
       <c r="I53" t="s">
         <v>707</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="J53" s="15" t="s">
         <v>613</v>
       </c>
       <c r="K53" s="2">
@@ -15663,7 +15659,7 @@
       <c r="L53">
         <v>0</v>
       </c>
-      <c r="O53" s="18"/>
+      <c r="O53" s="16"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
@@ -15707,7 +15703,7 @@
       <c r="I54" t="s">
         <v>409</v>
       </c>
-      <c r="J54" s="17" t="s">
+      <c r="J54" s="15" t="s">
         <v>626</v>
       </c>
       <c r="K54" s="2">
@@ -15760,7 +15756,7 @@
       <c r="I55" t="s">
         <v>719</v>
       </c>
-      <c r="J55" s="17" t="s">
+      <c r="J55" s="15" t="s">
         <v>638</v>
       </c>
       <c r="K55" s="2">
@@ -15813,7 +15809,7 @@
       <c r="I56" t="s">
         <v>717</v>
       </c>
-      <c r="J56" s="17" t="s">
+      <c r="J56" s="15" t="s">
         <v>607</v>
       </c>
       <c r="K56" s="2">
@@ -15866,7 +15862,7 @@
       <c r="I57" t="s">
         <v>717</v>
       </c>
-      <c r="J57" s="17" t="s">
+      <c r="J57" s="15" t="s">
         <v>410</v>
       </c>
       <c r="K57" s="2">
@@ -15919,7 +15915,7 @@
       <c r="I58" t="s">
         <v>697</v>
       </c>
-      <c r="J58" s="17" t="s">
+      <c r="J58" s="15" t="s">
         <v>644</v>
       </c>
       <c r="K58" s="2">
@@ -15972,7 +15968,7 @@
       <c r="I59" t="s">
         <v>702</v>
       </c>
-      <c r="J59" s="17" t="s">
+      <c r="J59" s="15" t="s">
         <v>621</v>
       </c>
       <c r="K59" s="2">
@@ -16025,7 +16021,7 @@
       <c r="I60" t="s">
         <v>739</v>
       </c>
-      <c r="J60" s="17" t="s">
+      <c r="J60" s="15" t="s">
         <v>631</v>
       </c>
       <c r="K60" s="2">
@@ -16078,7 +16074,7 @@
       <c r="I61" t="s">
         <v>739</v>
       </c>
-      <c r="J61" s="17" t="s">
+      <c r="J61" s="15" t="s">
         <v>621</v>
       </c>
       <c r="K61" s="2">
@@ -16116,7 +16112,7 @@
       <c r="I62" t="s">
         <v>719</v>
       </c>
-      <c r="J62" s="17" t="s">
+      <c r="J62" s="15" t="s">
         <v>632</v>
       </c>
       <c r="K62" s="2">
@@ -16154,7 +16150,7 @@
       <c r="I63" t="s">
         <v>724</v>
       </c>
-      <c r="J63" s="17" t="s">
+      <c r="J63" s="15" t="s">
         <v>638</v>
       </c>
       <c r="K63" s="2">
@@ -16192,7 +16188,7 @@
       <c r="I64" t="s">
         <v>703</v>
       </c>
-      <c r="J64" s="17" t="s">
+      <c r="J64" s="15" t="s">
         <v>640</v>
       </c>
       <c r="K64" s="2">
@@ -16230,7 +16226,7 @@
       <c r="I65" t="s">
         <v>703</v>
       </c>
-      <c r="J65" s="17" t="s">
+      <c r="J65" s="15" t="s">
         <v>616</v>
       </c>
       <c r="K65" s="2">
@@ -16268,7 +16264,7 @@
       <c r="I66" t="s">
         <v>730</v>
       </c>
-      <c r="J66" s="17" t="s">
+      <c r="J66" s="15" t="s">
         <v>646</v>
       </c>
       <c r="K66" s="2">
@@ -16306,7 +16302,7 @@
       <c r="I67" t="s">
         <v>409</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="15" t="s">
         <v>645</v>
       </c>
       <c r="K67" s="2">
@@ -16344,7 +16340,7 @@
       <c r="I68" t="s">
         <v>693</v>
       </c>
-      <c r="J68" s="17" t="s">
+      <c r="J68" s="15" t="s">
         <v>622</v>
       </c>
       <c r="K68" s="2">
@@ -16379,7 +16375,7 @@
       <c r="I69" t="s">
         <v>732</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="15" t="s">
         <v>614</v>
       </c>
       <c r="K69" s="2">
@@ -16417,7 +16413,7 @@
       <c r="I70" t="s">
         <v>691</v>
       </c>
-      <c r="J70" s="17" t="s">
+      <c r="J70" s="15" t="s">
         <v>625</v>
       </c>
       <c r="K70" s="2">
@@ -16455,7 +16451,7 @@
       <c r="I71" t="s">
         <v>728</v>
       </c>
-      <c r="J71" s="17" t="s">
+      <c r="J71" s="15" t="s">
         <v>629</v>
       </c>
       <c r="K71" s="2">
@@ -16493,7 +16489,7 @@
       <c r="I72" t="s">
         <v>724</v>
       </c>
-      <c r="J72" s="17" t="s">
+      <c r="J72" s="15" t="s">
         <v>642</v>
       </c>
       <c r="K72" s="2">
@@ -16531,7 +16527,7 @@
       <c r="I73" t="s">
         <v>700</v>
       </c>
-      <c r="J73" s="17" t="s">
+      <c r="J73" s="15" t="s">
         <v>614</v>
       </c>
       <c r="K73" s="2">
@@ -16569,7 +16565,7 @@
       <c r="I74" t="s">
         <v>727</v>
       </c>
-      <c r="J74" s="17" t="s">
+      <c r="J74" s="15" t="s">
         <v>628</v>
       </c>
       <c r="K74" s="2">
@@ -16607,7 +16603,7 @@
       <c r="I75" t="s">
         <v>737</v>
       </c>
-      <c r="J75" s="17" t="s">
+      <c r="J75" s="15" t="s">
         <v>651</v>
       </c>
       <c r="K75" s="2">
@@ -16645,7 +16641,7 @@
       <c r="I76" t="s">
         <v>720</v>
       </c>
-      <c r="J76" s="17" t="s">
+      <c r="J76" s="15" t="s">
         <v>603</v>
       </c>
       <c r="K76" s="2">
@@ -16683,7 +16679,7 @@
       <c r="I77" t="s">
         <v>719</v>
       </c>
-      <c r="J77" s="17" t="s">
+      <c r="J77" s="15" t="s">
         <v>621</v>
       </c>
       <c r="K77" s="2">
@@ -16721,7 +16717,7 @@
       <c r="I78" t="s">
         <v>692</v>
       </c>
-      <c r="J78" s="17" t="s">
+      <c r="J78" s="15" t="s">
         <v>625</v>
       </c>
       <c r="K78" s="2">
@@ -16759,7 +16755,7 @@
       <c r="I79" t="s">
         <v>718</v>
       </c>
-      <c r="J79" s="17" t="s">
+      <c r="J79" s="15" t="s">
         <v>636</v>
       </c>
       <c r="K79" s="2">
@@ -16797,7 +16793,7 @@
       <c r="I80" t="s">
         <v>692</v>
       </c>
-      <c r="J80" s="17" t="s">
+      <c r="J80" s="15" t="s">
         <v>619</v>
       </c>
       <c r="K80" s="2">
@@ -16835,7 +16831,7 @@
       <c r="I81" t="s">
         <v>715</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="15" t="s">
         <v>634</v>
       </c>
       <c r="K81" s="2">
@@ -16873,7 +16869,7 @@
       <c r="I82" t="s">
         <v>702</v>
       </c>
-      <c r="J82" s="17" t="s">
+      <c r="J82" s="15" t="s">
         <v>621</v>
       </c>
       <c r="K82" s="2">
@@ -16911,7 +16907,7 @@
       <c r="I83" t="s">
         <v>727</v>
       </c>
-      <c r="J83" s="17" t="s">
+      <c r="J83" s="15" t="s">
         <v>606</v>
       </c>
       <c r="K83" s="2">
@@ -16946,7 +16942,7 @@
       <c r="I84" t="s">
         <v>693</v>
       </c>
-      <c r="J84" s="17" t="s">
+      <c r="J84" s="15" t="s">
         <v>617</v>
       </c>
       <c r="K84" s="2">
@@ -16984,7 +16980,7 @@
       <c r="I85" t="s">
         <v>737</v>
       </c>
-      <c r="J85" s="17" t="s">
+      <c r="J85" s="15" t="s">
         <v>623</v>
       </c>
       <c r="K85" s="2">
@@ -17022,7 +17018,7 @@
       <c r="I86" t="s">
         <v>408</v>
       </c>
-      <c r="J86" s="17" t="s">
+      <c r="J86" s="15" t="s">
         <v>644</v>
       </c>
       <c r="K86" s="2">
@@ -17060,7 +17056,7 @@
       <c r="I87" t="s">
         <v>742</v>
       </c>
-      <c r="J87" s="17" t="s">
+      <c r="J87" s="15" t="s">
         <v>621</v>
       </c>
       <c r="K87" s="2">
@@ -17098,7 +17094,7 @@
       <c r="I88" t="s">
         <v>691</v>
       </c>
-      <c r="J88" s="17" t="s">
+      <c r="J88" s="15" t="s">
         <v>607</v>
       </c>
       <c r="K88" s="2">
@@ -17136,7 +17132,7 @@
       <c r="I89" t="s">
         <v>709</v>
       </c>
-      <c r="J89" s="17" t="s">
+      <c r="J89" s="15" t="s">
         <v>609</v>
       </c>
       <c r="K89" s="2">
@@ -17174,7 +17170,7 @@
       <c r="I90" t="s">
         <v>409</v>
       </c>
-      <c r="J90" s="17" t="s">
+      <c r="J90" s="15" t="s">
         <v>648</v>
       </c>
       <c r="K90" s="2">
@@ -17212,7 +17208,7 @@
       <c r="I91" t="s">
         <v>715</v>
       </c>
-      <c r="J91" s="17" t="s">
+      <c r="J91" s="15" t="s">
         <v>603</v>
       </c>
       <c r="K91" s="2">
@@ -17250,7 +17246,7 @@
       <c r="I92" t="s">
         <v>731</v>
       </c>
-      <c r="J92" s="17" t="s">
+      <c r="J92" s="15" t="s">
         <v>630</v>
       </c>
       <c r="K92" s="2">
@@ -17285,7 +17281,7 @@
       <c r="I93" t="s">
         <v>701</v>
       </c>
-      <c r="J93" s="17" t="s">
+      <c r="J93" s="15" t="s">
         <v>638</v>
       </c>
       <c r="K93" s="2">
@@ -17323,7 +17319,7 @@
       <c r="I94" t="s">
         <v>408</v>
       </c>
-      <c r="J94" s="17" t="s">
+      <c r="J94" s="15" t="s">
         <v>621</v>
       </c>
       <c r="K94" s="2">
@@ -17361,7 +17357,7 @@
       <c r="I95" t="s">
         <v>711</v>
       </c>
-      <c r="J95" s="17" t="s">
+      <c r="J95" s="15" t="s">
         <v>651</v>
       </c>
       <c r="K95" s="2">
@@ -17399,7 +17395,7 @@
       <c r="I96" t="s">
         <v>696</v>
       </c>
-      <c r="J96" s="17" t="s">
+      <c r="J96" s="15" t="s">
         <v>630</v>
       </c>
       <c r="K96" s="2">
@@ -17437,7 +17433,7 @@
       <c r="I97" t="s">
         <v>731</v>
       </c>
-      <c r="J97" s="17" t="s">
+      <c r="J97" s="15" t="s">
         <v>609</v>
       </c>
       <c r="K97" s="2">
@@ -17475,7 +17471,7 @@
       <c r="I98" t="s">
         <v>713</v>
       </c>
-      <c r="J98" s="17" t="s">
+      <c r="J98" s="15" t="s">
         <v>611</v>
       </c>
       <c r="K98" s="2">
@@ -17513,7 +17509,7 @@
       <c r="I99" t="s">
         <v>731</v>
       </c>
-      <c r="J99" s="17" t="s">
+      <c r="J99" s="15" t="s">
         <v>608</v>
       </c>
       <c r="K99" s="2">
@@ -17551,7 +17547,7 @@
       <c r="I100" t="s">
         <v>729</v>
       </c>
-      <c r="J100" s="17" t="s">
+      <c r="J100" s="15" t="s">
         <v>614</v>
       </c>
       <c r="K100" s="2">
@@ -17589,7 +17585,7 @@
       <c r="I101" t="s">
         <v>698</v>
       </c>
-      <c r="J101" s="17" t="s">
+      <c r="J101" s="15" t="s">
         <v>627</v>
       </c>
       <c r="K101" s="2">
@@ -17627,7 +17623,7 @@
       <c r="I102" t="s">
         <v>735</v>
       </c>
-      <c r="J102" s="17" t="s">
+      <c r="J102" s="15" t="s">
         <v>626</v>
       </c>
       <c r="K102" s="2">
@@ -17677,25 +17673,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
@@ -17767,7 +17763,7 @@
         <v>433</v>
       </c>
       <c r="T2" s="5"/>
-      <c r="U2" s="18"/>
+      <c r="U2" s="16"/>
       <c r="V2" s="5"/>
       <c r="W2" s="5"/>
       <c r="X2" s="5"/>
@@ -17837,7 +17833,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="5"/>
-      <c r="U3" s="18"/>
+      <c r="U3" s="16"/>
       <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="5"/>
@@ -17907,7 +17903,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="5"/>
-      <c r="U4" s="18"/>
+      <c r="U4" s="16"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
@@ -17977,7 +17973,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5"/>
-      <c r="U5" s="18"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
       <c r="X5" s="5"/>
@@ -18047,7 +18043,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5"/>
-      <c r="U6" s="18"/>
+      <c r="U6" s="16"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
       <c r="X6" s="5"/>
@@ -18117,7 +18113,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="5"/>
-      <c r="U7" s="18"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
       <c r="X7" s="5"/>
@@ -18187,7 +18183,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="5"/>
-      <c r="U8" s="18"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -18257,7 +18253,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5"/>
-      <c r="U9" s="18"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
       <c r="X9" s="5"/>
@@ -18327,7 +18323,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5"/>
-      <c r="U10" s="18"/>
+      <c r="U10" s="16"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
@@ -18397,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5"/>
-      <c r="U11" s="18"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
@@ -18467,7 +18463,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5"/>
-      <c r="U12" s="18"/>
+      <c r="U12" s="16"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
@@ -18537,7 +18533,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5"/>
-      <c r="U13" s="18"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="5"/>
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
@@ -18604,7 +18600,7 @@
         <v>1</v>
       </c>
       <c r="T14" s="5"/>
-      <c r="U14" s="18"/>
+      <c r="U14" s="16"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
@@ -18674,7 +18670,7 @@
         <v>1</v>
       </c>
       <c r="T15" s="5"/>
-      <c r="U15" s="18"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
@@ -18744,7 +18740,7 @@
         <v>1</v>
       </c>
       <c r="T16" s="5"/>
-      <c r="U16" s="18"/>
+      <c r="U16" s="16"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
@@ -18814,9 +18810,9 @@
         <v>0</v>
       </c>
       <c r="T17" s="5"/>
-      <c r="U17" s="18"/>
+      <c r="U17" s="16"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="18"/>
+      <c r="W17" s="16"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
@@ -18884,7 +18880,7 @@
         <v>1</v>
       </c>
       <c r="T18" s="5"/>
-      <c r="U18" s="18"/>
+      <c r="U18" s="16"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
@@ -18954,7 +18950,7 @@
         <v>1</v>
       </c>
       <c r="T19" s="5"/>
-      <c r="U19" s="18"/>
+      <c r="U19" s="16"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -19024,7 +19020,7 @@
         <v>1</v>
       </c>
       <c r="T20" s="5"/>
-      <c r="U20" s="18"/>
+      <c r="U20" s="16"/>
       <c r="V20" s="5"/>
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
@@ -19094,7 +19090,7 @@
         <v>1</v>
       </c>
       <c r="T21" s="5"/>
-      <c r="U21" s="18"/>
+      <c r="U21" s="16"/>
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
@@ -19164,7 +19160,7 @@
         <v>1</v>
       </c>
       <c r="T22" s="5"/>
-      <c r="U22" s="18"/>
+      <c r="U22" s="16"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
@@ -19234,7 +19230,7 @@
         <v>1</v>
       </c>
       <c r="T23" s="5"/>
-      <c r="U23" s="18"/>
+      <c r="U23" s="16"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
@@ -19301,7 +19297,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5"/>
-      <c r="U24" s="18"/>
+      <c r="U24" s="16"/>
       <c r="V24" s="5"/>
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
@@ -19371,7 +19367,7 @@
         <v>1</v>
       </c>
       <c r="T25" s="5"/>
-      <c r="U25" s="18"/>
+      <c r="U25" s="16"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
@@ -19441,7 +19437,7 @@
         <v>1</v>
       </c>
       <c r="T26" s="5"/>
-      <c r="U26" s="18"/>
+      <c r="U26" s="16"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -19511,7 +19507,7 @@
         <v>1</v>
       </c>
       <c r="T27" s="5"/>
-      <c r="U27" s="18"/>
+      <c r="U27" s="16"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
@@ -19581,7 +19577,7 @@
         <v>1</v>
       </c>
       <c r="T28" s="5"/>
-      <c r="U28" s="18"/>
+      <c r="U28" s="16"/>
       <c r="V28" s="5"/>
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
@@ -19651,7 +19647,7 @@
         <v>1</v>
       </c>
       <c r="T29" s="5"/>
-      <c r="U29" s="18"/>
+      <c r="U29" s="16"/>
       <c r="V29" s="5"/>
       <c r="W29" s="5"/>
       <c r="X29" s="5"/>
@@ -19721,7 +19717,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5"/>
-      <c r="U30" s="18"/>
+      <c r="U30" s="16"/>
       <c r="V30" s="5"/>
       <c r="W30" s="5"/>
       <c r="X30" s="5"/>
@@ -19791,7 +19787,7 @@
         <v>1</v>
       </c>
       <c r="T31" s="5"/>
-      <c r="U31" s="18"/>
+      <c r="U31" s="16"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -19861,7 +19857,7 @@
         <v>1</v>
       </c>
       <c r="T32" s="5"/>
-      <c r="U32" s="18"/>
+      <c r="U32" s="16"/>
       <c r="V32" s="5"/>
       <c r="W32" s="5"/>
       <c r="X32" s="5"/>
@@ -19931,7 +19927,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5"/>
-      <c r="U33" s="18"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="5"/>
       <c r="W33" s="5"/>
       <c r="X33" s="5"/>
@@ -20001,7 +19997,7 @@
         <v>1</v>
       </c>
       <c r="T34" s="5"/>
-      <c r="U34" s="18"/>
+      <c r="U34" s="16"/>
       <c r="V34" s="5"/>
       <c r="W34" s="5"/>
       <c r="X34" s="5"/>
@@ -20071,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="T35" s="5"/>
-      <c r="U35" s="18"/>
+      <c r="U35" s="16"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
@@ -20141,7 +20137,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5"/>
-      <c r="U36" s="18"/>
+      <c r="U36" s="16"/>
       <c r="V36" s="5"/>
       <c r="W36" s="5"/>
       <c r="X36" s="5"/>
@@ -20211,7 +20207,7 @@
         <v>0</v>
       </c>
       <c r="T37" s="5"/>
-      <c r="U37" s="18"/>
+      <c r="U37" s="16"/>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
       <c r="X37" s="5"/>
@@ -20281,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="T38" s="5"/>
-      <c r="U38" s="18"/>
+      <c r="U38" s="16"/>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
@@ -20351,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="T39" s="5"/>
-      <c r="U39" s="18"/>
+      <c r="U39" s="16"/>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
       <c r="X39" s="5"/>
@@ -20421,7 +20417,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5"/>
-      <c r="U40" s="18"/>
+      <c r="U40" s="16"/>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
       <c r="X40" s="5"/>
@@ -20491,7 +20487,7 @@
         <v>0</v>
       </c>
       <c r="T41" s="5"/>
-      <c r="U41" s="18"/>
+      <c r="U41" s="16"/>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
       <c r="X41" s="5"/>
@@ -20561,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5"/>
-      <c r="U42" s="18"/>
+      <c r="U42" s="16"/>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
       <c r="X42" s="5"/>
@@ -20631,7 +20627,7 @@
         <v>1</v>
       </c>
       <c r="T43" s="5"/>
-      <c r="U43" s="18"/>
+      <c r="U43" s="16"/>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
       <c r="X43" s="5"/>
@@ -20701,7 +20697,7 @@
         <v>0</v>
       </c>
       <c r="T44" s="5"/>
-      <c r="U44" s="18"/>
+      <c r="U44" s="16"/>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
       <c r="X44" s="5"/>
@@ -20771,7 +20767,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5"/>
-      <c r="U45" s="18"/>
+      <c r="U45" s="16"/>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
       <c r="X45" s="5"/>
@@ -20841,7 +20837,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="5"/>
-      <c r="U46" s="18"/>
+      <c r="U46" s="16"/>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
       <c r="X46" s="5"/>
@@ -20911,7 +20907,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="5"/>
-      <c r="U47" s="18"/>
+      <c r="U47" s="16"/>
       <c r="V47" s="5"/>
       <c r="W47" s="5"/>
       <c r="X47" s="5"/>
@@ -20981,7 +20977,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="5"/>
-      <c r="U48" s="18"/>
+      <c r="U48" s="16"/>
       <c r="V48" s="5"/>
       <c r="W48" s="5"/>
       <c r="X48" s="5"/>
@@ -21051,7 +21047,7 @@
         <v>1</v>
       </c>
       <c r="T49" s="5"/>
-      <c r="U49" s="18"/>
+      <c r="U49" s="16"/>
       <c r="V49" s="5"/>
       <c r="W49" s="5"/>
       <c r="X49" s="5"/>
@@ -21118,7 +21114,7 @@
         <v>1</v>
       </c>
       <c r="T50" s="5"/>
-      <c r="U50" s="18"/>
+      <c r="U50" s="16"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
       <c r="X50" s="5"/>
@@ -21188,7 +21184,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="5"/>
-      <c r="U51" s="18"/>
+      <c r="U51" s="16"/>
       <c r="V51" s="5"/>
       <c r="W51" s="5"/>
       <c r="X51" s="5"/>
@@ -21258,7 +21254,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5"/>
-      <c r="U52" s="18"/>
+      <c r="U52" s="16"/>
       <c r="V52" s="5"/>
       <c r="W52" s="5"/>
       <c r="X52" s="5"/>
@@ -21328,7 +21324,7 @@
         <v>1</v>
       </c>
       <c r="T53" s="5"/>
-      <c r="U53" s="18"/>
+      <c r="U53" s="16"/>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
@@ -24080,7 +24076,7 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -24094,7 +24090,7 @@
   <dimension ref="A1:AB100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24116,71 +24112,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14" t="s">
         <v>690</v>
       </c>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16" t="s">
+      <c r="N1" s="14"/>
+      <c r="O1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="14" t="s">
         <v>1040</v>
       </c>
       <c r="Q1" s="5"/>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
       <c r="AB1" s="11"/>
     </row>
     <row r="2" spans="1:28" ht="15.75">
-      <c r="A2" s="17" t="str" cm="1">
+      <c r="A2" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">INDEX($A$4:$A$54,RANDBETWEEN(1,COUNTA($A$4:$A$54)),1)</f>
-        <v>MI</v>
+        <v>AR</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>4215982967</v>
+        <v>5596614882</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>38654</v>
+        <v>17782</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">(INDEX($H$4:$H$6,RANDBETWEEN(1,COUNTA($H$4:$H$6)),1))&amp;" "&amp;(INDEX($G$4:$G$38,RANDBETWEEN(1,COUNTA($G$4:$G$38)),1))</f>
-        <v>83488 Appold Dr</v>
+        <v>6400 Borland Ct</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX($J$4:$J$6,RANDBETWEEN(1,COUNTA($J$4:$J$6)),1)</f>
-        <v>Diagnose</v>
+        <v>Advisor</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX($M$4:$M$60,RANDBETWEEN(1,COUNTA($M$4:$M$60)),1)</f>
@@ -24188,26 +24184,26 @@
       </c>
       <c r="O2" t="str">
         <f ca="1">IF($R$3=16,$U$37,IF($R$3=17, $U$38,IF($R$3=18,$U$39,IF($R$3=19,$U$40,IF($R$3=20,$U$41,IF($R$3=21,$U$42,IF($R$3=22,$U$43,IF($R$3=23,$U$44,IF($R$3=24,$U$45,IF($R$3=25,$U$46,""))))))))))</f>
-        <v>%Zbd7H%I3NnOd1tgp</v>
+        <v>dX^17pvcimjzU$8*S</v>
       </c>
       <c r="P2" s="3">
         <f ca="1">RANDBETWEEN(DATE(1910,1,1),DATE(2021,2,5))</f>
-        <v>25591</v>
+        <v>32232</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
       <c r="X2" s="5"/>
       <c r="Y2" s="5"/>
       <c r="AB2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="15.75">
-      <c r="A3" s="17"/>
+      <c r="A3" s="15"/>
       <c r="R3" s="6">
         <f ca="1">RANDBETWEEN(16,25)</f>
         <v>18</v>
@@ -24217,23 +24213,23 @@
       </c>
       <c r="T3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>k</v>
+        <v>A</v>
       </c>
       <c r="U3" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T18)</f>
-        <v>kEm0c8qO5X4txhjI</v>
+        <v>AjlksJOlsSbtn1F2</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="str">
         <f ca="1">IF(R3=16,U3,IF(R3=17, U4,IF(R3=18,U5,IF(R3=19,U6,IF(R3=20,U7,IF(R3=21,U8,IF(R3=22,U9,IF(R3=23,U10,IF(R3=24,U11,IF(R3=25,U12,""))))))))))</f>
-        <v>kEm0c8qO5X4txhjIJJ</v>
+        <v>AjlksJOlsSbtn1F2QI</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
       <c r="AB3" s="5"/>
     </row>
     <row r="4" spans="1:28" ht="15.75">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>603</v>
       </c>
       <c r="G4" t="s">
@@ -24241,7 +24237,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>9573</v>
+        <v>6400</v>
       </c>
       <c r="J4" t="s">
         <v>500</v>
@@ -24255,11 +24251,11 @@
       </c>
       <c r="T4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>E</v>
+        <v>j</v>
       </c>
       <c r="U4" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T19)</f>
-        <v>kEm0c8qO5X4txhjIJ</v>
+        <v>AjlksJOlsSbtn1F2Q</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -24268,7 +24264,7 @@
       <c r="AB4" s="5"/>
     </row>
     <row r="5" spans="1:28" ht="15.75">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>604</v>
       </c>
       <c r="G5" t="s">
@@ -24276,7 +24272,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>83488</v>
+        <v>83169</v>
       </c>
       <c r="J5" t="s">
         <v>499</v>
@@ -24290,11 +24286,11 @@
       </c>
       <c r="T5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>m</v>
+        <v>l</v>
       </c>
       <c r="U5" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T20)</f>
-        <v>kEm0c8qO5X4txhjIJJ</v>
+        <v>AjlksJOlsSbtn1F2QI</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -24303,7 +24299,7 @@
       <c r="AB5" s="5"/>
     </row>
     <row r="6" spans="1:28" ht="15.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>605</v>
       </c>
       <c r="G6" t="s">
@@ -24311,7 +24307,7 @@
       </c>
       <c r="H6" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>268381</v>
+        <v>585432</v>
       </c>
       <c r="J6" t="s">
         <v>498</v>
@@ -24323,13 +24319,13 @@
       <c r="S6" s="5">
         <v>3</v>
       </c>
-      <c r="T6" s="5" cm="1">
+      <c r="T6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>0</v>
+        <v>k</v>
       </c>
       <c r="U6" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T21)</f>
-        <v>kEm0c8qO5X4txhjIJJE</v>
+        <v>AjlksJOlsSbtn1F2QIX</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -24338,7 +24334,7 @@
       <c r="AB6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="15.75">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>606</v>
       </c>
       <c r="G7" t="s">
@@ -24353,11 +24349,11 @@
       </c>
       <c r="T7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>c</v>
+        <v>s</v>
       </c>
       <c r="U7" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T22)</f>
-        <v>kEm0c8qO5X4txhjIJJEa</v>
+        <v>AjlksJOlsSbtn1F2QIXb</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -24366,7 +24362,7 @@
       <c r="AB7" s="5"/>
     </row>
     <row r="8" spans="1:28" ht="15.75">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>607</v>
       </c>
       <c r="G8" t="s">
@@ -24379,13 +24375,13 @@
       <c r="S8" s="5">
         <v>5</v>
       </c>
-      <c r="T8" s="5" cm="1">
+      <c r="T8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>8</v>
+        <v>J</v>
       </c>
       <c r="U8" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T23)</f>
-        <v>kEm0c8qO5X4txhjIJJEat</v>
+        <v>AjlksJOlsSbtn1F2QIXbL</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -24394,7 +24390,7 @@
       <c r="AB8" s="5"/>
     </row>
     <row r="9" spans="1:28" ht="15.75">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>608</v>
       </c>
       <c r="G9" t="s">
@@ -24409,11 +24405,11 @@
       </c>
       <c r="T9" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>q</v>
+        <v>O</v>
       </c>
       <c r="U9" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T24)</f>
-        <v>kEm0c8qO5X4txhjIJJEata</v>
+        <v>AjlksJOlsSbtn1F2QIXbLu</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -24422,7 +24418,7 @@
       <c r="AB9" s="5"/>
     </row>
     <row r="10" spans="1:28" ht="15.75">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>609</v>
       </c>
       <c r="G10" t="s">
@@ -24437,11 +24433,11 @@
       </c>
       <c r="T10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>O</v>
+        <v>l</v>
       </c>
       <c r="U10" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T25)</f>
-        <v>kEm0c8qO5X4txhjIJJEataC</v>
+        <v>AjlksJOlsSbtn1F2QIXbLuJ</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -24450,7 +24446,7 @@
       <c r="AB10" s="5"/>
     </row>
     <row r="11" spans="1:28" ht="15.75">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>610</v>
       </c>
       <c r="G11" t="s">
@@ -24463,13 +24459,13 @@
       <c r="S11" s="5">
         <v>8</v>
       </c>
-      <c r="T11" s="5" cm="1">
+      <c r="T11" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>5</v>
+        <v>s</v>
       </c>
       <c r="U11" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T26)</f>
-        <v>kEm0c8qO5X4txhjIJJEataCP</v>
+        <v>AjlksJOlsSbtn1F2QIXbLuJH</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -24478,7 +24474,7 @@
       <c r="AB11" s="5"/>
     </row>
     <row r="12" spans="1:28" ht="15.75">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="15" t="s">
         <v>611</v>
       </c>
       <c r="G12" t="s">
@@ -24493,11 +24489,11 @@
       </c>
       <c r="T12" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>X</v>
+        <v>S</v>
       </c>
       <c r="U12" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T27)</f>
-        <v>kEm0c8qO5X4txhjIJJEataCPT</v>
+        <v>AjlksJOlsSbtn1F2QIXbLuJHo</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -24506,7 +24502,7 @@
       <c r="AB12" s="5"/>
     </row>
     <row r="13" spans="1:28" ht="15.75">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="15" t="s">
         <v>612</v>
       </c>
       <c r="G13" t="s">
@@ -24519,9 +24515,9 @@
       <c r="S13" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="T13" s="5" cm="1">
+      <c r="T13" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>4</v>
+        <v>b</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="5"/>
@@ -24531,7 +24527,7 @@
       <c r="AB13" s="5"/>
     </row>
     <row r="14" spans="1:28" ht="15.75">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="15" t="s">
         <v>613</v>
       </c>
       <c r="G14" t="s">
@@ -24556,7 +24552,7 @@
       <c r="AB14" s="5"/>
     </row>
     <row r="15" spans="1:28" ht="15.75">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="15" t="s">
         <v>614</v>
       </c>
       <c r="G15" t="s">
@@ -24571,7 +24567,7 @@
       </c>
       <c r="T15" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>x</v>
+        <v>n</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="5"/>
@@ -24581,9 +24577,13 @@
       <c r="AB15" s="5"/>
     </row>
     <row r="16" spans="1:28" ht="15.75">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="15" t="s">
         <v>615</v>
       </c>
+      <c r="C16" s="18" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D16" s="18"/>
       <c r="G16" t="s">
         <v>657</v>
       </c>
@@ -24594,9 +24594,9 @@
       <c r="S16" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="T16" s="5" t="str" cm="1">
+      <c r="T16" s="5" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>h</v>
+        <v>1</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="5"/>
@@ -24606,8 +24606,11 @@
       <c r="AB16" s="5"/>
     </row>
     <row r="17" spans="1:28" ht="15.75">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>616</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1103</v>
       </c>
       <c r="G17" t="s">
         <v>658</v>
@@ -24621,7 +24624,7 @@
       </c>
       <c r="T17" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>j</v>
+        <v>F</v>
       </c>
       <c r="U17" s="7"/>
       <c r="V17" s="5"/>
@@ -24631,7 +24634,7 @@
       <c r="AB17" s="5"/>
     </row>
     <row r="18" spans="1:28" ht="15.75">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="15" t="s">
         <v>617</v>
       </c>
       <c r="G18" t="s">
@@ -24644,9 +24647,9 @@
       <c r="S18" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="T18" s="5" t="str" cm="1">
+      <c r="T18" s="5" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>I</v>
+        <v>2</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="5"/>
@@ -24656,7 +24659,7 @@
       <c r="AB18" s="5"/>
     </row>
     <row r="19" spans="1:28" ht="15.75">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="15" t="s">
         <v>618</v>
       </c>
       <c r="G19" t="s">
@@ -24671,7 +24674,7 @@
       </c>
       <c r="T19" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>J</v>
+        <v>Q</v>
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="5"/>
@@ -24681,7 +24684,7 @@
       <c r="AB19" s="5"/>
     </row>
     <row r="20" spans="1:28" ht="15.75">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="15" t="s">
         <v>619</v>
       </c>
       <c r="G20" t="s">
@@ -24696,7 +24699,7 @@
       </c>
       <c r="T20" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>J</v>
+        <v>I</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="5"/>
@@ -24706,7 +24709,7 @@
       <c r="AB20" s="5"/>
     </row>
     <row r="21" spans="1:28" ht="15.75">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="15" t="s">
         <v>620</v>
       </c>
       <c r="G21" t="s">
@@ -24721,7 +24724,7 @@
       </c>
       <c r="T21" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>E</v>
+        <v>X</v>
       </c>
       <c r="U21" s="7"/>
       <c r="V21" s="5"/>
@@ -24731,7 +24734,7 @@
       <c r="AB21" s="5"/>
     </row>
     <row r="22" spans="1:28" ht="15.75">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="15" t="s">
         <v>621</v>
       </c>
       <c r="G22" t="s">
@@ -24746,7 +24749,7 @@
       </c>
       <c r="T22" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>a</v>
+        <v>b</v>
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="5"/>
@@ -24756,7 +24759,7 @@
       <c r="AB22" s="5"/>
     </row>
     <row r="23" spans="1:28" ht="15.75">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="15" t="s">
         <v>622</v>
       </c>
       <c r="G23" t="s">
@@ -24771,7 +24774,7 @@
       </c>
       <c r="T23" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>t</v>
+        <v>L</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="5"/>
@@ -24781,7 +24784,7 @@
       <c r="AB23" s="5"/>
     </row>
     <row r="24" spans="1:28" ht="15.75">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="15" t="s">
         <v>623</v>
       </c>
       <c r="G24" t="s">
@@ -24796,7 +24799,7 @@
       </c>
       <c r="T24" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>a</v>
+        <v>u</v>
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="5"/>
@@ -24806,7 +24809,7 @@
       <c r="AB24" s="5"/>
     </row>
     <row r="25" spans="1:28" ht="15.75">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="15" t="s">
         <v>410</v>
       </c>
       <c r="G25" t="s">
@@ -24821,7 +24824,7 @@
       </c>
       <c r="T25" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>C</v>
+        <v>J</v>
       </c>
       <c r="U25" s="7"/>
       <c r="V25" s="5"/>
@@ -24831,7 +24834,7 @@
       <c r="AB25" s="5"/>
     </row>
     <row r="26" spans="1:28" ht="15.75">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>624</v>
       </c>
       <c r="G26" t="s">
@@ -24846,7 +24849,7 @@
       </c>
       <c r="T26" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>P</v>
+        <v>H</v>
       </c>
       <c r="U26" s="7"/>
       <c r="V26" s="5"/>
@@ -24856,7 +24859,7 @@
       <c r="AB26" s="5"/>
     </row>
     <row r="27" spans="1:28" ht="15.75">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="15" t="s">
         <v>625</v>
       </c>
       <c r="G27" t="s">
@@ -24871,7 +24874,7 @@
       </c>
       <c r="T27" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>T</v>
+        <v>o</v>
       </c>
       <c r="U27" s="7"/>
       <c r="V27" s="5"/>
@@ -24881,7 +24884,7 @@
       <c r="AB27" s="5"/>
     </row>
     <row r="28" spans="1:28" ht="15.75">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="15" t="s">
         <v>626</v>
       </c>
       <c r="G28" t="s">
@@ -24903,7 +24906,7 @@
       <c r="AB28" s="5"/>
     </row>
     <row r="29" spans="1:28" ht="15.75">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="15" t="s">
         <v>627</v>
       </c>
       <c r="G29" t="s">
@@ -24925,7 +24928,7 @@
       <c r="AB29" s="5"/>
     </row>
     <row r="30" spans="1:28" ht="15.75">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="15" t="s">
         <v>628</v>
       </c>
       <c r="G30" t="s">
@@ -24940,7 +24943,7 @@
       </c>
       <c r="T30" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>%</v>
+        <v>d</v>
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="5"/>
@@ -24950,7 +24953,7 @@
       <c r="AB30" s="5"/>
     </row>
     <row r="31" spans="1:28" ht="15.75">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="15" t="s">
         <v>629</v>
       </c>
       <c r="G31" t="s">
@@ -24965,7 +24968,7 @@
       </c>
       <c r="T31" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>Z</v>
+        <v>X</v>
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="5"/>
@@ -24975,7 +24978,7 @@
       <c r="AB31" s="5"/>
     </row>
     <row r="32" spans="1:28" ht="15.75">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="15" t="s">
         <v>630</v>
       </c>
       <c r="G32" t="s">
@@ -24990,7 +24993,7 @@
       </c>
       <c r="T32" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>b</v>
+        <v>^</v>
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="5"/>
@@ -25000,7 +25003,7 @@
       <c r="AB32" s="5"/>
     </row>
     <row r="33" spans="1:28" ht="15.75">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="15" t="s">
         <v>631</v>
       </c>
       <c r="G33" t="s">
@@ -25013,9 +25016,9 @@
       <c r="S33" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="T33" s="5" t="str" cm="1">
+      <c r="T33" s="5" cm="1">
         <f t="array" aca="1" ref="T33" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>d</v>
+        <v>1</v>
       </c>
       <c r="U33" s="7"/>
       <c r="V33" s="5"/>
@@ -25025,7 +25028,7 @@
       <c r="AB33" s="5"/>
     </row>
     <row r="34" spans="1:28" ht="15.75">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="15" t="s">
         <v>632</v>
       </c>
       <c r="G34" t="s">
@@ -25050,7 +25053,7 @@
       <c r="AB34" s="5"/>
     </row>
     <row r="35" spans="1:28" ht="15.75">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="15" t="s">
         <v>633</v>
       </c>
       <c r="G35" t="s">
@@ -25065,7 +25068,7 @@
       </c>
       <c r="T35" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>H</v>
+        <v>p</v>
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="5"/>
@@ -25075,7 +25078,7 @@
       <c r="AB35" s="5"/>
     </row>
     <row r="36" spans="1:28" ht="15.75">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="15" t="s">
         <v>634</v>
       </c>
       <c r="G36" t="s">
@@ -25090,7 +25093,7 @@
       </c>
       <c r="T36" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>%</v>
+        <v>v</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="5"/>
@@ -25100,7 +25103,7 @@
       <c r="AB36" s="5"/>
     </row>
     <row r="37" spans="1:28" ht="15.75">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="15" t="s">
         <v>635</v>
       </c>
       <c r="G37" t="s">
@@ -25115,11 +25118,11 @@
       </c>
       <c r="T37" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T37" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>I</v>
+        <v>c</v>
       </c>
       <c r="U37" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T44)</f>
-        <v>%Zbd7H%I3NnOd1t</v>
+        <v>dX^17pvcimjzU$8</v>
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -25128,7 +25131,7 @@
       <c r="AB37" s="5"/>
     </row>
     <row r="38" spans="1:28" ht="15.75">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="15" t="s">
         <v>636</v>
       </c>
       <c r="G38" t="s">
@@ -25141,13 +25144,13 @@
       <c r="S38" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="T38" s="5" cm="1">
+      <c r="T38" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T38" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>3</v>
+        <v>i</v>
       </c>
       <c r="U38" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T45)</f>
-        <v>%Zbd7H%I3NnOd1tg</v>
+        <v>dX^17pvcimjzU$8*</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -25156,7 +25159,7 @@
       <c r="AB38" s="5"/>
     </row>
     <row r="39" spans="1:28" ht="15.75">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="15" t="s">
         <v>637</v>
       </c>
       <c r="M39" t="s">
@@ -25168,11 +25171,11 @@
       </c>
       <c r="T39" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>N</v>
+        <v>m</v>
       </c>
       <c r="U39" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T46)</f>
-        <v>%Zbd7H%I3NnOd1tgp</v>
+        <v>dX^17pvcimjzU$8*S</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -25181,7 +25184,7 @@
       <c r="AB39" s="5"/>
     </row>
     <row r="40" spans="1:28" ht="15.75">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="15" t="s">
         <v>638</v>
       </c>
       <c r="M40" t="s">
@@ -25193,11 +25196,11 @@
       </c>
       <c r="T40" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>n</v>
+        <v>j</v>
       </c>
       <c r="U40" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T47)</f>
-        <v>%Zbd7H%I3NnOd1tgp@</v>
+        <v>dX^17pvcimjzU$8*S2</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -25206,7 +25209,7 @@
       <c r="AB40" s="5"/>
     </row>
     <row r="41" spans="1:28" ht="15.75">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="15" t="s">
         <v>639</v>
       </c>
       <c r="M41" t="s">
@@ -25218,11 +25221,11 @@
       </c>
       <c r="T41" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T41" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>O</v>
+        <v>z</v>
       </c>
       <c r="U41" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T48)</f>
-        <v>%Zbd7H%I3NnOd1tgp@g</v>
+        <v>dX^17pvcimjzU$8*S2H</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -25231,7 +25234,7 @@
       <c r="AB41" s="5"/>
     </row>
     <row r="42" spans="1:28" ht="15.75">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="15" t="s">
         <v>640</v>
       </c>
       <c r="M42" t="s">
@@ -25243,11 +25246,11 @@
       </c>
       <c r="T42" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T42" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>d</v>
+        <v>U</v>
       </c>
       <c r="U42" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T49)</f>
-        <v>%Zbd7H%I3NnOd1tgp@go</v>
+        <v>dX^17pvcimjzU$8*S2Hw</v>
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
@@ -25256,7 +25259,7 @@
       <c r="AB42" s="5"/>
     </row>
     <row r="43" spans="1:28" ht="15.75">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="15" t="s">
         <v>641</v>
       </c>
       <c r="M43" t="s">
@@ -25266,13 +25269,13 @@
       <c r="S43" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="T43" s="5" cm="1">
+      <c r="T43" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T43" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>1</v>
+        <v>$</v>
       </c>
       <c r="U43" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T50)</f>
-        <v>%Zbd7H%I3NnOd1tgp@goj</v>
+        <v>dX^17pvcimjzU$8*S2Hw6</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -25281,7 +25284,7 @@
       <c r="AB43" s="5"/>
     </row>
     <row r="44" spans="1:28" ht="15.75">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="15" t="s">
         <v>642</v>
       </c>
       <c r="M44" t="s">
@@ -25291,13 +25294,13 @@
       <c r="S44" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="T44" s="5" t="str" cm="1">
+      <c r="T44" s="5" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>t</v>
+        <v>8</v>
       </c>
       <c r="U44" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T51)</f>
-        <v>%Zbd7H%I3NnOd1tgp@gojG</v>
+        <v>dX^17pvcimjzU$8*S2Hw6V</v>
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
@@ -25306,7 +25309,7 @@
       <c r="AB44" s="5"/>
     </row>
     <row r="45" spans="1:28" ht="15.75">
-      <c r="A45" s="17" t="s">
+      <c r="A45" s="15" t="s">
         <v>643</v>
       </c>
       <c r="M45" t="s">
@@ -25318,11 +25321,11 @@
       </c>
       <c r="T45" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>g</v>
+        <v>*</v>
       </c>
       <c r="U45" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T52)</f>
-        <v>%Zbd7H%I3NnOd1tgp@gojGt</v>
+        <v>dX^17pvcimjzU$8*S2Hw6Vw</v>
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
@@ -25331,7 +25334,7 @@
       <c r="AB45" s="5"/>
     </row>
     <row r="46" spans="1:28" ht="15.75">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="15" t="s">
         <v>644</v>
       </c>
       <c r="M46" t="s">
@@ -25343,11 +25346,11 @@
       </c>
       <c r="T46" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T46" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>p</v>
+        <v>S</v>
       </c>
       <c r="U46" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T53)</f>
-        <v>%Zbd7H%I3NnOd1tgp@gojGt3</v>
+        <v>dX^17pvcimjzU$8*S2Hw6Vwh</v>
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
@@ -25356,7 +25359,7 @@
       <c r="AB46" s="5"/>
     </row>
     <row r="47" spans="1:28" ht="15.75">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="15" t="s">
         <v>645</v>
       </c>
       <c r="M47" t="s">
@@ -25366,9 +25369,9 @@
       <c r="S47" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="T47" s="5" t="str" cm="1">
+      <c r="T47" s="5" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>@</v>
+        <v>2</v>
       </c>
       <c r="U47" s="7"/>
       <c r="V47" s="5"/>
@@ -25378,7 +25381,7 @@
       <c r="AB47" s="5"/>
     </row>
     <row r="48" spans="1:28" ht="15.75">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="15" t="s">
         <v>646</v>
       </c>
       <c r="M48" t="s">
@@ -25390,7 +25393,7 @@
       </c>
       <c r="T48" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T48" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>g</v>
+        <v>H</v>
       </c>
       <c r="U48" s="7"/>
       <c r="V48" s="5"/>
@@ -25400,7 +25403,7 @@
       <c r="AB48" s="5"/>
     </row>
     <row r="49" spans="1:28" ht="15.75">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="15" t="s">
         <v>647</v>
       </c>
       <c r="M49" t="s">
@@ -25412,7 +25415,7 @@
       </c>
       <c r="T49" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T49" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>o</v>
+        <v>w</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="5"/>
@@ -25422,7 +25425,7 @@
       <c r="AB49" s="5"/>
     </row>
     <row r="50" spans="1:28" ht="15.75">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="15" t="s">
         <v>648</v>
       </c>
       <c r="M50" t="s">
@@ -25432,9 +25435,9 @@
       <c r="S50" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="T50" s="5" t="str" cm="1">
+      <c r="T50" s="5" cm="1">
         <f t="array" aca="1" ref="T50" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>j</v>
+        <v>6</v>
       </c>
       <c r="U50" s="7"/>
       <c r="V50" s="5"/>
@@ -25444,7 +25447,7 @@
       <c r="AB50" s="5"/>
     </row>
     <row r="51" spans="1:28" ht="15.75">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="15" t="s">
         <v>649</v>
       </c>
       <c r="M51" t="s">
@@ -25456,7 +25459,7 @@
       </c>
       <c r="T51" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T51" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>G</v>
+        <v>V</v>
       </c>
       <c r="U51" s="7"/>
       <c r="V51" s="5"/>
@@ -25466,7 +25469,7 @@
       <c r="AB51" s="5"/>
     </row>
     <row r="52" spans="1:28" ht="15.75">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="15" t="s">
         <v>650</v>
       </c>
       <c r="M52" t="s">
@@ -25478,7 +25481,7 @@
       </c>
       <c r="T52" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T52" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>t</v>
+        <v>w</v>
       </c>
       <c r="U52" s="7"/>
       <c r="V52" s="5"/>
@@ -25488,7 +25491,7 @@
       <c r="AB52" s="5"/>
     </row>
     <row r="53" spans="1:28" ht="15.75">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="15" t="s">
         <v>651</v>
       </c>
       <c r="M53" t="s">
@@ -25498,9 +25501,9 @@
       <c r="S53" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="T53" s="5" cm="1">
+      <c r="T53" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>3</v>
+        <v>h</v>
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>
@@ -25718,8 +25721,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -25741,11 +25745,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
@@ -26332,11 +26336,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dylwa\source\repos\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C331A-B5D6-4DFA-B2F5-BFA78C8424B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17E750F-D9DC-48BD-93C0-9AC2EFB07193}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6315" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1105">
   <si>
     <t>User_ID</t>
   </si>
@@ -3372,6 +3372,9 @@
   </si>
   <si>
     <t>http://www.randat.com/</t>
+  </si>
+  <si>
+    <t>ARichardson2</t>
   </si>
 </sst>
 </file>
@@ -3480,7 +3483,17 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F599AD3-6840-46F2-88F2-0E9C6FEC8D7E}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{099EC489-0DCF-455E-884E-0F2FAB91D948}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3980,8 +3993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8547,7 +8560,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>941</v>
+        <v>1104</v>
       </c>
       <c r="C64" t="s">
         <v>871</v>
@@ -12864,10 +12877,13 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B3:B52">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -24076,10 +24092,10 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24089,7 +24105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F4A2B1-C1F4-4A73-92C1-866489BD7F37}">
   <dimension ref="A1:AB100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -24160,35 +24176,35 @@
     <row r="2" spans="1:28" ht="15.75">
       <c r="A2" s="15" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">INDEX($A$4:$A$54,RANDBETWEEN(1,COUNTA($A$4:$A$54)),1)</f>
-        <v>AR</v>
+        <v>CT</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>5596614882</v>
+        <v>4142793492</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>17782</v>
+        <v>65696</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">(INDEX($H$4:$H$6,RANDBETWEEN(1,COUNTA($H$4:$H$6)),1))&amp;" "&amp;(INDEX($G$4:$G$38,RANDBETWEEN(1,COUNTA($G$4:$G$38)),1))</f>
-        <v>6400 Borland Ct</v>
+        <v>62572 Boxwood St</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX($J$4:$J$6,RANDBETWEEN(1,COUNTA($J$4:$J$6)),1)</f>
-        <v>Advisor</v>
+        <v>Prescribe</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX($M$4:$M$60,RANDBETWEEN(1,COUNTA($M$4:$M$60)),1)</f>
-        <v>Battle Creek</v>
+        <v>Grand Rapids</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">IF($R$3=16,$U$37,IF($R$3=17, $U$38,IF($R$3=18,$U$39,IF($R$3=19,$U$40,IF($R$3=20,$U$41,IF($R$3=21,$U$42,IF($R$3=22,$U$43,IF($R$3=23,$U$44,IF($R$3=24,$U$45,IF($R$3=25,$U$46,""))))))))))</f>
-        <v>dX^17pvcimjzU$8*S</v>
+        <v>ZH%m91e2xx4p9ZYA^QX</v>
       </c>
       <c r="P2" s="3">
         <f ca="1">RANDBETWEEN(DATE(1910,1,1),DATE(2021,2,5))</f>
-        <v>32232</v>
+        <v>14847</v>
       </c>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -24206,23 +24222,23 @@
       <c r="A3" s="15"/>
       <c r="R3" s="6">
         <f ca="1">RANDBETWEEN(16,25)</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S3" s="5">
         <v>0</v>
       </c>
       <c r="T3" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>A</v>
+        <v>x</v>
       </c>
       <c r="U3" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T18)</f>
-        <v>AjlksJOlsSbtn1F2</v>
+        <v>xcFbPOTvjOhBIquN</v>
       </c>
       <c r="V3" s="5"/>
       <c r="W3" s="5" t="str">
         <f ca="1">IF(R3=16,U3,IF(R3=17, U4,IF(R3=18,U5,IF(R3=19,U6,IF(R3=20,U7,IF(R3=21,U8,IF(R3=22,U9,IF(R3=23,U10,IF(R3=24,U11,IF(R3=25,U12,""))))))))))</f>
-        <v>AjlksJOlsSbtn1F2QI</v>
+        <v>xcFbPOTvjOhBIquNW6J8</v>
       </c>
       <c r="X3" s="5"/>
       <c r="Y3" s="6"/>
@@ -24237,7 +24253,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>6400</v>
+        <v>7688</v>
       </c>
       <c r="J4" t="s">
         <v>500</v>
@@ -24251,11 +24267,11 @@
       </c>
       <c r="T4" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>j</v>
+        <v>c</v>
       </c>
       <c r="U4" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T19)</f>
-        <v>AjlksJOlsSbtn1F2Q</v>
+        <v>xcFbPOTvjOhBIquNW</v>
       </c>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -24272,7 +24288,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>83169</v>
+        <v>62572</v>
       </c>
       <c r="J5" t="s">
         <v>499</v>
@@ -24286,11 +24302,11 @@
       </c>
       <c r="T5" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>l</v>
+        <v>F</v>
       </c>
       <c r="U5" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T20)</f>
-        <v>AjlksJOlsSbtn1F2QI</v>
+        <v>xcFbPOTvjOhBIquNW6</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
@@ -24307,7 +24323,7 @@
       </c>
       <c r="H6" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>585432</v>
+        <v>480691</v>
       </c>
       <c r="J6" t="s">
         <v>498</v>
@@ -24321,11 +24337,11 @@
       </c>
       <c r="T6" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>k</v>
+        <v>b</v>
       </c>
       <c r="U6" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T21)</f>
-        <v>AjlksJOlsSbtn1F2QIX</v>
+        <v>xcFbPOTvjOhBIquNW6J</v>
       </c>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -24349,11 +24365,11 @@
       </c>
       <c r="T7" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>s</v>
+        <v>P</v>
       </c>
       <c r="U7" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T22)</f>
-        <v>AjlksJOlsSbtn1F2QIXb</v>
+        <v>xcFbPOTvjOhBIquNW6J8</v>
       </c>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -24377,11 +24393,11 @@
       </c>
       <c r="T8" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>J</v>
+        <v>O</v>
       </c>
       <c r="U8" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T23)</f>
-        <v>AjlksJOlsSbtn1F2QIXbL</v>
+        <v>xcFbPOTvjOhBIquNW6J80</v>
       </c>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -24405,11 +24421,11 @@
       </c>
       <c r="T9" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>O</v>
+        <v>T</v>
       </c>
       <c r="U9" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T24)</f>
-        <v>AjlksJOlsSbtn1F2QIXbLu</v>
+        <v>xcFbPOTvjOhBIquNW6J80z</v>
       </c>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -24433,11 +24449,11 @@
       </c>
       <c r="T10" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>l</v>
+        <v>v</v>
       </c>
       <c r="U10" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T25)</f>
-        <v>AjlksJOlsSbtn1F2QIXbLuJ</v>
+        <v>xcFbPOTvjOhBIquNW6J80zb</v>
       </c>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -24461,11 +24477,11 @@
       </c>
       <c r="T11" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="U11" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T26)</f>
-        <v>AjlksJOlsSbtn1F2QIXbLuJH</v>
+        <v>xcFbPOTvjOhBIquNW6J80zbW</v>
       </c>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
@@ -24489,11 +24505,11 @@
       </c>
       <c r="T12" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>S</v>
+        <v>O</v>
       </c>
       <c r="U12" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T27)</f>
-        <v>AjlksJOlsSbtn1F2QIXbLuJHo</v>
+        <v>xcFbPOTvjOhBIquNW6J80zbW4</v>
       </c>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
@@ -24517,7 +24533,7 @@
       </c>
       <c r="T13" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>b</v>
+        <v>h</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="5"/>
@@ -24542,7 +24558,7 @@
       </c>
       <c r="T14" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>t</v>
+        <v>B</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="5"/>
@@ -24567,7 +24583,7 @@
       </c>
       <c r="T15" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>n</v>
+        <v>I</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="5"/>
@@ -24594,9 +24610,9 @@
       <c r="S16" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="T16" s="5" cm="1">
+      <c r="T16" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>1</v>
+        <v>q</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="5"/>
@@ -24624,7 +24640,7 @@
       </c>
       <c r="T17" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>F</v>
+        <v>u</v>
       </c>
       <c r="U17" s="7"/>
       <c r="V17" s="5"/>
@@ -24647,9 +24663,9 @@
       <c r="S18" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="T18" s="5" cm="1">
+      <c r="T18" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>2</v>
+        <v>N</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="5"/>
@@ -24674,7 +24690,7 @@
       </c>
       <c r="T19" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>Q</v>
+        <v>W</v>
       </c>
       <c r="U19" s="7"/>
       <c r="V19" s="5"/>
@@ -24697,9 +24713,9 @@
       <c r="S20" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="T20" s="5" t="str" cm="1">
+      <c r="T20" s="5" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>I</v>
+        <v>6</v>
       </c>
       <c r="U20" s="7"/>
       <c r="V20" s="5"/>
@@ -24724,7 +24740,7 @@
       </c>
       <c r="T21" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>X</v>
+        <v>J</v>
       </c>
       <c r="U21" s="7"/>
       <c r="V21" s="5"/>
@@ -24747,9 +24763,9 @@
       <c r="S22" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="T22" s="5" t="str" cm="1">
+      <c r="T22" s="5" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>b</v>
+        <v>8</v>
       </c>
       <c r="U22" s="7"/>
       <c r="V22" s="5"/>
@@ -24772,9 +24788,9 @@
       <c r="S23" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="T23" s="5" t="str" cm="1">
+      <c r="T23" s="5" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>L</v>
+        <v>0</v>
       </c>
       <c r="U23" s="7"/>
       <c r="V23" s="5"/>
@@ -24799,7 +24815,7 @@
       </c>
       <c r="T24" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>u</v>
+        <v>z</v>
       </c>
       <c r="U24" s="7"/>
       <c r="V24" s="5"/>
@@ -24824,7 +24840,7 @@
       </c>
       <c r="T25" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>J</v>
+        <v>b</v>
       </c>
       <c r="U25" s="7"/>
       <c r="V25" s="5"/>
@@ -24849,7 +24865,7 @@
       </c>
       <c r="T26" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>H</v>
+        <v>W</v>
       </c>
       <c r="U26" s="7"/>
       <c r="V26" s="5"/>
@@ -24872,9 +24888,9 @@
       <c r="S27" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="T27" s="5" t="str" cm="1">
+      <c r="T27" s="5" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>o</v>
+        <v>4</v>
       </c>
       <c r="U27" s="7"/>
       <c r="V27" s="5"/>
@@ -24943,7 +24959,7 @@
       </c>
       <c r="T30" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>d</v>
+        <v>Z</v>
       </c>
       <c r="U30" s="7"/>
       <c r="V30" s="5"/>
@@ -24968,7 +24984,7 @@
       </c>
       <c r="T31" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>X</v>
+        <v>H</v>
       </c>
       <c r="U31" s="7"/>
       <c r="V31" s="5"/>
@@ -24993,7 +25009,7 @@
       </c>
       <c r="T32" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>^</v>
+        <v>%</v>
       </c>
       <c r="U32" s="7"/>
       <c r="V32" s="5"/>
@@ -25016,9 +25032,9 @@
       <c r="S33" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="T33" s="5" cm="1">
+      <c r="T33" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T33" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>1</v>
+        <v>m</v>
       </c>
       <c r="U33" s="7"/>
       <c r="V33" s="5"/>
@@ -25043,7 +25059,7 @@
       </c>
       <c r="T34" s="5" cm="1">
         <f t="array" aca="1" ref="T34" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U34" s="7"/>
       <c r="V34" s="5"/>
@@ -25066,9 +25082,9 @@
       <c r="S35" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="T35" s="5" t="str" cm="1">
+      <c r="T35" s="5" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>p</v>
+        <v>1</v>
       </c>
       <c r="U35" s="7"/>
       <c r="V35" s="5"/>
@@ -25093,7 +25109,7 @@
       </c>
       <c r="T36" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>v</v>
+        <v>e</v>
       </c>
       <c r="U36" s="7"/>
       <c r="V36" s="5"/>
@@ -25116,13 +25132,13 @@
       <c r="S37" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="T37" s="5" t="str" cm="1">
+      <c r="T37" s="5" cm="1">
         <f t="array" aca="1" ref="T37" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>c</v>
+        <v>2</v>
       </c>
       <c r="U37" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T44)</f>
-        <v>dX^17pvcimjzU$8</v>
+        <v>ZH%m91e2xx4p9ZY</v>
       </c>
       <c r="V37" s="5"/>
       <c r="W37" s="5"/>
@@ -25146,11 +25162,11 @@
       </c>
       <c r="T38" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T38" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>i</v>
+        <v>x</v>
       </c>
       <c r="U38" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T45)</f>
-        <v>dX^17pvcimjzU$8*</v>
+        <v>ZH%m91e2xx4p9ZYA</v>
       </c>
       <c r="V38" s="5"/>
       <c r="W38" s="5"/>
@@ -25171,11 +25187,11 @@
       </c>
       <c r="T39" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>m</v>
+        <v>x</v>
       </c>
       <c r="U39" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T46)</f>
-        <v>dX^17pvcimjzU$8*S</v>
+        <v>ZH%m91e2xx4p9ZYA^</v>
       </c>
       <c r="V39" s="5"/>
       <c r="W39" s="5"/>
@@ -25194,13 +25210,13 @@
       <c r="S40" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="T40" s="5" t="str" cm="1">
+      <c r="T40" s="5" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>j</v>
+        <v>4</v>
       </c>
       <c r="U40" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T47)</f>
-        <v>dX^17pvcimjzU$8*S2</v>
+        <v>ZH%m91e2xx4p9ZYA^Q</v>
       </c>
       <c r="V40" s="5"/>
       <c r="W40" s="5"/>
@@ -25221,11 +25237,11 @@
       </c>
       <c r="T41" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T41" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>z</v>
+        <v>p</v>
       </c>
       <c r="U41" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T48)</f>
-        <v>dX^17pvcimjzU$8*S2H</v>
+        <v>ZH%m91e2xx4p9ZYA^QX</v>
       </c>
       <c r="V41" s="5"/>
       <c r="W41" s="5"/>
@@ -25244,13 +25260,13 @@
       <c r="S42" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="T42" s="5" t="str" cm="1">
+      <c r="T42" s="5" cm="1">
         <f t="array" aca="1" ref="T42" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>U</v>
+        <v>9</v>
       </c>
       <c r="U42" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T49)</f>
-        <v>dX^17pvcimjzU$8*S2Hw</v>
+        <v>ZH%m91e2xx4p9ZYA^QXK</v>
       </c>
       <c r="V42" s="5"/>
       <c r="W42" s="5"/>
@@ -25271,11 +25287,11 @@
       </c>
       <c r="T43" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T43" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>$</v>
+        <v>Z</v>
       </c>
       <c r="U43" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T50)</f>
-        <v>dX^17pvcimjzU$8*S2Hw6</v>
+        <v>ZH%m91e2xx4p9ZYA^QXKF</v>
       </c>
       <c r="V43" s="5"/>
       <c r="W43" s="5"/>
@@ -25294,13 +25310,13 @@
       <c r="S44" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="T44" s="5" cm="1">
+      <c r="T44" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>8</v>
+        <v>Y</v>
       </c>
       <c r="U44" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T51)</f>
-        <v>dX^17pvcimjzU$8*S2Hw6V</v>
+        <v>ZH%m91e2xx4p9ZYA^QXKF@</v>
       </c>
       <c r="V44" s="5"/>
       <c r="W44" s="5"/>
@@ -25321,11 +25337,11 @@
       </c>
       <c r="T45" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>*</v>
+        <v>A</v>
       </c>
       <c r="U45" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T52)</f>
-        <v>dX^17pvcimjzU$8*S2Hw6Vw</v>
+        <v>ZH%m91e2xx4p9ZYA^QXKF@1</v>
       </c>
       <c r="V45" s="5"/>
       <c r="W45" s="5"/>
@@ -25346,11 +25362,11 @@
       </c>
       <c r="T46" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T46" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>S</v>
+        <v>^</v>
       </c>
       <c r="U46" s="7" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T53)</f>
-        <v>dX^17pvcimjzU$8*S2Hw6Vwh</v>
+        <v>ZH%m91e2xx4p9ZYA^QXKF@1$</v>
       </c>
       <c r="V46" s="5"/>
       <c r="W46" s="5"/>
@@ -25369,9 +25385,9 @@
       <c r="S47" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="T47" s="5" cm="1">
+      <c r="T47" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>2</v>
+        <v>Q</v>
       </c>
       <c r="U47" s="7"/>
       <c r="V47" s="5"/>
@@ -25393,7 +25409,7 @@
       </c>
       <c r="T48" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T48" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>H</v>
+        <v>X</v>
       </c>
       <c r="U48" s="7"/>
       <c r="V48" s="5"/>
@@ -25415,7 +25431,7 @@
       </c>
       <c r="T49" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T49" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>w</v>
+        <v>K</v>
       </c>
       <c r="U49" s="7"/>
       <c r="V49" s="5"/>
@@ -25435,9 +25451,9 @@
       <c r="S50" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="T50" s="5" cm="1">
+      <c r="T50" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T50" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>6</v>
+        <v>F</v>
       </c>
       <c r="U50" s="7"/>
       <c r="V50" s="5"/>
@@ -25459,7 +25475,7 @@
       </c>
       <c r="T51" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T51" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>V</v>
+        <v>@</v>
       </c>
       <c r="U51" s="7"/>
       <c r="V51" s="5"/>
@@ -25479,9 +25495,9 @@
       <c r="S52" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="T52" s="5" t="str" cm="1">
+      <c r="T52" s="5" cm="1">
         <f t="array" aca="1" ref="T52" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>w</v>
+        <v>1</v>
       </c>
       <c r="U52" s="7"/>
       <c r="V52" s="5"/>
@@ -25503,7 +25519,7 @@
       </c>
       <c r="T53" s="5" t="str" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>h</v>
+        <v>$</v>
       </c>
       <c r="V53" s="5"/>
       <c r="W53" s="5"/>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Breanna\Documents\GitHub\CIS424_wi21_Med_Cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\futur\Documents\GitHub\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084AF7F-E79A-452D-B9E3-D20B7FF1112B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE09E5-AE3D-4D3B-8F03-C8AF53000DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Error Prone Data" sheetId="7" r:id="rId6"/>
     <sheet name="Rooms" sheetId="4" r:id="rId7"/>
     <sheet name="Allergy" sheetId="5" r:id="rId8"/>
+    <sheet name="PatientPhysician" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PatientRoom!$A$2:$D$2</definedName>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1509">
   <si>
     <t>User</t>
   </si>
@@ -4590,6 +4591,9 @@
   </si>
   <si>
     <t>Left</t>
+  </si>
+  <si>
+    <t>PatientPhysician</t>
   </si>
 </sst>
 </file>
@@ -5505,37 +5509,37 @@
       <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.15625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.26171875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.41796875" customWidth="1"/>
-    <col min="14" max="14" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.83984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.41796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.15625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.68359375" customWidth="1"/>
-    <col min="26" max="26" width="16.578125" customWidth="1"/>
-    <col min="33" max="33" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
+    <col min="26" max="26" width="16.5703125" customWidth="1"/>
+    <col min="33" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -5584,7 +5588,7 @@
       <c r="BF1" s="4"/>
       <c r="BG1" s="4"/>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -5649,7 +5653,7 @@
       <c r="BF2" s="4"/>
       <c r="BG2" s="4"/>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5715,7 +5719,7 @@
       <c r="BF3" s="4"/>
       <c r="BG3" s="4"/>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5781,7 +5785,7 @@
       <c r="BF4" s="4"/>
       <c r="BG4" s="4"/>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5847,7 +5851,7 @@
       <c r="BF5" s="4"/>
       <c r="BG5" s="4"/>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5913,7 +5917,7 @@
       <c r="BF6" s="4"/>
       <c r="BG6" s="4"/>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5979,7 +5983,7 @@
       <c r="BF7" s="4"/>
       <c r="BG7" s="4"/>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6045,7 +6049,7 @@
       <c r="BF8" s="4"/>
       <c r="BG8" s="4"/>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6111,7 +6115,7 @@
       <c r="BF9" s="4"/>
       <c r="BG9" s="4"/>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6177,7 +6181,7 @@
       <c r="BF10" s="4"/>
       <c r="BG10" s="4"/>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6243,7 +6247,7 @@
       <c r="BF11" s="4"/>
       <c r="BG11" s="4"/>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6309,7 +6313,7 @@
       <c r="BF12" s="4"/>
       <c r="BG12" s="4"/>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6375,7 +6379,7 @@
       <c r="BF13" s="4"/>
       <c r="BG13" s="4"/>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -6441,7 +6445,7 @@
       <c r="BF14" s="4"/>
       <c r="BG14" s="4"/>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -6507,7 +6511,7 @@
       <c r="BF15" s="4"/>
       <c r="BG15" s="4"/>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6573,7 +6577,7 @@
       <c r="BF16" s="4"/>
       <c r="BG16" s="4"/>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -6639,7 +6643,7 @@
       <c r="BF17" s="4"/>
       <c r="BG17" s="4"/>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6705,7 +6709,7 @@
       <c r="BF18" s="4"/>
       <c r="BG18" s="4"/>
     </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6771,7 +6775,7 @@
       <c r="BF19" s="4"/>
       <c r="BG19" s="4"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6837,7 +6841,7 @@
       <c r="BF20" s="4"/>
       <c r="BG20" s="4"/>
     </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6903,7 +6907,7 @@
       <c r="BF21" s="4"/>
       <c r="BG21" s="4"/>
     </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6969,7 +6973,7 @@
       <c r="BF22" s="4"/>
       <c r="BG22" s="4"/>
     </row>
-    <row r="23" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7035,7 +7039,7 @@
       <c r="BF23" s="4"/>
       <c r="BG23" s="4"/>
     </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7101,7 +7105,7 @@
       <c r="BF24" s="4"/>
       <c r="BG24" s="4"/>
     </row>
-    <row r="25" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7167,7 +7171,7 @@
       <c r="BF25" s="4"/>
       <c r="BG25" s="4"/>
     </row>
-    <row r="26" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7233,7 +7237,7 @@
       <c r="BF26" s="4"/>
       <c r="BG26" s="4"/>
     </row>
-    <row r="27" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7299,7 +7303,7 @@
       <c r="BF27" s="4"/>
       <c r="BG27" s="4"/>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -7365,7 +7369,7 @@
       <c r="BF28" s="4"/>
       <c r="BG28" s="4"/>
     </row>
-    <row r="29" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -7431,7 +7435,7 @@
       <c r="BF29" s="4"/>
       <c r="BG29" s="4"/>
     </row>
-    <row r="30" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -7497,7 +7501,7 @@
       <c r="BF30" s="4"/>
       <c r="BG30" s="4"/>
     </row>
-    <row r="31" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -7563,7 +7567,7 @@
       <c r="BF31" s="4"/>
       <c r="BG31" s="4"/>
     </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -7629,7 +7633,7 @@
       <c r="BF32" s="4"/>
       <c r="BG32" s="4"/>
     </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -7695,7 +7699,7 @@
       <c r="BF33" s="4"/>
       <c r="BG33" s="4"/>
     </row>
-    <row r="34" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -7761,7 +7765,7 @@
       <c r="BF34" s="4"/>
       <c r="BG34" s="4"/>
     </row>
-    <row r="35" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -7827,7 +7831,7 @@
       <c r="BF35" s="4"/>
       <c r="BG35" s="4"/>
     </row>
-    <row r="36" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -7893,7 +7897,7 @@
       <c r="BF36" s="4"/>
       <c r="BG36" s="4"/>
     </row>
-    <row r="37" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -7959,7 +7963,7 @@
       <c r="BF37" s="4"/>
       <c r="BG37" s="4"/>
     </row>
-    <row r="38" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -8025,7 +8029,7 @@
       <c r="BF38" s="4"/>
       <c r="BG38" s="4"/>
     </row>
-    <row r="39" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -8091,7 +8095,7 @@
       <c r="BF39" s="4"/>
       <c r="BG39" s="4"/>
     </row>
-    <row r="40" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -8157,7 +8161,7 @@
       <c r="BF40" s="4"/>
       <c r="BG40" s="4"/>
     </row>
-    <row r="41" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -8223,7 +8227,7 @@
       <c r="BF41" s="4"/>
       <c r="BG41" s="4"/>
     </row>
-    <row r="42" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -8289,7 +8293,7 @@
       <c r="BF42" s="4"/>
       <c r="BG42" s="4"/>
     </row>
-    <row r="43" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -8355,7 +8359,7 @@
       <c r="BF43" s="4"/>
       <c r="BG43" s="4"/>
     </row>
-    <row r="44" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -8421,7 +8425,7 @@
       <c r="BF44" s="4"/>
       <c r="BG44" s="4"/>
     </row>
-    <row r="45" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -8487,7 +8491,7 @@
       <c r="BF45" s="4"/>
       <c r="BG45" s="4"/>
     </row>
-    <row r="46" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -8553,7 +8557,7 @@
       <c r="BF46" s="4"/>
       <c r="BG46" s="4"/>
     </row>
-    <row r="47" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -8619,7 +8623,7 @@
       <c r="BF47" s="4"/>
       <c r="BG47" s="4"/>
     </row>
-    <row r="48" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -8685,7 +8689,7 @@
       <c r="BF48" s="4"/>
       <c r="BG48" s="4"/>
     </row>
-    <row r="49" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -8751,7 +8755,7 @@
       <c r="BF49" s="4"/>
       <c r="BG49" s="4"/>
     </row>
-    <row r="50" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -8817,7 +8821,7 @@
       <c r="BF50" s="4"/>
       <c r="BG50" s="4"/>
     </row>
-    <row r="51" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -8883,7 +8887,7 @@
       <c r="BF51" s="4"/>
       <c r="BG51" s="4"/>
     </row>
-    <row r="52" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -8949,7 +8953,7 @@
       <c r="BF52" s="4"/>
       <c r="BG52" s="4"/>
     </row>
-    <row r="53" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -9015,7 +9019,7 @@
       <c r="BF53" s="4"/>
       <c r="BG53" s="4"/>
     </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -9081,7 +9085,7 @@
       <c r="BF54" s="4"/>
       <c r="BG54" s="4"/>
     </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -9148,7 +9152,7 @@
       <c r="BF55" s="4"/>
       <c r="BG55" s="4"/>
     </row>
-    <row r="56" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -9215,7 +9219,7 @@
       <c r="BF56" s="4"/>
       <c r="BG56" s="4"/>
     </row>
-    <row r="57" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -9282,7 +9286,7 @@
       <c r="BF57" s="4"/>
       <c r="BG57" s="4"/>
     </row>
-    <row r="58" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -9349,7 +9353,7 @@
       <c r="BF58" s="4"/>
       <c r="BG58" s="4"/>
     </row>
-    <row r="59" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -9416,7 +9420,7 @@
       <c r="BF59" s="4"/>
       <c r="BG59" s="4"/>
     </row>
-    <row r="60" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -9483,7 +9487,7 @@
       <c r="BF60" s="4"/>
       <c r="BG60" s="4"/>
     </row>
-    <row r="61" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -9550,7 +9554,7 @@
       <c r="BF61" s="4"/>
       <c r="BG61" s="4"/>
     </row>
-    <row r="62" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -9617,7 +9621,7 @@
       <c r="BF62" s="4"/>
       <c r="BG62" s="4"/>
     </row>
-    <row r="63" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -9684,7 +9688,7 @@
       <c r="BF63" s="4"/>
       <c r="BG63" s="4"/>
     </row>
-    <row r="64" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -9751,7 +9755,7 @@
       <c r="BF64" s="4"/>
       <c r="BG64" s="4"/>
     </row>
-    <row r="65" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -9818,7 +9822,7 @@
       <c r="BF65" s="4"/>
       <c r="BG65" s="4"/>
     </row>
-    <row r="66" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -9885,7 +9889,7 @@
       <c r="BF66" s="4"/>
       <c r="BG66" s="4"/>
     </row>
-    <row r="67" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -9952,7 +9956,7 @@
       <c r="BF67" s="4"/>
       <c r="BG67" s="4"/>
     </row>
-    <row r="68" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -10019,7 +10023,7 @@
       <c r="BF68" s="4"/>
       <c r="BG68" s="4"/>
     </row>
-    <row r="69" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -10086,7 +10090,7 @@
       <c r="BF69" s="4"/>
       <c r="BG69" s="4"/>
     </row>
-    <row r="70" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -10153,7 +10157,7 @@
       <c r="BF70" s="4"/>
       <c r="BG70" s="4"/>
     </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -10220,7 +10224,7 @@
       <c r="BF71" s="4"/>
       <c r="BG71" s="4"/>
     </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -10287,7 +10291,7 @@
       <c r="BF72" s="4"/>
       <c r="BG72" s="4"/>
     </row>
-    <row r="73" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -10354,7 +10358,7 @@
       <c r="BF73" s="4"/>
       <c r="BG73" s="4"/>
     </row>
-    <row r="74" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -10421,7 +10425,7 @@
       <c r="BF74" s="4"/>
       <c r="BG74" s="4"/>
     </row>
-    <row r="75" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -10488,7 +10492,7 @@
       <c r="BF75" s="4"/>
       <c r="BG75" s="4"/>
     </row>
-    <row r="76" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -10555,7 +10559,7 @@
       <c r="BF76" s="4"/>
       <c r="BG76" s="4"/>
     </row>
-    <row r="77" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -10622,7 +10626,7 @@
       <c r="BF77" s="4"/>
       <c r="BG77" s="4"/>
     </row>
-    <row r="78" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -10689,7 +10693,7 @@
       <c r="BF78" s="4"/>
       <c r="BG78" s="4"/>
     </row>
-    <row r="79" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -10756,7 +10760,7 @@
       <c r="BF79" s="4"/>
       <c r="BG79" s="4"/>
     </row>
-    <row r="80" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -10823,7 +10827,7 @@
       <c r="BF80" s="4"/>
       <c r="BG80" s="4"/>
     </row>
-    <row r="81" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -10890,7 +10894,7 @@
       <c r="BF81" s="4"/>
       <c r="BG81" s="4"/>
     </row>
-    <row r="82" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -10957,7 +10961,7 @@
       <c r="BF82" s="4"/>
       <c r="BG82" s="4"/>
     </row>
-    <row r="83" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -11024,7 +11028,7 @@
       <c r="BF83" s="4"/>
       <c r="BG83" s="4"/>
     </row>
-    <row r="84" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -11091,7 +11095,7 @@
       <c r="BF84" s="4"/>
       <c r="BG84" s="4"/>
     </row>
-    <row r="85" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -11158,7 +11162,7 @@
       <c r="BF85" s="4"/>
       <c r="BG85" s="4"/>
     </row>
-    <row r="86" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -11225,7 +11229,7 @@
       <c r="BF86" s="4"/>
       <c r="BG86" s="4"/>
     </row>
-    <row r="87" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -11292,7 +11296,7 @@
       <c r="BF87" s="4"/>
       <c r="BG87" s="4"/>
     </row>
-    <row r="88" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -11359,7 +11363,7 @@
       <c r="BF88" s="4"/>
       <c r="BG88" s="4"/>
     </row>
-    <row r="89" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -11426,7 +11430,7 @@
       <c r="BF89" s="4"/>
       <c r="BG89" s="4"/>
     </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -11493,7 +11497,7 @@
       <c r="BF90" s="4"/>
       <c r="BG90" s="4"/>
     </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -11560,7 +11564,7 @@
       <c r="BF91" s="4"/>
       <c r="BG91" s="4"/>
     </row>
-    <row r="92" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -11627,7 +11631,7 @@
       <c r="BF92" s="4"/>
       <c r="BG92" s="4"/>
     </row>
-    <row r="93" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -11694,7 +11698,7 @@
       <c r="BF93" s="4"/>
       <c r="BG93" s="4"/>
     </row>
-    <row r="94" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -11761,7 +11765,7 @@
       <c r="BF94" s="4"/>
       <c r="BG94" s="4"/>
     </row>
-    <row r="95" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -11828,7 +11832,7 @@
       <c r="BF95" s="4"/>
       <c r="BG95" s="4"/>
     </row>
-    <row r="96" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -11895,7 +11899,7 @@
       <c r="BF96" s="4"/>
       <c r="BG96" s="4"/>
     </row>
-    <row r="97" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -11962,7 +11966,7 @@
       <c r="BF97" s="4"/>
       <c r="BG97" s="4"/>
     </row>
-    <row r="98" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -12029,7 +12033,7 @@
       <c r="BF98" s="4"/>
       <c r="BG98" s="4"/>
     </row>
-    <row r="99" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -12096,7 +12100,7 @@
       <c r="BF99" s="4"/>
       <c r="BG99" s="4"/>
     </row>
-    <row r="100" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -12163,7 +12167,7 @@
       <c r="BF100" s="4"/>
       <c r="BG100" s="4"/>
     </row>
-    <row r="101" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -12230,7 +12234,7 @@
       <c r="BF101" s="4"/>
       <c r="BG101" s="4"/>
     </row>
-    <row r="102" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -12297,7 +12301,7 @@
       <c r="BF102" s="4"/>
       <c r="BG102" s="4"/>
     </row>
-    <row r="103" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="F103" s="8"/>
@@ -12334,7 +12338,7 @@
       <c r="BF103" s="4"/>
       <c r="BG103" s="4"/>
     </row>
-    <row r="104" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
@@ -12374,7 +12378,7 @@
       <c r="BF104" s="4"/>
       <c r="BG104" s="4"/>
     </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B105" s="5"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -12409,7 +12413,7 @@
       <c r="BF105" s="4"/>
       <c r="BG105" s="4"/>
     </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B106" s="5"/>
       <c r="D106" s="1"/>
       <c r="G106" s="4"/>
@@ -12445,7 +12449,7 @@
       <c r="BF106" s="4"/>
       <c r="BG106" s="4"/>
     </row>
-    <row r="107" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B107" s="5"/>
       <c r="D107" s="1"/>
       <c r="G107" s="4"/>
@@ -12481,7 +12485,7 @@
       <c r="BF107" s="4"/>
       <c r="BG107" s="4"/>
     </row>
-    <row r="108" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D108" s="1"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -12516,7 +12520,7 @@
       <c r="BF108" s="4"/>
       <c r="BG108" s="4"/>
     </row>
-    <row r="109" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D109" s="1"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -12551,7 +12555,7 @@
       <c r="BF109" s="4"/>
       <c r="BG109" s="4"/>
     </row>
-    <row r="110" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D110" s="1"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -12586,7 +12590,7 @@
       <c r="BF110" s="4"/>
       <c r="BG110" s="4"/>
     </row>
-    <row r="111" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D111" s="1"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -12621,7 +12625,7 @@
       <c r="BF111" s="4"/>
       <c r="BG111" s="4"/>
     </row>
-    <row r="112" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D112" s="1"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -12656,7 +12660,7 @@
       <c r="BF112" s="4"/>
       <c r="BG112" s="4"/>
     </row>
-    <row r="113" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D113" s="1"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -12691,7 +12695,7 @@
       <c r="BF113" s="4"/>
       <c r="BG113" s="4"/>
     </row>
-    <row r="114" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D114" s="1"/>
       <c r="G114" s="4"/>
       <c r="H114" s="16"/>
@@ -12726,7 +12730,7 @@
       <c r="BF114" s="4"/>
       <c r="BG114" s="4"/>
     </row>
-    <row r="115" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D115" s="1"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -12761,7 +12765,7 @@
       <c r="BF115" s="4"/>
       <c r="BG115" s="4"/>
     </row>
-    <row r="116" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D116" s="1"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -12796,7 +12800,7 @@
       <c r="BF116" s="4"/>
       <c r="BG116" s="4"/>
     </row>
-    <row r="117" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D117" s="1"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -12831,7 +12835,7 @@
       <c r="BF117" s="4"/>
       <c r="BG117" s="4"/>
     </row>
-    <row r="118" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D118" s="1"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -12843,7 +12847,7 @@
       <c r="O118" s="4"/>
       <c r="Q118" s="5"/>
     </row>
-    <row r="119" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.25">
       <c r="D119" s="1"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -12855,7 +12859,7 @@
       <c r="O119" s="4"/>
       <c r="Q119" s="5"/>
     </row>
-    <row r="120" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="4"/>
@@ -12872,7 +12876,7 @@
       <c r="O120" s="4"/>
       <c r="Q120" s="5"/>
     </row>
-    <row r="121" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
@@ -12889,7 +12893,7 @@
       <c r="O121" s="4"/>
       <c r="Q121" s="5"/>
     </row>
-    <row r="122" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
@@ -12906,7 +12910,7 @@
       <c r="O122" s="4"/>
       <c r="Q122" s="5"/>
     </row>
-    <row r="123" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
@@ -12923,7 +12927,7 @@
       <c r="O123" s="4"/>
       <c r="Q123" s="5"/>
     </row>
-    <row r="124" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
@@ -12940,7 +12944,7 @@
       <c r="O124" s="4"/>
       <c r="Q124" s="5"/>
     </row>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
@@ -12957,7 +12961,7 @@
       <c r="O125" s="4"/>
       <c r="Q125" s="5"/>
     </row>
-    <row r="126" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
@@ -12974,7 +12978,7 @@
       <c r="O126" s="4"/>
       <c r="Q126" s="5"/>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
@@ -12991,7 +12995,7 @@
       <c r="O127" s="4"/>
       <c r="Q127" s="5"/>
     </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="4"/>
@@ -13008,7 +13012,7 @@
       <c r="O128" s="4"/>
       <c r="Q128" s="5"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="4"/>
@@ -13025,7 +13029,7 @@
       <c r="O129" s="4"/>
       <c r="Q129" s="5"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="4"/>
@@ -13042,7 +13046,7 @@
       <c r="O130" s="4"/>
       <c r="Q130" s="5"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="4"/>
@@ -13059,7 +13063,7 @@
       <c r="O131" s="4"/>
       <c r="Q131" s="5"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="4"/>
@@ -13076,7 +13080,7 @@
       <c r="O132" s="4"/>
       <c r="Q132" s="5"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="4"/>
@@ -13093,7 +13097,7 @@
       <c r="O133" s="4"/>
       <c r="Q133" s="5"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="4"/>
@@ -13110,7 +13114,7 @@
       <c r="O134" s="4"/>
       <c r="Q134" s="5"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="4"/>
@@ -13127,7 +13131,7 @@
       <c r="O135" s="4"/>
       <c r="Q135" s="5"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="4"/>
@@ -13144,7 +13148,7 @@
       <c r="O136" s="4"/>
       <c r="Q136" s="5"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="4"/>
@@ -13161,7 +13165,7 @@
       <c r="O137" s="4"/>
       <c r="Q137" s="5"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="4"/>
@@ -13178,7 +13182,7 @@
       <c r="O138" s="4"/>
       <c r="Q138" s="5"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="4"/>
@@ -13195,7 +13199,7 @@
       <c r="O139" s="4"/>
       <c r="Q139" s="5"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
@@ -13212,7 +13216,7 @@
       <c r="O140" s="4"/>
       <c r="Q140" s="5"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="4"/>
@@ -13229,7 +13233,7 @@
       <c r="O141" s="4"/>
       <c r="Q141" s="5"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="4"/>
@@ -13246,7 +13250,7 @@
       <c r="O142" s="4"/>
       <c r="Q142" s="5"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
@@ -13263,7 +13267,7 @@
       <c r="O143" s="4"/>
       <c r="Q143" s="5"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="4"/>
@@ -13280,7 +13284,7 @@
       <c r="O144" s="4"/>
       <c r="Q144" s="5"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="4"/>
@@ -13297,7 +13301,7 @@
       <c r="O145" s="4"/>
       <c r="Q145" s="5"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="4"/>
@@ -13314,7 +13318,7 @@
       <c r="O146" s="4"/>
       <c r="Q146" s="5"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
@@ -13331,7 +13335,7 @@
       <c r="O147" s="4"/>
       <c r="Q147" s="5"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="4"/>
@@ -13348,7 +13352,7 @@
       <c r="O148" s="4"/>
       <c r="Q148" s="5"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="4"/>
@@ -13365,7 +13369,7 @@
       <c r="O149" s="4"/>
       <c r="Q149" s="5"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="4"/>
@@ -13382,7 +13386,7 @@
       <c r="O150" s="4"/>
       <c r="Q150" s="5"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="4"/>
@@ -13399,7 +13403,7 @@
       <c r="O151" s="4"/>
       <c r="Q151" s="5"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="4"/>
@@ -13416,7 +13420,7 @@
       <c r="O152" s="4"/>
       <c r="Q152" s="5"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="4"/>
@@ -13433,7 +13437,7 @@
       <c r="O153" s="4"/>
       <c r="Q153" s="5"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="4"/>
@@ -13450,7 +13454,7 @@
       <c r="O154" s="4"/>
       <c r="Q154" s="5"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="4"/>
@@ -13467,7 +13471,7 @@
       <c r="O155" s="4"/>
       <c r="Q155" s="5"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="4"/>
@@ -13484,7 +13488,7 @@
       <c r="O156" s="4"/>
       <c r="Q156" s="5"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="22"/>
       <c r="B159" s="22"/>
       <c r="C159" s="22"/>
@@ -13496,7 +13500,7 @@
       <c r="I159" s="22"/>
       <c r="J159" s="22"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -13508,7 +13512,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -13558,23 +13562,23 @@
       <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.26171875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.83984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.15625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>261</v>
       </c>
@@ -13605,7 +13609,7 @@
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
     </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>262</v>
       </c>
@@ -13658,7 +13662,7 @@
       <c r="AB2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -13711,7 +13715,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -13764,7 +13768,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13817,7 +13821,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13870,7 +13874,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13923,7 +13927,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13973,7 +13977,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -14026,7 +14030,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -14079,7 +14083,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -14132,7 +14136,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -14185,7 +14189,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -14238,7 +14242,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -14291,7 +14295,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -14344,7 +14348,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -14394,7 +14398,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -14447,7 +14451,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -14500,7 +14504,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -14553,7 +14557,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -14606,7 +14610,7 @@
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -14659,7 +14663,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -14712,7 +14716,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -14765,7 +14769,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -14818,7 +14822,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -14871,7 +14875,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -14924,7 +14928,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -14977,7 +14981,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -15027,7 +15031,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -15080,7 +15084,7 @@
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -15133,7 +15137,7 @@
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -15186,7 +15190,7 @@
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -15239,7 +15243,7 @@
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -15292,7 +15296,7 @@
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -15345,7 +15349,7 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -15398,7 +15402,7 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -15451,7 +15455,7 @@
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -15504,7 +15508,7 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -15557,7 +15561,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -15610,7 +15614,7 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -15663,7 +15667,7 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -15716,7 +15720,7 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -15769,7 +15773,7 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -15822,7 +15826,7 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -15875,7 +15879,7 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -15928,7 +15932,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -15981,7 +15985,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -16034,7 +16038,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -16087,7 +16091,7 @@
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -16140,7 +16144,7 @@
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -16193,7 +16197,7 @@
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -16246,7 +16250,7 @@
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -16299,7 +16303,7 @@
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -16349,7 +16353,7 @@
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -16402,7 +16406,7 @@
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -16455,7 +16459,7 @@
       <c r="AB55" s="4"/>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -16508,7 +16512,7 @@
       <c r="AB56" s="4"/>
       <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -16561,7 +16565,7 @@
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -16614,7 +16618,7 @@
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -16667,7 +16671,7 @@
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -16720,7 +16724,7 @@
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -16758,7 +16762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -16796,7 +16800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -16834,7 +16838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -16872,7 +16876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -16910,7 +16914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -16948,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -16986,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -17024,7 +17028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -17059,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -17097,7 +17101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -17135,7 +17139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -17173,7 +17177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -17211,7 +17215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -17249,7 +17253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -17287,7 +17291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -17325,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -17363,7 +17367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -17401,7 +17405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -17439,7 +17443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -17477,7 +17481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -17515,7 +17519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -17553,7 +17557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -17591,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -17626,7 +17630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -17664,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -17702,7 +17706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -17740,7 +17744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -17778,7 +17782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -17816,7 +17820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -17854,7 +17858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -17892,7 +17896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -17930,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -17965,7 +17969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -18003,7 +18007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -18041,7 +18045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -18079,7 +18083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -18117,7 +18121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -18155,7 +18159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -18193,7 +18197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -18231,7 +18235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -18269,7 +18273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -18324,25 +18328,25 @@
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.15625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.26171875" customWidth="1"/>
-    <col min="16" max="16" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.83984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.68359375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="44.68359375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>518</v>
       </c>
@@ -18389,22 +18393,22 @@
       <c r="Z1" s="23"/>
       <c r="AC1" s="15"/>
     </row>
-    <row r="2" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">INDEX($A$4:$A$54,RANDBETWEEN(1,COUNTA($A$4:$A$54)),1)</f>
-        <v>TN</v>
+        <v>NM</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>3136545355</v>
+        <v>5617178672</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>88545</v>
+        <v>84959</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">(INDEX($H$4:$H$6,RANDBETWEEN(1,COUNTA($H$4:$H$6)),1))&amp;" "&amp;(INDEX($G$4:$G$38,RANDBETWEEN(1,COUNTA($G$4:$G$38)),1))</f>
-        <v>99351 Lincoln Ave</v>
+        <v>471547 Blake St</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX($J$4:$J$6,RANDBETWEEN(1,COUNTA($J$4:$J$6)),1)</f>
@@ -18412,15 +18416,15 @@
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX($M$4:$M$60,RANDBETWEEN(1,COUNTA($M$4:$M$60)),1)</f>
-        <v>Adrian</v>
+        <v>Port Huron</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">IF($R$3=16,$U$37,IF($R$3=17, $U$38,IF($R$3=18,$U$39,IF($R$3=19,$U$40,IF($R$3=20,$U$41,IF($R$3=21,$U$42,IF($R$3=22,$U$43,IF($R$3=23,$U$44,IF($R$3=24,$U$45,IF($R$3=25,$U$46,""))))))))))</f>
-        <v>E2YrB%GUs*LnBD4ZvR</v>
+        <v>Phmc5yQU^vS@XK&amp;x^mQpv30</v>
       </c>
       <c r="P2" s="3">
         <f ca="1">RANDBETWEEN(DATE(1910,1,1),DATE(2021,2,5))</f>
-        <v>30294</v>
+        <v>17833</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -18435,34 +18439,34 @@
       <c r="Z2" s="4"/>
       <c r="AC2" s="4"/>
     </row>
-    <row r="3" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="R3" s="5">
         <f ca="1">RANDBETWEEN(16,25)</f>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>D</v>
+        <v>i</v>
       </c>
       <c r="U3" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T18)</f>
-        <v>Dcagn7Kb6mV66wVs</v>
+        <v>iXsriryF43lVRb63</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4" t="str">
         <f ca="1">IF(R3=16,U3,IF(R3=17, U4,IF(R3=18,U5,IF(R3=19,U6,IF(R3=20,U7,IF(R3=21,U8,IF(R3=22,U9,IF(R3=23,U10,IF(R3=24,U11,IF(R3=25,U12,""))))))))))</f>
-        <v>Dcagn7Kb6mV66wVsLcM</v>
+        <v>iXsriryF43lVRb63y2a1vhqO</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="5"/>
       <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>478</v>
       </c>
@@ -18471,7 +18475,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>3704</v>
+        <v>7462</v>
       </c>
       <c r="J4" t="s">
         <v>275</v>
@@ -18485,11 +18489,11 @@
       </c>
       <c r="T4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>c</v>
+        <v>X</v>
       </c>
       <c r="U4" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T19)</f>
-        <v>Dcagn7Kb6mV66wVsL</v>
+        <v>iXsriryF43lVRb63y</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -18498,7 +18502,7 @@
       <c r="Z4" s="5"/>
       <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>399</v>
       </c>
@@ -18507,7 +18511,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>99351</v>
+        <v>66354</v>
       </c>
       <c r="J5" t="s">
         <v>300</v>
@@ -18521,11 +18525,11 @@
       </c>
       <c r="T5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>a</v>
+        <v>s</v>
       </c>
       <c r="U5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T20)</f>
-        <v>Dcagn7Kb6mV66wVsLc</v>
+        <v>iXsriryF43lVRb63y2</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -18534,7 +18538,7 @@
       <c r="Z5" s="5"/>
       <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>415</v>
       </c>
@@ -18543,7 +18547,7 @@
       </c>
       <c r="H6" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>307565</v>
+        <v>471547</v>
       </c>
       <c r="J6" t="s">
         <v>285</v>
@@ -18557,11 +18561,11 @@
       </c>
       <c r="T6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>g</v>
+        <v>r</v>
       </c>
       <c r="U6" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T21)</f>
-        <v>Dcagn7Kb6mV66wVsLcM</v>
+        <v>iXsriryF43lVRb63y2a</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -18570,7 +18574,7 @@
       <c r="Z6" s="5"/>
       <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>426</v>
       </c>
@@ -18586,11 +18590,11 @@
       </c>
       <c r="T7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>n</v>
+        <v>i</v>
       </c>
       <c r="U7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T22)</f>
-        <v>Dcagn7Kb6mV66wVsLcMl</v>
+        <v>iXsriryF43lVRb63y2a1</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -18599,7 +18603,7 @@
       <c r="Z7" s="5"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>441</v>
       </c>
@@ -18613,13 +18617,13 @@
       <c r="S8" s="4">
         <v>5</v>
       </c>
-      <c r="T8" s="4" cm="1">
+      <c r="T8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>7</v>
+        <v>r</v>
       </c>
       <c r="U8" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T23)</f>
-        <v>Dcagn7Kb6mV66wVsLcMl9</v>
+        <v>iXsriryF43lVRb63y2a1v</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -18628,7 +18632,7 @@
       <c r="Z8" s="5"/>
       <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>338</v>
       </c>
@@ -18644,11 +18648,11 @@
       </c>
       <c r="T9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>K</v>
+        <v>y</v>
       </c>
       <c r="U9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T24)</f>
-        <v>Dcagn7Kb6mV66wVsLcMl9S</v>
+        <v>iXsriryF43lVRb63y2a1vh</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -18657,7 +18661,7 @@
       <c r="Z9" s="5"/>
       <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>499</v>
       </c>
@@ -18673,11 +18677,11 @@
       </c>
       <c r="T10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>b</v>
+        <v>F</v>
       </c>
       <c r="U10" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T25)</f>
-        <v>Dcagn7Kb6mV66wVsLcMl9Sr</v>
+        <v>iXsriryF43lVRb63y2a1vhq</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -18686,7 +18690,7 @@
       <c r="Z10" s="5"/>
       <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>317</v>
       </c>
@@ -18702,11 +18706,11 @@
       </c>
       <c r="T11" s="4" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T26)</f>
-        <v>Dcagn7Kb6mV66wVsLcMl9Sro</v>
+        <v>iXsriryF43lVRb63y2a1vhqO</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -18715,7 +18719,7 @@
       <c r="Z11" s="5"/>
       <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>513</v>
       </c>
@@ -18729,13 +18733,13 @@
       <c r="S12" s="4">
         <v>9</v>
       </c>
-      <c r="T12" s="4" t="str" cm="1">
+      <c r="T12" s="4" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>m</v>
+        <v>3</v>
       </c>
       <c r="U12" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T27)</f>
-        <v>Dcagn7Kb6mV66wVsLcMl9Sro2</v>
+        <v>iXsriryF43lVRb63y2a1vhqOF</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -18744,7 +18748,7 @@
       <c r="Z12" s="5"/>
       <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>350</v>
       </c>
@@ -18760,7 +18764,7 @@
       </c>
       <c r="T13" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>V</v>
+        <v>l</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="4"/>
@@ -18770,7 +18774,7 @@
       <c r="Z13" s="5"/>
       <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>383</v>
       </c>
@@ -18784,9 +18788,9 @@
       <c r="S14" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="T14" s="4" cm="1">
+      <c r="T14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>6</v>
+        <v>V</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="4"/>
@@ -18796,7 +18800,7 @@
       <c r="Z14" s="5"/>
       <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>288</v>
       </c>
@@ -18810,9 +18814,9 @@
       <c r="S15" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="T15" s="4" cm="1">
+      <c r="T15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>6</v>
+        <v>R</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="4"/>
@@ -18822,7 +18826,7 @@
       <c r="Z15" s="5"/>
       <c r="AC15" s="4"/>
     </row>
-    <row r="16" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>542</v>
       </c>
@@ -18842,7 +18846,7 @@
       </c>
       <c r="T16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>w</v>
+        <v>b</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="4"/>
@@ -18852,7 +18856,7 @@
       <c r="Z16" s="5"/>
       <c r="AC16" s="4"/>
     </row>
-    <row r="17" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>411</v>
       </c>
@@ -18869,9 +18873,9 @@
       <c r="S17" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="T17" s="4" t="str" cm="1">
+      <c r="T17" s="4" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>V</v>
+        <v>6</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="4"/>
@@ -18881,7 +18885,7 @@
       <c r="Z17" s="5"/>
       <c r="AC17" s="4"/>
     </row>
-    <row r="18" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>282</v>
       </c>
@@ -18895,9 +18899,9 @@
       <c r="S18" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="T18" s="4" t="str" cm="1">
+      <c r="T18" s="4" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>s</v>
+        <v>3</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="4"/>
@@ -18907,7 +18911,7 @@
       <c r="Z18" s="5"/>
       <c r="AC18" s="4"/>
     </row>
-    <row r="19" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>330</v>
       </c>
@@ -18923,7 +18927,7 @@
       </c>
       <c r="T19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>L</v>
+        <v>y</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="4"/>
@@ -18933,7 +18937,7 @@
       <c r="Z19" s="5"/>
       <c r="AC19" s="4"/>
     </row>
-    <row r="20" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>352</v>
       </c>
@@ -18947,9 +18951,9 @@
       <c r="S20" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="T20" s="4" t="str" cm="1">
+      <c r="T20" s="4" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>c</v>
+        <v>2</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="4"/>
@@ -18959,7 +18963,7 @@
       <c r="Z20" s="5"/>
       <c r="AC20" s="4"/>
     </row>
-    <row r="21" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>356</v>
       </c>
@@ -18975,7 +18979,7 @@
       </c>
       <c r="T21" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>M</v>
+        <v>a</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="4"/>
@@ -18985,7 +18989,7 @@
       <c r="Z21" s="5"/>
       <c r="AC21" s="4"/>
     </row>
-    <row r="22" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>313</v>
       </c>
@@ -18999,9 +19003,9 @@
       <c r="S22" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="T22" s="4" t="str" cm="1">
+      <c r="T22" s="4" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>l</v>
+        <v>1</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="4"/>
@@ -19011,7 +19015,7 @@
       <c r="Z22" s="5"/>
       <c r="AC22" s="4"/>
     </row>
-    <row r="23" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>303</v>
       </c>
@@ -19025,9 +19029,9 @@
       <c r="S23" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="T23" s="4" cm="1">
+      <c r="T23" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>9</v>
+        <v>v</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="4"/>
@@ -19037,7 +19041,7 @@
       <c r="Z23" s="5"/>
       <c r="AC23" s="4"/>
     </row>
-    <row r="24" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>491</v>
       </c>
@@ -19053,7 +19057,7 @@
       </c>
       <c r="T24" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>S</v>
+        <v>h</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="4"/>
@@ -19063,7 +19067,7 @@
       <c r="Z24" s="5"/>
       <c r="AC24" s="4"/>
     </row>
-    <row r="25" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>408</v>
       </c>
@@ -19079,7 +19083,7 @@
       </c>
       <c r="T25" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>r</v>
+        <v>q</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="4"/>
@@ -19089,7 +19093,7 @@
       <c r="Z25" s="5"/>
       <c r="AC25" s="4"/>
     </row>
-    <row r="26" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>566</v>
       </c>
@@ -19105,7 +19109,7 @@
       </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>o</v>
+        <v>O</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="4"/>
@@ -19115,7 +19119,7 @@
       <c r="Z26" s="5"/>
       <c r="AC26" s="4"/>
     </row>
-    <row r="27" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>466</v>
       </c>
@@ -19129,9 +19133,9 @@
       <c r="S27" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="T27" s="4" cm="1">
+      <c r="T27" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>2</v>
+        <v>F</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="4"/>
@@ -19141,7 +19145,7 @@
       <c r="Z27" s="5"/>
       <c r="AC27" s="4"/>
     </row>
-    <row r="28" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>434</v>
       </c>
@@ -19164,7 +19168,7 @@
       <c r="Z28" s="5"/>
       <c r="AC28" s="4"/>
     </row>
-    <row r="29" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>345</v>
       </c>
@@ -19187,7 +19191,7 @@
       <c r="Z29" s="5"/>
       <c r="AC29" s="4"/>
     </row>
-    <row r="30" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>360</v>
       </c>
@@ -19203,7 +19207,7 @@
       </c>
       <c r="T30" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>E</v>
+        <v>P</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="4"/>
@@ -19213,7 +19217,7 @@
       <c r="Z30" s="5"/>
       <c r="AC30" s="4"/>
     </row>
-    <row r="31" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>468</v>
       </c>
@@ -19227,9 +19231,9 @@
       <c r="S31" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="T31" s="4" cm="1">
+      <c r="T31" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>2</v>
+        <v>h</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="4"/>
@@ -19239,7 +19243,7 @@
       <c r="Z31" s="5"/>
       <c r="AC31" s="4"/>
     </row>
-    <row r="32" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>298</v>
       </c>
@@ -19255,7 +19259,7 @@
       </c>
       <c r="T32" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>Y</v>
+        <v>m</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="4"/>
@@ -19265,7 +19269,7 @@
       <c r="Z32" s="5"/>
       <c r="AC32" s="4"/>
     </row>
-    <row r="33" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>451</v>
       </c>
@@ -19281,7 +19285,7 @@
       </c>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T33" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>r</v>
+        <v>c</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="4"/>
@@ -19291,7 +19295,7 @@
       <c r="Z33" s="5"/>
       <c r="AC33" s="4"/>
     </row>
-    <row r="34" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>395</v>
       </c>
@@ -19305,9 +19309,9 @@
       <c r="S34" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="T34" s="4" t="str" cm="1">
+      <c r="T34" s="4" cm="1">
         <f t="array" aca="1" ref="T34" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>B</v>
+        <v>5</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="4"/>
@@ -19317,7 +19321,7 @@
       <c r="Z34" s="5"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>430</v>
       </c>
@@ -19333,7 +19337,7 @@
       </c>
       <c r="T35" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>%</v>
+        <v>y</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="4"/>
@@ -19343,7 +19347,7 @@
       <c r="Z35" s="5"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>487</v>
       </c>
@@ -19359,7 +19363,7 @@
       </c>
       <c r="T36" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>G</v>
+        <v>Q</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="4"/>
@@ -19369,7 +19373,7 @@
       <c r="Z36" s="5"/>
       <c r="AC36" s="4"/>
     </row>
-    <row r="37" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>592</v>
       </c>
@@ -19389,7 +19393,7 @@
       </c>
       <c r="U37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T44)</f>
-        <v>E2YrB%GUs*LnBD4</v>
+        <v>Phmc5yQU^vS@XK&amp;</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -19398,7 +19402,7 @@
       <c r="Z37" s="5"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>484</v>
       </c>
@@ -19414,11 +19418,11 @@
       </c>
       <c r="T38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T38" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>s</v>
+        <v>^</v>
       </c>
       <c r="U38" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T45)</f>
-        <v>E2YrB%GUs*LnBD4Z</v>
+        <v>Phmc5yQU^vS@XK&amp;x</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
@@ -19427,7 +19431,7 @@
       <c r="Z38" s="5"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>294</v>
       </c>
@@ -19440,11 +19444,11 @@
       </c>
       <c r="T39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>*</v>
+        <v>v</v>
       </c>
       <c r="U39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T46)</f>
-        <v>E2YrB%GUs*LnBD4Zv</v>
+        <v>Phmc5yQU^vS@XK&amp;x^</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -19453,7 +19457,7 @@
       <c r="Z39" s="5"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>438</v>
       </c>
@@ -19466,11 +19470,11 @@
       </c>
       <c r="T40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>L</v>
+        <v>S</v>
       </c>
       <c r="U40" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T47)</f>
-        <v>E2YrB%GUs*LnBD4ZvR</v>
+        <v>Phmc5yQU^vS@XK&amp;x^m</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -19479,7 +19483,7 @@
       <c r="Z40" s="5"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>419</v>
       </c>
@@ -19492,11 +19496,11 @@
       </c>
       <c r="T41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T41" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>n</v>
+        <v>@</v>
       </c>
       <c r="U41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T48)</f>
-        <v>E2YrB%GUs*LnBD4ZvR^</v>
+        <v>Phmc5yQU^vS@XK&amp;x^mQ</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -19505,7 +19509,7 @@
       <c r="Z41" s="5"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>278</v>
       </c>
@@ -19518,11 +19522,11 @@
       </c>
       <c r="T42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T42" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>B</v>
+        <v>X</v>
       </c>
       <c r="U42" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T49)</f>
-        <v>E2YrB%GUs*LnBD4ZvR^q</v>
+        <v>Phmc5yQU^vS@XK&amp;x^mQp</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -19531,7 +19535,7 @@
       <c r="Z42" s="5"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>600</v>
       </c>
@@ -19544,11 +19548,11 @@
       </c>
       <c r="T43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T43" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>D</v>
+        <v>K</v>
       </c>
       <c r="U43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T50)</f>
-        <v>E2YrB%GUs*LnBD4ZvR^q9</v>
+        <v>Phmc5yQU^vS@XK&amp;x^mQpv</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -19557,7 +19561,7 @@
       <c r="Z43" s="5"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>325</v>
       </c>
@@ -19568,13 +19572,13 @@
       <c r="S44" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="T44" s="4" cm="1">
+      <c r="T44" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>4</v>
+        <v>&amp;</v>
       </c>
       <c r="U44" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T51)</f>
-        <v>E2YrB%GUs*LnBD4ZvR^q9*</v>
+        <v>Phmc5yQU^vS@XK&amp;x^mQpv3</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -19583,7 +19587,7 @@
       <c r="Z44" s="5"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>392</v>
       </c>
@@ -19596,11 +19600,11 @@
       </c>
       <c r="T45" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>Z</v>
+        <v>x</v>
       </c>
       <c r="U45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T52)</f>
-        <v>E2YrB%GUs*LnBD4ZvR^q9*9</v>
+        <v>Phmc5yQU^vS@XK&amp;x^mQpv30</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -19609,7 +19613,7 @@
       <c r="Z45" s="5"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>404</v>
       </c>
@@ -19622,11 +19626,11 @@
       </c>
       <c r="T46" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T46" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>v</v>
+        <v>^</v>
       </c>
       <c r="U46" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T53)</f>
-        <v>E2YrB%GUs*LnBD4ZvR^q9*99</v>
+        <v>Phmc5yQU^vS@XK&amp;x^mQpv306</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -19635,7 +19639,7 @@
       <c r="Z46" s="5"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>371</v>
       </c>
@@ -19648,7 +19652,7 @@
       </c>
       <c r="T47" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>R</v>
+        <v>m</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="4"/>
@@ -19658,7 +19662,7 @@
       <c r="Z47" s="5"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>309</v>
       </c>
@@ -19671,7 +19675,7 @@
       </c>
       <c r="T48" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T48" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>^</v>
+        <v>Q</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="4"/>
@@ -19681,7 +19685,7 @@
       <c r="Z48" s="5"/>
       <c r="AC48" s="4"/>
     </row>
-    <row r="49" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>341</v>
       </c>
@@ -19694,7 +19698,7 @@
       </c>
       <c r="T49" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T49" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>q</v>
+        <v>p</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="4"/>
@@ -19704,7 +19708,7 @@
       <c r="Z49" s="5"/>
       <c r="AC49" s="4"/>
     </row>
-    <row r="50" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>501</v>
       </c>
@@ -19715,9 +19719,9 @@
       <c r="S50" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="T50" s="4" cm="1">
+      <c r="T50" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T50" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>9</v>
+        <v>v</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="4"/>
@@ -19727,7 +19731,7 @@
       <c r="Z50" s="5"/>
       <c r="AC50" s="4"/>
     </row>
-    <row r="51" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>328</v>
       </c>
@@ -19738,9 +19742,9 @@
       <c r="S51" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="T51" s="4" t="str" cm="1">
+      <c r="T51" s="4" cm="1">
         <f t="array" aca="1" ref="T51" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>*</v>
+        <v>3</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="4"/>
@@ -19750,7 +19754,7 @@
       <c r="Z51" s="5"/>
       <c r="AC51" s="4"/>
     </row>
-    <row r="52" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>374</v>
       </c>
@@ -19763,7 +19767,7 @@
       </c>
       <c r="T52" s="4" cm="1">
         <f t="array" aca="1" ref="T52" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="4"/>
@@ -19773,7 +19777,7 @@
       <c r="Z52" s="5"/>
       <c r="AC52" s="4"/>
     </row>
-    <row r="53" spans="1:29" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>363</v>
       </c>
@@ -19786,7 +19790,7 @@
       </c>
       <c r="T53" s="4" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -19795,7 +19799,7 @@
       <c r="Z53" s="5"/>
       <c r="AC53" s="4"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M54" t="s">
         <v>450</v>
       </c>
@@ -19811,7 +19815,7 @@
       <c r="Z54" s="5"/>
       <c r="AC54" s="4"/>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M55" t="s">
         <v>377</v>
       </c>
@@ -19827,7 +19831,7 @@
       <c r="Z55" s="5"/>
       <c r="AC55" s="4"/>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M56" t="s">
         <v>373</v>
       </c>
@@ -19843,7 +19847,7 @@
       <c r="Z56" s="5"/>
       <c r="AC56" s="4"/>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M57" t="s">
         <v>496</v>
       </c>
@@ -19859,7 +19863,7 @@
       <c r="Z57" s="5"/>
       <c r="AC57" s="4"/>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M58" t="s">
         <v>368</v>
       </c>
@@ -19875,7 +19879,7 @@
       <c r="Z58" s="5"/>
       <c r="AC58" s="4"/>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M59" t="s">
         <v>619</v>
       </c>
@@ -19891,7 +19895,7 @@
       <c r="Z59" s="5"/>
       <c r="AC59" s="4"/>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="M60" t="s">
         <v>621</v>
       </c>
@@ -19908,7 +19912,7 @@
       <c r="Z60" s="5"/>
       <c r="AC60" s="4"/>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R61" s="4"/>
       <c r="S61" s="10" t="s">
         <v>623</v>
@@ -19922,7 +19926,7 @@
       <c r="Z61" s="5"/>
       <c r="AC61" s="4"/>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R62" s="4"/>
       <c r="S62" s="10" t="s">
         <v>624</v>
@@ -19936,7 +19940,7 @@
       <c r="Z62" s="5"/>
       <c r="AC62" s="4"/>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R63" s="4"/>
       <c r="S63" s="10" t="s">
         <v>625</v>
@@ -19950,7 +19954,7 @@
       <c r="Z63" s="5"/>
       <c r="AC63" s="4"/>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="R64" s="4"/>
       <c r="S64" s="10" t="s">
         <v>626</v>
@@ -19964,53 +19968,53 @@
       <c r="Z64" s="5"/>
       <c r="AC64" s="4"/>
     </row>
-    <row r="65" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S65" s="10" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="66" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S66" s="10" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="67" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S67" s="10" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="68" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S68" s="10" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="69" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S69" s="10" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="70" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S70" s="10" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="71" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S71" s="10" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="72" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S72" s="10" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="73" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="19:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="19:19" x14ac:dyDescent="0.25">
       <c r="S74" s="10"/>
     </row>
-    <row r="100" spans="27:27" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="27:27" x14ac:dyDescent="0.25">
       <c r="AA100">
         <v>100</v>
       </c>
@@ -20033,31 +20037,31 @@
       <selection activeCell="A2" sqref="A1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.68359375" customWidth="1"/>
-    <col min="4" max="4" width="18.83984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.41796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.41796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.41796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.41796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.26171875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.15625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="29" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.83984375" customWidth="1"/>
-    <col min="19" max="19" width="16.41796875" style="14" customWidth="1"/>
-    <col min="20" max="20" width="10.41796875" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="14" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>635</v>
       </c>
@@ -20096,7 +20100,7 @@
       <c r="AJ1" s="4"/>
       <c r="AK1" s="4"/>
     </row>
-    <row r="2" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>636</v>
       </c>
@@ -20169,7 +20173,7 @@
       <c r="AJ2" s="4"/>
       <c r="AK2" s="4"/>
     </row>
-    <row r="3" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -20242,7 +20246,7 @@
       <c r="AJ3" s="4"/>
       <c r="AK3" s="4"/>
     </row>
-    <row r="4" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -20315,7 +20319,7 @@
       <c r="AJ4" s="4"/>
       <c r="AK4" s="4"/>
     </row>
-    <row r="5" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -20388,7 +20392,7 @@
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
     </row>
-    <row r="6" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -20461,7 +20465,7 @@
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
     </row>
-    <row r="7" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -20534,7 +20538,7 @@
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
     </row>
-    <row r="8" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -20607,7 +20611,7 @@
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
     </row>
-    <row r="9" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -20680,7 +20684,7 @@
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
     </row>
-    <row r="10" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -20753,7 +20757,7 @@
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
     </row>
-    <row r="11" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -20826,7 +20830,7 @@
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
     </row>
-    <row r="12" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -20899,7 +20903,7 @@
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
     </row>
-    <row r="13" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -20972,7 +20976,7 @@
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
     </row>
-    <row r="14" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -21042,7 +21046,7 @@
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
     </row>
-    <row r="15" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -21115,7 +21119,7 @@
       <c r="AJ15" s="4"/>
       <c r="AK15" s="4"/>
     </row>
-    <row r="16" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -21188,7 +21192,7 @@
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
     </row>
-    <row r="17" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -21261,7 +21265,7 @@
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
     </row>
-    <row r="18" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -21334,7 +21338,7 @@
       <c r="AJ18" s="4"/>
       <c r="AK18" s="4"/>
     </row>
-    <row r="19" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -21407,7 +21411,7 @@
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
     </row>
-    <row r="20" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -21480,7 +21484,7 @@
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
     </row>
-    <row r="21" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -21550,7 +21554,7 @@
       <c r="AJ21" s="4"/>
       <c r="AK21" s="4"/>
     </row>
-    <row r="22" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -21623,7 +21627,7 @@
       <c r="AJ22" s="4"/>
       <c r="AK22" s="4"/>
     </row>
-    <row r="23" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -21696,7 +21700,7 @@
       <c r="AJ23" s="4"/>
       <c r="AK23" s="4"/>
     </row>
-    <row r="24" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -21769,7 +21773,7 @@
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
     </row>
-    <row r="25" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -21842,7 +21846,7 @@
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
     </row>
-    <row r="26" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -21915,7 +21919,7 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="4"/>
     </row>
-    <row r="27" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -21988,7 +21992,7 @@
       <c r="AJ27" s="4"/>
       <c r="AK27" s="4"/>
     </row>
-    <row r="28" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -22061,7 +22065,7 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
     </row>
-    <row r="29" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -22134,7 +22138,7 @@
       <c r="AJ29" s="4"/>
       <c r="AK29" s="4"/>
     </row>
-    <row r="30" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -22207,7 +22211,7 @@
       <c r="AJ30" s="4"/>
       <c r="AK30" s="4"/>
     </row>
-    <row r="31" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -22280,7 +22284,7 @@
       <c r="AJ31" s="4"/>
       <c r="AK31" s="4"/>
     </row>
-    <row r="32" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -22353,7 +22357,7 @@
       <c r="AJ32" s="4"/>
       <c r="AK32" s="4"/>
     </row>
-    <row r="33" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -22426,7 +22430,7 @@
       <c r="AJ33" s="4"/>
       <c r="AK33" s="4"/>
     </row>
-    <row r="34" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -22499,7 +22503,7 @@
       <c r="AJ34" s="4"/>
       <c r="AK34" s="4"/>
     </row>
-    <row r="35" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -22569,7 +22573,7 @@
       <c r="AJ35" s="4"/>
       <c r="AK35" s="4"/>
     </row>
-    <row r="36" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -22642,7 +22646,7 @@
       <c r="AJ36" s="4"/>
       <c r="AK36" s="4"/>
     </row>
-    <row r="37" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -22715,7 +22719,7 @@
       <c r="AJ37" s="4"/>
       <c r="AK37" s="4"/>
     </row>
-    <row r="38" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -22788,7 +22792,7 @@
       <c r="AJ38" s="4"/>
       <c r="AK38" s="4"/>
     </row>
-    <row r="39" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -22861,7 +22865,7 @@
       <c r="AJ39" s="4"/>
       <c r="AK39" s="4"/>
     </row>
-    <row r="40" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -22934,7 +22938,7 @@
       <c r="AJ40" s="4"/>
       <c r="AK40" s="4"/>
     </row>
-    <row r="41" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -23007,7 +23011,7 @@
       <c r="AJ41" s="4"/>
       <c r="AK41" s="4"/>
     </row>
-    <row r="42" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -23080,7 +23084,7 @@
       <c r="AJ42" s="4"/>
       <c r="AK42" s="4"/>
     </row>
-    <row r="43" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -23153,7 +23157,7 @@
       <c r="AJ43" s="4"/>
       <c r="AK43" s="4"/>
     </row>
-    <row r="44" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -23226,7 +23230,7 @@
       <c r="AJ44" s="4"/>
       <c r="AK44" s="4"/>
     </row>
-    <row r="45" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -23299,7 +23303,7 @@
       <c r="AJ45" s="4"/>
       <c r="AK45" s="4"/>
     </row>
-    <row r="46" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -23372,7 +23376,7 @@
       <c r="AJ46" s="4"/>
       <c r="AK46" s="4"/>
     </row>
-    <row r="47" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -23445,7 +23449,7 @@
       <c r="AJ47" s="4"/>
       <c r="AK47" s="4"/>
     </row>
-    <row r="48" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -23518,7 +23522,7 @@
       <c r="AJ48" s="4"/>
       <c r="AK48" s="4"/>
     </row>
-    <row r="49" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -23591,7 +23595,7 @@
       <c r="AJ49" s="4"/>
       <c r="AK49" s="4"/>
     </row>
-    <row r="50" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -23664,7 +23668,7 @@
       <c r="AJ50" s="4"/>
       <c r="AK50" s="4"/>
     </row>
-    <row r="51" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -23737,7 +23741,7 @@
       <c r="AJ51" s="4"/>
       <c r="AK51" s="4"/>
     </row>
-    <row r="52" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -23810,7 +23814,7 @@
       <c r="AJ52" s="4"/>
       <c r="AK52" s="4"/>
     </row>
-    <row r="53" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -23883,7 +23887,7 @@
       <c r="AJ53" s="4"/>
       <c r="AK53" s="4"/>
     </row>
-    <row r="54" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -23953,7 +23957,7 @@
       <c r="AJ54" s="4"/>
       <c r="AK54" s="4"/>
     </row>
-    <row r="55" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -24026,7 +24030,7 @@
       <c r="AJ55" s="4"/>
       <c r="AK55" s="4"/>
     </row>
-    <row r="56" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -24099,7 +24103,7 @@
       <c r="AJ56" s="4"/>
       <c r="AK56" s="4"/>
     </row>
-    <row r="57" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="57" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -24172,7 +24176,7 @@
       <c r="AJ57" s="4"/>
       <c r="AK57" s="4"/>
     </row>
-    <row r="58" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="58" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -24245,7 +24249,7 @@
       <c r="AJ58" s="4"/>
       <c r="AK58" s="4"/>
     </row>
-    <row r="59" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="59" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -24318,7 +24322,7 @@
       <c r="AJ59" s="4"/>
       <c r="AK59" s="4"/>
     </row>
-    <row r="60" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="60" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -24391,7 +24395,7 @@
       <c r="AJ60" s="4"/>
       <c r="AK60" s="4"/>
     </row>
-    <row r="61" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="61" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -24464,7 +24468,7 @@
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
     </row>
-    <row r="62" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="62" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -24519,7 +24523,7 @@
       <c r="U62" s="4"/>
       <c r="V62" s="13"/>
     </row>
-    <row r="63" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -24577,7 +24581,7 @@
       <c r="U63" s="4"/>
       <c r="V63" s="13"/>
     </row>
-    <row r="64" spans="1:37" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="64" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -24635,7 +24639,7 @@
       <c r="U64" s="4"/>
       <c r="V64" s="13"/>
     </row>
-    <row r="65" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -24693,7 +24697,7 @@
       <c r="U65" s="4"/>
       <c r="V65" s="13"/>
     </row>
-    <row r="66" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -24751,7 +24755,7 @@
       <c r="U66" s="4"/>
       <c r="V66" s="13"/>
     </row>
-    <row r="67" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -24809,7 +24813,7 @@
       <c r="U67" s="4"/>
       <c r="V67" s="13"/>
     </row>
-    <row r="68" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -24867,7 +24871,7 @@
       <c r="U68" s="4"/>
       <c r="V68" s="13"/>
     </row>
-    <row r="69" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -24925,7 +24929,7 @@
       <c r="U69" s="4"/>
       <c r="V69" s="13"/>
     </row>
-    <row r="70" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -24983,7 +24987,7 @@
       <c r="U70" s="4"/>
       <c r="V70" s="13"/>
     </row>
-    <row r="71" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -25038,7 +25042,7 @@
       <c r="U71" s="4"/>
       <c r="V71" s="13"/>
     </row>
-    <row r="72" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -25096,7 +25100,7 @@
       <c r="U72" s="4"/>
       <c r="V72" s="13"/>
     </row>
-    <row r="73" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -25154,7 +25158,7 @@
       <c r="U73" s="4"/>
       <c r="V73" s="13"/>
     </row>
-    <row r="74" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -25212,7 +25216,7 @@
       <c r="U74" s="4"/>
       <c r="V74" s="13"/>
     </row>
-    <row r="75" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -25270,7 +25274,7 @@
       <c r="U75" s="4"/>
       <c r="V75" s="13"/>
     </row>
-    <row r="76" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -25328,7 +25332,7 @@
       <c r="U76" s="4"/>
       <c r="V76" s="13"/>
     </row>
-    <row r="77" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -25386,7 +25390,7 @@
       <c r="U77" s="4"/>
       <c r="V77" s="13"/>
     </row>
-    <row r="78" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -25444,7 +25448,7 @@
       <c r="U78" s="4"/>
       <c r="V78" s="13"/>
     </row>
-    <row r="79" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -25502,7 +25506,7 @@
       <c r="U79" s="4"/>
       <c r="V79" s="13"/>
     </row>
-    <row r="80" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -25560,7 +25564,7 @@
       <c r="U80" s="4"/>
       <c r="V80" s="13"/>
     </row>
-    <row r="81" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="81" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -25618,7 +25622,7 @@
       <c r="U81" s="4"/>
       <c r="V81" s="13"/>
     </row>
-    <row r="82" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="82" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -25676,7 +25680,7 @@
       <c r="U82" s="4"/>
       <c r="V82" s="13"/>
     </row>
-    <row r="83" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="83" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -25734,7 +25738,7 @@
       <c r="U83" s="4"/>
       <c r="V83" s="13"/>
     </row>
-    <row r="84" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="84" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -25792,7 +25796,7 @@
       <c r="U84" s="4"/>
       <c r="V84" s="13"/>
     </row>
-    <row r="85" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="85" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -25850,7 +25854,7 @@
       <c r="U85" s="4"/>
       <c r="V85" s="13"/>
     </row>
-    <row r="86" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="86" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -25908,7 +25912,7 @@
       <c r="U86" s="4"/>
       <c r="V86" s="13"/>
     </row>
-    <row r="87" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="87" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -25966,7 +25970,7 @@
       <c r="U87" s="4"/>
       <c r="V87" s="13"/>
     </row>
-    <row r="88" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="88" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -26021,7 +26025,7 @@
       <c r="U88" s="4"/>
       <c r="V88" s="13"/>
     </row>
-    <row r="89" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="89" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -26079,7 +26083,7 @@
       <c r="U89" s="4"/>
       <c r="V89" s="13"/>
     </row>
-    <row r="90" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="90" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -26137,7 +26141,7 @@
       <c r="U90" s="4"/>
       <c r="V90" s="13"/>
     </row>
-    <row r="91" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="91" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -26195,7 +26199,7 @@
       <c r="U91" s="4"/>
       <c r="V91" s="13"/>
     </row>
-    <row r="92" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="92" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -26253,7 +26257,7 @@
       <c r="U92" s="4"/>
       <c r="V92" s="13"/>
     </row>
-    <row r="93" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="93" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -26311,7 +26315,7 @@
       <c r="U93" s="4"/>
       <c r="V93" s="13"/>
     </row>
-    <row r="94" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="94" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -26369,7 +26373,7 @@
       <c r="U94" s="4"/>
       <c r="V94" s="13"/>
     </row>
-    <row r="95" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="95" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -26427,7 +26431,7 @@
       <c r="U95" s="4"/>
       <c r="V95" s="13"/>
     </row>
-    <row r="96" spans="1:22" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="96" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -26485,7 +26489,7 @@
       <c r="U96" s="4"/>
       <c r="V96" s="13"/>
     </row>
-    <row r="97" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="97" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -26543,7 +26547,7 @@
       <c r="U97" s="4"/>
       <c r="V97" s="13"/>
     </row>
-    <row r="98" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="98" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -26601,7 +26605,7 @@
       <c r="U98" s="4"/>
       <c r="V98" s="13"/>
     </row>
-    <row r="99" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="99" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -26659,7 +26663,7 @@
       <c r="U99" s="4"/>
       <c r="V99" s="13"/>
     </row>
-    <row r="100" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="100" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -26717,7 +26721,7 @@
       <c r="U100" s="4"/>
       <c r="V100" s="13"/>
     </row>
-    <row r="101" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="101" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -26775,7 +26779,7 @@
       <c r="U101" s="4"/>
       <c r="V101" s="13"/>
     </row>
-    <row r="102" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="102" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -26833,10 +26837,10 @@
       <c r="U102" s="4"/>
       <c r="V102" s="13"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="O103" s="2"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -26861,7 +26865,7 @@
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -26886,7 +26890,7 @@
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
@@ -26911,7 +26915,7 @@
       <c r="V108" s="22"/>
       <c r="W108" s="22"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
@@ -26936,7 +26940,7 @@
       <c r="V109" s="22"/>
       <c r="W109" s="22"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
@@ -26961,7 +26965,7 @@
       <c r="V110" s="22"/>
       <c r="W110" s="22"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -26986,7 +26990,7 @@
       <c r="V111" s="22"/>
       <c r="W111" s="22"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>
@@ -27011,7 +27015,7 @@
       <c r="V112" s="22"/>
       <c r="W112" s="22"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="4"/>
@@ -27036,7 +27040,7 @@
       <c r="V113" s="22"/>
       <c r="W113" s="22"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="4"/>
@@ -27061,7 +27065,7 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="4"/>
@@ -27086,7 +27090,7 @@
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="4"/>
@@ -27111,7 +27115,7 @@
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -27136,7 +27140,7 @@
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
@@ -27161,7 +27165,7 @@
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
       <c r="C119" s="4"/>
       <c r="G119" s="3"/>
@@ -27171,7 +27175,7 @@
       <c r="O119" s="2"/>
       <c r="P119" s="4"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B120" s="2"/>
       <c r="C120" s="4"/>
       <c r="G120" s="3"/>
@@ -27181,7 +27185,7 @@
       <c r="O120" s="2"/>
       <c r="P120" s="4"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B121" s="2"/>
       <c r="C121" s="4"/>
       <c r="G121" s="3"/>
@@ -27191,7 +27195,7 @@
       <c r="O121" s="2"/>
       <c r="P121" s="4"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B122" s="2"/>
       <c r="C122" s="4"/>
       <c r="G122" s="3"/>
@@ -27252,19 +27256,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F808C1-7803-44B9-BCFC-3625DA1841F1}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1015625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.3671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1504</v>
       </c>
@@ -27272,7 +27276,7 @@
       <c r="C1" s="23"/>
       <c r="D1" s="23"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1501</v>
       </c>
@@ -27286,7 +27290,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -27300,7 +27304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -27314,7 +27318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -27328,7 +27332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -27342,7 +27346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -27356,7 +27360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -27370,7 +27374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -27384,7 +27388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -27398,7 +27402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -27412,7 +27416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -27426,7 +27430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -27440,7 +27444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -27454,7 +27458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -27468,7 +27472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -27482,7 +27486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -27496,7 +27500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -27510,7 +27514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -27524,7 +27528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -27538,7 +27542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -27552,7 +27556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -27566,7 +27570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -27580,7 +27584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -27594,7 +27598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -27608,7 +27612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -27622,7 +27626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -27636,7 +27640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -27650,7 +27654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -27664,7 +27668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -27678,7 +27682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -27692,7 +27696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -27706,7 +27710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -27720,7 +27724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -27734,7 +27738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -27748,7 +27752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -27762,7 +27766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -27776,7 +27780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -27790,7 +27794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -27804,7 +27808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -27818,7 +27822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -27832,7 +27836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -27846,7 +27850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -27860,7 +27864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -27874,7 +27878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -27888,7 +27892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -27902,7 +27906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -27916,7 +27920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -27930,7 +27934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -27944,7 +27948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -27958,7 +27962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -27972,7 +27976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -27986,7 +27990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -28000,7 +28004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -28014,7 +28018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -28028,7 +28032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -28042,7 +28046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -28056,7 +28060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -28070,7 +28074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -28084,7 +28088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -28098,7 +28102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -28112,7 +28116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -28126,7 +28130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -28140,7 +28144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -28154,7 +28158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -28168,7 +28172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -28182,7 +28186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -28196,7 +28200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -28210,7 +28214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -28224,7 +28228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -28238,7 +28242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -28252,7 +28256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -28266,7 +28270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -28280,7 +28284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -28294,7 +28298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -28308,7 +28312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -28322,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -28336,7 +28340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -28350,7 +28354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -28364,7 +28368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -28378,7 +28382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -28392,7 +28396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -28406,7 +28410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -28420,7 +28424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -28434,7 +28438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -28448,7 +28452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -28462,7 +28466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -28476,7 +28480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -28490,7 +28494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -28504,7 +28508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -28518,7 +28522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -28532,7 +28536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -28546,7 +28550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -28560,7 +28564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -28574,7 +28578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -28588,7 +28592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -28602,7 +28606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -28616,7 +28620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -28630,7 +28634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -28644,7 +28648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -28658,7 +28662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -28672,7 +28676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -28731,30 +28735,30 @@
       <selection activeCell="A30" sqref="A30:R30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.83984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.41796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.15625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.26171875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.15625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.41796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.26171875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="28.68359375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1062</v>
       </c>
@@ -28767,7 +28771,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -28796,7 +28800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>101</v>
       </c>
@@ -28828,7 +28832,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>102</v>
       </c>
@@ -28860,7 +28864,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>103</v>
       </c>
@@ -28892,7 +28896,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>104</v>
       </c>
@@ -28924,7 +28928,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>105</v>
       </c>
@@ -28956,7 +28960,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>106</v>
       </c>
@@ -28988,7 +28992,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>107</v>
       </c>
@@ -29020,23 +29024,23 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D10" s="1"/>
       <c r="F10" s="7"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="F11" s="7"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="F13" s="7"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
         <v>1090</v>
       </c>
@@ -29052,7 +29056,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>262</v>
       </c>
@@ -29090,7 +29094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>101</v>
       </c>
@@ -29131,7 +29135,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>102</v>
       </c>
@@ -29172,7 +29176,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>103</v>
       </c>
@@ -29213,7 +29217,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>104</v>
       </c>
@@ -29252,7 +29256,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>105</v>
       </c>
@@ -29290,7 +29294,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>106</v>
       </c>
@@ -29326,7 +29330,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>107</v>
       </c>
@@ -29370,7 +29374,7 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
     </row>
-    <row r="23" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>108</v>
       </c>
@@ -29412,7 +29416,7 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="24"/>
     </row>
-    <row r="24" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>109</v>
       </c>
@@ -29451,7 +29455,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>110</v>
       </c>
@@ -29489,19 +29493,19 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="F26" s="7"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="F27" s="7"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="F28" s="7"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" s="26" t="s">
         <v>635</v>
       </c>
@@ -29524,7 +29528,7 @@
       <c r="R30" s="26"/>
       <c r="S30" s="14"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>636</v>
       </c>
@@ -29581,7 +29585,7 @@
       </c>
       <c r="S31" s="14"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>101</v>
       </c>
@@ -29644,7 +29648,7 @@
       <c r="V32" s="24"/>
       <c r="W32" s="24"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>102</v>
       </c>
@@ -29705,7 +29709,7 @@
       <c r="V33" s="24"/>
       <c r="W33" s="24"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>103</v>
       </c>
@@ -29768,7 +29772,7 @@
       <c r="V34" s="24"/>
       <c r="W34" s="24"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>104</v>
       </c>
@@ -29829,7 +29833,7 @@
       <c r="V35" s="24"/>
       <c r="W35" s="24"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>105</v>
       </c>
@@ -29892,7 +29896,7 @@
       <c r="V36" s="24"/>
       <c r="W36" s="24"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>106</v>
       </c>
@@ -29953,7 +29957,7 @@
       <c r="V37" s="24"/>
       <c r="W37" s="24"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>107</v>
       </c>
@@ -30010,7 +30014,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>108</v>
       </c>
@@ -30068,7 +30072,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>109</v>
       </c>
@@ -30126,7 +30130,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>110</v>
       </c>
@@ -30186,7 +30190,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>111</v>
       </c>
@@ -30345,25 +30349,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FD2D6B-5CFE-4E71-824A-3777BE258E6C}">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>1132</v>
       </c>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>1133</v>
       </c>
@@ -30374,7 +30378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>1135</v>
       </c>
@@ -30385,7 +30389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>1135</v>
       </c>
@@ -30396,7 +30400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>1135</v>
       </c>
@@ -30407,7 +30411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>1139</v>
       </c>
@@ -30418,7 +30422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>1139</v>
       </c>
@@ -30429,7 +30433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>1139</v>
       </c>
@@ -30440,7 +30444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>1142</v>
       </c>
@@ -30451,7 +30455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>1142</v>
       </c>
@@ -30462,7 +30466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>1143</v>
       </c>
@@ -30473,7 +30477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>1143</v>
       </c>
@@ -30484,7 +30488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>1143</v>
       </c>
@@ -30495,7 +30499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>1143</v>
       </c>
@@ -30506,7 +30510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>1144</v>
       </c>
@@ -30517,7 +30521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>1145</v>
       </c>
@@ -30528,7 +30532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
         <v>1146</v>
       </c>
@@ -30539,7 +30543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
         <v>1505</v>
       </c>
@@ -30550,7 +30554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
         <v>1147</v>
       </c>
@@ -30561,7 +30565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>1148</v>
       </c>
@@ -30572,7 +30576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>1149</v>
       </c>
@@ -30583,7 +30587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>1150</v>
       </c>
@@ -30594,7 +30598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>1151</v>
       </c>
@@ -30605,7 +30609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>1151</v>
       </c>
@@ -30616,7 +30620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>1152</v>
       </c>
@@ -30627,7 +30631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>1152</v>
       </c>
@@ -30638,7 +30642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>1152</v>
       </c>
@@ -30649,7 +30653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>1152</v>
       </c>
@@ -30660,7 +30664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>1153</v>
       </c>
@@ -30671,7 +30675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>1153</v>
       </c>
@@ -30682,7 +30686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>1153</v>
       </c>
@@ -30693,7 +30697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>1153</v>
       </c>
@@ -30704,7 +30708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>1154</v>
       </c>
@@ -30715,7 +30719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>1154</v>
       </c>
@@ -30726,7 +30730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>1154</v>
       </c>
@@ -30737,7 +30741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>1157</v>
       </c>
@@ -30748,7 +30752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>1158</v>
       </c>
@@ -30759,7 +30763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>1159</v>
       </c>
@@ -30770,7 +30774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>1161</v>
       </c>
@@ -30781,7 +30785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>1162</v>
       </c>
@@ -30792,7 +30796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>1164</v>
       </c>
@@ -30803,7 +30807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>1165</v>
       </c>
@@ -30814,7 +30818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>1165</v>
       </c>
@@ -30825,7 +30829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>1165</v>
       </c>
@@ -30836,7 +30840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>1165</v>
       </c>
@@ -30847,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>1164</v>
       </c>
@@ -30858,7 +30862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>1164</v>
       </c>
@@ -30869,7 +30873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>1167</v>
       </c>
@@ -30880,7 +30884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>1167</v>
       </c>
@@ -30891,7 +30895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>1167</v>
       </c>
@@ -30902,7 +30906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>1170</v>
       </c>
@@ -30913,7 +30917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>1171</v>
       </c>
@@ -30924,7 +30928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>1171</v>
       </c>
@@ -30935,7 +30939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>1171</v>
       </c>
@@ -30946,7 +30950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>1172</v>
       </c>
@@ -30957,7 +30961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>1172</v>
       </c>
@@ -30968,7 +30972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>1174</v>
       </c>
@@ -30979,7 +30983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>1174</v>
       </c>
@@ -30990,7 +30994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>1174</v>
       </c>
@@ -31001,7 +31005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>1174</v>
       </c>
@@ -31012,7 +31016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>1176</v>
       </c>
@@ -31023,7 +31027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>1176</v>
       </c>
@@ -31034,7 +31038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>1176</v>
       </c>
@@ -31045,7 +31049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>1177</v>
       </c>
@@ -31056,7 +31060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>1177</v>
       </c>
@@ -31067,7 +31071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>1177</v>
       </c>
@@ -31078,7 +31082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>1141</v>
       </c>
@@ -31089,7 +31093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>1141</v>
       </c>
@@ -31100,7 +31104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>1175</v>
       </c>
@@ -31111,7 +31115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>1175</v>
       </c>
@@ -31122,7 +31126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>1175</v>
       </c>
@@ -31133,7 +31137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>1179</v>
       </c>
@@ -31144,7 +31148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="20" t="s">
         <v>1179</v>
       </c>
@@ -31155,7 +31159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="20" t="s">
         <v>1179</v>
       </c>
@@ -31166,7 +31170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>1179</v>
       </c>
@@ -31177,7 +31181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>1179</v>
       </c>
@@ -31188,7 +31192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>1180</v>
       </c>
@@ -31199,7 +31203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>1180</v>
       </c>
@@ -31210,7 +31214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>1180</v>
       </c>
@@ -31221,7 +31225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>1180</v>
       </c>
@@ -31232,7 +31236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>1183</v>
       </c>
@@ -31243,7 +31247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
         <v>1184</v>
       </c>
@@ -31254,7 +31258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="20" t="s">
         <v>1184</v>
       </c>
@@ -31265,7 +31269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="20" t="s">
         <v>1184</v>
       </c>
@@ -31276,7 +31280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
         <v>1184</v>
       </c>
@@ -31287,7 +31291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="20" t="s">
         <v>1185</v>
       </c>
@@ -31298,7 +31302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="20" t="s">
         <v>1185</v>
       </c>
@@ -31309,7 +31313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="20" t="s">
         <v>1185</v>
       </c>
@@ -31320,7 +31324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
         <v>1185</v>
       </c>
@@ -31331,7 +31335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
         <v>1186</v>
       </c>
@@ -31342,7 +31346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="20" t="s">
         <v>1186</v>
       </c>
@@ -31353,7 +31357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
         <v>1187</v>
       </c>
@@ -31364,7 +31368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
         <v>1188</v>
       </c>
@@ -31375,7 +31379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="20" t="s">
         <v>1189</v>
       </c>
@@ -31386,7 +31390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="20" t="s">
         <v>1190</v>
       </c>
@@ -31397,7 +31401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>1191</v>
       </c>
@@ -31408,7 +31412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="20" t="s">
         <v>1192</v>
       </c>
@@ -31419,7 +31423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="20" t="s">
         <v>1192</v>
       </c>
@@ -31430,7 +31434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="20" t="s">
         <v>1192</v>
       </c>
@@ -31441,7 +31445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="20" t="s">
         <v>1192</v>
       </c>
@@ -31452,7 +31456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="20" t="s">
         <v>1193</v>
       </c>
@@ -31463,7 +31467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="20" t="s">
         <v>1193</v>
       </c>
@@ -31474,7 +31478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="20" t="s">
         <v>1194</v>
       </c>
@@ -31485,7 +31489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
         <v>1194</v>
       </c>
@@ -31496,7 +31500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="20" t="s">
         <v>1194</v>
       </c>
@@ -31507,7 +31511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
         <v>1194</v>
       </c>
@@ -31518,7 +31522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="20" t="s">
         <v>1506</v>
       </c>
@@ -31529,7 +31533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="20" t="s">
         <v>1506</v>
       </c>
@@ -31553,25 +31557,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF516-0E69-4C4C-8F9B-B3AE6048F2E1}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C102"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>1195</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1196</v>
       </c>
@@ -31582,7 +31586,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1199</v>
       </c>
@@ -31590,7 +31594,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1201</v>
       </c>
@@ -31598,7 +31602,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1202</v>
       </c>
@@ -31606,7 +31610,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1203</v>
       </c>
@@ -31614,7 +31618,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1204</v>
       </c>
@@ -31622,7 +31626,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1205</v>
       </c>
@@ -31630,7 +31634,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1206</v>
       </c>
@@ -31638,7 +31642,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1207</v>
       </c>
@@ -31646,7 +31650,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1208</v>
       </c>
@@ -31654,7 +31658,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1209</v>
       </c>
@@ -31662,7 +31666,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1210</v>
       </c>
@@ -31670,7 +31674,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1211</v>
       </c>
@@ -31678,7 +31682,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1212</v>
       </c>
@@ -31686,7 +31690,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1213</v>
       </c>
@@ -31694,7 +31698,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1214</v>
       </c>
@@ -31702,7 +31706,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>1215</v>
       </c>
@@ -31710,7 +31714,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1216</v>
       </c>
@@ -31718,7 +31722,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1217</v>
       </c>
@@ -31726,7 +31730,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1218</v>
       </c>
@@ -31734,7 +31738,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1219</v>
       </c>
@@ -31742,7 +31746,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1220</v>
       </c>
@@ -31750,7 +31754,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1221</v>
       </c>
@@ -31758,7 +31762,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1222</v>
       </c>
@@ -31766,7 +31770,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1223</v>
       </c>
@@ -31774,7 +31778,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1224</v>
       </c>
@@ -31782,7 +31786,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>1225</v>
       </c>
@@ -31790,7 +31794,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>1226</v>
       </c>
@@ -31798,7 +31802,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>1227</v>
       </c>
@@ -31809,7 +31813,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>1229</v>
       </c>
@@ -31820,7 +31824,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>1230</v>
       </c>
@@ -31831,7 +31835,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>1231</v>
       </c>
@@ -31842,7 +31846,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1232</v>
       </c>
@@ -31853,7 +31857,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>1233</v>
       </c>
@@ -31864,7 +31868,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>1234</v>
       </c>
@@ -31875,7 +31879,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>1235</v>
       </c>
@@ -31886,7 +31890,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>1236</v>
       </c>
@@ -31897,7 +31901,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1237</v>
       </c>
@@ -31905,7 +31909,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1238</v>
       </c>
@@ -31913,7 +31917,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1240</v>
       </c>
@@ -31921,7 +31925,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>1241</v>
       </c>
@@ -31929,7 +31933,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1243</v>
       </c>
@@ -31937,7 +31941,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>1244</v>
       </c>
@@ -31945,7 +31949,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>1246</v>
       </c>
@@ -31953,7 +31957,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1247</v>
       </c>
@@ -31961,7 +31965,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1248</v>
       </c>
@@ -31969,7 +31973,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>1249</v>
       </c>
@@ -31977,7 +31981,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1250</v>
       </c>
@@ -31985,7 +31989,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1251</v>
       </c>
@@ -31993,7 +31997,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>1252</v>
       </c>
@@ -32001,7 +32005,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1253</v>
       </c>
@@ -32009,7 +32013,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1254</v>
       </c>
@@ -32017,7 +32021,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>1255</v>
       </c>
@@ -32025,7 +32029,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>1256</v>
       </c>
@@ -32033,7 +32037,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1257</v>
       </c>
@@ -32041,7 +32045,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>1258</v>
       </c>
@@ -32052,7 +32056,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>1259</v>
       </c>
@@ -32063,7 +32067,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1260</v>
       </c>
@@ -32074,7 +32078,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1261</v>
       </c>
@@ -32085,7 +32089,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>1262</v>
       </c>
@@ -32096,7 +32100,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1263</v>
       </c>
@@ -32107,7 +32111,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>1264</v>
       </c>
@@ -32118,7 +32122,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>1265</v>
       </c>
@@ -32129,7 +32133,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1266</v>
       </c>
@@ -32140,7 +32144,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1267</v>
       </c>
@@ -32151,7 +32155,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>1268</v>
       </c>
@@ -32162,7 +32166,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>1269</v>
       </c>
@@ -32173,7 +32177,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>1270</v>
       </c>
@@ -32184,7 +32188,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>1271</v>
       </c>
@@ -32195,7 +32199,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1272</v>
       </c>
@@ -32206,7 +32210,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1273</v>
       </c>
@@ -32217,7 +32221,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1274</v>
       </c>
@@ -32228,7 +32232,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1275</v>
       </c>
@@ -32239,7 +32243,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>1276</v>
       </c>
@@ -32250,7 +32254,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>1277</v>
       </c>
@@ -32261,7 +32265,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>1278</v>
       </c>
@@ -32272,7 +32276,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>1279</v>
       </c>
@@ -32283,7 +32287,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>1280</v>
       </c>
@@ -32294,7 +32298,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>1281</v>
       </c>
@@ -32305,7 +32309,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>1282</v>
       </c>
@@ -32316,7 +32320,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>1283</v>
       </c>
@@ -32327,7 +32331,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>1282</v>
       </c>
@@ -32338,7 +32342,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>1284</v>
       </c>
@@ -32349,7 +32353,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>1285</v>
       </c>
@@ -32360,7 +32364,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>1286</v>
       </c>
@@ -32371,7 +32375,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>1287</v>
       </c>
@@ -32382,7 +32386,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>1288</v>
       </c>
@@ -32393,7 +32397,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>1289</v>
       </c>
@@ -32404,7 +32408,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>1290</v>
       </c>
@@ -32415,7 +32419,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>1291</v>
       </c>
@@ -32426,7 +32430,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>1292</v>
       </c>
@@ -32437,7 +32441,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>1293</v>
       </c>
@@ -32448,7 +32452,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>1294</v>
       </c>
@@ -32459,7 +32463,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>1295</v>
       </c>
@@ -32470,7 +32474,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>1296</v>
       </c>
@@ -32481,7 +32485,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>1297</v>
       </c>
@@ -32492,7 +32496,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>1298</v>
       </c>
@@ -32503,7 +32507,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>1299</v>
       </c>
@@ -32514,7 +32518,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>1300</v>
       </c>
@@ -32525,7 +32529,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>1301</v>
       </c>
@@ -32536,7 +32540,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>1302</v>
       </c>
@@ -32558,6 +32562,1147 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC3597-E535-4CA0-AB6F-F14E144696CA}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>71</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>72</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>75</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>76</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>79</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>83</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>84</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>85</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>86</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>87</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>88</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>91</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>92</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>93</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>94</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>96</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>97</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>98</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -32565,6 +33710,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CECBC2A9D97CCE4C8584DF116D967F1C" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bccd6ae8185a02004a5a45138277f666">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7be332c0-1dcf-4a8f-9aaa-d80332f69483" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1268db3e156c331756c14e9fb6f811d7" ns2:_="">
     <xsd:import namespace="7be332c0-1dcf-4a8f-9aaa-d80332f69483"/>
@@ -32736,15 +33890,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49942C0E-E08D-4759-9E7E-944B12612524}">
   <ds:schemaRefs>
@@ -32762,6 +33907,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F957795-5A4E-4E04-BFAB-7B388D638E5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D315D914-8530-49D9-AF00-9C03EBB80621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -32779,14 +33932,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F957795-5A4E-4E04-BFAB-7B388D638E5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
 <mso:customUI xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui">
   <mso:ribbon>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\futur\Documents\GitHub\CIS424_wi21_Med_Cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Capstone_wi21_project\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EE09E5-AE3D-4D3B-8F03-C8AF53000DE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C018FD36-584F-492C-B9A0-5F6ECEFCCAEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3326" uniqueCount="1509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="1610">
   <si>
     <t>User</t>
   </si>
@@ -4594,6 +4594,309 @@
   </si>
   <si>
     <t>PatientPhysician</t>
+  </si>
+  <si>
+    <t>xSHRcaSTVZkjoWA58</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student3</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>Student5</t>
+  </si>
+  <si>
+    <t>Student6</t>
+  </si>
+  <si>
+    <t>Student7</t>
+  </si>
+  <si>
+    <t>Student8</t>
+  </si>
+  <si>
+    <t>Student9</t>
+  </si>
+  <si>
+    <t>Student10</t>
+  </si>
+  <si>
+    <t>Student11</t>
+  </si>
+  <si>
+    <t>Student12</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student16</t>
+  </si>
+  <si>
+    <t>Student17</t>
+  </si>
+  <si>
+    <t>Student18</t>
+  </si>
+  <si>
+    <t>Student19</t>
+  </si>
+  <si>
+    <t>Student20</t>
+  </si>
+  <si>
+    <t>Student21</t>
+  </si>
+  <si>
+    <t>Student22</t>
+  </si>
+  <si>
+    <t>Student23</t>
+  </si>
+  <si>
+    <t>Student24</t>
+  </si>
+  <si>
+    <t>Student25</t>
+  </si>
+  <si>
+    <t>Student26</t>
+  </si>
+  <si>
+    <t>Student27</t>
+  </si>
+  <si>
+    <t>Student28</t>
+  </si>
+  <si>
+    <t>Student29</t>
+  </si>
+  <si>
+    <t>Student30</t>
+  </si>
+  <si>
+    <t>Instructor1</t>
+  </si>
+  <si>
+    <t>Instructor2</t>
+  </si>
+  <si>
+    <t>Instructor3</t>
+  </si>
+  <si>
+    <t>Student01Password!</t>
+  </si>
+  <si>
+    <t>Student02Password!</t>
+  </si>
+  <si>
+    <t>Student03Password!</t>
+  </si>
+  <si>
+    <t>Student04Password!</t>
+  </si>
+  <si>
+    <t>Student05Password!</t>
+  </si>
+  <si>
+    <t>Student06Password!</t>
+  </si>
+  <si>
+    <t>Student07Password!</t>
+  </si>
+  <si>
+    <t>Student08Password!</t>
+  </si>
+  <si>
+    <t>Student09Password!</t>
+  </si>
+  <si>
+    <t>Student10Password!</t>
+  </si>
+  <si>
+    <t>Student11Password!</t>
+  </si>
+  <si>
+    <t>Student12Password!</t>
+  </si>
+  <si>
+    <t>Student13Password!</t>
+  </si>
+  <si>
+    <t>Student14Password!</t>
+  </si>
+  <si>
+    <t>Student15Password!</t>
+  </si>
+  <si>
+    <t>Student16Password!</t>
+  </si>
+  <si>
+    <t>Student17Password!</t>
+  </si>
+  <si>
+    <t>Student18Password!</t>
+  </si>
+  <si>
+    <t>Student19Password!</t>
+  </si>
+  <si>
+    <t>Student20Password!</t>
+  </si>
+  <si>
+    <t>Student21Password!</t>
+  </si>
+  <si>
+    <t>Student22Password!</t>
+  </si>
+  <si>
+    <t>Student23Password!</t>
+  </si>
+  <si>
+    <t>Student24Password!</t>
+  </si>
+  <si>
+    <t>Student25Password!</t>
+  </si>
+  <si>
+    <t>Student26Password!</t>
+  </si>
+  <si>
+    <t>Student27Password!</t>
+  </si>
+  <si>
+    <t>Student28Password!</t>
+  </si>
+  <si>
+    <t>Student29Password!</t>
+  </si>
+  <si>
+    <t>Student30Password!</t>
+  </si>
+  <si>
+    <t>Instructor1Password!</t>
+  </si>
+  <si>
+    <t>Instructor2Password!</t>
+  </si>
+  <si>
+    <t>SVSU</t>
+  </si>
+  <si>
+    <t>Instructor3Password!</t>
+  </si>
+  <si>
+    <t>Student01B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student02B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student03B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student04B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student05B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student06B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student07B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student08B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student09B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student10B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student11B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student12B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student13B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student14B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student15B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student16B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student17B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student18B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student19B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student20B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student21B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student22B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student23B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student24B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student25B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student26B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student27B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student28B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student29B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student30B@rc0D#</t>
+  </si>
+  <si>
+    <t>Instructor01B@rc0D#</t>
+  </si>
+  <si>
+    <t>Instructor02B@rc0D#</t>
+  </si>
+  <si>
+    <t>Instructor03B@rc0D#</t>
   </si>
 </sst>
 </file>
@@ -4746,7 +5049,77 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F599AD3-6840-46F2-88F2-0E9C6FEC8D7E}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{099EC489-0DCF-455E-884E-0F2FAB91D948}"/>
   </cellStyles>
-  <dxfs count="48">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5505,15 +5878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG161"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="7" bestFit="1" customWidth="1"/>
@@ -12302,12 +12675,33 @@
       <c r="BG102" s="4"/>
     </row>
     <row r="103" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="A103" s="4">
+        <v>110</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="4"/>
@@ -12339,15 +12733,33 @@
       <c r="BG103" s="4"/>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+      <c r="A104" s="4">
+        <v>111</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1</v>
+      </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="4"/>
@@ -12379,10 +12791,33 @@
       <c r="BG104" s="4"/>
     </row>
     <row r="105" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="A105" s="4">
+        <v>112</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="4"/>
@@ -12414,11 +12849,33 @@
       <c r="BG105" s="4"/>
     </row>
     <row r="106" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="D106" s="1"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="A106" s="4">
+        <v>113</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1</v>
+      </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="4"/>
@@ -12450,11 +12907,33 @@
       <c r="BG106" s="4"/>
     </row>
     <row r="107" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="D107" s="1"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="A107" s="4">
+        <v>114</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="4"/>
@@ -12486,10 +12965,33 @@
       <c r="BG107" s="4"/>
     </row>
     <row r="108" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D108" s="1"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="A108" s="4">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1</v>
+      </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="4"/>
@@ -12521,10 +13023,33 @@
       <c r="BG108" s="4"/>
     </row>
     <row r="109" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D109" s="1"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="A109" s="4">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1</v>
+      </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="4"/>
@@ -12556,10 +13081,33 @@
       <c r="BG109" s="4"/>
     </row>
     <row r="110" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D110" s="1"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+      <c r="A110" s="4">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1</v>
+      </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="4"/>
@@ -12591,10 +13139,33 @@
       <c r="BG110" s="4"/>
     </row>
     <row r="111" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D111" s="1"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
+      <c r="A111" s="4">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>1</v>
+      </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="4"/>
@@ -12626,10 +13197,33 @@
       <c r="BG111" s="4"/>
     </row>
     <row r="112" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D112" s="1"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+      <c r="A112" s="4">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1</v>
+      </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="4"/>
@@ -12661,10 +13255,33 @@
       <c r="BG112" s="4"/>
     </row>
     <row r="113" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D113" s="1"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
+      <c r="A113" s="4">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="4"/>
@@ -12696,10 +13313,33 @@
       <c r="BG113" s="4"/>
     </row>
     <row r="114" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D114" s="1"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="4"/>
+      <c r="A114" s="4">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="4"/>
@@ -12731,10 +13371,33 @@
       <c r="BG114" s="4"/>
     </row>
     <row r="115" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D115" s="1"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
+      <c r="A115" s="4">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
+        <v>1</v>
+      </c>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="4"/>
@@ -12766,10 +13429,33 @@
       <c r="BG115" s="4"/>
     </row>
     <row r="116" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D116" s="1"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
+      <c r="A116" s="4">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1</v>
+      </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="4"/>
@@ -12801,10 +13487,33 @@
       <c r="BG116" s="4"/>
     </row>
     <row r="117" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D117" s="1"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
+      <c r="A117" s="4">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1</v>
+      </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="4"/>
@@ -12836,10 +13545,33 @@
       <c r="BG117" s="4"/>
     </row>
     <row r="118" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D118" s="1"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+      <c r="A118" s="4">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1</v>
+      </c>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="4"/>
@@ -12848,10 +13580,33 @@
       <c r="Q118" s="5"/>
     </row>
     <row r="119" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D119" s="1"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+      <c r="A119" s="4">
+        <v>127</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1</v>
+      </c>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="4"/>
@@ -12860,15 +13615,33 @@
       <c r="Q119" s="5"/>
     </row>
     <row r="120" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
+      <c r="A120" s="4">
+        <v>128</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <v>1</v>
+      </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="4"/>
@@ -12877,15 +13650,33 @@
       <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
+      <c r="A121" s="4">
+        <v>129</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <v>1</v>
+      </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="4"/>
@@ -12894,15 +13685,33 @@
       <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+      <c r="A122" s="4">
+        <v>130</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1</v>
+      </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="4"/>
@@ -12911,15 +13720,33 @@
       <c r="Q122" s="5"/>
     </row>
     <row r="123" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
+      <c r="A123" s="4">
+        <v>131</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1</v>
+      </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="4"/>
@@ -12928,15 +13755,33 @@
       <c r="Q123" s="5"/>
     </row>
     <row r="124" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
+      <c r="A124" s="4">
+        <v>132</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1</v>
+      </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="4"/>
@@ -12945,15 +13790,33 @@
       <c r="Q124" s="5"/>
     </row>
     <row r="125" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
+      <c r="A125" s="4">
+        <v>133</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4">
+        <v>1</v>
+      </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="4"/>
@@ -12962,15 +13825,33 @@
       <c r="Q125" s="5"/>
     </row>
     <row r="126" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
+      <c r="A126" s="4">
+        <v>134</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="4"/>
@@ -12979,15 +13860,33 @@
       <c r="Q126" s="5"/>
     </row>
     <row r="127" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
+      <c r="A127" s="4">
+        <v>135</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="4"/>
@@ -12996,15 +13895,33 @@
       <c r="Q127" s="5"/>
     </row>
     <row r="128" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
+      <c r="A128" s="4">
+        <v>136</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1</v>
+      </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="4"/>
@@ -13013,15 +13930,33 @@
       <c r="Q128" s="5"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
+      <c r="A129" s="4">
+        <v>137</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1</v>
+      </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="4"/>
@@ -13030,15 +13965,33 @@
       <c r="Q129" s="5"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+      <c r="A130" s="4">
+        <v>138</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <v>1</v>
+      </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="4"/>
@@ -13047,15 +14000,33 @@
       <c r="Q130" s="5"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
+      <c r="A131" s="4">
+        <v>139</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I131" s="4">
+        <v>1</v>
+      </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="4"/>
@@ -13064,15 +14035,33 @@
       <c r="Q131" s="5"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
+      <c r="A132" s="4">
+        <v>140</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4">
+        <v>1</v>
+      </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="4"/>
@@ -13081,15 +14070,33 @@
       <c r="Q132" s="5"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
+      <c r="A133" s="4">
+        <v>141</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1</v>
+      </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="4"/>
@@ -13098,15 +14105,33 @@
       <c r="Q133" s="5"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
+      <c r="A134" s="4">
+        <v>142</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>1</v>
+      </c>
+      <c r="I134" s="4">
+        <v>1</v>
+      </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="4"/>
@@ -13115,15 +14140,33 @@
       <c r="Q134" s="5"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
+      <c r="A135" s="4">
+        <v>143</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>1</v>
+      </c>
+      <c r="I135" s="4">
+        <v>1</v>
+      </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="4"/>
@@ -18396,35 +19439,35 @@
     <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">INDEX($A$4:$A$54,RANDBETWEEN(1,COUNTA($A$4:$A$54)),1)</f>
-        <v>NM</v>
+        <v>NH</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>5617178672</v>
+        <v>4646937426</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>84959</v>
+        <v>74111</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">(INDEX($H$4:$H$6,RANDBETWEEN(1,COUNTA($H$4:$H$6)),1))&amp;" "&amp;(INDEX($G$4:$G$38,RANDBETWEEN(1,COUNTA($G$4:$G$38)),1))</f>
-        <v>471547 Blake St</v>
+        <v>1567 Lincoln Ave</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX($J$4:$J$6,RANDBETWEEN(1,COUNTA($J$4:$J$6)),1)</f>
-        <v>Diagnose</v>
+        <v>Advisor</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX($M$4:$M$60,RANDBETWEEN(1,COUNTA($M$4:$M$60)),1)</f>
-        <v>Port Huron</v>
+        <v>Manistee</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">IF($R$3=16,$U$37,IF($R$3=17, $U$38,IF($R$3=18,$U$39,IF($R$3=19,$U$40,IF($R$3=20,$U$41,IF($R$3=21,$U$42,IF($R$3=22,$U$43,IF($R$3=23,$U$44,IF($R$3=24,$U$45,IF($R$3=25,$U$46,""))))))))))</f>
-        <v>Phmc5yQU^vS@XK&amp;x^mQpv30</v>
+        <v>CnQEt*povXQ3pBYf@Mr</v>
       </c>
       <c r="P2" s="3">
         <f ca="1">RANDBETWEEN(DATE(1910,1,1),DATE(2021,2,5))</f>
-        <v>17833</v>
+        <v>16625</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -18443,23 +19486,23 @@
       <c r="A3" s="12"/>
       <c r="R3" s="5">
         <f ca="1">RANDBETWEEN(16,25)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
       </c>
-      <c r="T3" s="4" t="str" cm="1">
+      <c r="T3" s="4" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>i</v>
+        <v>8</v>
       </c>
       <c r="U3" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T18)</f>
-        <v>iXsriryF43lVRb63</v>
+        <v>8PYFmz3c6VqB0WYM</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4" t="str">
         <f ca="1">IF(R3=16,U3,IF(R3=17, U4,IF(R3=18,U5,IF(R3=19,U6,IF(R3=20,U7,IF(R3=21,U8,IF(R3=22,U9,IF(R3=23,U10,IF(R3=24,U11,IF(R3=25,U12,""))))))))))</f>
-        <v>iXsriryF43lVRb63y2a1vhqO</v>
+        <v>8PYFmz3c6VqB0WYMONVr</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -18475,7 +19518,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>7462</v>
+        <v>1567</v>
       </c>
       <c r="J4" t="s">
         <v>275</v>
@@ -18489,11 +19532,11 @@
       </c>
       <c r="T4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>X</v>
+        <v>P</v>
       </c>
       <c r="U4" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T19)</f>
-        <v>iXsriryF43lVRb63y</v>
+        <v>8PYFmz3c6VqB0WYMO</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -18511,7 +19554,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>66354</v>
+        <v>12493</v>
       </c>
       <c r="J5" t="s">
         <v>300</v>
@@ -18525,11 +19568,11 @@
       </c>
       <c r="T5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>s</v>
+        <v>Y</v>
       </c>
       <c r="U5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T20)</f>
-        <v>iXsriryF43lVRb63y2</v>
+        <v>8PYFmz3c6VqB0WYMON</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -18547,7 +19590,7 @@
       </c>
       <c r="H6" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>471547</v>
+        <v>719632</v>
       </c>
       <c r="J6" t="s">
         <v>285</v>
@@ -18561,11 +19604,11 @@
       </c>
       <c r="T6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>r</v>
+        <v>F</v>
       </c>
       <c r="U6" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T21)</f>
-        <v>iXsriryF43lVRb63y2a</v>
+        <v>8PYFmz3c6VqB0WYMONV</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -18590,11 +19633,11 @@
       </c>
       <c r="T7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>i</v>
+        <v>m</v>
       </c>
       <c r="U7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T22)</f>
-        <v>iXsriryF43lVRb63y2a1</v>
+        <v>8PYFmz3c6VqB0WYMONVr</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -18619,11 +19662,11 @@
       </c>
       <c r="T8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>r</v>
+        <v>z</v>
       </c>
       <c r="U8" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T23)</f>
-        <v>iXsriryF43lVRb63y2a1v</v>
+        <v>8PYFmz3c6VqB0WYMONVrI</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -18646,13 +19689,13 @@
       <c r="S9" s="4">
         <v>6</v>
       </c>
-      <c r="T9" s="4" t="str" cm="1">
+      <c r="T9" s="4" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>y</v>
+        <v>3</v>
       </c>
       <c r="U9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T24)</f>
-        <v>iXsriryF43lVRb63y2a1vh</v>
+        <v>8PYFmz3c6VqB0WYMONVrIh</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -18677,11 +19720,11 @@
       </c>
       <c r="T10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>F</v>
+        <v>c</v>
       </c>
       <c r="U10" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T25)</f>
-        <v>iXsriryF43lVRb63y2a1vhq</v>
+        <v>8PYFmz3c6VqB0WYMONVrIhO</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -18706,11 +19749,11 @@
       </c>
       <c r="T11" s="4" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T26)</f>
-        <v>iXsriryF43lVRb63y2a1vhqO</v>
+        <v>8PYFmz3c6VqB0WYMONVrIhOI</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -18733,13 +19776,13 @@
       <c r="S12" s="4">
         <v>9</v>
       </c>
-      <c r="T12" s="4" cm="1">
+      <c r="T12" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>3</v>
+        <v>V</v>
       </c>
       <c r="U12" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T27)</f>
-        <v>iXsriryF43lVRb63y2a1vhqOF</v>
+        <v>8PYFmz3c6VqB0WYMONVrIhOIV</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -18764,7 +19807,7 @@
       </c>
       <c r="T13" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>l</v>
+        <v>q</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="4"/>
@@ -18790,7 +19833,7 @@
       </c>
       <c r="T14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>V</v>
+        <v>B</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="4"/>
@@ -18814,9 +19857,9 @@
       <c r="S15" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="T15" s="4" t="str" cm="1">
+      <c r="T15" s="4" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>R</v>
+        <v>0</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="4"/>
@@ -18846,7 +19889,7 @@
       </c>
       <c r="T16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>b</v>
+        <v>W</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="4"/>
@@ -18873,9 +19916,9 @@
       <c r="S17" s="4" t="s">
         <v>548</v>
       </c>
-      <c r="T17" s="4" cm="1">
+      <c r="T17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>6</v>
+        <v>Y</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="4"/>
@@ -18899,9 +19942,9 @@
       <c r="S18" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="T18" s="4" cm="1">
+      <c r="T18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>3</v>
+        <v>M</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="4"/>
@@ -18927,7 +19970,7 @@
       </c>
       <c r="T19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>y</v>
+        <v>O</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="4"/>
@@ -18951,9 +19994,9 @@
       <c r="S20" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="T20" s="4" cm="1">
+      <c r="T20" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>2</v>
+        <v>N</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="4"/>
@@ -18979,7 +20022,7 @@
       </c>
       <c r="T21" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>a</v>
+        <v>V</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="4"/>
@@ -19003,9 +20046,9 @@
       <c r="S22" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="T22" s="4" cm="1">
+      <c r="T22" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>1</v>
+        <v>r</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="4"/>
@@ -19031,7 +20074,7 @@
       </c>
       <c r="T23" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>v</v>
+        <v>I</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="4"/>
@@ -19083,7 +20126,7 @@
       </c>
       <c r="T25" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>q</v>
+        <v>O</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="4"/>
@@ -19109,7 +20152,7 @@
       </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>O</v>
+        <v>I</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="4"/>
@@ -19135,7 +20178,7 @@
       </c>
       <c r="T27" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>F</v>
+        <v>V</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="4"/>
@@ -19207,7 +20250,7 @@
       </c>
       <c r="T30" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>P</v>
+        <v>C</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="4"/>
@@ -19233,7 +20276,7 @@
       </c>
       <c r="T31" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>h</v>
+        <v>n</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="4"/>
@@ -19259,7 +20302,7 @@
       </c>
       <c r="T32" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>m</v>
+        <v>Q</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="4"/>
@@ -19285,7 +20328,7 @@
       </c>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T33" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>c</v>
+        <v>E</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="4"/>
@@ -19309,9 +20352,9 @@
       <c r="S34" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="T34" s="4" cm="1">
+      <c r="T34" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T34" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>5</v>
+        <v>t</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="4"/>
@@ -19337,7 +20380,7 @@
       </c>
       <c r="T35" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>y</v>
+        <v>*</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="4"/>
@@ -19363,7 +20406,7 @@
       </c>
       <c r="T36" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>Q</v>
+        <v>p</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="4"/>
@@ -19389,11 +20432,11 @@
       </c>
       <c r="T37" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T37" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>U</v>
+        <v>o</v>
       </c>
       <c r="U37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T44)</f>
-        <v>Phmc5yQU^vS@XK&amp;</v>
+        <v>CnQEt*povXQ3pBY</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -19418,11 +20461,11 @@
       </c>
       <c r="T38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T38" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>^</v>
+        <v>v</v>
       </c>
       <c r="U38" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T45)</f>
-        <v>Phmc5yQU^vS@XK&amp;x</v>
+        <v>CnQEt*povXQ3pBYf</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
@@ -19444,11 +20487,11 @@
       </c>
       <c r="T39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>v</v>
+        <v>X</v>
       </c>
       <c r="U39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T46)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^</v>
+        <v>CnQEt*povXQ3pBYf@</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -19470,11 +20513,11 @@
       </c>
       <c r="T40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>S</v>
+        <v>Q</v>
       </c>
       <c r="U40" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T47)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^m</v>
+        <v>CnQEt*povXQ3pBYf@M</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -19494,13 +20537,13 @@
       <c r="S41" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="T41" s="4" t="str" cm="1">
+      <c r="T41" s="4" cm="1">
         <f t="array" aca="1" ref="T41" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>@</v>
+        <v>3</v>
       </c>
       <c r="U41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T48)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^mQ</v>
+        <v>CnQEt*povXQ3pBYf@Mr</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -19522,11 +20565,11 @@
       </c>
       <c r="T42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T42" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>X</v>
+        <v>p</v>
       </c>
       <c r="U42" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T49)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^mQp</v>
+        <v>CnQEt*povXQ3pBYf@MrV</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -19548,11 +20591,11 @@
       </c>
       <c r="T43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T43" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>K</v>
+        <v>B</v>
       </c>
       <c r="U43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T50)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^mQpv</v>
+        <v>CnQEt*povXQ3pBYf@MrV$</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -19574,11 +20617,11 @@
       </c>
       <c r="T44" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>&amp;</v>
+        <v>Y</v>
       </c>
       <c r="U44" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T51)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^mQpv3</v>
+        <v>CnQEt*povXQ3pBYf@MrV$@</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -19600,11 +20643,11 @@
       </c>
       <c r="T45" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>x</v>
+        <v>f</v>
       </c>
       <c r="U45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T52)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^mQpv30</v>
+        <v>CnQEt*povXQ3pBYf@MrV$@c</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -19626,11 +20669,11 @@
       </c>
       <c r="T46" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T46" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>^</v>
+        <v>@</v>
       </c>
       <c r="U46" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T53)</f>
-        <v>Phmc5yQU^vS@XK&amp;x^mQpv306</v>
+        <v>CnQEt*povXQ3pBYf@MrV$@cd</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -19652,7 +20695,7 @@
       </c>
       <c r="T47" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>m</v>
+        <v>M</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="4"/>
@@ -19675,7 +20718,7 @@
       </c>
       <c r="T48" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T48" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>Q</v>
+        <v>r</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="4"/>
@@ -19698,7 +20741,7 @@
       </c>
       <c r="T49" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T49" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>p</v>
+        <v>V</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="4"/>
@@ -19721,7 +20764,7 @@
       </c>
       <c r="T50" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T50" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>v</v>
+        <v>$</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="4"/>
@@ -19742,9 +20785,9 @@
       <c r="S51" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="T51" s="4" cm="1">
+      <c r="T51" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T51" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>3</v>
+        <v>@</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="4"/>
@@ -19765,9 +20808,9 @@
       <c r="S52" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="T52" s="4" cm="1">
+      <c r="T52" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T52" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>0</v>
+        <v>c</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="4"/>
@@ -19788,9 +20831,9 @@
       <c r="S53" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="T53" s="4" cm="1">
+      <c r="T53" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>6</v>
+        <v>d</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -20033,8 +21076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B78DEF-5A20-47DD-A1BF-E039EC331573}">
   <dimension ref="A1:AK122"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:R1048576"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26838,7 +27881,60 @@
       <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O103" s="2"/>
+      <c r="A103">
+        <v>110</v>
+      </c>
+      <c r="B103" s="2">
+        <v>106245963</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D103" t="s">
+        <v>251</v>
+      </c>
+      <c r="E103" t="s">
+        <v>252</v>
+      </c>
+      <c r="F103" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" s="3">
+        <v>6880</v>
+      </c>
+      <c r="H103" t="s">
+        <v>653</v>
+      </c>
+      <c r="I103">
+        <v>194</v>
+      </c>
+      <c r="J103" s="5">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="L103" t="s">
+        <v>337</v>
+      </c>
+      <c r="M103" t="s">
+        <v>430</v>
+      </c>
+      <c r="N103" s="2">
+        <v>69232</v>
+      </c>
+      <c r="O103" s="2">
+        <v>5399295221</v>
+      </c>
+      <c r="P103" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q103">
+        <v>52</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
@@ -27212,42 +28308,66 @@
     <mergeCell ref="T110:W111"/>
     <mergeCell ref="T112:W113"/>
   </mergeCells>
-  <conditionalFormatting sqref="P1:P105 P123:P1048576">
+  <conditionalFormatting sqref="P1:P102 P123:P1048576 P104:P105">
+    <cfRule type="duplicateValues" dxfId="54" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:C102 B123:C1048576 B104:C105">
+    <cfRule type="duplicateValues" dxfId="53" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C102 C123:C1048576 C104:C105">
+    <cfRule type="duplicateValues" dxfId="52" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B102 B123:B1048576 B104:B105">
+    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P106:P122">
+    <cfRule type="duplicateValues" dxfId="50" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:C122">
+    <cfRule type="duplicateValues" dxfId="49" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106:C122">
+    <cfRule type="duplicateValues" dxfId="48" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:B122">
     <cfRule type="duplicateValues" dxfId="47" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C105 B123:C1048576">
+  <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="46" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C105 C123:C1048576">
+  <conditionalFormatting sqref="B1:B102 B104:B1048576">
     <cfRule type="duplicateValues" dxfId="45" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B105 B123:B1048576">
+  <conditionalFormatting sqref="C1:C102 C104:C1048576">
     <cfRule type="duplicateValues" dxfId="44" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P106:P122">
+  <conditionalFormatting sqref="P1:P102 P104:P1048576">
     <cfRule type="duplicateValues" dxfId="43" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:C122">
+  <conditionalFormatting sqref="P103">
     <cfRule type="duplicateValues" dxfId="42" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106:C122">
+  <conditionalFormatting sqref="B103:C103">
     <cfRule type="duplicateValues" dxfId="41" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B122">
+  <conditionalFormatting sqref="C103">
     <cfRule type="duplicateValues" dxfId="40" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="39" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="38" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C103">
     <cfRule type="duplicateValues" dxfId="37" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="P103">
     <cfRule type="duplicateValues" dxfId="36" priority="1"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P103" r:id="rId1" xr:uid="{C7E52701-A2BC-4D91-86B1-DC28349F9842}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32566,7 +33686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC3597-E535-4CA0-AB6F-F14E144696CA}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
@@ -33704,21 +34824,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CECBC2A9D97CCE4C8584DF116D967F1C" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bccd6ae8185a02004a5a45138277f666">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7be332c0-1dcf-4a8f-9aaa-d80332f69483" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1268db3e156c331756c14e9fb6f811d7" ns2:_="">
     <xsd:import namespace="7be332c0-1dcf-4a8f-9aaa-d80332f69483"/>
@@ -33890,31 +34995,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49942C0E-E08D-4759-9E7E-944B12612524}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7be332c0-1dcf-4a8f-9aaa-d80332f69483"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F957795-5A4E-4E04-BFAB-7B388D638E5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D315D914-8530-49D9-AF00-9C03EBB80621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -33932,6 +35028,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F957795-5A4E-4E04-BFAB-7B388D638E5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49942C0E-E08D-4759-9E7E-944B12612524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7be332c0-1dcf-4a8f-9aaa-d80332f69483"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
 <mso:customUI xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui">
   <mso:ribbon>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -5,22 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Capstone_wi21_project\CIS424_wi21_Med_Cart\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8804C53-20FB-48DA-AC20-3BE05D07EC2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9E335F-CBF0-45A4-B593-35814A7973ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31995" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
     <sheet name="Physician" sheetId="3" r:id="rId2"/>
     <sheet name="Formulas" sheetId="6" r:id="rId3"/>
     <sheet name="Patient" sheetId="2" r:id="rId4"/>
-    <sheet name="Error Prone Data" sheetId="7" r:id="rId5"/>
-    <sheet name="Rooms" sheetId="4" r:id="rId6"/>
-    <sheet name="Allergy" sheetId="5" r:id="rId7"/>
+    <sheet name="PatientRoom" sheetId="8" r:id="rId5"/>
+    <sheet name="Error Prone Data" sheetId="7" r:id="rId6"/>
+    <sheet name="Rooms" sheetId="4" r:id="rId7"/>
+    <sheet name="Allergy" sheetId="5" r:id="rId8"/>
+    <sheet name="PatientPhysician" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PatientRoom!$A$2:$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Rooms!$A$2:$C$102</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -61,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3119" uniqueCount="1501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="1610">
   <si>
     <t>User</t>
   </si>
@@ -4564,6 +4570,333 @@
   </si>
   <si>
     <t>mlwr8gpxirR1234!</t>
+  </si>
+  <si>
+    <t>Patient_TUID</t>
+  </si>
+  <si>
+    <t>Room_TUID</t>
+  </si>
+  <si>
+    <t>Active Flag</t>
+  </si>
+  <si>
+    <t>PatientRoom</t>
+  </si>
+  <si>
+    <t>MD457</t>
+  </si>
+  <si>
+    <t>17PR</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>PatientPhysician</t>
+  </si>
+  <si>
+    <t>xSHRcaSTVZkjoWA58</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student3</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>Student5</t>
+  </si>
+  <si>
+    <t>Student6</t>
+  </si>
+  <si>
+    <t>Student7</t>
+  </si>
+  <si>
+    <t>Student8</t>
+  </si>
+  <si>
+    <t>Student9</t>
+  </si>
+  <si>
+    <t>Student10</t>
+  </si>
+  <si>
+    <t>Student11</t>
+  </si>
+  <si>
+    <t>Student12</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student16</t>
+  </si>
+  <si>
+    <t>Student17</t>
+  </si>
+  <si>
+    <t>Student18</t>
+  </si>
+  <si>
+    <t>Student19</t>
+  </si>
+  <si>
+    <t>Student20</t>
+  </si>
+  <si>
+    <t>Student21</t>
+  </si>
+  <si>
+    <t>Student22</t>
+  </si>
+  <si>
+    <t>Student23</t>
+  </si>
+  <si>
+    <t>Student24</t>
+  </si>
+  <si>
+    <t>Student25</t>
+  </si>
+  <si>
+    <t>Student26</t>
+  </si>
+  <si>
+    <t>Student27</t>
+  </si>
+  <si>
+    <t>Student28</t>
+  </si>
+  <si>
+    <t>Student29</t>
+  </si>
+  <si>
+    <t>Student30</t>
+  </si>
+  <si>
+    <t>Instructor1</t>
+  </si>
+  <si>
+    <t>Instructor2</t>
+  </si>
+  <si>
+    <t>Instructor3</t>
+  </si>
+  <si>
+    <t>Student01Password!</t>
+  </si>
+  <si>
+    <t>Student02Password!</t>
+  </si>
+  <si>
+    <t>Student03Password!</t>
+  </si>
+  <si>
+    <t>Student04Password!</t>
+  </si>
+  <si>
+    <t>Student05Password!</t>
+  </si>
+  <si>
+    <t>Student06Password!</t>
+  </si>
+  <si>
+    <t>Student07Password!</t>
+  </si>
+  <si>
+    <t>Student08Password!</t>
+  </si>
+  <si>
+    <t>Student09Password!</t>
+  </si>
+  <si>
+    <t>Student10Password!</t>
+  </si>
+  <si>
+    <t>Student11Password!</t>
+  </si>
+  <si>
+    <t>Student12Password!</t>
+  </si>
+  <si>
+    <t>Student13Password!</t>
+  </si>
+  <si>
+    <t>Student14Password!</t>
+  </si>
+  <si>
+    <t>Student15Password!</t>
+  </si>
+  <si>
+    <t>Student16Password!</t>
+  </si>
+  <si>
+    <t>Student17Password!</t>
+  </si>
+  <si>
+    <t>Student18Password!</t>
+  </si>
+  <si>
+    <t>Student19Password!</t>
+  </si>
+  <si>
+    <t>Student20Password!</t>
+  </si>
+  <si>
+    <t>Student21Password!</t>
+  </si>
+  <si>
+    <t>Student22Password!</t>
+  </si>
+  <si>
+    <t>Student23Password!</t>
+  </si>
+  <si>
+    <t>Student24Password!</t>
+  </si>
+  <si>
+    <t>Student25Password!</t>
+  </si>
+  <si>
+    <t>Student26Password!</t>
+  </si>
+  <si>
+    <t>Student27Password!</t>
+  </si>
+  <si>
+    <t>Student28Password!</t>
+  </si>
+  <si>
+    <t>Student29Password!</t>
+  </si>
+  <si>
+    <t>Student30Password!</t>
+  </si>
+  <si>
+    <t>Instructor1Password!</t>
+  </si>
+  <si>
+    <t>Instructor2Password!</t>
+  </si>
+  <si>
+    <t>SVSU</t>
+  </si>
+  <si>
+    <t>Instructor3Password!</t>
+  </si>
+  <si>
+    <t>Student01B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student02B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student03B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student04B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student05B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student06B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student07B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student08B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student09B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student10B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student11B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student12B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student13B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student14B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student15B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student16B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student17B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student18B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student19B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student20B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student21B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student22B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student23B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student24B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student25B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student26B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student27B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student28B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student29B@rc0D#</t>
+  </si>
+  <si>
+    <t>Student30B@rc0D#</t>
+  </si>
+  <si>
+    <t>Instructor01B@rc0D#</t>
+  </si>
+  <si>
+    <t>Instructor02B@rc0D#</t>
+  </si>
+  <si>
+    <t>Instructor03B@rc0D#</t>
   </si>
 </sst>
 </file>
@@ -4660,7 +4993,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4681,6 +5014,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4696,7 +5039,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -4704,7 +5049,157 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6F599AD3-6840-46F2-88F2-0E9C6FEC8D7E}"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{099EC489-0DCF-455E-884E-0F2FAB91D948}"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="55">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5383,15 +5878,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="7" bestFit="1" customWidth="1"/>
@@ -5418,17 +5913,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
@@ -5442,22 +5937,22 @@
       <c r="U1" s="15"/>
       <c r="V1" s="15"/>
       <c r="W1" s="15"/>
-      <c r="AK1" s="18"/>
-      <c r="AL1" s="18"/>
-      <c r="AM1" s="18"/>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
+      <c r="AW1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="22"/>
+      <c r="AZ1" s="22"/>
       <c r="BA1" s="4"/>
       <c r="BB1" s="4"/>
       <c r="BC1" s="4"/>
@@ -8904,7 +9399,7 @@
       <c r="B54" t="s">
         <v>155</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="18" t="s">
         <v>1325</v>
       </c>
       <c r="D54" t="s">
@@ -8970,7 +9465,7 @@
       <c r="B55" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="18" t="s">
         <v>1372</v>
       </c>
       <c r="D55" t="s">
@@ -9171,7 +9666,7 @@
       <c r="B58" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="18" t="s">
         <v>166</v>
       </c>
       <c r="D58" t="s">
@@ -9305,7 +9800,7 @@
       <c r="B60" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="18" t="s">
         <v>1329</v>
       </c>
       <c r="D60" t="s">
@@ -9640,7 +10135,7 @@
       <c r="B65" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="18" t="s">
         <v>1334</v>
       </c>
       <c r="D65" t="s">
@@ -9975,7 +10470,7 @@
       <c r="B70" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C70" s="23" t="s">
+      <c r="C70" s="18" t="s">
         <v>1339</v>
       </c>
       <c r="D70" t="s">
@@ -10109,7 +10604,7 @@
       <c r="B72" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="18" t="s">
         <v>1341</v>
       </c>
       <c r="D72" t="s">
@@ -10377,7 +10872,7 @@
       <c r="B76" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C76" s="23" t="s">
+      <c r="C76" s="18" t="s">
         <v>1345</v>
       </c>
       <c r="D76" t="s">
@@ -10712,7 +11207,7 @@
       <c r="B81" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="18" t="s">
         <v>1350</v>
       </c>
       <c r="D81" t="s">
@@ -10846,7 +11341,7 @@
       <c r="B83" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="23" t="s">
+      <c r="C83" s="18" t="s">
         <v>1352</v>
       </c>
       <c r="D83" t="s">
@@ -11047,7 +11542,7 @@
       <c r="B86" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C86" s="23" t="s">
+      <c r="C86" s="18" t="s">
         <v>1355</v>
       </c>
       <c r="D86" t="s">
@@ -11382,7 +11877,7 @@
       <c r="B91" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C91" s="23" t="s">
+      <c r="C91" s="18" t="s">
         <v>1360</v>
       </c>
       <c r="D91" t="s">
@@ -11516,7 +12011,7 @@
       <c r="B93" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C93" s="23" t="s">
+      <c r="C93" s="18" t="s">
         <v>1362</v>
       </c>
       <c r="D93" t="s">
@@ -11784,7 +12279,7 @@
       <c r="B97" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C97" s="23" t="s">
+      <c r="C97" s="18" t="s">
         <v>1366</v>
       </c>
       <c r="D97" t="s">
@@ -12119,7 +12614,7 @@
       <c r="B102" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C102" s="23" t="s">
+      <c r="C102" s="18" t="s">
         <v>1371</v>
       </c>
       <c r="D102" t="s">
@@ -12180,12 +12675,33 @@
       <c r="BG102" s="4"/>
     </row>
     <row r="103" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A103" s="4"/>
-      <c r="B103" s="5"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="A103" s="4">
+        <v>110</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G103" s="4">
+        <v>0</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0</v>
+      </c>
+      <c r="I103" s="4">
+        <v>1</v>
+      </c>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="4"/>
@@ -12217,15 +12733,33 @@
       <c r="BG103" s="4"/>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5"/>
-      <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
+      <c r="A104" s="4">
+        <v>111</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G104" s="4">
+        <v>0</v>
+      </c>
+      <c r="H104" s="4">
+        <v>0</v>
+      </c>
+      <c r="I104" s="4">
+        <v>1</v>
+      </c>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="4"/>
@@ -12257,10 +12791,33 @@
       <c r="BG104" s="4"/>
     </row>
     <row r="105" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B105" s="5"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
+      <c r="A105" s="4">
+        <v>112</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G105" s="4">
+        <v>0</v>
+      </c>
+      <c r="H105" s="4">
+        <v>0</v>
+      </c>
+      <c r="I105" s="4">
+        <v>1</v>
+      </c>
       <c r="J105" s="5"/>
       <c r="K105" s="5"/>
       <c r="L105" s="4"/>
@@ -12292,11 +12849,33 @@
       <c r="BG105" s="4"/>
     </row>
     <row r="106" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B106" s="5"/>
-      <c r="D106" s="1"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
+      <c r="A106" s="4">
+        <v>113</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G106" s="4">
+        <v>0</v>
+      </c>
+      <c r="H106" s="4">
+        <v>0</v>
+      </c>
+      <c r="I106" s="4">
+        <v>1</v>
+      </c>
       <c r="J106" s="5"/>
       <c r="K106" s="5"/>
       <c r="L106" s="4"/>
@@ -12328,11 +12907,33 @@
       <c r="BG106" s="4"/>
     </row>
     <row r="107" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="D107" s="1"/>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="4"/>
+      <c r="A107" s="4">
+        <v>114</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G107" s="4">
+        <v>0</v>
+      </c>
+      <c r="H107" s="4">
+        <v>0</v>
+      </c>
+      <c r="I107" s="4">
+        <v>1</v>
+      </c>
       <c r="J107" s="5"/>
       <c r="K107" s="5"/>
       <c r="L107" s="4"/>
@@ -12364,10 +12965,33 @@
       <c r="BG107" s="4"/>
     </row>
     <row r="108" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D108" s="1"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
+      <c r="A108" s="4">
+        <v>115</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G108" s="4">
+        <v>0</v>
+      </c>
+      <c r="H108" s="4">
+        <v>0</v>
+      </c>
+      <c r="I108" s="4">
+        <v>1</v>
+      </c>
       <c r="J108" s="5"/>
       <c r="K108" s="5"/>
       <c r="L108" s="4"/>
@@ -12399,10 +13023,33 @@
       <c r="BG108" s="4"/>
     </row>
     <row r="109" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D109" s="1"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
+      <c r="A109" s="4">
+        <v>116</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G109" s="4">
+        <v>0</v>
+      </c>
+      <c r="H109" s="4">
+        <v>0</v>
+      </c>
+      <c r="I109" s="4">
+        <v>1</v>
+      </c>
       <c r="J109" s="5"/>
       <c r="K109" s="5"/>
       <c r="L109" s="4"/>
@@ -12434,10 +13081,33 @@
       <c r="BG109" s="4"/>
     </row>
     <row r="110" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D110" s="1"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
+      <c r="A110" s="4">
+        <v>117</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G110" s="4">
+        <v>0</v>
+      </c>
+      <c r="H110" s="4">
+        <v>0</v>
+      </c>
+      <c r="I110" s="4">
+        <v>1</v>
+      </c>
       <c r="J110" s="5"/>
       <c r="K110" s="5"/>
       <c r="L110" s="4"/>
@@ -12469,10 +13139,33 @@
       <c r="BG110" s="4"/>
     </row>
     <row r="111" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D111" s="1"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
+      <c r="A111" s="4">
+        <v>119</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="G111" s="4">
+        <v>0</v>
+      </c>
+      <c r="H111" s="4">
+        <v>0</v>
+      </c>
+      <c r="I111" s="4">
+        <v>1</v>
+      </c>
       <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="4"/>
@@ -12504,10 +13197,33 @@
       <c r="BG111" s="4"/>
     </row>
     <row r="112" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D112" s="1"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+      <c r="A112" s="4">
+        <v>120</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G112" s="4">
+        <v>0</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0</v>
+      </c>
+      <c r="I112" s="4">
+        <v>1</v>
+      </c>
       <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="4"/>
@@ -12539,10 +13255,33 @@
       <c r="BG112" s="4"/>
     </row>
     <row r="113" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D113" s="1"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
+      <c r="A113" s="4">
+        <v>121</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G113" s="4">
+        <v>0</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0</v>
+      </c>
+      <c r="I113" s="4">
+        <v>1</v>
+      </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="4"/>
@@ -12574,10 +13313,33 @@
       <c r="BG113" s="4"/>
     </row>
     <row r="114" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D114" s="1"/>
-      <c r="G114" s="4"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="4"/>
+      <c r="A114" s="4">
+        <v>122</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>1588</v>
+      </c>
+      <c r="G114" s="4">
+        <v>0</v>
+      </c>
+      <c r="H114" s="4">
+        <v>0</v>
+      </c>
+      <c r="I114" s="4">
+        <v>1</v>
+      </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="4"/>
@@ -12609,10 +13371,33 @@
       <c r="BG114" s="4"/>
     </row>
     <row r="115" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D115" s="1"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
+      <c r="A115" s="4">
+        <v>123</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G115" s="4">
+        <v>0</v>
+      </c>
+      <c r="H115" s="4">
+        <v>0</v>
+      </c>
+      <c r="I115" s="4">
+        <v>1</v>
+      </c>
       <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="4"/>
@@ -12644,10 +13429,33 @@
       <c r="BG115" s="4"/>
     </row>
     <row r="116" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D116" s="1"/>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
-      <c r="I116" s="4"/>
+      <c r="A116" s="4">
+        <v>124</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>1590</v>
+      </c>
+      <c r="G116" s="4">
+        <v>0</v>
+      </c>
+      <c r="H116" s="4">
+        <v>0</v>
+      </c>
+      <c r="I116" s="4">
+        <v>1</v>
+      </c>
       <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="4"/>
@@ -12679,10 +13487,33 @@
       <c r="BG116" s="4"/>
     </row>
     <row r="117" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D117" s="1"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
+      <c r="A117" s="4">
+        <v>125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>1591</v>
+      </c>
+      <c r="G117" s="4">
+        <v>0</v>
+      </c>
+      <c r="H117" s="4">
+        <v>0</v>
+      </c>
+      <c r="I117" s="4">
+        <v>1</v>
+      </c>
       <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="4"/>
@@ -12714,10 +13545,33 @@
       <c r="BG117" s="4"/>
     </row>
     <row r="118" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D118" s="1"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
+      <c r="A118" s="4">
+        <v>126</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G118" s="4">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4">
+        <v>1</v>
+      </c>
       <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="4"/>
@@ -12726,10 +13580,33 @@
       <c r="Q118" s="5"/>
     </row>
     <row r="119" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="D119" s="1"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
-      <c r="I119" s="4"/>
+      <c r="A119" s="4">
+        <v>127</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>1593</v>
+      </c>
+      <c r="G119" s="4">
+        <v>0</v>
+      </c>
+      <c r="H119" s="4">
+        <v>0</v>
+      </c>
+      <c r="I119" s="4">
+        <v>1</v>
+      </c>
       <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="4"/>
@@ -12738,15 +13615,33 @@
       <c r="Q119" s="5"/>
     </row>
     <row r="120" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
-      <c r="E120" s="4"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
-      <c r="I120" s="4"/>
+      <c r="A120" s="4">
+        <v>128</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G120" s="4">
+        <v>0</v>
+      </c>
+      <c r="H120" s="4">
+        <v>0</v>
+      </c>
+      <c r="I120" s="4">
+        <v>1</v>
+      </c>
       <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="4"/>
@@ -12755,15 +13650,33 @@
       <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
-      <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
-      <c r="I121" s="4"/>
+      <c r="A121" s="4">
+        <v>129</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G121" s="4">
+        <v>0</v>
+      </c>
+      <c r="H121" s="4">
+        <v>0</v>
+      </c>
+      <c r="I121" s="4">
+        <v>1</v>
+      </c>
       <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="4"/>
@@ -12772,15 +13685,33 @@
       <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="E122" s="4"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
+      <c r="A122" s="4">
+        <v>130</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>1596</v>
+      </c>
+      <c r="G122" s="4">
+        <v>0</v>
+      </c>
+      <c r="H122" s="4">
+        <v>0</v>
+      </c>
+      <c r="I122" s="4">
+        <v>1</v>
+      </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="4"/>
@@ -12789,15 +13720,33 @@
       <c r="Q122" s="5"/>
     </row>
     <row r="123" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="8"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
+      <c r="A123" s="4">
+        <v>131</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G123" s="4">
+        <v>0</v>
+      </c>
+      <c r="H123" s="4">
+        <v>0</v>
+      </c>
+      <c r="I123" s="4">
+        <v>1</v>
+      </c>
       <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="4"/>
@@ -12806,15 +13755,33 @@
       <c r="Q123" s="5"/>
     </row>
     <row r="124" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
-      <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
-      <c r="E124" s="4"/>
-      <c r="F124" s="8"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
-      <c r="I124" s="4"/>
+      <c r="A124" s="4">
+        <v>132</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G124" s="4">
+        <v>0</v>
+      </c>
+      <c r="H124" s="4">
+        <v>0</v>
+      </c>
+      <c r="I124" s="4">
+        <v>1</v>
+      </c>
       <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="4"/>
@@ -12823,15 +13790,33 @@
       <c r="Q124" s="5"/>
     </row>
     <row r="125" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="8"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
+      <c r="A125" s="4">
+        <v>133</v>
+      </c>
+      <c r="B125" s="5" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>1565</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G125" s="4">
+        <v>0</v>
+      </c>
+      <c r="H125" s="4">
+        <v>0</v>
+      </c>
+      <c r="I125" s="4">
+        <v>1</v>
+      </c>
       <c r="J125" s="5"/>
       <c r="K125" s="5"/>
       <c r="L125" s="4"/>
@@ -12840,15 +13825,33 @@
       <c r="Q125" s="5"/>
     </row>
     <row r="126" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
-      <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
+      <c r="A126" s="4">
+        <v>134</v>
+      </c>
+      <c r="B126" s="5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G126" s="4">
+        <v>0</v>
+      </c>
+      <c r="H126" s="4">
+        <v>0</v>
+      </c>
+      <c r="I126" s="4">
+        <v>1</v>
+      </c>
       <c r="J126" s="5"/>
       <c r="K126" s="5"/>
       <c r="L126" s="4"/>
@@ -12857,15 +13860,33 @@
       <c r="Q126" s="5"/>
     </row>
     <row r="127" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
+      <c r="A127" s="4">
+        <v>135</v>
+      </c>
+      <c r="B127" s="5" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>1601</v>
+      </c>
+      <c r="G127" s="4">
+        <v>0</v>
+      </c>
+      <c r="H127" s="4">
+        <v>0</v>
+      </c>
+      <c r="I127" s="4">
+        <v>1</v>
+      </c>
       <c r="J127" s="5"/>
       <c r="K127" s="5"/>
       <c r="L127" s="4"/>
@@ -12874,15 +13895,33 @@
       <c r="Q127" s="5"/>
     </row>
     <row r="128" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
+      <c r="A128" s="4">
+        <v>136</v>
+      </c>
+      <c r="B128" s="5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>1602</v>
+      </c>
+      <c r="G128" s="4">
+        <v>0</v>
+      </c>
+      <c r="H128" s="4">
+        <v>0</v>
+      </c>
+      <c r="I128" s="4">
+        <v>1</v>
+      </c>
       <c r="J128" s="5"/>
       <c r="K128" s="5"/>
       <c r="L128" s="4"/>
@@ -12891,15 +13930,33 @@
       <c r="Q128" s="5"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="4"/>
-      <c r="B129" s="5"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
+      <c r="A129" s="4">
+        <v>137</v>
+      </c>
+      <c r="B129" s="5" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>1603</v>
+      </c>
+      <c r="G129" s="4">
+        <v>0</v>
+      </c>
+      <c r="H129" s="4">
+        <v>0</v>
+      </c>
+      <c r="I129" s="4">
+        <v>1</v>
+      </c>
       <c r="J129" s="5"/>
       <c r="K129" s="5"/>
       <c r="L129" s="4"/>
@@ -12908,15 +13965,33 @@
       <c r="Q129" s="5"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
+      <c r="A130" s="4">
+        <v>138</v>
+      </c>
+      <c r="B130" s="5" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="G130" s="4">
+        <v>0</v>
+      </c>
+      <c r="H130" s="4">
+        <v>0</v>
+      </c>
+      <c r="I130" s="4">
+        <v>1</v>
+      </c>
       <c r="J130" s="5"/>
       <c r="K130" s="5"/>
       <c r="L130" s="4"/>
@@ -12925,15 +14000,33 @@
       <c r="Q130" s="5"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="8"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
+      <c r="A131" s="4">
+        <v>139</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F131" s="7" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G131" s="4">
+        <v>0</v>
+      </c>
+      <c r="H131" s="4">
+        <v>0</v>
+      </c>
+      <c r="I131" s="4">
+        <v>1</v>
+      </c>
       <c r="J131" s="5"/>
       <c r="K131" s="5"/>
       <c r="L131" s="4"/>
@@ -12942,15 +14035,33 @@
       <c r="Q131" s="5"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="8"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
+      <c r="A132" s="4">
+        <v>140</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F132" s="7" t="s">
+        <v>1606</v>
+      </c>
+      <c r="G132" s="4">
+        <v>0</v>
+      </c>
+      <c r="H132" s="4">
+        <v>0</v>
+      </c>
+      <c r="I132" s="4">
+        <v>1</v>
+      </c>
       <c r="J132" s="5"/>
       <c r="K132" s="5"/>
       <c r="L132" s="4"/>
@@ -12959,15 +14070,33 @@
       <c r="Q132" s="5"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="8"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
+      <c r="A133" s="4">
+        <v>141</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F133" s="7" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G133" s="4">
+        <v>0</v>
+      </c>
+      <c r="H133" s="4">
+        <v>1</v>
+      </c>
+      <c r="I133" s="4">
+        <v>1</v>
+      </c>
       <c r="J133" s="5"/>
       <c r="K133" s="5"/>
       <c r="L133" s="4"/>
@@ -12976,15 +14105,33 @@
       <c r="Q133" s="5"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="4"/>
-      <c r="B134" s="5"/>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
+      <c r="A134" s="4">
+        <v>142</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F134" s="7" t="s">
+        <v>1608</v>
+      </c>
+      <c r="G134" s="4">
+        <v>0</v>
+      </c>
+      <c r="H134" s="4">
+        <v>1</v>
+      </c>
+      <c r="I134" s="4">
+        <v>1</v>
+      </c>
       <c r="J134" s="5"/>
       <c r="K134" s="5"/>
       <c r="L134" s="4"/>
@@ -12993,15 +14140,33 @@
       <c r="Q134" s="5"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
-      <c r="F135" s="8"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
+      <c r="A135" s="4">
+        <v>143</v>
+      </c>
+      <c r="B135" s="5" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1575</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>1609</v>
+      </c>
+      <c r="G135" s="4">
+        <v>0</v>
+      </c>
+      <c r="H135" s="4">
+        <v>1</v>
+      </c>
+      <c r="I135" s="4">
+        <v>1</v>
+      </c>
       <c r="J135" s="5"/>
       <c r="K135" s="5"/>
       <c r="L135" s="4"/>
@@ -13367,16 +14532,16 @@
       <c r="Q156" s="5"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A159" s="18"/>
-      <c r="B159" s="18"/>
-      <c r="C159" s="18"/>
-      <c r="D159" s="18"/>
-      <c r="E159" s="18"/>
-      <c r="F159" s="18"/>
-      <c r="G159" s="18"/>
-      <c r="H159" s="18"/>
-      <c r="I159" s="18"/>
-      <c r="J159" s="18"/>
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+      <c r="E159" s="22"/>
+      <c r="F159" s="22"/>
+      <c r="G159" s="22"/>
+      <c r="H159" s="22"/>
+      <c r="I159" s="22"/>
+      <c r="J159" s="22"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
@@ -13457,20 +14622,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -18258,51 +19423,51 @@
         <v>524</v>
       </c>
       <c r="Q1" s="4"/>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
       <c r="AC1" s="15"/>
     </row>
     <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">INDEX($A$4:$A$54,RANDBETWEEN(1,COUNTA($A$4:$A$54)),1)</f>
-        <v>CA</v>
+        <v>VA</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>1292966775</v>
+        <v>1571632794</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>27585</v>
+        <v>49529</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">(INDEX($H$4:$H$6,RANDBETWEEN(1,COUNTA($H$4:$H$6)),1))&amp;" "&amp;(INDEX($G$4:$G$38,RANDBETWEEN(1,COUNTA($G$4:$G$38)),1))</f>
-        <v>9811 Lincoln Ave</v>
+        <v>159597 Heyn Ave</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX($J$4:$J$6,RANDBETWEEN(1,COUNTA($J$4:$J$6)),1)</f>
-        <v>Diagnose</v>
+        <v>Prescribe</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX($M$4:$M$60,RANDBETWEEN(1,COUNTA($M$4:$M$60)),1)</f>
-        <v>Livonia</v>
+        <v>Bloomfield Hills</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">IF($R$3=16,$U$37,IF($R$3=17, $U$38,IF($R$3=18,$U$39,IF($R$3=19,$U$40,IF($R$3=20,$U$41,IF($R$3=21,$U$42,IF($R$3=22,$U$43,IF($R$3=23,$U$44,IF($R$3=24,$U$45,IF($R$3=25,$U$46,""))))))))))</f>
-        <v>zwT#12iJzvPK8hBaAN6</v>
+        <v>kC2nsaSIvdwrbRUwSWdmO</v>
       </c>
       <c r="P2" s="3">
         <f ca="1">RANDBETWEEN(DATE(1910,1,1),DATE(2021,2,5))</f>
-        <v>41825</v>
+        <v>32034</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -18321,23 +19486,23 @@
       <c r="A3" s="12"/>
       <c r="R3" s="5">
         <f ca="1">RANDBETWEEN(16,25)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>x</v>
+        <v>Y</v>
       </c>
       <c r="U3" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T18)</f>
-        <v>xt6Jn2R7sVZSWcrW</v>
+        <v>YM4tmJiQfoscP8nb</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4" t="str">
         <f ca="1">IF(R3=16,U3,IF(R3=17, U4,IF(R3=18,U5,IF(R3=19,U6,IF(R3=20,U7,IF(R3=21,U8,IF(R3=22,U9,IF(R3=23,U10,IF(R3=24,U11,IF(R3=25,U12,""))))))))))</f>
-        <v>xt6Jn2R7sVZSWcrW0PaW</v>
+        <v>YM4tmJiQfoscP8nbrbPn6w</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -18353,7 +19518,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>9811</v>
+        <v>7416</v>
       </c>
       <c r="J4" t="s">
         <v>275</v>
@@ -18367,11 +19532,11 @@
       </c>
       <c r="T4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>t</v>
+        <v>M</v>
       </c>
       <c r="U4" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T19)</f>
-        <v>xt6Jn2R7sVZSWcrW0</v>
+        <v>YM4tmJiQfoscP8nbr</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -18389,7 +19554,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>35707</v>
+        <v>95142</v>
       </c>
       <c r="J5" t="s">
         <v>300</v>
@@ -18403,11 +19568,11 @@
       </c>
       <c r="T5" s="4" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T20)</f>
-        <v>xt6Jn2R7sVZSWcrW0P</v>
+        <v>YM4tmJiQfoscP8nbrb</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -18425,7 +19590,7 @@
       </c>
       <c r="H6" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>865938</v>
+        <v>159597</v>
       </c>
       <c r="J6" t="s">
         <v>285</v>
@@ -18439,11 +19604,11 @@
       </c>
       <c r="T6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>J</v>
+        <v>t</v>
       </c>
       <c r="U6" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T21)</f>
-        <v>xt6Jn2R7sVZSWcrW0Pa</v>
+        <v>YM4tmJiQfoscP8nbrbP</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -18468,11 +19633,11 @@
       </c>
       <c r="T7" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>n</v>
+        <v>m</v>
       </c>
       <c r="U7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T22)</f>
-        <v>xt6Jn2R7sVZSWcrW0PaW</v>
+        <v>YM4tmJiQfoscP8nbrbPn</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -18495,13 +19660,13 @@
       <c r="S8" s="4">
         <v>5</v>
       </c>
-      <c r="T8" s="4" cm="1">
+      <c r="T8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>2</v>
+        <v>J</v>
       </c>
       <c r="U8" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T23)</f>
-        <v>xt6Jn2R7sVZSWcrW0PaWG</v>
+        <v>YM4tmJiQfoscP8nbrbPn6</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -18526,11 +19691,11 @@
       </c>
       <c r="T9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>R</v>
+        <v>i</v>
       </c>
       <c r="U9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T24)</f>
-        <v>xt6Jn2R7sVZSWcrW0PaWGk</v>
+        <v>YM4tmJiQfoscP8nbrbPn6w</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -18553,13 +19718,13 @@
       <c r="S10" s="4">
         <v>7</v>
       </c>
-      <c r="T10" s="4" cm="1">
+      <c r="T10" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>7</v>
+        <v>Q</v>
       </c>
       <c r="U10" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T25)</f>
-        <v>xt6Jn2R7sVZSWcrW0PaWGk1</v>
+        <v>YM4tmJiQfoscP8nbrbPn6w0</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -18584,11 +19749,11 @@
       </c>
       <c r="T11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>s</v>
+        <v>f</v>
       </c>
       <c r="U11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T26)</f>
-        <v>xt6Jn2R7sVZSWcrW0PaWGk1X</v>
+        <v>YM4tmJiQfoscP8nbrbPn6w0x</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -18613,11 +19778,11 @@
       </c>
       <c r="T12" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>V</v>
+        <v>o</v>
       </c>
       <c r="U12" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T27)</f>
-        <v>xt6Jn2R7sVZSWcrW0PaWGk1Xm</v>
+        <v>YM4tmJiQfoscP8nbrbPn6w0xQ</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -18642,7 +19807,7 @@
       </c>
       <c r="T13" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>Z</v>
+        <v>s</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="4"/>
@@ -18668,7 +19833,7 @@
       </c>
       <c r="T14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>S</v>
+        <v>c</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="4"/>
@@ -18694,7 +19859,7 @@
       </c>
       <c r="T15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>W</v>
+        <v>P</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="4"/>
@@ -18708,10 +19873,10 @@
       <c r="A16" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="23" t="s">
         <v>543</v>
       </c>
-      <c r="D16" s="19"/>
+      <c r="D16" s="23"/>
       <c r="G16" t="s">
         <v>544</v>
       </c>
@@ -18722,9 +19887,9 @@
       <c r="S16" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="T16" s="4" t="str" cm="1">
+      <c r="T16" s="4" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>c</v>
+        <v>8</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="4"/>
@@ -18753,7 +19918,7 @@
       </c>
       <c r="T17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>r</v>
+        <v>n</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="4"/>
@@ -18779,7 +19944,7 @@
       </c>
       <c r="T18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>W</v>
+        <v>b</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="4"/>
@@ -18803,9 +19968,9 @@
       <c r="S19" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="T19" s="4" cm="1">
+      <c r="T19" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>0</v>
+        <v>r</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="4"/>
@@ -18831,7 +19996,7 @@
       </c>
       <c r="T20" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>P</v>
+        <v>b</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="4"/>
@@ -18857,7 +20022,7 @@
       </c>
       <c r="T21" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>a</v>
+        <v>P</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="4"/>
@@ -18883,7 +20048,7 @@
       </c>
       <c r="T22" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>W</v>
+        <v>n</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="4"/>
@@ -18907,9 +20072,9 @@
       <c r="S23" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="T23" s="4" t="str" cm="1">
+      <c r="T23" s="4" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>G</v>
+        <v>6</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="4"/>
@@ -18935,7 +20100,7 @@
       </c>
       <c r="T24" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>k</v>
+        <v>w</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="4"/>
@@ -18961,7 +20126,7 @@
       </c>
       <c r="T25" s="4" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="4"/>
@@ -18987,7 +20152,7 @@
       </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>X</v>
+        <v>x</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="4"/>
@@ -19013,7 +20178,7 @@
       </c>
       <c r="T27" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>m</v>
+        <v>Q</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="4"/>
@@ -19085,7 +20250,7 @@
       </c>
       <c r="T30" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>z</v>
+        <v>k</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="4"/>
@@ -19111,7 +20276,7 @@
       </c>
       <c r="T31" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>w</v>
+        <v>C</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="4"/>
@@ -19135,9 +20300,9 @@
       <c r="S32" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="T32" s="4" t="str" cm="1">
+      <c r="T32" s="4" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>T</v>
+        <v>2</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="4"/>
@@ -19163,7 +20328,7 @@
       </c>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T33" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>#</v>
+        <v>n</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="4"/>
@@ -19187,9 +20352,9 @@
       <c r="S34" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="T34" s="4" cm="1">
+      <c r="T34" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T34" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>1</v>
+        <v>s</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="4"/>
@@ -19213,9 +20378,9 @@
       <c r="S35" s="4" t="s">
         <v>589</v>
       </c>
-      <c r="T35" s="4" cm="1">
+      <c r="T35" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>2</v>
+        <v>a</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="4"/>
@@ -19241,7 +20406,7 @@
       </c>
       <c r="T36" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>i</v>
+        <v>S</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="4"/>
@@ -19267,11 +20432,11 @@
       </c>
       <c r="T37" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T37" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>J</v>
+        <v>I</v>
       </c>
       <c r="U37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T44)</f>
-        <v>zwT#12iJzvPK8hB</v>
+        <v>kC2nsaSIvdwrbRU</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -19296,11 +20461,11 @@
       </c>
       <c r="T38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T38" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>z</v>
+        <v>v</v>
       </c>
       <c r="U38" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T45)</f>
-        <v>zwT#12iJzvPK8hBa</v>
+        <v>kC2nsaSIvdwrbRUw</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
@@ -19322,11 +20487,11 @@
       </c>
       <c r="T39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>v</v>
+        <v>d</v>
       </c>
       <c r="U39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T46)</f>
-        <v>zwT#12iJzvPK8hBaA</v>
+        <v>kC2nsaSIvdwrbRUwS</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -19348,11 +20513,11 @@
       </c>
       <c r="T40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>P</v>
+        <v>w</v>
       </c>
       <c r="U40" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T47)</f>
-        <v>zwT#12iJzvPK8hBaAN</v>
+        <v>kC2nsaSIvdwrbRUwSW</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -19374,11 +20539,11 @@
       </c>
       <c r="T41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T41" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>K</v>
+        <v>r</v>
       </c>
       <c r="U41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T48)</f>
-        <v>zwT#12iJzvPK8hBaAN6</v>
+        <v>kC2nsaSIvdwrbRUwSWd</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -19398,13 +20563,13 @@
       <c r="S42" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="T42" s="4" cm="1">
+      <c r="T42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T42" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>8</v>
+        <v>b</v>
       </c>
       <c r="U42" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T49)</f>
-        <v>zwT#12iJzvPK8hBaAN6y</v>
+        <v>kC2nsaSIvdwrbRUwSWdm</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -19426,11 +20591,11 @@
       </c>
       <c r="T43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T43" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>h</v>
+        <v>R</v>
       </c>
       <c r="U43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T50)</f>
-        <v>zwT#12iJzvPK8hBaAN6yY</v>
+        <v>kC2nsaSIvdwrbRUwSWdmO</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -19452,11 +20617,11 @@
       </c>
       <c r="T44" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>B</v>
+        <v>U</v>
       </c>
       <c r="U44" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T51)</f>
-        <v>zwT#12iJzvPK8hBaAN6yYD</v>
+        <v>kC2nsaSIvdwrbRUwSWdmOF</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -19478,11 +20643,11 @@
       </c>
       <c r="T45" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>a</v>
+        <v>w</v>
       </c>
       <c r="U45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T52)</f>
-        <v>zwT#12iJzvPK8hBaAN6yYD8</v>
+        <v>kC2nsaSIvdwrbRUwSWdmOF@</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -19504,11 +20669,11 @@
       </c>
       <c r="T46" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T46" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>A</v>
+        <v>S</v>
       </c>
       <c r="U46" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T53)</f>
-        <v>zwT#12iJzvPK8hBaAN6yYD8G</v>
+        <v>kC2nsaSIvdwrbRUwSWdmOF@o</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -19530,7 +20695,7 @@
       </c>
       <c r="T47" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>N</v>
+        <v>W</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="4"/>
@@ -19551,9 +20716,9 @@
       <c r="S48" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="T48" s="4" cm="1">
+      <c r="T48" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T48" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>6</v>
+        <v>d</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="4"/>
@@ -19576,7 +20741,7 @@
       </c>
       <c r="T49" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T49" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>y</v>
+        <v>m</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="4"/>
@@ -19599,7 +20764,7 @@
       </c>
       <c r="T50" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T50" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>Y</v>
+        <v>O</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="4"/>
@@ -19622,7 +20787,7 @@
       </c>
       <c r="T51" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T51" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>D</v>
+        <v>F</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="4"/>
@@ -19643,9 +20808,9 @@
       <c r="S52" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="T52" s="4" cm="1">
+      <c r="T52" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T52" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>8</v>
+        <v>@</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="4"/>
@@ -19668,7 +20833,7 @@
       </c>
       <c r="T53" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>G</v>
+        <v>o</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -19911,8 +21076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B78DEF-5A20-47DD-A1BF-E039EC331573}">
   <dimension ref="A1:AK122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="Q103" sqref="Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19940,26 +21105,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>635</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
       <c r="U1" s="4"/>
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
@@ -26716,7 +27881,60 @@
       <c r="V102" s="13"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="O103" s="2"/>
+      <c r="A103">
+        <v>110</v>
+      </c>
+      <c r="B103" s="2">
+        <v>106245963</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D103" t="s">
+        <v>251</v>
+      </c>
+      <c r="E103" t="s">
+        <v>252</v>
+      </c>
+      <c r="F103" t="s">
+        <v>139</v>
+      </c>
+      <c r="G103" s="3">
+        <v>6880</v>
+      </c>
+      <c r="H103" t="s">
+        <v>653</v>
+      </c>
+      <c r="I103">
+        <v>194</v>
+      </c>
+      <c r="J103" s="5">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="L103" t="s">
+        <v>337</v>
+      </c>
+      <c r="M103" t="s">
+        <v>430</v>
+      </c>
+      <c r="N103" s="2">
+        <v>69232</v>
+      </c>
+      <c r="O103" s="2">
+        <v>5399295221</v>
+      </c>
+      <c r="P103" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="Q103">
+        <v>52</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
@@ -26788,10 +28006,10 @@
       <c r="Q108" s="4"/>
       <c r="R108" s="4"/>
       <c r="S108" s="17"/>
-      <c r="T108" s="18"/>
-      <c r="U108" s="18"/>
-      <c r="V108" s="18"/>
-      <c r="W108" s="18"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
@@ -26813,10 +28031,10 @@
       <c r="Q109" s="4"/>
       <c r="R109" s="4"/>
       <c r="S109" s="17"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="22"/>
+      <c r="V109" s="22"/>
+      <c r="W109" s="22"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
@@ -26838,10 +28056,10 @@
       <c r="Q110" s="4"/>
       <c r="R110" s="4"/>
       <c r="S110" s="17"/>
-      <c r="T110" s="18"/>
-      <c r="U110" s="18"/>
-      <c r="V110" s="18"/>
-      <c r="W110" s="18"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="22"/>
+      <c r="V110" s="22"/>
+      <c r="W110" s="22"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
@@ -26863,10 +28081,10 @@
       <c r="Q111" s="4"/>
       <c r="R111" s="4"/>
       <c r="S111" s="17"/>
-      <c r="T111" s="18"/>
-      <c r="U111" s="18"/>
-      <c r="V111" s="18"/>
-      <c r="W111" s="18"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="22"/>
+      <c r="V111" s="22"/>
+      <c r="W111" s="22"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
@@ -26888,10 +28106,10 @@
       <c r="Q112" s="4"/>
       <c r="R112" s="4"/>
       <c r="S112" s="17"/>
-      <c r="T112" s="18"/>
-      <c r="U112" s="18"/>
-      <c r="V112" s="18"/>
-      <c r="W112" s="18"/>
+      <c r="T112" s="22"/>
+      <c r="U112" s="22"/>
+      <c r="V112" s="22"/>
+      <c r="W112" s="22"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
@@ -26913,10 +28131,10 @@
       <c r="Q113" s="4"/>
       <c r="R113" s="4"/>
       <c r="S113" s="17"/>
-      <c r="T113" s="18"/>
-      <c r="U113" s="18"/>
-      <c r="V113" s="18"/>
-      <c r="W113" s="18"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="22"/>
+      <c r="W113" s="22"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
@@ -27090,47 +28308,1546 @@
     <mergeCell ref="T110:W111"/>
     <mergeCell ref="T112:W113"/>
   </mergeCells>
-  <conditionalFormatting sqref="P1:P105 P123:P1048576">
-    <cfRule type="duplicateValues" dxfId="39" priority="12"/>
+  <conditionalFormatting sqref="P1:P102 P123:P1048576 P104:P105">
+    <cfRule type="duplicateValues" dxfId="54" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:C105 B123:C1048576">
-    <cfRule type="duplicateValues" dxfId="38" priority="11"/>
+  <conditionalFormatting sqref="B1:C102 B123:C1048576 B104:C105">
+    <cfRule type="duplicateValues" dxfId="53" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C105 C123:C1048576">
-    <cfRule type="duplicateValues" dxfId="37" priority="10"/>
+  <conditionalFormatting sqref="C1:C102 C123:C1048576 C104:C105">
+    <cfRule type="duplicateValues" dxfId="52" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B105 B123:B1048576">
-    <cfRule type="duplicateValues" dxfId="36" priority="9"/>
+  <conditionalFormatting sqref="B1:B102 B123:B1048576 B104:B105">
+    <cfRule type="duplicateValues" dxfId="51" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P106:P122">
+    <cfRule type="duplicateValues" dxfId="50" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:C122">
+    <cfRule type="duplicateValues" dxfId="49" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106:C122">
+    <cfRule type="duplicateValues" dxfId="48" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106:B122">
+    <cfRule type="duplicateValues" dxfId="47" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B102 B104:B1048576">
+    <cfRule type="duplicateValues" dxfId="45" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C102 C104:C1048576">
+    <cfRule type="duplicateValues" dxfId="44" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P102 P104:P1048576">
+    <cfRule type="duplicateValues" dxfId="43" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P103">
+    <cfRule type="duplicateValues" dxfId="42" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:C103">
+    <cfRule type="duplicateValues" dxfId="41" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="duplicateValues" dxfId="40" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="duplicateValues" dxfId="39" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103">
+    <cfRule type="duplicateValues" dxfId="38" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P103">
+    <cfRule type="duplicateValues" dxfId="36" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="P103" r:id="rId1" xr:uid="{C7E52701-A2BC-4D91-86B1-DC28349F9842}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F808C1-7803-44B9-BCFC-3625DA1841F1}">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C10" s="19">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C17" s="19">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C20" s="19">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C24" s="19">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C27" s="19">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C28" s="19">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C47" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C49" s="19" t="s">
+        <v>1156</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C59" s="19">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C62" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C73" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C75" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C77" s="19">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C80" s="19">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C81" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C82" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C83" s="19">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C84" s="19" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C86" s="19" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C87" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C88" s="19" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C89" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C90" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C91" s="19">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C92" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C93" s="19" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C95" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>1169</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C100" s="19">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C101" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C102" s="19" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:D2" xr:uid="{BC17DB8E-4546-47E1-8410-7CEDE8C1ED77}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D102">
+      <sortCondition ref="A2"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B1:C1">
     <cfRule type="duplicateValues" dxfId="35" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:C122">
+  <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="34" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C106:C122">
+  <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106:B122">
+  <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="32" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="B1">
     <cfRule type="duplicateValues" dxfId="31" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="C1">
     <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="29" priority="2"/>
+  <conditionalFormatting sqref="A54:A102">
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+  <conditionalFormatting sqref="A5:A53">
+    <cfRule type="duplicateValues" dxfId="28" priority="31"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6945CB8-9D8F-4EBD-A169-CCDF7C679087}">
   <dimension ref="A1:W42"/>
   <sheetViews>
@@ -27162,17 +29879,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="25" t="s">
         <v>1062</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -27444,20 +30161,20 @@
       <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -27770,12 +30487,12 @@
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="N22" s="20" t="s">
+      <c r="N22" s="24" t="s">
         <v>1100</v>
       </c>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -27814,10 +30531,10 @@
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -27909,26 +30626,26 @@
       <c r="F28" s="7"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -28044,12 +30761,12 @@
         <v>1</v>
       </c>
       <c r="S32" s="14"/>
-      <c r="T32" s="20" t="s">
+      <c r="T32" s="24" t="s">
         <v>1105</v>
       </c>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="24"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -28107,10 +30824,10 @@
         <v>1</v>
       </c>
       <c r="S33" s="14"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -28168,12 +30885,12 @@
         <v>0</v>
       </c>
       <c r="S34" s="14"/>
-      <c r="T34" s="20" t="s">
+      <c r="T34" s="24" t="s">
         <v>1109</v>
       </c>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -28231,10 +30948,10 @@
         <v>0</v>
       </c>
       <c r="S35" s="14"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -28292,12 +31009,12 @@
         <v>1</v>
       </c>
       <c r="S36" s="14"/>
-      <c r="T36" s="20" t="s">
+      <c r="T36" s="24" t="s">
         <v>1114</v>
       </c>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -28355,10 +31072,10 @@
         <v>1</v>
       </c>
       <c r="S37" s="14"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -28748,1140 +31465,1207 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65FD2D6B-5CFE-4E71-824A-3777BE258E6C}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="27" t="s">
         <v>1132</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="20" t="s">
         <v>1133</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="20" t="s">
         <v>1134</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="20" t="s">
         <v>1135</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="20" t="s">
         <v>1135</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="20" t="s">
         <v>1135</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="20" t="s">
         <v>1138</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="20" t="s">
         <v>1139</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="20" t="s">
         <v>1140</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="21" t="s">
         <v>1139</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="21" t="s">
         <v>1141</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="21">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="21" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>1142</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="21" t="s">
         <v>1138</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="21" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C12" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
         <v>1143</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>1144</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" s="21">
+        <v>1</v>
+      </c>
+      <c r="C15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>1145</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" s="21">
+        <v>1</v>
+      </c>
+      <c r="C16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>1146</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B17" s="21">
+        <v>1</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B18" s="21">
+        <v>1</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
         <v>1147</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>1148</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C20" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
         <v>1149</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C21" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
         <v>1150</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" s="21" t="s">
         <v>1137</v>
       </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
         <v>1151</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" s="21" t="s">
         <v>1136</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C23" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B25" s="20" t="s">
         <v>1138</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C25" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B26" s="20" t="s">
         <v>1142</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="C26" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B27" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
         <v>1152</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B28" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="C28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>1153</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B29" s="20">
+        <v>1</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
         <v>1153</v>
       </c>
-      <c r="B26">
+      <c r="B30" s="20">
         <v>2</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
         <v>1153</v>
       </c>
-      <c r="B27">
+      <c r="B31" s="20">
         <v>3</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
         <v>1153</v>
       </c>
-      <c r="B28">
+      <c r="B32" s="20">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
         <v>1154</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" s="20" t="s">
         <v>1155</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
         <v>1154</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B34" s="20" t="s">
         <v>1156</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C34" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>1154</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B35" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C35" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
         <v>1157</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" s="20" t="s">
         <v>1142</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
         <v>1158</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C37" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
         <v>1159</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" s="20" t="s">
         <v>1160</v>
       </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C38" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>1161</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B39" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C39" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>1162</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B40" s="20" t="s">
         <v>1163</v>
       </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C40" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>1164</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C41" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>1165</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B42" s="20" t="s">
         <v>1155</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C42" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>1165</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" s="20" t="s">
         <v>1156</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C43" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>1165</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B44" s="20" t="s">
         <v>1166</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C44" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
         <v>1165</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B45" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C45" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
         <v>1164</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" s="20" t="s">
         <v>1160</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
         <v>1164</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C47" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
         <v>1167</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="C48" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
         <v>1167</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B49" s="20" t="s">
         <v>1168</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C49" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
         <v>1167</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B50" s="20" t="s">
         <v>1169</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="C50" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
         <v>1170</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="B51" s="20">
+        <v>1</v>
+      </c>
+      <c r="C51" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="20" t="s">
         <v>1171</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B52" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="20" t="s">
         <v>1171</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B53" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="C53" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>1171</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B54" s="20" t="s">
         <v>1160</v>
       </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="C54" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B55" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="C55" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
         <v>1172</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B56" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="C56" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
         <v>1174</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B57" s="20" t="s">
         <v>1138</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="C57" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
         <v>1174</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B58" s="20" t="s">
         <v>1142</v>
       </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="C58" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
         <v>1174</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B59" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="C59" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
         <v>1174</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B60" s="20" t="s">
         <v>1175</v>
       </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="C60" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
         <v>1176</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B61" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="C61" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
         <v>1176</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B62" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C62" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
         <v>1176</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B63" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="C63" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
         <v>1177</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="C64" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
         <v>1177</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B65" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="C65" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
         <v>1177</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B66" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="C66" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B67" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="C67" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
         <v>1141</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B68" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="C68" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
         <v>1175</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B69" s="20" t="s">
         <v>1178</v>
       </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="C69" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
         <v>1175</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B70" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="C70" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
         <v>1175</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B71" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="C71" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" s="20" t="s">
         <v>1178</v>
       </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="C72" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="C73" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="C74" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" s="20" t="s">
         <v>1160</v>
       </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="C75" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="20" t="s">
         <v>1179</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="C76" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="20" t="s">
         <v>1180</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" s="20" t="s">
         <v>1181</v>
       </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="C77" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="20" t="s">
         <v>1180</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="C78" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="20" t="s">
         <v>1180</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="C79" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
         <v>1180</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" s="20" t="s">
         <v>1182</v>
       </c>
-      <c r="C76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="C80" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
         <v>1183</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B81" s="20" t="s">
         <v>1181</v>
       </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="C81" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
         <v>1184</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B82" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="C82" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
         <v>1184</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B83" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="C83" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
         <v>1184</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B84" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="C84" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
         <v>1184</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B85" s="20" t="s">
         <v>1182</v>
       </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="C85" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
         <v>1185</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="B86" s="20">
+        <v>1</v>
+      </c>
+      <c r="C86" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
         <v>1185</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B87" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="C87" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
         <v>1185</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B88" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="C88" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
         <v>1185</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B89" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="C89" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
         <v>1186</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B90" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="C90" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="20" t="s">
         <v>1186</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B91" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="C91" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
         <v>1187</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="B92" s="20">
+        <v>1</v>
+      </c>
+      <c r="C92" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
         <v>1188</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="B93" s="20">
+        <v>1</v>
+      </c>
+      <c r="C93" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
         <v>1189</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B94" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="C94" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
         <v>1190</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B95" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="C95" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
         <v>1191</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B96" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="C96" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="20" t="s">
         <v>1192</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="B97" s="20">
+        <v>1</v>
+      </c>
+      <c r="C97" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="20" t="s">
         <v>1192</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B98" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="C98" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="20" t="s">
         <v>1192</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B99" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="C99" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="20" t="s">
         <v>1192</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B100" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="C100" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="20" t="s">
         <v>1193</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B101" s="20" t="s">
         <v>1138</v>
       </c>
-      <c r="C97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="C101" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="20" t="s">
         <v>1193</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B102" s="20" t="s">
         <v>1142</v>
       </c>
-      <c r="C98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="C102" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="20" t="s">
         <v>1194</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" s="20" t="s">
         <v>1136</v>
       </c>
-      <c r="C99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="C103" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="20" t="s">
         <v>1194</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B104" s="20" t="s">
         <v>1137</v>
       </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="C104" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="20" t="s">
         <v>1194</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B105" s="20" t="s">
         <v>1173</v>
       </c>
-      <c r="C101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="C105" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
         <v>1194</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B106" s="20" t="s">
         <v>1178</v>
       </c>
-      <c r="C102">
+      <c r="C106" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C107" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="20" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B108" s="20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C108" s="20">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:C102" xr:uid="{8D3BAABF-1B76-495E-8805-3F1BF45D78A6}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
@@ -29889,12 +32673,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453BF516-0E69-4C4C-8F9B-B3AE6048F2E1}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C102"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29905,11 +32689,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>1195</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -30898,13 +33682,1148 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC3597-E535-4CA0-AB6F-F14E144696CA}">
+  <dimension ref="A1:C102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>36</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>38</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>39</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>42</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>44</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>45</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>47</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>49</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>52</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>53</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>55</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>57</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>58</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>59</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>60</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>61</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>62</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>63</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>64</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>66</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>67</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>69</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>71</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>72</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>73</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>74</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>75</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>76</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>78</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>79</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>80</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>81</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>82</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>83</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>84</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>85</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>86</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>87</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>88</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>89</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>91</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>92</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>93</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>94</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>95</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>96</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>97</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>98</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>99</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>100</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>3</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>5</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>9</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>11</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>13</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>14</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>15</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>17</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>18</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>19</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CECBC2A9D97CCE4C8584DF116D967F1C" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bccd6ae8185a02004a5a45138277f666">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7be332c0-1dcf-4a8f-9aaa-d80332f69483" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1268db3e156c331756c14e9fb6f811d7" ns2:_="">
     <xsd:import namespace="7be332c0-1dcf-4a8f-9aaa-d80332f69483"/>
@@ -31076,6 +34995,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -31086,22 +35011,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49942C0E-E08D-4759-9E7E-944B12612524}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7be332c0-1dcf-4a8f-9aaa-d80332f69483"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D315D914-8530-49D9-AF00-9C03EBB80621}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -31115,6 +35024,22 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49942C0E-E08D-4759-9E7E-944B12612524}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="7be332c0-1dcf-4a8f-9aaa-d80332f69483"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Database Data.xlsx
+++ b/Database Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\Capstone_wi21_project\CIS424_wi21_Med_Cart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF9E335F-CBF0-45A4-B593-35814A7973ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBE00F6-002C-4B2A-B3C1-EF5FBE53E9EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31995" yWindow="1605" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32595" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="1610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3505" uniqueCount="1614">
   <si>
     <t>User</t>
   </si>
@@ -4897,6 +4897,18 @@
   </si>
   <si>
     <t>Instructor03B@rc0D#</t>
+  </si>
+  <si>
+    <t>MedServeAdmin</t>
+  </si>
+  <si>
+    <t>Admin@MedServe1</t>
+  </si>
+  <si>
+    <t>Medserve</t>
+  </si>
+  <si>
+    <t>hiu678kjigUYtuijkg6%#</t>
   </si>
 </sst>
 </file>
@@ -5878,8 +5890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14175,15 +14187,33 @@
       <c r="Q135" s="5"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="4"/>
-      <c r="B136" s="5"/>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
-      <c r="F136" s="8"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
+      <c r="A136" s="4">
+        <v>144</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1613</v>
+      </c>
+      <c r="G136" s="4">
+        <v>1</v>
+      </c>
+      <c r="H136" s="4">
+        <v>0</v>
+      </c>
+      <c r="I136" s="4">
+        <v>1</v>
+      </c>
       <c r="J136" s="5"/>
       <c r="K136" s="5"/>
       <c r="L136" s="4"/>
@@ -19439,35 +19469,35 @@
     <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="A2" ca="1">INDEX($A$4:$A$54,RANDBETWEEN(1,COUNTA($A$4:$A$54)),1)</f>
-        <v>VA</v>
+        <v>CA</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>1571632794</v>
+        <v>2271639851</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)&amp;RANDBETWEEN(1,9)</f>
-        <v>49529</v>
+        <v>54286</v>
       </c>
       <c r="G2" t="str" cm="1">
         <f t="array" aca="1" ref="G2" ca="1">(INDEX($H$4:$H$6,RANDBETWEEN(1,COUNTA($H$4:$H$6)),1))&amp;" "&amp;(INDEX($G$4:$G$38,RANDBETWEEN(1,COUNTA($G$4:$G$38)),1))</f>
-        <v>159597 Heyn Ave</v>
+        <v>5842 Mott St</v>
       </c>
       <c r="J2" t="str" cm="1">
         <f t="array" aca="1" ref="J2" ca="1">INDEX($J$4:$J$6,RANDBETWEEN(1,COUNTA($J$4:$J$6)),1)</f>
-        <v>Prescribe</v>
+        <v>Advisor</v>
       </c>
       <c r="M2" t="str" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">INDEX($M$4:$M$60,RANDBETWEEN(1,COUNTA($M$4:$M$60)),1)</f>
-        <v>Bloomfield Hills</v>
+        <v>Flint</v>
       </c>
       <c r="O2" t="str">
         <f ca="1">IF($R$3=16,$U$37,IF($R$3=17, $U$38,IF($R$3=18,$U$39,IF($R$3=19,$U$40,IF($R$3=20,$U$41,IF($R$3=21,$U$42,IF($R$3=22,$U$43,IF($R$3=23,$U$44,IF($R$3=24,$U$45,IF($R$3=25,$U$46,""))))))))))</f>
-        <v>kC2nsaSIvdwrbRUwSWdmO</v>
+        <v>tmWijtXxJExy*Es4YL</v>
       </c>
       <c r="P2" s="3">
         <f ca="1">RANDBETWEEN(DATE(1910,1,1),DATE(2021,2,5))</f>
-        <v>32034</v>
+        <v>8656</v>
       </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
@@ -19486,23 +19516,23 @@
       <c r="A3" s="12"/>
       <c r="R3" s="5">
         <f ca="1">RANDBETWEEN(16,25)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
       </c>
       <c r="T3" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>Y</v>
+        <v>M</v>
       </c>
       <c r="U3" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T18)</f>
-        <v>YM4tmJiQfoscP8nb</v>
+        <v>MJpm0jB0cy2fmdTR</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4" t="str">
         <f ca="1">IF(R3=16,U3,IF(R3=17, U4,IF(R3=18,U5,IF(R3=19,U6,IF(R3=20,U7,IF(R3=21,U8,IF(R3=22,U9,IF(R3=23,U10,IF(R3=24,U11,IF(R3=25,U12,""))))))))))</f>
-        <v>YM4tmJiQfoscP8nbrbPn6w</v>
+        <v>MJpm0jB0cy2fmdTR3Ek</v>
       </c>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -19518,7 +19548,7 @@
       </c>
       <c r="H4" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>7416</v>
+        <v>5842</v>
       </c>
       <c r="J4" t="s">
         <v>275</v>
@@ -19532,11 +19562,11 @@
       </c>
       <c r="T4" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>M</v>
+        <v>J</v>
       </c>
       <c r="U4" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T19)</f>
-        <v>YM4tmJiQfoscP8nbr</v>
+        <v>MJpm0jB0cy2fmdTR3</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
@@ -19554,7 +19584,7 @@
       </c>
       <c r="H5" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>95142</v>
+        <v>98842</v>
       </c>
       <c r="J5" t="s">
         <v>300</v>
@@ -19566,13 +19596,13 @@
       <c r="S5" s="4">
         <v>2</v>
       </c>
-      <c r="T5" s="4" cm="1">
+      <c r="T5" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T5" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>4</v>
+        <v>p</v>
       </c>
       <c r="U5" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T20)</f>
-        <v>YM4tmJiQfoscP8nbrb</v>
+        <v>MJpm0jB0cy2fmdTR3E</v>
       </c>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
@@ -19590,7 +19620,7 @@
       </c>
       <c r="H6" t="str">
         <f ca="1">RANDBETWEEN(1,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)&amp;RANDBETWEEN(0,9)</f>
-        <v>159597</v>
+        <v>377086</v>
       </c>
       <c r="J6" t="s">
         <v>285</v>
@@ -19604,11 +19634,11 @@
       </c>
       <c r="T6" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T6" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>t</v>
+        <v>m</v>
       </c>
       <c r="U6" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T21)</f>
-        <v>YM4tmJiQfoscP8nbrbP</v>
+        <v>MJpm0jB0cy2fmdTR3Ek</v>
       </c>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
@@ -19631,13 +19661,13 @@
       <c r="S7" s="4">
         <v>4</v>
       </c>
-      <c r="T7" s="4" t="str" cm="1">
+      <c r="T7" s="4" cm="1">
         <f t="array" aca="1" ref="T7" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>m</v>
+        <v>0</v>
       </c>
       <c r="U7" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T22)</f>
-        <v>YM4tmJiQfoscP8nbrbPn</v>
+        <v>MJpm0jB0cy2fmdTR3EkZ</v>
       </c>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
@@ -19662,11 +19692,11 @@
       </c>
       <c r="T8" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T8" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>J</v>
+        <v>j</v>
       </c>
       <c r="U8" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T23)</f>
-        <v>YM4tmJiQfoscP8nbrbPn6</v>
+        <v>MJpm0jB0cy2fmdTR3EkZR</v>
       </c>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -19691,11 +19721,11 @@
       </c>
       <c r="T9" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T9" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>i</v>
+        <v>B</v>
       </c>
       <c r="U9" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T24)</f>
-        <v>YM4tmJiQfoscP8nbrbPn6w</v>
+        <v>MJpm0jB0cy2fmdTR3EkZRl</v>
       </c>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -19718,13 +19748,13 @@
       <c r="S10" s="4">
         <v>7</v>
       </c>
-      <c r="T10" s="4" t="str" cm="1">
+      <c r="T10" s="4" cm="1">
         <f t="array" aca="1" ref="T10" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>Q</v>
+        <v>0</v>
       </c>
       <c r="U10" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T25)</f>
-        <v>YM4tmJiQfoscP8nbrbPn6w0</v>
+        <v>MJpm0jB0cy2fmdTR3EkZRlk</v>
       </c>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -19749,11 +19779,11 @@
       </c>
       <c r="T11" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T11" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>f</v>
+        <v>c</v>
       </c>
       <c r="U11" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T26)</f>
-        <v>YM4tmJiQfoscP8nbrbPn6w0x</v>
+        <v>MJpm0jB0cy2fmdTR3EkZRlky</v>
       </c>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -19778,11 +19808,11 @@
       </c>
       <c r="T12" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T12" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>o</v>
+        <v>y</v>
       </c>
       <c r="U12" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$3:T27)</f>
-        <v>YM4tmJiQfoscP8nbrbPn6w0xQ</v>
+        <v>MJpm0jB0cy2fmdTR3EkZRlkyy</v>
       </c>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -19805,9 +19835,9 @@
       <c r="S13" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="T13" s="4" t="str" cm="1">
+      <c r="T13" s="4" cm="1">
         <f t="array" aca="1" ref="T13" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>s</v>
+        <v>2</v>
       </c>
       <c r="U13" s="6"/>
       <c r="V13" s="4"/>
@@ -19833,7 +19863,7 @@
       </c>
       <c r="T14" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T14" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>c</v>
+        <v>f</v>
       </c>
       <c r="U14" s="6"/>
       <c r="V14" s="4"/>
@@ -19859,7 +19889,7 @@
       </c>
       <c r="T15" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T15" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>P</v>
+        <v>m</v>
       </c>
       <c r="U15" s="6"/>
       <c r="V15" s="4"/>
@@ -19887,9 +19917,9 @@
       <c r="S16" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="T16" s="4" cm="1">
+      <c r="T16" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T16" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>8</v>
+        <v>d</v>
       </c>
       <c r="U16" s="6"/>
       <c r="V16" s="4"/>
@@ -19918,7 +19948,7 @@
       </c>
       <c r="T17" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T17" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>n</v>
+        <v>T</v>
       </c>
       <c r="U17" s="6"/>
       <c r="V17" s="4"/>
@@ -19944,7 +19974,7 @@
       </c>
       <c r="T18" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T18" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>b</v>
+        <v>R</v>
       </c>
       <c r="U18" s="6"/>
       <c r="V18" s="4"/>
@@ -19968,9 +19998,9 @@
       <c r="S19" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="T19" s="4" t="str" cm="1">
+      <c r="T19" s="4" cm="1">
         <f t="array" aca="1" ref="T19" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>r</v>
+        <v>3</v>
       </c>
       <c r="U19" s="6"/>
       <c r="V19" s="4"/>
@@ -19996,7 +20026,7 @@
       </c>
       <c r="T20" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T20" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>b</v>
+        <v>E</v>
       </c>
       <c r="U20" s="6"/>
       <c r="V20" s="4"/>
@@ -20022,7 +20052,7 @@
       </c>
       <c r="T21" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T21" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>P</v>
+        <v>k</v>
       </c>
       <c r="U21" s="6"/>
       <c r="V21" s="4"/>
@@ -20048,7 +20078,7 @@
       </c>
       <c r="T22" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T22" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>n</v>
+        <v>Z</v>
       </c>
       <c r="U22" s="6"/>
       <c r="V22" s="4"/>
@@ -20072,9 +20102,9 @@
       <c r="S23" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="T23" s="4" cm="1">
+      <c r="T23" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T23" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>6</v>
+        <v>R</v>
       </c>
       <c r="U23" s="6"/>
       <c r="V23" s="4"/>
@@ -20100,7 +20130,7 @@
       </c>
       <c r="T24" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T24" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>w</v>
+        <v>l</v>
       </c>
       <c r="U24" s="6"/>
       <c r="V24" s="4"/>
@@ -20124,9 +20154,9 @@
       <c r="S25" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="T25" s="4" cm="1">
+      <c r="T25" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T25" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>0</v>
+        <v>k</v>
       </c>
       <c r="U25" s="6"/>
       <c r="V25" s="4"/>
@@ -20152,7 +20182,7 @@
       </c>
       <c r="T26" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T26" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>x</v>
+        <v>y</v>
       </c>
       <c r="U26" s="6"/>
       <c r="V26" s="4"/>
@@ -20178,7 +20208,7 @@
       </c>
       <c r="T27" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T27" ca="1">INDEX($S$3:$S$64,RANDBETWEEN(1,COUNTA($S$3:$S$64)),1)</f>
-        <v>Q</v>
+        <v>y</v>
       </c>
       <c r="U27" s="6"/>
       <c r="V27" s="4"/>
@@ -20250,7 +20280,7 @@
       </c>
       <c r="T30" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T30" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>k</v>
+        <v>t</v>
       </c>
       <c r="U30" s="6"/>
       <c r="V30" s="4"/>
@@ -20276,7 +20306,7 @@
       </c>
       <c r="T31" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T31" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>C</v>
+        <v>m</v>
       </c>
       <c r="U31" s="6"/>
       <c r="V31" s="4"/>
@@ -20300,9 +20330,9 @@
       <c r="S32" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="T32" s="4" cm="1">
+      <c r="T32" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T32" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>2</v>
+        <v>W</v>
       </c>
       <c r="U32" s="6"/>
       <c r="V32" s="4"/>
@@ -20328,7 +20358,7 @@
       </c>
       <c r="T33" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T33" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>n</v>
+        <v>i</v>
       </c>
       <c r="U33" s="6"/>
       <c r="V33" s="4"/>
@@ -20354,7 +20384,7 @@
       </c>
       <c r="T34" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T34" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>s</v>
+        <v>j</v>
       </c>
       <c r="U34" s="6"/>
       <c r="V34" s="4"/>
@@ -20380,7 +20410,7 @@
       </c>
       <c r="T35" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T35" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>a</v>
+        <v>t</v>
       </c>
       <c r="U35" s="6"/>
       <c r="V35" s="4"/>
@@ -20406,7 +20436,7 @@
       </c>
       <c r="T36" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T36" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>S</v>
+        <v>X</v>
       </c>
       <c r="U36" s="6"/>
       <c r="V36" s="4"/>
@@ -20432,11 +20462,11 @@
       </c>
       <c r="T37" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T37" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>I</v>
+        <v>x</v>
       </c>
       <c r="U37" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T44)</f>
-        <v>kC2nsaSIvdwrbRU</v>
+        <v>tmWijtXxJExy*Es</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
@@ -20461,11 +20491,11 @@
       </c>
       <c r="T38" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T38" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>v</v>
+        <v>J</v>
       </c>
       <c r="U38" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T45)</f>
-        <v>kC2nsaSIvdwrbRUw</v>
+        <v>tmWijtXxJExy*Es4</v>
       </c>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
@@ -20487,11 +20517,11 @@
       </c>
       <c r="T39" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T39" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>d</v>
+        <v>E</v>
       </c>
       <c r="U39" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T46)</f>
-        <v>kC2nsaSIvdwrbRUwS</v>
+        <v>tmWijtXxJExy*Es4Y</v>
       </c>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
@@ -20513,11 +20543,11 @@
       </c>
       <c r="T40" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T40" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>w</v>
+        <v>x</v>
       </c>
       <c r="U40" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T47)</f>
-        <v>kC2nsaSIvdwrbRUwSW</v>
+        <v>tmWijtXxJExy*Es4YL</v>
       </c>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
@@ -20539,11 +20569,11 @@
       </c>
       <c r="T41" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T41" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>r</v>
+        <v>y</v>
       </c>
       <c r="U41" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T48)</f>
-        <v>kC2nsaSIvdwrbRUwSWd</v>
+        <v>tmWijtXxJExy*Es4YLn</v>
       </c>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
@@ -20565,11 +20595,11 @@
       </c>
       <c r="T42" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T42" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>b</v>
+        <v>*</v>
       </c>
       <c r="U42" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T49)</f>
-        <v>kC2nsaSIvdwrbRUwSWdm</v>
+        <v>tmWijtXxJExy*Es4YLnY</v>
       </c>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
@@ -20591,11 +20621,11 @@
       </c>
       <c r="T43" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T43" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>R</v>
+        <v>E</v>
       </c>
       <c r="U43" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T50)</f>
-        <v>kC2nsaSIvdwrbRUwSWdmO</v>
+        <v>tmWijtXxJExy*Es4YLnYv</v>
       </c>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
@@ -20617,11 +20647,11 @@
       </c>
       <c r="T44" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T44" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>U</v>
+        <v>s</v>
       </c>
       <c r="U44" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T51)</f>
-        <v>kC2nsaSIvdwrbRUwSWdmOF</v>
+        <v>tmWijtXxJExy*Es4YLnYv9</v>
       </c>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
@@ -20641,13 +20671,13 @@
       <c r="S45" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="T45" s="4" t="str" cm="1">
+      <c r="T45" s="4" cm="1">
         <f t="array" aca="1" ref="T45" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>w</v>
+        <v>4</v>
       </c>
       <c r="U45" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T52)</f>
-        <v>kC2nsaSIvdwrbRUwSWdmOF@</v>
+        <v>tmWijtXxJExy*Es4YLnYv9w</v>
       </c>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
@@ -20669,11 +20699,11 @@
       </c>
       <c r="T46" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T46" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>S</v>
+        <v>Y</v>
       </c>
       <c r="U46" s="6" t="str">
         <f ca="1">_xlfn.CONCAT($T$30:T53)</f>
-        <v>kC2nsaSIvdwrbRUwSWdmOF@o</v>
+        <v>tmWijtXxJExy*Es4YLnYv9wO</v>
       </c>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
@@ -20695,7 +20725,7 @@
       </c>
       <c r="T47" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T47" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>W</v>
+        <v>L</v>
       </c>
       <c r="U47" s="6"/>
       <c r="V47" s="4"/>
@@ -20718,7 +20748,7 @@
       </c>
       <c r="T48" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T48" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>d</v>
+        <v>n</v>
       </c>
       <c r="U48" s="6"/>
       <c r="V48" s="4"/>
@@ -20741,7 +20771,7 @@
       </c>
       <c r="T49" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T49" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>m</v>
+        <v>Y</v>
       </c>
       <c r="U49" s="6"/>
       <c r="V49" s="4"/>
@@ -20764,7 +20794,7 @@
       </c>
       <c r="T50" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T50" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>O</v>
+        <v>v</v>
       </c>
       <c r="U50" s="6"/>
       <c r="V50" s="4"/>
@@ -20785,9 +20815,9 @@
       <c r="S51" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="T51" s="4" t="str" cm="1">
+      <c r="T51" s="4" cm="1">
         <f t="array" aca="1" ref="T51" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>F</v>
+        <v>9</v>
       </c>
       <c r="U51" s="6"/>
       <c r="V51" s="4"/>
@@ -20810,7 +20840,7 @@
       </c>
       <c r="T52" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T52" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>@</v>
+        <v>w</v>
       </c>
       <c r="U52" s="6"/>
       <c r="V52" s="4"/>
@@ -20833,7 +20863,7 @@
       </c>
       <c r="T53" s="4" t="str" cm="1">
         <f t="array" aca="1" ref="T53" ca="1">INDEX($S$3:$S$72,RANDBETWEEN(1,COUNTA($S$3:$S$72)),1)</f>
-        <v>o</v>
+        <v>O</v>
       </c>
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
@@ -34996,18 +35026,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -35029,6 +35059,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F957795-5A4E-4E04-BFAB-7B388D638E5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49942C0E-E08D-4759-9E7E-944B12612524}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -35044,14 +35082,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F957795-5A4E-4E04-BFAB-7B388D638E5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=userCustomization/customUI.xml><?xml version="1.0" encoding="utf-8"?>
 <mso:customUI xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui">
   <mso:ribbon>
